--- a/Jogos_da_Semana_FlashScore_2025-02-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-16.xlsx
@@ -713,25 +713,25 @@
         <v>1.01</v>
       </c>
       <c r="N2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O2" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="P2" t="n">
         <v>6.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R2" t="n">
         <v>3.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="T2" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="U2" t="n">
         <v>1.2</v>
@@ -764,7 +764,7 @@
         <v>26</v>
       </c>
       <c r="AE2" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AF2" t="n">
         <v>17</v>
@@ -1149,10 +1149,10 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.8</v>
+        <v>1.86</v>
       </c>
       <c r="R5" t="n">
-        <v>1.98</v>
+        <v>2.04</v>
       </c>
       <c r="S5" t="n">
         <v>3.2</v>
@@ -1431,10 +1431,10 @@
         <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>1.99</v>
+        <v>2.06</v>
       </c>
       <c r="R7" t="n">
-        <v>1.79</v>
+        <v>1.84</v>
       </c>
       <c r="S7" t="n">
         <v>3.5</v>
@@ -1713,10 +1713,10 @@
         <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.49</v>
+        <v>1.53</v>
       </c>
       <c r="R9" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="S9" t="n">
         <v>2.3</v>
@@ -1837,7 +1837,7 @@
         <v>7.5</v>
       </c>
       <c r="J10" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="K10" t="n">
         <v>2.75</v>
@@ -1858,7 +1858,7 @@
         <v>6.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="R10" t="n">
         <v>3</v>
@@ -1984,7 +1984,7 @@
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="M11" t="n">
         <v>1.05</v>
@@ -2119,7 +2119,7 @@
         <v>3.75</v>
       </c>
       <c r="J12" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="K12" t="n">
         <v>2.2</v>
@@ -2128,10 +2128,10 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
         <v>1.29</v>
@@ -2281,10 +2281,10 @@
         <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R13" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S13" t="n">
         <v>4.33</v>
@@ -2443,7 +2443,7 @@
         <v>2</v>
       </c>
       <c r="X14" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Y14" t="n">
         <v>6</v>
@@ -2548,7 +2548,7 @@
         <v>2.25</v>
       </c>
       <c r="L15" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="M15" t="n">
         <v>1.04</v>
@@ -2581,7 +2581,7 @@
         <v>3.25</v>
       </c>
       <c r="W15" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X15" t="n">
         <v>2.2</v>
@@ -2689,13 +2689,13 @@
         <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
       </c>
       <c r="N16" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O16" t="n">
         <v>1.33</v>
@@ -2722,10 +2722,10 @@
         <v>2.63</v>
       </c>
       <c r="W16" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="X16" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Y16" t="n">
         <v>10</v>
@@ -2845,10 +2845,10 @@
         <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R17" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S17" t="n">
         <v>3.25</v>
@@ -2863,10 +2863,10 @@
         <v>3</v>
       </c>
       <c r="W17" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="X17" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y17" t="n">
         <v>6.5</v>
@@ -2965,7 +2965,7 @@
         <v>7.5</v>
       </c>
       <c r="J18" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="K18" t="n">
         <v>2.75</v>
@@ -2986,10 +2986,10 @@
         <v>6</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="R18" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="S18" t="n">
         <v>2</v>
@@ -3004,7 +3004,7 @@
         <v>4</v>
       </c>
       <c r="W18" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X18" t="n">
         <v>2.05</v>
@@ -3106,7 +3106,7 @@
         <v>3.1</v>
       </c>
       <c r="J19" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K19" t="n">
         <v>2.25</v>
@@ -3145,7 +3145,7 @@
         <v>3</v>
       </c>
       <c r="W19" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X19" t="n">
         <v>2.2</v>
@@ -3247,10 +3247,10 @@
         <v>11</v>
       </c>
       <c r="J20" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="K20" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="L20" t="n">
         <v>9</v>
@@ -3286,10 +3286,10 @@
         <v>4</v>
       </c>
       <c r="W20" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="X20" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y20" t="n">
         <v>9.5</v>
@@ -3397,28 +3397,28 @@
         <v>2.4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="O21" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P21" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="R21" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S21" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T21" t="n">
-        <v>1.19</v>
+        <v>1.2</v>
       </c>
       <c r="U21" t="n">
         <v>1.5</v>
@@ -3430,7 +3430,7 @@
         <v>2.1</v>
       </c>
       <c r="X21" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Y21" t="n">
         <v>11</v>
@@ -3538,13 +3538,13 @@
         <v>2.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N22" t="n">
         <v>9</v>
       </c>
       <c r="O22" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -3559,7 +3559,7 @@
         <v>4</v>
       </c>
       <c r="T22" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U22" t="n">
         <v>1.5</v>
@@ -3568,10 +3568,10 @@
         <v>2.5</v>
       </c>
       <c r="W22" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="X22" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y22" t="n">
         <v>9.5</v>
@@ -3679,16 +3679,16 @@
         <v>6</v>
       </c>
       <c r="M23" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N23" t="n">
         <v>7</v>
       </c>
       <c r="O23" t="n">
-        <v>1.46</v>
+        <v>1.5</v>
       </c>
       <c r="P23" t="n">
-        <v>2.57</v>
+        <v>2.63</v>
       </c>
       <c r="Q23" t="n">
         <v>2.5</v>
@@ -3700,7 +3700,7 @@
         <v>4.5</v>
       </c>
       <c r="T23" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="U23" t="n">
         <v>1.53</v>
@@ -3712,7 +3712,7 @@
         <v>2.25</v>
       </c>
       <c r="X23" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Y23" t="n">
         <v>5</v>
@@ -3824,16 +3824,16 @@
         <v>3.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N24" t="n">
         <v>7</v>
       </c>
       <c r="O24" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P24" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="Q24" t="n">
         <v>2.38</v>
@@ -3845,7 +3845,7 @@
         <v>4.5</v>
       </c>
       <c r="T24" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="U24" t="n">
         <v>1.53</v>
@@ -3857,7 +3857,7 @@
         <v>2</v>
       </c>
       <c r="X24" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Y24" t="n">
         <v>6.5</v>
@@ -3951,13 +3951,13 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.1</v>
+        <v>3.3</v>
       </c>
       <c r="H25" t="n">
         <v>2.8</v>
       </c>
       <c r="I25" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J25" t="n">
         <v>4</v>
@@ -3966,16 +3966,16 @@
         <v>1.83</v>
       </c>
       <c r="L25" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N25" t="n">
         <v>5.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="P25" t="n">
         <v>2.25</v>
@@ -3990,7 +3990,7 @@
         <v>6</v>
       </c>
       <c r="T25" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="U25" t="n">
         <v>1.67</v>
@@ -4002,13 +4002,13 @@
         <v>2.25</v>
       </c>
       <c r="X25" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Y25" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA25" t="n">
         <v>13</v>
@@ -4029,7 +4029,7 @@
         <v>5.5</v>
       </c>
       <c r="AG25" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH25" t="n">
         <v>81</v>
@@ -4041,7 +4041,7 @@
         <v>6</v>
       </c>
       <c r="AK25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL25" t="n">
         <v>11</v>
@@ -4050,7 +4050,7 @@
         <v>26</v>
       </c>
       <c r="AN25" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO25" t="n">
         <v>41</v>
@@ -4100,13 +4100,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H26" t="n">
         <v>3.8</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="J26" t="n">
         <v>2.1</v>
@@ -4118,13 +4118,13 @@
         <v>7</v>
       </c>
       <c r="M26" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N26" t="n">
         <v>8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -4139,7 +4139,7 @@
         <v>3.75</v>
       </c>
       <c r="T26" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U26" t="n">
         <v>1.44</v>
@@ -4151,7 +4151,7 @@
         <v>2.2</v>
       </c>
       <c r="X26" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Y26" t="n">
         <v>5.5</v>
@@ -4282,7 +4282,7 @@
         <v>3.1</v>
       </c>
       <c r="R27" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S27" t="n">
         <v>6.5</v>
@@ -4336,7 +4336,7 @@
         <v>101</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK27" t="n">
         <v>19</v>
@@ -4419,7 +4419,7 @@
         <v>1.08</v>
       </c>
       <c r="N28" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O28" t="n">
         <v>1.4</v>
@@ -4431,7 +4431,7 @@
         <v>2.25</v>
       </c>
       <c r="R28" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S28" t="n">
         <v>4.33</v>
@@ -4580,7 +4580,7 @@
         <v>3.4</v>
       </c>
       <c r="R29" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S29" t="n">
         <v>7</v>
@@ -4725,7 +4725,7 @@
         <v>3.1</v>
       </c>
       <c r="R30" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="S30" t="n">
         <v>6.5</v>
@@ -4870,7 +4870,7 @@
         <v>3.4</v>
       </c>
       <c r="R31" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="S31" t="n">
         <v>7</v>
@@ -5854,13 +5854,13 @@
         <v>2.88</v>
       </c>
       <c r="M38" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N38" t="n">
         <v>10</v>
       </c>
       <c r="O38" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P38" t="n">
         <v>3.4</v>
@@ -5875,7 +5875,7 @@
         <v>3.5</v>
       </c>
       <c r="T38" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U38" t="n">
         <v>1.4</v>
@@ -5995,13 +5995,13 @@
         <v>4.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N39" t="n">
         <v>11</v>
       </c>
       <c r="O39" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P39" t="n">
         <v>3.75</v>
@@ -6016,7 +6016,7 @@
         <v>3.25</v>
       </c>
       <c r="T39" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U39" t="n">
         <v>1.4</v>
@@ -6136,28 +6136,28 @@
         <v>3.4</v>
       </c>
       <c r="M40" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
         <v>11</v>
       </c>
       <c r="O40" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P40" t="n">
         <v>3.75</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R40" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S40" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T40" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="U40" t="n">
         <v>1.4</v>
@@ -6551,13 +6551,13 @@
         <v>6</v>
       </c>
       <c r="M43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P43" t="n">
         <v>4</v>
@@ -6572,7 +6572,7 @@
         <v>2.75</v>
       </c>
       <c r="T43" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U43" t="n">
         <v>1.33</v>
@@ -6674,7 +6674,7 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.52</v>
+        <v>1.55</v>
       </c>
       <c r="H44" t="n">
         <v>4.33</v>
@@ -6845,10 +6845,10 @@
         <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.92</v>
+        <v>1.98</v>
       </c>
       <c r="R45" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S45" t="n">
         <v>3.4</v>
@@ -6986,10 +6986,10 @@
         <v>4.33</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R46" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S46" t="n">
         <v>2.63</v>
@@ -7103,7 +7103,7 @@
         <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="J47" t="n">
         <v>4</v>
@@ -7268,10 +7268,10 @@
         <v>3.5</v>
       </c>
       <c r="Q48" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="R48" t="n">
-        <v>1.84</v>
+        <v>1.9</v>
       </c>
       <c r="S48" t="n">
         <v>3.25</v>
@@ -7484,10 +7484,10 @@
         <v>21</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr"/>
@@ -7524,16 +7524,16 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="H50" t="n">
         <v>3.6</v>
       </c>
       <c r="I50" t="n">
-        <v>5.25</v>
+        <v>5.75</v>
       </c>
       <c r="J50" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K50" t="n">
         <v>2.2</v>
@@ -7572,10 +7572,10 @@
         <v>2.75</v>
       </c>
       <c r="W50" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X50" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y50" t="n">
         <v>6.5</v>
@@ -7590,7 +7590,7 @@
         <v>12</v>
       </c>
       <c r="AC50" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD50" t="n">
         <v>29</v>
@@ -7614,7 +7614,7 @@
         <v>13</v>
       </c>
       <c r="AK50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL50" t="n">
         <v>17</v>
@@ -7824,10 +7824,10 @@
         <v>6.5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N52" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O52" t="n">
         <v>1.3</v>
@@ -7947,16 +7947,16 @@
         </is>
       </c>
       <c r="G53" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="H53" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I53" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="J53" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K53" t="n">
         <v>2.2</v>
@@ -7965,10 +7965,10 @@
         <v>2.2</v>
       </c>
       <c r="M53" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N53" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O53" t="n">
         <v>1.29</v>
@@ -7995,16 +7995,16 @@
         <v>2.75</v>
       </c>
       <c r="W53" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X53" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y53" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z53" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA53" t="n">
         <v>17</v>
@@ -8022,22 +8022,22 @@
         <v>10</v>
       </c>
       <c r="AF53" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG53" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH53" t="n">
         <v>51</v>
       </c>
       <c r="AI53" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ53" t="n">
         <v>6.5</v>
       </c>
       <c r="AK53" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AL53" t="n">
         <v>8.5</v>
@@ -8058,7 +8058,7 @@
         <v>1.46</v>
       </c>
       <c r="AR53" t="n">
-        <v>1.47</v>
+        <v>1.48</v>
       </c>
       <c r="AS53" t="n">
         <v>2.6</v>
@@ -8114,10 +8114,10 @@
         <v>2.6</v>
       </c>
       <c r="M54" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O54" t="n">
         <v>1.25</v>
@@ -8201,7 +8201,7 @@
         <v>23</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.38</v>
+        <v>2.39</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.56</v>
@@ -8210,7 +8210,7 @@
         <v>1.39</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
     </row>
     <row r="55">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="G55" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="H55" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I55" t="n">
         <v>2.6</v>
-      </c>
-      <c r="H55" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2.7</v>
       </c>
       <c r="J55" t="n">
         <v>3.6</v>
       </c>
       <c r="K55" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L55" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M55" t="n">
         <v>1.11</v>
@@ -8269,22 +8269,22 @@
         <v>6.5</v>
       </c>
       <c r="O55" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="P55" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R55" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S55" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="T55" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="U55" t="n">
         <v>1.62</v>
@@ -8293,22 +8293,22 @@
         <v>2.2</v>
       </c>
       <c r="W55" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X55" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y55" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA55" t="n">
         <v>11</v>
       </c>
       <c r="AB55" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC55" t="n">
         <v>29</v>
@@ -8332,34 +8332,34 @@
         <v>101</v>
       </c>
       <c r="AJ55" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK55" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL55" t="n">
         <v>11</v>
       </c>
       <c r="AM55" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN55" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO55" t="n">
         <v>41</v>
       </c>
       <c r="AP55" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.2</v>
+        <v>1.21</v>
       </c>
       <c r="AR55" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="56">
@@ -9107,109 +9107,109 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.4</v>
+        <v>5.1</v>
       </c>
       <c r="H61" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I61" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="J61" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="K61" t="n">
         <v>2.15</v>
       </c>
       <c r="L61" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="M61" t="n">
         <v>1.06</v>
       </c>
       <c r="N61" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="O61" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="P61" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="R61" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S61" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="T61" t="n">
-        <v>1.32</v>
+        <v>1.34</v>
       </c>
       <c r="U61" t="n">
         <v>1.42</v>
       </c>
       <c r="V61" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="W61" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="X61" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y61" t="n">
+        <v>12.5</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>32</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>110</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>60</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>60</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>18</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>90</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>800</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM61" t="n">
         <v>13</v>
-      </c>
-      <c r="Z61" t="n">
-        <v>35</v>
-      </c>
-      <c r="AA61" t="n">
-        <v>18.5</v>
-      </c>
-      <c r="AB61" t="n">
-        <v>120</v>
-      </c>
-      <c r="AC61" t="n">
-        <v>65</v>
-      </c>
-      <c r="AD61" t="n">
-        <v>65</v>
-      </c>
-      <c r="AE61" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AF61" t="n">
-        <v>7.7</v>
-      </c>
-      <c r="AG61" t="n">
-        <v>19</v>
-      </c>
-      <c r="AH61" t="n">
-        <v>100</v>
-      </c>
-      <c r="AI61" t="n">
-        <v>900</v>
-      </c>
-      <c r="AJ61" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="AK61" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AL61" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AM61" t="n">
-        <v>12.5</v>
       </c>
       <c r="AN61" t="n">
         <v>14</v>
       </c>
       <c r="AO61" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AP61" t="inlineStr"/>
       <c r="AQ61" t="inlineStr"/>
@@ -9389,7 +9389,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H63" t="n">
         <v>3.5</v>
@@ -9437,7 +9437,7 @@
         <v>3</v>
       </c>
       <c r="W63" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X63" t="n">
         <v>2.05</v>
@@ -9536,7 +9536,7 @@
         <v>3.4</v>
       </c>
       <c r="I64" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="J64" t="n">
         <v>4.33</v>
@@ -9545,7 +9545,7 @@
         <v>2.1</v>
       </c>
       <c r="L64" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="M64" t="n">
         <v>1.06</v>
@@ -9578,10 +9578,10 @@
         <v>2.75</v>
       </c>
       <c r="W64" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="X64" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Y64" t="n">
         <v>11</v>
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.24</v>
+        <v>1.27</v>
       </c>
       <c r="H65" t="n">
         <v>5.25</v>
@@ -9680,10 +9680,10 @@
         <v>11</v>
       </c>
       <c r="J65" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="K65" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="L65" t="n">
         <v>8.5</v>
@@ -9722,7 +9722,7 @@
         <v>2</v>
       </c>
       <c r="X65" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="Y65" t="n">
         <v>8</v>
@@ -9740,7 +9740,7 @@
         <v>11</v>
       </c>
       <c r="AD65" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE65" t="n">
         <v>15</v>
@@ -9767,13 +9767,13 @@
         <v>29</v>
       </c>
       <c r="AM65" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AN65" t="n">
         <v>67</v>
       </c>
       <c r="AO65" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP65" t="n">
         <v>1.98</v>
@@ -9822,7 +9822,7 @@
         <v>3.9</v>
       </c>
       <c r="I66" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="J66" t="n">
         <v>4.33</v>
@@ -9864,10 +9864,10 @@
         <v>3.5</v>
       </c>
       <c r="W66" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X66" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="Y66" t="n">
         <v>17</v>
@@ -9961,7 +9961,7 @@
         </is>
       </c>
       <c r="G67" t="n">
-        <v>1.66</v>
+        <v>1.7</v>
       </c>
       <c r="H67" t="n">
         <v>3.7</v>
@@ -9982,7 +9982,7 @@
         <v>1.04</v>
       </c>
       <c r="N67" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O67" t="n">
         <v>1.22</v>
@@ -10009,7 +10009,7 @@
         <v>3.25</v>
       </c>
       <c r="W67" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X67" t="n">
         <v>2.05</v>
@@ -10108,7 +10108,7 @@
         <v>3.7</v>
       </c>
       <c r="I68" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="J68" t="n">
         <v>5</v>
@@ -10117,7 +10117,7 @@
         <v>2.2</v>
       </c>
       <c r="L68" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="M68" t="n">
         <v>1.05</v>
@@ -10150,10 +10150,10 @@
         <v>2.75</v>
       </c>
       <c r="W68" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="X68" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="Y68" t="n">
         <v>12</v>
@@ -10252,7 +10252,7 @@
         <v>6.5</v>
       </c>
       <c r="J69" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="K69" t="n">
         <v>2.5</v>
@@ -10397,7 +10397,7 @@
         <v>8.5</v>
       </c>
       <c r="J70" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="K70" t="n">
         <v>2.4</v>
@@ -10692,10 +10692,10 @@
         <v>3.5</v>
       </c>
       <c r="M72" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N72" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O72" t="n">
         <v>1.33</v>
@@ -11421,7 +11421,7 @@
         <v>1.4</v>
       </c>
       <c r="U77" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V77" t="n">
         <v>3.25</v>
@@ -11562,7 +11562,7 @@
         <v>1.44</v>
       </c>
       <c r="U78" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V78" t="n">
         <v>3.25</v>
@@ -11661,13 +11661,13 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H79" t="n">
         <v>3.7</v>
       </c>
       <c r="I79" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J79" t="n">
         <v>2.6</v>
@@ -11676,7 +11676,7 @@
         <v>2.4</v>
       </c>
       <c r="L79" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M79" t="n">
         <v>1.03</v>
@@ -11703,7 +11703,7 @@
         <v>1.53</v>
       </c>
       <c r="U79" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V79" t="n">
         <v>3.5</v>
@@ -11757,7 +11757,7 @@
         <v>12</v>
       </c>
       <c r="AM79" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN79" t="n">
         <v>23</v>
@@ -11848,7 +11848,7 @@
         <v>1.44</v>
       </c>
       <c r="U80" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V80" t="n">
         <v>3.25</v>
@@ -11947,7 +11947,7 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H81" t="n">
         <v>3.7</v>
@@ -11962,13 +11962,13 @@
         <v>2.38</v>
       </c>
       <c r="L81" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M81" t="n">
         <v>1.03</v>
       </c>
       <c r="N81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O81" t="n">
         <v>1.17</v>
@@ -12004,7 +12004,7 @@
         <v>11</v>
       </c>
       <c r="Z81" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA81" t="n">
         <v>9</v>
@@ -12049,7 +12049,7 @@
         <v>21</v>
       </c>
       <c r="AO81" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP81" t="n">
         <v>1.98</v>
@@ -12092,7 +12092,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H82" t="n">
         <v>4.2</v>
@@ -12338,10 +12338,10 @@
         <v>41</v>
       </c>
       <c r="AP83" t="n">
-        <v>4.3</v>
+        <v>4.2</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.22</v>
+        <v>1.23</v>
       </c>
       <c r="AR83" t="n">
         <v>1.98</v>
@@ -12382,7 +12382,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H84" t="n">
         <v>5.5</v>
@@ -12397,13 +12397,13 @@
         <v>2.5</v>
       </c>
       <c r="L84" t="n">
+        <v>10</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N84" t="n">
         <v>11</v>
-      </c>
-      <c r="M84" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N84" t="n">
-        <v>10</v>
       </c>
       <c r="O84" t="n">
         <v>1.25</v>
@@ -12430,10 +12430,10 @@
         <v>3</v>
       </c>
       <c r="W84" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X84" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y84" t="n">
         <v>6</v>
@@ -12454,10 +12454,10 @@
         <v>34</v>
       </c>
       <c r="AE84" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF84" t="n">
         <v>10</v>
-      </c>
-      <c r="AF84" t="n">
-        <v>11</v>
       </c>
       <c r="AG84" t="n">
         <v>29</v>
@@ -12469,7 +12469,7 @@
         <v>101</v>
       </c>
       <c r="AJ84" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK84" t="n">
         <v>51</v>
@@ -12481,7 +12481,7 @@
         <v>151</v>
       </c>
       <c r="AN84" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AO84" t="n">
         <v>81</v>
@@ -12537,7 +12537,7 @@
         <v>6.25</v>
       </c>
       <c r="I85" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="J85" t="n">
         <v>13</v>
@@ -12680,7 +12680,7 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="H86" t="n">
         <v>7</v>
@@ -12996,13 +12996,13 @@
         <v>4.33</v>
       </c>
       <c r="M88" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N88" t="n">
         <v>11</v>
       </c>
       <c r="O88" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P88" t="n">
         <v>3.75</v>
@@ -13017,7 +13017,7 @@
         <v>3.25</v>
       </c>
       <c r="T88" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U88" t="n">
         <v>1.4</v>
@@ -13026,7 +13026,7 @@
         <v>2.75</v>
       </c>
       <c r="W88" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="X88" t="n">
         <v>2</v>
@@ -13137,16 +13137,16 @@
         <v>5.5</v>
       </c>
       <c r="M89" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N89" t="n">
         <v>15</v>
       </c>
       <c r="O89" t="n">
-        <v>1.17</v>
+        <v>1.15</v>
       </c>
       <c r="P89" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q89" t="n">
         <v>1.6</v>
@@ -13158,7 +13158,7 @@
         <v>2.5</v>
       </c>
       <c r="T89" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U89" t="n">
         <v>1.29</v>
@@ -13167,7 +13167,7 @@
         <v>3.5</v>
       </c>
       <c r="W89" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X89" t="n">
         <v>2.1</v>
@@ -13282,13 +13282,13 @@
         <v>2.63</v>
       </c>
       <c r="M90" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N90" t="n">
         <v>13</v>
       </c>
       <c r="O90" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P90" t="n">
         <v>4.33</v>
@@ -13300,10 +13300,10 @@
         <v>2.1</v>
       </c>
       <c r="S90" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T90" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U90" t="n">
         <v>1.36</v>
@@ -13312,7 +13312,7 @@
         <v>3</v>
       </c>
       <c r="W90" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X90" t="n">
         <v>2.1</v>
@@ -13834,13 +13834,13 @@
         <v>3.25</v>
       </c>
       <c r="M94" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N94" t="n">
         <v>11</v>
       </c>
       <c r="O94" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P94" t="n">
         <v>3.4</v>
@@ -13855,7 +13855,7 @@
         <v>3.4</v>
       </c>
       <c r="T94" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U94" t="n">
         <v>1.4</v>
@@ -13864,7 +13864,7 @@
         <v>2.75</v>
       </c>
       <c r="W94" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="X94" t="n">
         <v>2</v>
@@ -13975,13 +13975,13 @@
         <v>10</v>
       </c>
       <c r="M95" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N95" t="n">
         <v>21</v>
       </c>
       <c r="O95" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="P95" t="n">
         <v>5.5</v>
@@ -13996,7 +13996,7 @@
         <v>2.1</v>
       </c>
       <c r="T95" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="U95" t="n">
         <v>1.25</v>
@@ -14008,7 +14008,7 @@
         <v>2.1</v>
       </c>
       <c r="X95" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Y95" t="n">
         <v>8.5</v>
@@ -14102,10 +14102,10 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="H96" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="I96" t="n">
         <v>3.1</v>
@@ -14247,7 +14247,7 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.91</v>
+        <v>1.86</v>
       </c>
       <c r="H97" t="n">
         <v>3.1</v>
@@ -14392,7 +14392,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.75</v>
+        <v>1.71</v>
       </c>
       <c r="H98" t="n">
         <v>3.25</v>
@@ -14689,7 +14689,7 @@
         <v>2.1</v>
       </c>
       <c r="L100" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="M100" t="n">
         <v>1.06</v>
@@ -14815,7 +14815,7 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H101" t="n">
         <v>3.1</v>
@@ -14833,28 +14833,28 @@
         <v>4</v>
       </c>
       <c r="M101" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N101" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O101" t="n">
         <v>1.33</v>
       </c>
       <c r="P101" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R101" t="n">
-        <v>1.7</v>
+        <v>1.63</v>
       </c>
       <c r="S101" t="n">
         <v>3.75</v>
       </c>
       <c r="T101" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U101" t="n">
         <v>1.44</v>
@@ -14956,13 +14956,13 @@
         </is>
       </c>
       <c r="G102" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H102" t="n">
         <v>3.2</v>
       </c>
       <c r="I102" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="J102" t="n">
         <v>3.5</v>
@@ -14974,13 +14974,13 @@
         <v>3.25</v>
       </c>
       <c r="M102" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N102" t="n">
         <v>9</v>
       </c>
       <c r="O102" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P102" t="n">
         <v>3</v>
@@ -14989,13 +14989,13 @@
         <v>2.15</v>
       </c>
       <c r="R102" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S102" t="n">
         <v>3.75</v>
       </c>
       <c r="T102" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U102" t="n">
         <v>1.44</v>
@@ -15097,13 +15097,13 @@
         </is>
       </c>
       <c r="G103" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H103" t="n">
         <v>3.1</v>
       </c>
       <c r="I103" t="n">
-        <v>2.55</v>
+        <v>2.6</v>
       </c>
       <c r="J103" t="n">
         <v>3.75</v>
@@ -15115,13 +15115,13 @@
         <v>3.6</v>
       </c>
       <c r="M103" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N103" t="n">
         <v>7</v>
       </c>
       <c r="O103" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P103" t="n">
         <v>2.5</v>
@@ -15130,13 +15130,13 @@
         <v>2.6</v>
       </c>
       <c r="R103" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S103" t="n">
         <v>5.5</v>
       </c>
       <c r="T103" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="U103" t="n">
         <v>1.57</v>
@@ -15248,7 +15248,7 @@
         <v>3.3</v>
       </c>
       <c r="I104" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J104" t="n">
         <v>3.75</v>
@@ -15260,13 +15260,13 @@
         <v>3.1</v>
       </c>
       <c r="M104" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N104" t="n">
         <v>10</v>
       </c>
       <c r="O104" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P104" t="n">
         <v>3.25</v>
@@ -15275,13 +15275,13 @@
         <v>2.05</v>
       </c>
       <c r="R104" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S104" t="n">
         <v>3.75</v>
       </c>
       <c r="T104" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U104" t="n">
         <v>1.44</v>
@@ -15555,7 +15555,7 @@
         <v>4</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R107" t="n">
         <v>2</v>
@@ -15981,7 +15981,7 @@
         <v>2.05</v>
       </c>
       <c r="R110" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S110" t="n">
         <v>3.5</v>
@@ -16481,7 +16481,7 @@
         <v>1.57</v>
       </c>
       <c r="U115" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V115" t="n">
         <v>3.5</v>
@@ -16544,10 +16544,10 @@
         <v>19</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AQ115" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="AR115" t="inlineStr"/>
       <c r="AS115" t="inlineStr"/>
@@ -16626,7 +16626,7 @@
         <v>1.5</v>
       </c>
       <c r="U116" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="V116" t="n">
         <v>3.4</v>
@@ -16689,10 +16689,10 @@
         <v>41</v>
       </c>
       <c r="AP116" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AR116" t="inlineStr"/>
       <c r="AS116" t="inlineStr"/>
@@ -16771,10 +16771,10 @@
         <v>1.25</v>
       </c>
       <c r="U117" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="V117" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="W117" t="n">
         <v>2.2</v>
@@ -16912,10 +16912,10 @@
         <v>1.18</v>
       </c>
       <c r="U118" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V118" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="W118" t="n">
         <v>2.25</v>
@@ -17036,7 +17036,7 @@
         <v>1.03</v>
       </c>
       <c r="N119" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O119" t="n">
         <v>1.17</v>
@@ -17057,7 +17057,7 @@
         <v>1.53</v>
       </c>
       <c r="U119" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V119" t="n">
         <v>3.5</v>
@@ -17182,10 +17182,10 @@
         <v>3.4</v>
       </c>
       <c r="M120" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N120" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O120" t="n">
         <v>1.36</v>
@@ -17206,7 +17206,7 @@
         <v>1.22</v>
       </c>
       <c r="U120" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="V120" t="n">
         <v>2.5</v>
@@ -17361,10 +17361,10 @@
         <v>3.25</v>
       </c>
       <c r="W121" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="X121" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y121" t="n">
         <v>7</v>
@@ -17418,16 +17418,16 @@
         <v>41</v>
       </c>
       <c r="AP121" t="n">
-        <v>2.27</v>
+        <v>2.24</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.64</v>
+        <v>1.66</v>
       </c>
       <c r="AR121" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="AS121" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
     </row>
     <row r="122">
@@ -17510,7 +17510,7 @@
         <v>3</v>
       </c>
       <c r="W122" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X122" t="n">
         <v>2.1</v>
@@ -17609,7 +17609,7 @@
         <v>3.2</v>
       </c>
       <c r="I123" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="J123" t="n">
         <v>3.4</v>
@@ -17651,10 +17651,10 @@
         <v>2.63</v>
       </c>
       <c r="W123" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="X123" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Y123" t="n">
         <v>8.5</v>
@@ -17744,7 +17744,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="H124" t="n">
         <v>3.7</v>
@@ -17792,7 +17792,7 @@
         <v>3.4</v>
       </c>
       <c r="W124" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X124" t="n">
         <v>2.2</v>
@@ -18177,7 +18177,7 @@
         <v>3.75</v>
       </c>
       <c r="I127" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="J127" t="n">
         <v>4.5</v>
@@ -18459,7 +18459,7 @@
         <v>4.5</v>
       </c>
       <c r="I129" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="J129" t="n">
         <v>7.5</v>
@@ -18477,16 +18477,16 @@
         <v>11</v>
       </c>
       <c r="O129" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P129" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R129" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S129" t="n">
         <v>3.4</v>
@@ -19450,7 +19450,7 @@
         <v>3.75</v>
       </c>
       <c r="I136" t="n">
-        <v>1.68</v>
+        <v>1.73</v>
       </c>
       <c r="J136" t="n">
         <v>4.75</v>
@@ -19603,13 +19603,13 @@
         <v>3</v>
       </c>
       <c r="M137" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N137" t="n">
         <v>9</v>
       </c>
       <c r="O137" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P137" t="n">
         <v>3.2</v>
@@ -19624,7 +19624,7 @@
         <v>4</v>
       </c>
       <c r="T137" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U137" t="n">
         <v>1.44</v>
@@ -19870,19 +19870,19 @@
         <v>1.28</v>
       </c>
       <c r="H139" t="n">
-        <v>4.4</v>
+        <v>4.45</v>
       </c>
       <c r="I139" t="n">
-        <v>10.75</v>
+        <v>10.25</v>
       </c>
       <c r="J139" t="n">
         <v>1.78</v>
       </c>
       <c r="K139" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="L139" t="n">
-        <v>8.75</v>
+        <v>8.25</v>
       </c>
       <c r="M139" t="n">
         <v>1.05</v>
@@ -19894,25 +19894,25 @@
         <v>1.24</v>
       </c>
       <c r="P139" t="n">
-        <v>3.7</v>
+        <v>3.65</v>
       </c>
       <c r="Q139" t="n">
         <v>1.72</v>
       </c>
       <c r="R139" t="n">
-        <v>2.02</v>
+        <v>2</v>
       </c>
       <c r="S139" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T139" t="n">
         <v>1.4</v>
       </c>
       <c r="U139" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="V139" t="n">
-        <v>2.87</v>
+        <v>2.9</v>
       </c>
       <c r="W139" t="n">
         <v>2.15</v>
@@ -19927,7 +19927,7 @@
         <v>5.7</v>
       </c>
       <c r="AA139" t="n">
-        <v>8.5</v>
+        <v>8.75</v>
       </c>
       <c r="AB139" t="n">
         <v>7.6</v>
@@ -19945,7 +19945,7 @@
         <v>9.5</v>
       </c>
       <c r="AG139" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH139" t="n">
         <v>120</v>
@@ -19954,16 +19954,16 @@
         <v>1000</v>
       </c>
       <c r="AJ139" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AK139" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AL139" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AM139" t="n">
-        <v>450</v>
+        <v>400</v>
       </c>
       <c r="AN139" t="n">
         <v>150</v>
@@ -20853,41 +20853,111 @@
           <t>Anyang</t>
         </is>
       </c>
-      <c r="G146" t="inlineStr"/>
-      <c r="H146" t="inlineStr"/>
-      <c r="I146" t="inlineStr"/>
-      <c r="J146" t="inlineStr"/>
-      <c r="K146" t="inlineStr"/>
-      <c r="L146" t="inlineStr"/>
-      <c r="M146" t="inlineStr"/>
-      <c r="N146" t="inlineStr"/>
-      <c r="O146" t="inlineStr"/>
-      <c r="P146" t="inlineStr"/>
-      <c r="Q146" t="inlineStr"/>
-      <c r="R146" t="inlineStr"/>
-      <c r="S146" t="inlineStr"/>
-      <c r="T146" t="inlineStr"/>
-      <c r="U146" t="inlineStr"/>
-      <c r="V146" t="inlineStr"/>
-      <c r="W146" t="inlineStr"/>
-      <c r="X146" t="inlineStr"/>
-      <c r="Y146" t="inlineStr"/>
-      <c r="Z146" t="inlineStr"/>
-      <c r="AA146" t="inlineStr"/>
-      <c r="AB146" t="inlineStr"/>
-      <c r="AC146" t="inlineStr"/>
-      <c r="AD146" t="inlineStr"/>
-      <c r="AE146" t="inlineStr"/>
-      <c r="AF146" t="inlineStr"/>
-      <c r="AG146" t="inlineStr"/>
-      <c r="AH146" t="inlineStr"/>
-      <c r="AI146" t="inlineStr"/>
-      <c r="AJ146" t="inlineStr"/>
-      <c r="AK146" t="inlineStr"/>
-      <c r="AL146" t="inlineStr"/>
-      <c r="AM146" t="inlineStr"/>
-      <c r="AN146" t="inlineStr"/>
-      <c r="AO146" t="inlineStr"/>
+      <c r="G146" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="H146" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="I146" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L146" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M146" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N146" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="O146" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P146" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q146" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="R146" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S146" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T146" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="U146" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="V146" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W146" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="X146" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="Y146" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z146" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA146" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AB146" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AC146" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AD146" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE146" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AF146" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="AG146" t="n">
+        <v>20</v>
+      </c>
+      <c r="AH146" t="n">
+        <v>110</v>
+      </c>
+      <c r="AI146" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ146" t="n">
+        <v>13</v>
+      </c>
+      <c r="AK146" t="n">
+        <v>35</v>
+      </c>
+      <c r="AL146" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM146" t="n">
+        <v>120</v>
+      </c>
+      <c r="AN146" t="n">
+        <v>65</v>
+      </c>
+      <c r="AO146" t="n">
+        <v>70</v>
+      </c>
       <c r="AP146" t="inlineStr"/>
       <c r="AQ146" t="inlineStr"/>
       <c r="AR146" t="inlineStr"/>
@@ -21072,7 +21142,7 @@
         <v>3.25</v>
       </c>
       <c r="I148" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="J148" t="n">
         <v>3.1</v>
@@ -21207,7 +21277,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H149" t="n">
         <v>3.1</v>
@@ -21360,7 +21430,7 @@
         <v>3.4</v>
       </c>
       <c r="K150" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L150" t="n">
         <v>3.6</v>
@@ -21381,7 +21451,7 @@
         <v>2.4</v>
       </c>
       <c r="R150" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S150" t="n">
         <v>4.5</v>
@@ -21455,10 +21525,10 @@
       <c r="AP150" t="inlineStr"/>
       <c r="AQ150" t="inlineStr"/>
       <c r="AR150" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
     </row>
     <row r="151">
@@ -21505,7 +21575,7 @@
         <v>3.4</v>
       </c>
       <c r="K151" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L151" t="n">
         <v>3.75</v>
@@ -21526,7 +21596,7 @@
         <v>2.5</v>
       </c>
       <c r="R151" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S151" t="n">
         <v>5</v>
@@ -21600,10 +21670,10 @@
       <c r="AP151" t="inlineStr"/>
       <c r="AQ151" t="inlineStr"/>
       <c r="AR151" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.93</v>
+        <v>1.87</v>
       </c>
     </row>
     <row r="152">
@@ -21647,10 +21717,10 @@
         <v>4</v>
       </c>
       <c r="J152" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="K152" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L152" t="n">
         <v>4.75</v>
@@ -21671,7 +21741,7 @@
         <v>2.7</v>
       </c>
       <c r="R152" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S152" t="n">
         <v>5.5</v>
@@ -21745,10 +21815,10 @@
       <c r="AP152" t="inlineStr"/>
       <c r="AQ152" t="inlineStr"/>
       <c r="AR152" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
     </row>
     <row r="153">
@@ -21792,7 +21862,7 @@
         <v>5</v>
       </c>
       <c r="J153" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K153" t="n">
         <v>2.1</v>
@@ -21816,7 +21886,7 @@
         <v>2.1</v>
       </c>
       <c r="R153" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S153" t="n">
         <v>3.75</v>
@@ -22099,10 +22169,10 @@
         <v>4.33</v>
       </c>
       <c r="Q155" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="R155" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="S155" t="n">
         <v>2.63</v>
@@ -22633,22 +22703,22 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.45</v>
+        <v>2.38</v>
       </c>
       <c r="H159" t="n">
         <v>3.2</v>
       </c>
       <c r="I159" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="J159" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K159" t="n">
         <v>2.1</v>
       </c>
       <c r="L159" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M159" t="n">
         <v>1.07</v>
@@ -22690,10 +22760,10 @@
         <v>8</v>
       </c>
       <c r="Z159" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA159" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB159" t="n">
         <v>23</v>
@@ -22723,7 +22793,7 @@
         <v>9</v>
       </c>
       <c r="AK159" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL159" t="n">
         <v>11</v>
@@ -23509,10 +23579,10 @@
         <v>3.75</v>
       </c>
       <c r="Q165" t="n">
-        <v>1.79</v>
+        <v>1.85</v>
       </c>
       <c r="R165" t="n">
-        <v>1.94</v>
+        <v>2</v>
       </c>
       <c r="S165" t="n">
         <v>3</v>
@@ -23620,7 +23690,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="H166" t="n">
         <v>3.2</v>
@@ -23632,7 +23702,7 @@
         <v>3.4</v>
       </c>
       <c r="K166" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L166" t="n">
         <v>3.75</v>
@@ -23671,7 +23741,7 @@
         <v>2.1</v>
       </c>
       <c r="X166" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Y166" t="n">
         <v>6.5</v>
@@ -23765,7 +23835,7 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="H167" t="n">
         <v>3.2</v>
@@ -23816,7 +23886,7 @@
         <v>2.1</v>
       </c>
       <c r="X167" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Y167" t="n">
         <v>6</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-16.xlsx
@@ -716,22 +716,22 @@
         <v>23</v>
       </c>
       <c r="O2" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="P2" t="n">
         <v>6.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="R2" t="n">
         <v>3.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="T2" t="n">
-        <v>1.86</v>
+        <v>1.91</v>
       </c>
       <c r="U2" t="n">
         <v>1.2</v>
@@ -749,7 +749,7 @@
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA2" t="n">
         <v>10</v>
@@ -1263,7 +1263,7 @@
         <v>1.75</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
         <v>4.5</v>
@@ -1308,10 +1308,10 @@
         <v>3.25</v>
       </c>
       <c r="W6" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X6" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
@@ -1356,7 +1356,7 @@
         <v>15</v>
       </c>
       <c r="AM6" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN6" t="n">
         <v>34</v>
@@ -1545,10 +1545,10 @@
         <v>2.7</v>
       </c>
       <c r="H8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J8" t="n">
         <v>3.25</v>
@@ -1846,10 +1846,10 @@
         <v>6.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="O10" t="n">
         <v>1.11</v>
@@ -2017,19 +2017,19 @@
         <v>2.75</v>
       </c>
       <c r="W11" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X11" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="Y11" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z11" t="n">
         <v>19</v>
       </c>
       <c r="AA11" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB11" t="n">
         <v>41</v>
@@ -2128,10 +2128,10 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O12" t="n">
         <v>1.29</v>
@@ -2254,7 +2254,7 @@
         <v>2.7</v>
       </c>
       <c r="H13" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I13" t="n">
         <v>2.75</v>
@@ -2536,7 +2536,7 @@
         <v>3.5</v>
       </c>
       <c r="H15" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I15" t="n">
         <v>2.1</v>
@@ -2698,10 +2698,10 @@
         <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P16" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="Q16" t="n">
         <v>2.1</v>
@@ -3325,13 +3325,13 @@
         <v>301</v>
       </c>
       <c r="AJ20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK20" t="n">
         <v>51</v>
       </c>
       <c r="AL20" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AM20" t="n">
         <v>126</v>
@@ -3379,22 +3379,22 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="H21" t="n">
         <v>3.4</v>
       </c>
       <c r="I21" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J21" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L21" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="M21" t="n">
         <v>1.1</v>
@@ -3436,22 +3436,22 @@
         <v>11</v>
       </c>
       <c r="Z21" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AA21" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB21" t="n">
         <v>51</v>
       </c>
       <c r="AC21" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD21" t="n">
         <v>51</v>
       </c>
       <c r="AE21" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AF21" t="n">
         <v>6.5</v>
@@ -3812,7 +3812,7 @@
         <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J24" t="n">
         <v>3.2</v>
@@ -3821,7 +3821,7 @@
         <v>1.95</v>
       </c>
       <c r="L24" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M24" t="n">
         <v>1.1</v>
@@ -3863,7 +3863,7 @@
         <v>6.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA24" t="n">
         <v>10</v>
@@ -4103,7 +4103,7 @@
         <v>1.53</v>
       </c>
       <c r="H26" t="n">
-        <v>3.8</v>
+        <v>3.75</v>
       </c>
       <c r="I26" t="n">
         <v>7.5</v>
@@ -4136,10 +4136,10 @@
         <v>1.67</v>
       </c>
       <c r="S26" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U26" t="n">
         <v>1.44</v>
@@ -5695,13 +5695,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H37" t="n">
         <v>4.2</v>
       </c>
       <c r="I37" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
         <v>2.6</v>
@@ -5713,16 +5713,16 @@
         <v>3.4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O37" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="P37" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q37" t="n">
         <v>1.4</v>
@@ -5767,10 +5767,10 @@
         <v>17</v>
       </c>
       <c r="AE37" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AF37" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG37" t="n">
         <v>11</v>
@@ -5788,7 +5788,7 @@
         <v>21</v>
       </c>
       <c r="AL37" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM37" t="n">
         <v>34</v>
@@ -5836,13 +5836,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H38" t="n">
         <v>3.3</v>
       </c>
       <c r="I38" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J38" t="n">
         <v>3.75</v>
@@ -5857,7 +5857,7 @@
         <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O38" t="n">
         <v>1.3</v>
@@ -5884,13 +5884,13 @@
         <v>2.75</v>
       </c>
       <c r="W38" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X38" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y38" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z38" t="n">
         <v>17</v>
@@ -5908,19 +5908,19 @@
         <v>34</v>
       </c>
       <c r="AE38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG38" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH38" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI38" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ38" t="n">
         <v>8</v>
@@ -5935,10 +5935,10 @@
         <v>21</v>
       </c>
       <c r="AN38" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO38" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP38" t="inlineStr"/>
       <c r="AQ38" t="inlineStr"/>
@@ -6118,28 +6118,28 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H40" t="n">
         <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="J40" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K40" t="n">
         <v>2.2</v>
       </c>
       <c r="L40" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M40" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="O40" t="n">
         <v>1.25</v>
@@ -6160,10 +6160,10 @@
         <v>1.36</v>
       </c>
       <c r="U40" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V40" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W40" t="n">
         <v>1.67</v>
@@ -6175,7 +6175,7 @@
         <v>9</v>
       </c>
       <c r="Z40" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA40" t="n">
         <v>9.5</v>
@@ -6190,7 +6190,7 @@
         <v>26</v>
       </c>
       <c r="AE40" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF40" t="n">
         <v>6.5</v>
@@ -6557,10 +6557,10 @@
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P43" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q43" t="n">
         <v>1.7</v>
@@ -6569,10 +6569,10 @@
         <v>2.1</v>
       </c>
       <c r="S43" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T43" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U43" t="n">
         <v>1.33</v>
@@ -6986,10 +6986,10 @@
         <v>4.33</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="R46" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S46" t="n">
         <v>2.63</v>
@@ -7097,46 +7097,46 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H47" t="n">
         <v>3.4</v>
       </c>
       <c r="I47" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J47" t="n">
         <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L47" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="M47" t="n">
         <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O47" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P47" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="R47" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S47" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T47" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U47" t="n">
         <v>1.36</v>
@@ -7154,16 +7154,16 @@
         <v>12</v>
       </c>
       <c r="Z47" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA47" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB47" t="n">
         <v>41</v>
       </c>
       <c r="AC47" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD47" t="n">
         <v>34</v>
@@ -7190,7 +7190,7 @@
         <v>10</v>
       </c>
       <c r="AL47" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM47" t="n">
         <v>17</v>
@@ -7379,22 +7379,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="H49" t="n">
         <v>3.5</v>
       </c>
       <c r="I49" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="J49" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K49" t="n">
         <v>2.38</v>
       </c>
       <c r="L49" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M49" t="n">
         <v>1.03</v>
@@ -7436,13 +7436,13 @@
         <v>13</v>
       </c>
       <c r="Z49" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA49" t="n">
         <v>11</v>
       </c>
       <c r="AB49" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC49" t="n">
         <v>21</v>
@@ -7454,7 +7454,7 @@
         <v>17</v>
       </c>
       <c r="AF49" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG49" t="n">
         <v>11</v>
@@ -7466,7 +7466,7 @@
         <v>101</v>
       </c>
       <c r="AJ49" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK49" t="n">
         <v>13</v>
@@ -7475,10 +7475,10 @@
         <v>9.5</v>
       </c>
       <c r="AM49" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AO49" t="n">
         <v>21</v>
@@ -7524,7 +7524,7 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H50" t="n">
         <v>3.6</v>
@@ -7536,16 +7536,16 @@
         <v>2.25</v>
       </c>
       <c r="K50" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L50" t="n">
         <v>5.5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N50" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O50" t="n">
         <v>1.29</v>
@@ -7554,16 +7554,16 @@
         <v>3.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="R50" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="S50" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T50" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U50" t="n">
         <v>1.4</v>
@@ -7572,13 +7572,13 @@
         <v>2.75</v>
       </c>
       <c r="W50" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="X50" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y50" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="Z50" t="n">
         <v>7.5</v>
@@ -7593,10 +7593,10 @@
         <v>13</v>
       </c>
       <c r="AD50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF50" t="n">
         <v>7</v>
@@ -7608,10 +7608,10 @@
         <v>51</v>
       </c>
       <c r="AI50" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ50" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK50" t="n">
         <v>29</v>
@@ -7683,10 +7683,10 @@
         <v>11</v>
       </c>
       <c r="M51" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O51" t="n">
         <v>1.29</v>
@@ -7809,7 +7809,7 @@
         <v>1.53</v>
       </c>
       <c r="H52" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="I52" t="n">
         <v>5.75</v>
@@ -7824,10 +7824,10 @@
         <v>6.5</v>
       </c>
       <c r="M52" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N52" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O52" t="n">
         <v>1.3</v>
@@ -7905,7 +7905,7 @@
         <v>67</v>
       </c>
       <c r="AN52" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO52" t="n">
         <v>51</v>
@@ -8096,13 +8096,13 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="H54" t="n">
         <v>3.5</v>
       </c>
       <c r="I54" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="J54" t="n">
         <v>4</v>
@@ -8111,13 +8111,13 @@
         <v>2.2</v>
       </c>
       <c r="L54" t="n">
-        <v>2.6</v>
+        <v>2.75</v>
       </c>
       <c r="M54" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N54" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O54" t="n">
         <v>1.25</v>
@@ -8126,10 +8126,10 @@
         <v>3.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="R54" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S54" t="n">
         <v>3</v>
@@ -8150,25 +8150,25 @@
         <v>2.1</v>
       </c>
       <c r="Y54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z54" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA54" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AB54" t="n">
         <v>41</v>
       </c>
       <c r="AC54" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD54" t="n">
         <v>34</v>
       </c>
       <c r="AE54" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF54" t="n">
         <v>6.5</v>
@@ -8186,13 +8186,13 @@
         <v>8.5</v>
       </c>
       <c r="AK54" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL54" t="n">
         <v>9</v>
       </c>
       <c r="AM54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AN54" t="n">
         <v>15</v>
@@ -8210,7 +8210,7 @@
         <v>1.39</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.9</v>
+        <v>2.95</v>
       </c>
     </row>
     <row r="55">
@@ -8245,22 +8245,22 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.7</v>
+        <v>2.45</v>
       </c>
       <c r="H55" t="n">
         <v>3.25</v>
       </c>
       <c r="I55" t="n">
-        <v>2.6</v>
+        <v>2.88</v>
       </c>
       <c r="J55" t="n">
-        <v>3.6</v>
+        <v>3.4</v>
       </c>
       <c r="K55" t="n">
         <v>1.91</v>
       </c>
       <c r="L55" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M55" t="n">
         <v>1.11</v>
@@ -8287,10 +8287,10 @@
         <v>1.14</v>
       </c>
       <c r="U55" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="V55" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="W55" t="n">
         <v>2.2</v>
@@ -8299,19 +8299,19 @@
         <v>1.62</v>
       </c>
       <c r="Y55" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Z55" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA55" t="n">
         <v>11</v>
       </c>
       <c r="AB55" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC55" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AD55" t="n">
         <v>41</v>
@@ -8335,16 +8335,16 @@
         <v>6.5</v>
       </c>
       <c r="AK55" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AL55" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM55" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AN55" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO55" t="n">
         <v>41</v>
@@ -8356,10 +8356,10 @@
         <v>1.21</v>
       </c>
       <c r="AR55" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="56">
@@ -8702,22 +8702,22 @@
         <v>3.1</v>
       </c>
       <c r="M58" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N58" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O58" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P58" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R58" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="S58" t="n">
         <v>4</v>
@@ -8825,106 +8825,106 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="H59" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="I59" t="n">
-        <v>20</v>
+        <v>17.5</v>
       </c>
       <c r="J59" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="K59" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="L59" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="M59" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N59" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="O59" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="P59" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q59" t="n">
         <v>1.47</v>
       </c>
-      <c r="K59" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="L59" t="n">
-        <v>12</v>
-      </c>
-      <c r="M59" t="n">
-        <v>1.02</v>
-      </c>
-      <c r="N59" t="n">
-        <v>11</v>
-      </c>
-      <c r="O59" t="n">
-        <v>1.12</v>
-      </c>
-      <c r="P59" t="n">
-        <v>5.6</v>
-      </c>
-      <c r="Q59" t="n">
-        <v>1.4</v>
-      </c>
       <c r="R59" t="n">
-        <v>2.82</v>
+        <v>2.57</v>
       </c>
       <c r="S59" t="n">
-        <v>1.95</v>
+        <v>2.07</v>
       </c>
       <c r="T59" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="U59" t="n">
-        <v>1.24</v>
+        <v>1.26</v>
       </c>
       <c r="V59" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="W59" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="X59" t="n">
-        <v>1.65</v>
+        <v>1.6</v>
       </c>
       <c r="Y59" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z59" t="n">
-        <v>6.9</v>
+        <v>6.5</v>
       </c>
       <c r="AA59" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AB59" t="n">
         <v>7</v>
       </c>
       <c r="AC59" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AD59" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AE59" t="n">
-        <v>11</v>
+        <v>10.5</v>
       </c>
       <c r="AF59" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AG59" t="n">
         <v>35</v>
       </c>
       <c r="AH59" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AI59" t="n">
         <v>1250</v>
       </c>
       <c r="AJ59" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AK59" t="n">
-        <v>250</v>
+        <v>200</v>
       </c>
       <c r="AL59" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AM59" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AN59" t="n">
-        <v>400</v>
+        <v>350</v>
       </c>
       <c r="AO59" t="n">
         <v>200</v>
@@ -9248,16 +9248,16 @@
         </is>
       </c>
       <c r="G62" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H62" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I62" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="J62" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K62" t="n">
         <v>2.1</v>
@@ -9272,10 +9272,10 @@
         <v>10</v>
       </c>
       <c r="O62" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P62" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q62" t="n">
         <v>2.05</v>
@@ -9296,16 +9296,16 @@
         <v>2.63</v>
       </c>
       <c r="W62" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X62" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Y62" t="n">
         <v>7</v>
       </c>
       <c r="Z62" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA62" t="n">
         <v>9</v>
@@ -9341,7 +9341,7 @@
         <v>21</v>
       </c>
       <c r="AL62" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM62" t="n">
         <v>41</v>
@@ -9389,7 +9389,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H63" t="n">
         <v>3.5</v>
@@ -9419,10 +9419,10 @@
         <v>3.75</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="R63" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
       <c r="S63" t="n">
         <v>3</v>
@@ -9437,7 +9437,7 @@
         <v>3</v>
       </c>
       <c r="W63" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X63" t="n">
         <v>2.05</v>
@@ -9831,7 +9831,7 @@
         <v>2.4</v>
       </c>
       <c r="L66" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M66" t="n">
         <v>1.03</v>
@@ -9846,16 +9846,16 @@
         <v>5</v>
       </c>
       <c r="Q66" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T66" t="n">
         <v>1.53</v>
-      </c>
-      <c r="R66" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S66" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T66" t="n">
-        <v>1.57</v>
       </c>
       <c r="U66" t="n">
         <v>1.29</v>
@@ -9897,7 +9897,7 @@
         <v>12</v>
       </c>
       <c r="AH66" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AI66" t="n">
         <v>126</v>
@@ -9906,7 +9906,7 @@
         <v>10</v>
       </c>
       <c r="AK66" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL66" t="n">
         <v>8.5</v>
@@ -9921,10 +9921,10 @@
         <v>19</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AR66" t="inlineStr"/>
       <c r="AS66" t="inlineStr"/>
@@ -10692,10 +10692,10 @@
         <v>3.5</v>
       </c>
       <c r="M72" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N72" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O72" t="n">
         <v>1.33</v>
@@ -10704,16 +10704,16 @@
         <v>3.25</v>
       </c>
       <c r="Q72" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="R72" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="S72" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T72" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U72" t="n">
         <v>1.44</v>
@@ -11097,85 +11097,85 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>8.5</v>
+        <v>9.25</v>
       </c>
       <c r="H75" t="n">
-        <v>4.05</v>
+        <v>4.3</v>
       </c>
       <c r="I75" t="n">
-        <v>1.4</v>
+        <v>1.35</v>
       </c>
       <c r="J75" t="n">
-        <v>7.7</v>
+        <v>8.25</v>
       </c>
       <c r="K75" t="n">
-        <v>2.25</v>
+        <v>2.27</v>
       </c>
       <c r="L75" t="n">
-        <v>1.87</v>
+        <v>1.82</v>
       </c>
       <c r="M75" t="n">
         <v>1.07</v>
       </c>
       <c r="N75" t="n">
-        <v>6.7</v>
+        <v>7</v>
       </c>
       <c r="O75" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P75" t="n">
-        <v>2.95</v>
+        <v>3.05</v>
       </c>
       <c r="Q75" t="n">
-        <v>2.02</v>
+        <v>1.98</v>
       </c>
       <c r="R75" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="S75" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="T75" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="U75" t="n">
         <v>1.4</v>
       </c>
       <c r="V75" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="W75" t="n">
-        <v>2.32</v>
+        <v>2.37</v>
       </c>
       <c r="X75" t="n">
-        <v>1.55</v>
+        <v>1.52</v>
       </c>
       <c r="Y75" t="n">
-        <v>16.5</v>
+        <v>18.5</v>
       </c>
       <c r="Z75" t="n">
-        <v>55</v>
+        <v>65</v>
       </c>
       <c r="AA75" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>300</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>150</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>8.75</v>
+      </c>
+      <c r="AG75" t="n">
         <v>28</v>
-      </c>
-      <c r="AB75" t="n">
-        <v>250</v>
-      </c>
-      <c r="AC75" t="n">
-        <v>120</v>
-      </c>
-      <c r="AD75" t="n">
-        <v>120</v>
-      </c>
-      <c r="AE75" t="n">
-        <v>6.7</v>
-      </c>
-      <c r="AF75" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="AG75" t="n">
-        <v>26</v>
       </c>
       <c r="AH75" t="n">
         <v>175</v>
@@ -11187,13 +11187,13 @@
         <v>5.3</v>
       </c>
       <c r="AK75" t="n">
-        <v>5.6</v>
+        <v>5.4</v>
       </c>
       <c r="AL75" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AM75" t="n">
-        <v>8.5</v>
+        <v>7.8</v>
       </c>
       <c r="AN75" t="n">
         <v>13</v>
@@ -11397,13 +11397,13 @@
         <v>4.5</v>
       </c>
       <c r="M77" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N77" t="n">
         <v>15</v>
       </c>
       <c r="O77" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -11418,10 +11418,10 @@
         <v>2.75</v>
       </c>
       <c r="T77" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U77" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V77" t="n">
         <v>3.25</v>
@@ -11538,13 +11538,13 @@
         <v>2.2</v>
       </c>
       <c r="M78" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N78" t="n">
         <v>15</v>
       </c>
       <c r="O78" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P78" t="n">
         <v>4.33</v>
@@ -11556,13 +11556,13 @@
         <v>2.1</v>
       </c>
       <c r="S78" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T78" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U78" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V78" t="n">
         <v>3.25</v>
@@ -11679,13 +11679,13 @@
         <v>3.75</v>
       </c>
       <c r="M79" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N79" t="n">
         <v>17</v>
       </c>
       <c r="O79" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -11697,13 +11697,13 @@
         <v>2.35</v>
       </c>
       <c r="S79" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="T79" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U79" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V79" t="n">
         <v>3.5</v>
@@ -11824,31 +11824,31 @@
         <v>2.3</v>
       </c>
       <c r="M80" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N80" t="n">
         <v>13</v>
       </c>
       <c r="O80" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R80" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S80" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T80" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="U80" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V80" t="n">
         <v>3.25</v>
@@ -11860,7 +11860,7 @@
         <v>2</v>
       </c>
       <c r="Y80" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z80" t="n">
         <v>23</v>
@@ -11896,7 +11896,7 @@
         <v>8</v>
       </c>
       <c r="AK80" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL80" t="n">
         <v>8.5</v>
@@ -11965,13 +11965,13 @@
         <v>3.5</v>
       </c>
       <c r="M81" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N81" t="n">
         <v>17</v>
       </c>
       <c r="O81" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -11983,10 +11983,10 @@
         <v>2.35</v>
       </c>
       <c r="S81" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="T81" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U81" t="n">
         <v>1.3</v>
@@ -12092,7 +12092,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H82" t="n">
         <v>4.2</v>
@@ -12104,19 +12104,19 @@
         <v>2.25</v>
       </c>
       <c r="K82" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L82" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M82" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N82" t="n">
         <v>15</v>
       </c>
       <c r="O82" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P82" t="n">
         <v>4.33</v>
@@ -12128,10 +12128,10 @@
         <v>2.15</v>
       </c>
       <c r="S82" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T82" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U82" t="n">
         <v>1.33</v>
@@ -12146,7 +12146,7 @@
         <v>2</v>
       </c>
       <c r="Y82" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z82" t="n">
         <v>8.5</v>
@@ -12164,22 +12164,22 @@
         <v>23</v>
       </c>
       <c r="AE82" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AF82" t="n">
         <v>8</v>
       </c>
       <c r="AG82" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH82" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI82" t="n">
         <v>201</v>
       </c>
       <c r="AJ82" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK82" t="n">
         <v>23</v>
@@ -12266,7 +12266,7 @@
         <v>2.6</v>
       </c>
       <c r="R83" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S83" t="n">
         <v>5.5</v>
@@ -12284,7 +12284,7 @@
         <v>2.2</v>
       </c>
       <c r="X83" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Y83" t="n">
         <v>7.5</v>
@@ -12382,7 +12382,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="H84" t="n">
         <v>5.5</v>
@@ -12430,10 +12430,10 @@
         <v>3</v>
       </c>
       <c r="W84" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="X84" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y84" t="n">
         <v>6</v>
@@ -12537,7 +12537,7 @@
         <v>6.25</v>
       </c>
       <c r="I85" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="J85" t="n">
         <v>13</v>
@@ -12561,7 +12561,7 @@
         <v>4.33</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R85" t="n">
         <v>2.1</v>
@@ -12579,10 +12579,10 @@
         <v>3.25</v>
       </c>
       <c r="W85" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="X85" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Y85" t="n">
         <v>29</v>
@@ -12710,7 +12710,7 @@
         <v>5</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R86" t="n">
         <v>2.4</v>
@@ -12731,7 +12731,7 @@
         <v>2.5</v>
       </c>
       <c r="X86" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Y86" t="n">
         <v>7.5</v>
@@ -12996,13 +12996,13 @@
         <v>4.33</v>
       </c>
       <c r="M88" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N88" t="n">
         <v>11</v>
       </c>
       <c r="O88" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P88" t="n">
         <v>3.75</v>
@@ -13017,7 +13017,7 @@
         <v>3.25</v>
       </c>
       <c r="T88" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U88" t="n">
         <v>1.4</v>
@@ -13026,7 +13026,7 @@
         <v>2.75</v>
       </c>
       <c r="W88" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="X88" t="n">
         <v>2</v>
@@ -13137,13 +13137,13 @@
         <v>5.5</v>
       </c>
       <c r="M89" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N89" t="n">
         <v>15</v>
       </c>
       <c r="O89" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P89" t="n">
         <v>4.5</v>
@@ -13158,7 +13158,7 @@
         <v>2.5</v>
       </c>
       <c r="T89" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U89" t="n">
         <v>1.29</v>
@@ -13167,7 +13167,7 @@
         <v>3.5</v>
       </c>
       <c r="W89" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X89" t="n">
         <v>2.1</v>
@@ -13282,13 +13282,13 @@
         <v>2.63</v>
       </c>
       <c r="M90" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N90" t="n">
         <v>13</v>
       </c>
       <c r="O90" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P90" t="n">
         <v>4.33</v>
@@ -13300,10 +13300,10 @@
         <v>2.1</v>
       </c>
       <c r="S90" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T90" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U90" t="n">
         <v>1.36</v>
@@ -13312,7 +13312,7 @@
         <v>3</v>
       </c>
       <c r="W90" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="X90" t="n">
         <v>2.1</v>
@@ -13816,46 +13816,46 @@
         </is>
       </c>
       <c r="G94" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="H94" t="n">
         <v>3.3</v>
       </c>
       <c r="I94" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="J94" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K94" t="n">
         <v>2.1</v>
       </c>
       <c r="L94" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M94" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N94" t="n">
         <v>11</v>
       </c>
       <c r="O94" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P94" t="n">
         <v>3.4</v>
       </c>
       <c r="Q94" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="R94" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="S94" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T94" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="U94" t="n">
         <v>1.4</v>
@@ -13864,13 +13864,13 @@
         <v>2.75</v>
       </c>
       <c r="W94" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="X94" t="n">
         <v>2</v>
       </c>
       <c r="Y94" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z94" t="n">
         <v>13</v>
@@ -13903,7 +13903,7 @@
         <v>201</v>
       </c>
       <c r="AJ94" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK94" t="n">
         <v>13</v>
@@ -13975,13 +13975,13 @@
         <v>10</v>
       </c>
       <c r="M95" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N95" t="n">
         <v>21</v>
       </c>
       <c r="O95" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="P95" t="n">
         <v>5.5</v>
@@ -13996,7 +13996,7 @@
         <v>2.1</v>
       </c>
       <c r="T95" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="U95" t="n">
         <v>1.25</v>
@@ -14008,7 +14008,7 @@
         <v>2.1</v>
       </c>
       <c r="X95" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="Y95" t="n">
         <v>8.5</v>
@@ -14105,7 +14105,7 @@
         <v>2.55</v>
       </c>
       <c r="H96" t="n">
-        <v>2.82</v>
+        <v>2.88</v>
       </c>
       <c r="I96" t="n">
         <v>3.1</v>
@@ -14117,13 +14117,13 @@
         <v>1.91</v>
       </c>
       <c r="L96" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M96" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N96" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O96" t="n">
         <v>1.5</v>
@@ -14174,7 +14174,7 @@
         <v>41</v>
       </c>
       <c r="AE96" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF96" t="n">
         <v>5.5</v>
@@ -14247,13 +14247,13 @@
         </is>
       </c>
       <c r="G97" t="n">
-        <v>1.86</v>
+        <v>1.95</v>
       </c>
       <c r="H97" t="n">
         <v>3.1</v>
       </c>
       <c r="I97" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J97" t="n">
         <v>2.75</v>
@@ -14262,7 +14262,7 @@
         <v>1.95</v>
       </c>
       <c r="L97" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="M97" t="n">
         <v>1.1</v>
@@ -14307,7 +14307,7 @@
         <v>8</v>
       </c>
       <c r="AA97" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB97" t="n">
         <v>17</v>
@@ -14340,7 +14340,7 @@
         <v>21</v>
       </c>
       <c r="AL97" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM97" t="n">
         <v>51</v>
@@ -14392,7 +14392,7 @@
         </is>
       </c>
       <c r="G98" t="n">
-        <v>1.71</v>
+        <v>1.75</v>
       </c>
       <c r="H98" t="n">
         <v>3.25</v>
@@ -14533,13 +14533,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="H99" t="n">
         <v>3</v>
       </c>
       <c r="I99" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="J99" t="n">
         <v>3.4</v>
@@ -14680,7 +14680,7 @@
         <v>3.4</v>
       </c>
       <c r="I100" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J100" t="n">
         <v>4</v>
@@ -14833,13 +14833,13 @@
         <v>4</v>
       </c>
       <c r="M101" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N101" t="n">
         <v>9</v>
       </c>
       <c r="O101" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P101" t="n">
         <v>3</v>
@@ -14848,13 +14848,13 @@
         <v>2.15</v>
       </c>
       <c r="R101" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S101" t="n">
         <v>3.75</v>
       </c>
       <c r="T101" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U101" t="n">
         <v>1.44</v>
@@ -14974,13 +14974,13 @@
         <v>3.25</v>
       </c>
       <c r="M102" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N102" t="n">
         <v>9</v>
       </c>
       <c r="O102" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P102" t="n">
         <v>3</v>
@@ -14989,13 +14989,13 @@
         <v>2.15</v>
       </c>
       <c r="R102" t="n">
-        <v>1.63</v>
+        <v>1.67</v>
       </c>
       <c r="S102" t="n">
         <v>3.75</v>
       </c>
       <c r="T102" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U102" t="n">
         <v>1.44</v>
@@ -15115,13 +15115,13 @@
         <v>3.6</v>
       </c>
       <c r="M103" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N103" t="n">
         <v>7</v>
       </c>
       <c r="O103" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P103" t="n">
         <v>2.5</v>
@@ -15130,13 +15130,13 @@
         <v>2.6</v>
       </c>
       <c r="R103" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S103" t="n">
         <v>5.5</v>
       </c>
       <c r="T103" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="U103" t="n">
         <v>1.57</v>
@@ -15260,28 +15260,28 @@
         <v>3.1</v>
       </c>
       <c r="M104" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N104" t="n">
         <v>10</v>
       </c>
       <c r="O104" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P104" t="n">
         <v>3.25</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R104" t="n">
-        <v>1.72</v>
+        <v>1.73</v>
       </c>
       <c r="S104" t="n">
         <v>3.75</v>
       </c>
       <c r="T104" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U104" t="n">
         <v>1.44</v>
@@ -15382,41 +15382,103 @@
           <t>Sri Pahang</t>
         </is>
       </c>
-      <c r="G105" t="inlineStr"/>
-      <c r="H105" t="inlineStr"/>
-      <c r="I105" t="inlineStr"/>
-      <c r="J105" t="inlineStr"/>
-      <c r="K105" t="inlineStr"/>
-      <c r="L105" t="inlineStr"/>
+      <c r="G105" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="H105" t="n">
+        <v>3.55</v>
+      </c>
+      <c r="I105" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="K105" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="L105" t="n">
+        <v>4.5</v>
+      </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
-      <c r="O105" t="inlineStr"/>
-      <c r="P105" t="inlineStr"/>
-      <c r="Q105" t="inlineStr"/>
-      <c r="R105" t="inlineStr"/>
-      <c r="S105" t="inlineStr"/>
-      <c r="T105" t="inlineStr"/>
+      <c r="O105" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="P105" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q105" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S105" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.51</v>
+      </c>
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="inlineStr"/>
-      <c r="W105" t="inlineStr"/>
-      <c r="X105" t="inlineStr"/>
-      <c r="Y105" t="inlineStr"/>
-      <c r="Z105" t="inlineStr"/>
-      <c r="AA105" t="inlineStr"/>
-      <c r="AB105" t="inlineStr"/>
-      <c r="AC105" t="inlineStr"/>
-      <c r="AD105" t="inlineStr"/>
-      <c r="AE105" t="inlineStr"/>
-      <c r="AF105" t="inlineStr"/>
-      <c r="AG105" t="inlineStr"/>
-      <c r="AH105" t="inlineStr"/>
-      <c r="AI105" t="inlineStr"/>
-      <c r="AJ105" t="inlineStr"/>
-      <c r="AK105" t="inlineStr"/>
-      <c r="AL105" t="inlineStr"/>
-      <c r="AM105" t="inlineStr"/>
-      <c r="AN105" t="inlineStr"/>
-      <c r="AO105" t="inlineStr"/>
+      <c r="W105" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="X105" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>10</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>14</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>6.6</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>10</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>22</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>60</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>30</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>30</v>
+      </c>
       <c r="AP105" t="inlineStr"/>
       <c r="AQ105" t="inlineStr"/>
       <c r="AR105" t="inlineStr"/>
@@ -15453,41 +15515,103 @@
           <t>Kuching City FC</t>
         </is>
       </c>
-      <c r="G106" t="inlineStr"/>
-      <c r="H106" t="inlineStr"/>
-      <c r="I106" t="inlineStr"/>
-      <c r="J106" t="inlineStr"/>
-      <c r="K106" t="inlineStr"/>
-      <c r="L106" t="inlineStr"/>
+      <c r="G106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H106" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="I106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="J106" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K106" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="L106" t="n">
+        <v>3.05</v>
+      </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
-      <c r="O106" t="inlineStr"/>
-      <c r="P106" t="inlineStr"/>
-      <c r="Q106" t="inlineStr"/>
-      <c r="R106" t="inlineStr"/>
-      <c r="S106" t="inlineStr"/>
-      <c r="T106" t="inlineStr"/>
+      <c r="O106" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P106" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="Q106" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="R106" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S106" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.39</v>
+      </c>
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr"/>
-      <c r="W106" t="inlineStr"/>
-      <c r="X106" t="inlineStr"/>
-      <c r="Y106" t="inlineStr"/>
-      <c r="Z106" t="inlineStr"/>
-      <c r="AA106" t="inlineStr"/>
-      <c r="AB106" t="inlineStr"/>
-      <c r="AC106" t="inlineStr"/>
-      <c r="AD106" t="inlineStr"/>
-      <c r="AE106" t="inlineStr"/>
-      <c r="AF106" t="inlineStr"/>
-      <c r="AG106" t="inlineStr"/>
-      <c r="AH106" t="inlineStr"/>
-      <c r="AI106" t="inlineStr"/>
-      <c r="AJ106" t="inlineStr"/>
-      <c r="AK106" t="inlineStr"/>
-      <c r="AL106" t="inlineStr"/>
-      <c r="AM106" t="inlineStr"/>
-      <c r="AN106" t="inlineStr"/>
-      <c r="AO106" t="inlineStr"/>
+      <c r="W106" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="X106" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>16</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>11</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>9.6</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>40</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>8</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>11</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>23</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>16</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>23</v>
+      </c>
       <c r="AP106" t="inlineStr"/>
       <c r="AQ106" t="inlineStr"/>
       <c r="AR106" t="inlineStr"/>
@@ -15969,7 +16093,7 @@
         <v>1.06</v>
       </c>
       <c r="N110" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O110" t="n">
         <v>1.3</v>
@@ -16092,51 +16216,51 @@
         <v>2.12</v>
       </c>
       <c r="H111" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I111" t="n">
         <v>3.25</v>
       </c>
-      <c r="I111" t="n">
-        <v>3.2</v>
-      </c>
       <c r="J111" t="n">
-        <v>2.77</v>
+        <v>2.62</v>
       </c>
       <c r="K111" t="n">
-        <v>2.05</v>
+        <v>2.12</v>
       </c>
       <c r="L111" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P111" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="Q111" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R111" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="S111" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="T111" t="n">
         <v>1.28</v>
       </c>
-      <c r="P111" t="n">
-        <v>3.05</v>
-      </c>
-      <c r="Q111" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="R111" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S111" t="n">
-        <v>2.92</v>
-      </c>
-      <c r="T111" t="n">
-        <v>1.3</v>
-      </c>
       <c r="U111" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V111" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="W111" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="X111" t="n">
-        <v>1.98</v>
+        <v>1.91</v>
       </c>
       <c r="Y111" t="n">
         <v>7.7</v>
@@ -16145,7 +16269,7 @@
         <v>10.5</v>
       </c>
       <c r="AA111" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB111" t="n">
         <v>21</v>
@@ -16157,37 +16281,37 @@
         <v>27</v>
       </c>
       <c r="AE111" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AF111" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AG111" t="n">
         <v>13.5</v>
       </c>
       <c r="AH111" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AI111" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AJ111" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AK111" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AL111" t="n">
-        <v>11</v>
+        <v>11.5</v>
       </c>
       <c r="AM111" t="n">
         <v>45</v>
       </c>
       <c r="AN111" t="n">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="AO111" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AP111" t="inlineStr"/>
       <c r="AQ111" t="inlineStr"/>
@@ -16225,41 +16349,111 @@
           <t>Maghreb Fez</t>
         </is>
       </c>
-      <c r="G112" t="inlineStr"/>
-      <c r="H112" t="inlineStr"/>
-      <c r="I112" t="inlineStr"/>
-      <c r="J112" t="inlineStr"/>
-      <c r="K112" t="inlineStr"/>
-      <c r="L112" t="inlineStr"/>
-      <c r="M112" t="inlineStr"/>
-      <c r="N112" t="inlineStr"/>
-      <c r="O112" t="inlineStr"/>
-      <c r="P112" t="inlineStr"/>
-      <c r="Q112" t="inlineStr"/>
-      <c r="R112" t="inlineStr"/>
-      <c r="S112" t="inlineStr"/>
-      <c r="T112" t="inlineStr"/>
-      <c r="U112" t="inlineStr"/>
-      <c r="V112" t="inlineStr"/>
-      <c r="W112" t="inlineStr"/>
-      <c r="X112" t="inlineStr"/>
-      <c r="Y112" t="inlineStr"/>
-      <c r="Z112" t="inlineStr"/>
-      <c r="AA112" t="inlineStr"/>
-      <c r="AB112" t="inlineStr"/>
-      <c r="AC112" t="inlineStr"/>
-      <c r="AD112" t="inlineStr"/>
-      <c r="AE112" t="inlineStr"/>
-      <c r="AF112" t="inlineStr"/>
-      <c r="AG112" t="inlineStr"/>
-      <c r="AH112" t="inlineStr"/>
-      <c r="AI112" t="inlineStr"/>
-      <c r="AJ112" t="inlineStr"/>
-      <c r="AK112" t="inlineStr"/>
-      <c r="AL112" t="inlineStr"/>
-      <c r="AM112" t="inlineStr"/>
-      <c r="AN112" t="inlineStr"/>
-      <c r="AO112" t="inlineStr"/>
+      <c r="G112" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="H112" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="I112" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="J112" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="K112" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="L112" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M112" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="N112" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O112" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P112" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q112" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="R112" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="S112" t="n">
+        <v>6</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U112" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V112" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W112" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X112" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>11</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>29</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>6</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>41</v>
+      </c>
       <c r="AP112" t="inlineStr"/>
       <c r="AQ112" t="inlineStr"/>
       <c r="AR112" t="inlineStr"/>
@@ -16296,41 +16490,111 @@
           <t>Wydad</t>
         </is>
       </c>
-      <c r="G113" t="inlineStr"/>
-      <c r="H113" t="inlineStr"/>
-      <c r="I113" t="inlineStr"/>
-      <c r="J113" t="inlineStr"/>
-      <c r="K113" t="inlineStr"/>
-      <c r="L113" t="inlineStr"/>
-      <c r="M113" t="inlineStr"/>
-      <c r="N113" t="inlineStr"/>
-      <c r="O113" t="inlineStr"/>
-      <c r="P113" t="inlineStr"/>
-      <c r="Q113" t="inlineStr"/>
-      <c r="R113" t="inlineStr"/>
-      <c r="S113" t="inlineStr"/>
-      <c r="T113" t="inlineStr"/>
-      <c r="U113" t="inlineStr"/>
-      <c r="V113" t="inlineStr"/>
-      <c r="W113" t="inlineStr"/>
-      <c r="X113" t="inlineStr"/>
-      <c r="Y113" t="inlineStr"/>
-      <c r="Z113" t="inlineStr"/>
-      <c r="AA113" t="inlineStr"/>
-      <c r="AB113" t="inlineStr"/>
-      <c r="AC113" t="inlineStr"/>
-      <c r="AD113" t="inlineStr"/>
-      <c r="AE113" t="inlineStr"/>
-      <c r="AF113" t="inlineStr"/>
-      <c r="AG113" t="inlineStr"/>
-      <c r="AH113" t="inlineStr"/>
-      <c r="AI113" t="inlineStr"/>
-      <c r="AJ113" t="inlineStr"/>
-      <c r="AK113" t="inlineStr"/>
-      <c r="AL113" t="inlineStr"/>
-      <c r="AM113" t="inlineStr"/>
-      <c r="AN113" t="inlineStr"/>
-      <c r="AO113" t="inlineStr"/>
+      <c r="G113" t="n">
+        <v>9</v>
+      </c>
+      <c r="H113" t="n">
+        <v>5</v>
+      </c>
+      <c r="I113" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="J113" t="n">
+        <v>11</v>
+      </c>
+      <c r="K113" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N113" t="n">
+        <v>10</v>
+      </c>
+      <c r="O113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P113" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R113" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S113" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U113" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V113" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W113" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="X113" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>19</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>41</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>151</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>81</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>81</v>
+      </c>
+      <c r="AE113" t="n">
+        <v>10</v>
+      </c>
+      <c r="AF113" t="n">
+        <v>11</v>
+      </c>
+      <c r="AG113" t="n">
+        <v>34</v>
+      </c>
+      <c r="AH113" t="n">
+        <v>126</v>
+      </c>
+      <c r="AI113" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ113" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AK113" t="n">
+        <v>5</v>
+      </c>
+      <c r="AL113" t="n">
+        <v>10</v>
+      </c>
+      <c r="AM113" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN113" t="n">
+        <v>13</v>
+      </c>
+      <c r="AO113" t="n">
+        <v>41</v>
+      </c>
       <c r="AP113" t="inlineStr"/>
       <c r="AQ113" t="inlineStr"/>
       <c r="AR113" t="inlineStr"/>
@@ -16367,45 +16631,119 @@
           <t>Renaissance Zemamra</t>
         </is>
       </c>
-      <c r="G114" t="inlineStr"/>
-      <c r="H114" t="inlineStr"/>
-      <c r="I114" t="inlineStr"/>
-      <c r="J114" t="inlineStr"/>
-      <c r="K114" t="inlineStr"/>
-      <c r="L114" t="inlineStr"/>
-      <c r="M114" t="inlineStr"/>
-      <c r="N114" t="inlineStr"/>
-      <c r="O114" t="inlineStr"/>
-      <c r="P114" t="inlineStr"/>
-      <c r="Q114" t="inlineStr"/>
-      <c r="R114" t="inlineStr"/>
-      <c r="S114" t="inlineStr"/>
-      <c r="T114" t="inlineStr"/>
-      <c r="U114" t="inlineStr"/>
-      <c r="V114" t="inlineStr"/>
-      <c r="W114" t="inlineStr"/>
-      <c r="X114" t="inlineStr"/>
-      <c r="Y114" t="inlineStr"/>
-      <c r="Z114" t="inlineStr"/>
-      <c r="AA114" t="inlineStr"/>
-      <c r="AB114" t="inlineStr"/>
-      <c r="AC114" t="inlineStr"/>
-      <c r="AD114" t="inlineStr"/>
-      <c r="AE114" t="inlineStr"/>
-      <c r="AF114" t="inlineStr"/>
-      <c r="AG114" t="inlineStr"/>
-      <c r="AH114" t="inlineStr"/>
-      <c r="AI114" t="inlineStr"/>
-      <c r="AJ114" t="inlineStr"/>
-      <c r="AK114" t="inlineStr"/>
-      <c r="AL114" t="inlineStr"/>
-      <c r="AM114" t="inlineStr"/>
-      <c r="AN114" t="inlineStr"/>
-      <c r="AO114" t="inlineStr"/>
+      <c r="G114" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="H114" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="I114" t="n">
+        <v>5</v>
+      </c>
+      <c r="J114" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="K114" t="n">
+        <v>2</v>
+      </c>
+      <c r="L114" t="n">
+        <v>6</v>
+      </c>
+      <c r="M114" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N114" t="n">
+        <v>7</v>
+      </c>
+      <c r="O114" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P114" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q114" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="R114" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="S114" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T114" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U114" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V114" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W114" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X114" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="Y114" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z114" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA114" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB114" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC114" t="n">
+        <v>17</v>
+      </c>
+      <c r="AD114" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE114" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF114" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG114" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH114" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI114" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ114" t="n">
+        <v>11</v>
+      </c>
+      <c r="AK114" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL114" t="n">
+        <v>19</v>
+      </c>
+      <c r="AM114" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN114" t="n">
+        <v>51</v>
+      </c>
+      <c r="AO114" t="n">
+        <v>51</v>
+      </c>
       <c r="AP114" t="inlineStr"/>
       <c r="AQ114" t="inlineStr"/>
-      <c r="AR114" t="inlineStr"/>
-      <c r="AS114" t="inlineStr"/>
+      <c r="AR114" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS114" t="n">
+        <v>2.03</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -16602,28 +16940,28 @@
         <v>6.5</v>
       </c>
       <c r="M116" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N116" t="n">
         <v>15</v>
       </c>
       <c r="O116" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P116" t="n">
         <v>4.5</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R116" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S116" t="n">
         <v>2.5</v>
       </c>
       <c r="T116" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U116" t="n">
         <v>1.3</v>
@@ -16689,10 +17027,10 @@
         <v>41</v>
       </c>
       <c r="AP116" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="AR116" t="inlineStr"/>
       <c r="AS116" t="inlineStr"/>
@@ -16747,13 +17085,13 @@
         <v>6</v>
       </c>
       <c r="M117" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N117" t="n">
         <v>10</v>
       </c>
       <c r="O117" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P117" t="n">
         <v>3</v>
@@ -16768,7 +17106,7 @@
         <v>3.75</v>
       </c>
       <c r="T117" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U117" t="n">
         <v>1.44</v>
@@ -16888,16 +17226,16 @@
         <v>6</v>
       </c>
       <c r="M118" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="N118" t="n">
         <v>7</v>
       </c>
       <c r="O118" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P118" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q118" t="n">
         <v>2.4</v>
@@ -16909,7 +17247,7 @@
         <v>4.5</v>
       </c>
       <c r="T118" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="U118" t="n">
         <v>1.53</v>
@@ -17015,10 +17353,10 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H119" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I119" t="n">
         <v>8.5</v>
@@ -17030,13 +17368,13 @@
         <v>2.6</v>
       </c>
       <c r="L119" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="M119" t="n">
         <v>1.03</v>
       </c>
       <c r="N119" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O119" t="n">
         <v>1.17</v>
@@ -17069,7 +17407,7 @@
         <v>1.83</v>
       </c>
       <c r="Y119" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z119" t="n">
         <v>7</v>
@@ -17090,7 +17428,7 @@
         <v>15</v>
       </c>
       <c r="AF119" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AG119" t="n">
         <v>19</v>
@@ -17108,7 +17446,7 @@
         <v>41</v>
       </c>
       <c r="AL119" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AM119" t="n">
         <v>101</v>
@@ -17120,10 +17458,10 @@
         <v>51</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR119" t="n">
         <v>1.27</v>
@@ -17609,7 +17947,7 @@
         <v>3.2</v>
       </c>
       <c r="I123" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="J123" t="n">
         <v>3.4</v>
@@ -17621,22 +17959,22 @@
         <v>3.4</v>
       </c>
       <c r="M123" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N123" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O123" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P123" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.08</v>
+        <v>2.15</v>
       </c>
       <c r="R123" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S123" t="n">
         <v>3.75</v>
@@ -17744,7 +18082,7 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H124" t="n">
         <v>3.7</v>
@@ -17849,10 +18187,10 @@
         <v>34</v>
       </c>
       <c r="AP124" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR124" t="inlineStr"/>
       <c r="AS124" t="inlineStr"/>
@@ -18177,7 +18515,7 @@
         <v>3.75</v>
       </c>
       <c r="I127" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="J127" t="n">
         <v>4.5</v>
@@ -18456,10 +18794,10 @@
         <v>6.5</v>
       </c>
       <c r="H129" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I129" t="n">
-        <v>1.41</v>
+        <v>1.42</v>
       </c>
       <c r="J129" t="n">
         <v>7.5</v>
@@ -18468,7 +18806,7 @@
         <v>2.3</v>
       </c>
       <c r="L129" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="M129" t="n">
         <v>1.05</v>
@@ -18477,16 +18815,16 @@
         <v>11</v>
       </c>
       <c r="O129" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P129" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="R129" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S129" t="n">
         <v>3.4</v>
@@ -18546,7 +18884,7 @@
         <v>6</v>
       </c>
       <c r="AL129" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM129" t="n">
         <v>9</v>
@@ -18555,7 +18893,7 @@
         <v>13</v>
       </c>
       <c r="AO129" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP129" t="inlineStr"/>
       <c r="AQ129" t="inlineStr"/>
@@ -18615,7 +18953,7 @@
         <v>1.06</v>
       </c>
       <c r="N130" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O130" t="n">
         <v>1.3</v>
@@ -18894,10 +19232,10 @@
         <v>5.5</v>
       </c>
       <c r="M132" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N132" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="O132" t="n">
         <v>1.36</v>
@@ -19017,13 +19355,13 @@
         </is>
       </c>
       <c r="G133" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H133" t="n">
         <v>3.25</v>
       </c>
       <c r="I133" t="n">
-        <v>2.7</v>
+        <v>2.63</v>
       </c>
       <c r="J133" t="n">
         <v>3.25</v>
@@ -19032,7 +19370,7 @@
         <v>2.05</v>
       </c>
       <c r="L133" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M133" t="n">
         <v>1.07</v>
@@ -19041,22 +19379,22 @@
         <v>9</v>
       </c>
       <c r="O133" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P133" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R133" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S133" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T133" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U133" t="n">
         <v>1.44</v>
@@ -19071,10 +19409,10 @@
         <v>1.83</v>
       </c>
       <c r="Y133" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z133" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA133" t="n">
         <v>10</v>
@@ -19089,19 +19427,19 @@
         <v>34</v>
       </c>
       <c r="AE133" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF133" t="n">
         <v>6.5</v>
       </c>
       <c r="AG133" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH133" t="n">
         <v>51</v>
       </c>
       <c r="AI133" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ133" t="n">
         <v>8</v>
@@ -19603,22 +19941,22 @@
         <v>3</v>
       </c>
       <c r="M137" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N137" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O137" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P137" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q137" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R137" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S137" t="n">
         <v>4</v>
@@ -19633,13 +19971,13 @@
         <v>2.63</v>
       </c>
       <c r="W137" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X137" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y137" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z137" t="n">
         <v>15</v>
@@ -19651,13 +19989,13 @@
         <v>34</v>
       </c>
       <c r="AC137" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD137" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE137" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF137" t="n">
         <v>6</v>
@@ -19669,13 +20007,13 @@
         <v>51</v>
       </c>
       <c r="AI137" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ137" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK137" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL137" t="n">
         <v>9.5</v>
@@ -19687,7 +20025,7 @@
         <v>19</v>
       </c>
       <c r="AO137" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP137" t="inlineStr"/>
       <c r="AQ137" t="inlineStr"/>
@@ -20440,7 +20778,7 @@
         <v>2.15</v>
       </c>
       <c r="J143" t="n">
-        <v>3.85</v>
+        <v>3.9</v>
       </c>
       <c r="K143" t="n">
         <v>2.05</v>
@@ -20452,76 +20790,76 @@
         <v>1.08</v>
       </c>
       <c r="N143" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="O143" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="P143" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="R143" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S143" t="n">
-        <v>3.65</v>
+        <v>3.7</v>
       </c>
       <c r="T143" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="U143" t="n">
-        <v>1.44</v>
+        <v>1.45</v>
       </c>
       <c r="V143" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="W143" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="X143" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y143" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z143" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AA143" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AB143" t="n">
         <v>45</v>
       </c>
       <c r="AC143" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AD143" t="n">
         <v>40</v>
       </c>
       <c r="AE143" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AF143" t="n">
         <v>6.1</v>
       </c>
       <c r="AG143" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH143" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI143" t="n">
-        <v>700</v>
+        <v>800</v>
       </c>
       <c r="AJ143" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="AK143" t="n">
-        <v>9.5</v>
+        <v>9.75</v>
       </c>
       <c r="AL143" t="n">
         <v>9</v>
@@ -20572,82 +20910,82 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.55</v>
+        <v>3.85</v>
       </c>
       <c r="H144" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I144" t="n">
-        <v>1.95</v>
+        <v>1.85</v>
       </c>
       <c r="J144" t="n">
-        <v>4</v>
+        <v>4.15</v>
       </c>
       <c r="K144" t="n">
-        <v>2.12</v>
+        <v>2.18</v>
       </c>
       <c r="L144" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="M144" t="n">
         <v>1.05</v>
       </c>
       <c r="N144" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O144" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="P144" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R144" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S144" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="T144" t="n">
         <v>1.4</v>
       </c>
       <c r="U144" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="V144" t="n">
-        <v>2.77</v>
+        <v>2.85</v>
       </c>
       <c r="W144" t="n">
         <v>1.65</v>
       </c>
       <c r="X144" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="Y144" t="n">
-        <v>11.75</v>
+        <v>13</v>
       </c>
       <c r="Z144" t="n">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="AA144" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AB144" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AC144" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AD144" t="n">
         <v>32</v>
       </c>
       <c r="AE144" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AF144" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AG144" t="n">
         <v>13</v>
@@ -20659,22 +20997,22 @@
         <v>350</v>
       </c>
       <c r="AJ144" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK144" t="n">
-        <v>10.25</v>
+        <v>9.25</v>
       </c>
       <c r="AL144" t="n">
         <v>8.25</v>
       </c>
       <c r="AM144" t="n">
-        <v>17.5</v>
+        <v>15.5</v>
       </c>
       <c r="AN144" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AO144" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AP144" t="inlineStr"/>
       <c r="AQ144" t="inlineStr"/>
@@ -20857,106 +21195,106 @@
         <v>1.57</v>
       </c>
       <c r="H146" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="I146" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="J146" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="K146" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="L146" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M146" t="n">
         <v>1.06</v>
       </c>
       <c r="N146" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="O146" t="n">
-        <v>1.31</v>
+        <v>1.29</v>
       </c>
       <c r="P146" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="Q146" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R146" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="S146" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T146" t="n">
-        <v>1.31</v>
+        <v>1.3</v>
       </c>
       <c r="U146" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V146" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="W146" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X146" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="Y146" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Z146" t="n">
-        <v>7.2</v>
+        <v>7</v>
       </c>
       <c r="AA146" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB146" t="n">
-        <v>11.75</v>
+        <v>11</v>
       </c>
       <c r="AC146" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="AD146" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AE146" t="n">
-        <v>7.7</v>
+        <v>10</v>
       </c>
       <c r="AF146" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AG146" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AH146" t="n">
-        <v>110</v>
+        <v>67</v>
       </c>
       <c r="AI146" t="n">
-        <v>1000</v>
+        <v>401</v>
       </c>
       <c r="AJ146" t="n">
         <v>13</v>
       </c>
       <c r="AK146" t="n">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="AL146" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM146" t="n">
-        <v>120</v>
+        <v>67</v>
       </c>
       <c r="AN146" t="n">
-        <v>65</v>
+        <v>41</v>
       </c>
       <c r="AO146" t="n">
-        <v>70</v>
+        <v>41</v>
       </c>
       <c r="AP146" t="inlineStr"/>
       <c r="AQ146" t="inlineStr"/>
@@ -21142,7 +21480,7 @@
         <v>3.25</v>
       </c>
       <c r="I148" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="J148" t="n">
         <v>3.1</v>
@@ -21277,7 +21615,7 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H149" t="n">
         <v>3.1</v>
@@ -21430,7 +21768,7 @@
         <v>3.4</v>
       </c>
       <c r="K150" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L150" t="n">
         <v>3.6</v>
@@ -21451,7 +21789,7 @@
         <v>2.4</v>
       </c>
       <c r="R150" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S150" t="n">
         <v>4.5</v>
@@ -21525,10 +21863,10 @@
       <c r="AP150" t="inlineStr"/>
       <c r="AQ150" t="inlineStr"/>
       <c r="AR150" t="n">
-        <v>1.77</v>
+        <v>1.83</v>
       </c>
       <c r="AS150" t="n">
-        <v>1.97</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="151">
@@ -21575,7 +21913,7 @@
         <v>3.4</v>
       </c>
       <c r="K151" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L151" t="n">
         <v>3.75</v>
@@ -21596,7 +21934,7 @@
         <v>2.5</v>
       </c>
       <c r="R151" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="S151" t="n">
         <v>5</v>
@@ -21670,10 +22008,10 @@
       <c r="AP151" t="inlineStr"/>
       <c r="AQ151" t="inlineStr"/>
       <c r="AR151" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="152">
@@ -21717,10 +22055,10 @@
         <v>4</v>
       </c>
       <c r="J152" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="K152" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L152" t="n">
         <v>4.75</v>
@@ -21741,7 +22079,7 @@
         <v>2.7</v>
       </c>
       <c r="R152" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="S152" t="n">
         <v>5.5</v>
@@ -21815,10 +22153,10 @@
       <c r="AP152" t="inlineStr"/>
       <c r="AQ152" t="inlineStr"/>
       <c r="AR152" t="n">
-        <v>2.04</v>
+        <v>2.1</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
     </row>
     <row r="153">
@@ -21862,7 +22200,7 @@
         <v>5</v>
       </c>
       <c r="J153" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K153" t="n">
         <v>2.1</v>
@@ -21886,7 +22224,7 @@
         <v>2.1</v>
       </c>
       <c r="R153" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S153" t="n">
         <v>3.75</v>
@@ -22151,7 +22489,7 @@
         <v>2.6</v>
       </c>
       <c r="K155" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="L155" t="n">
         <v>3.75</v>
@@ -22163,28 +22501,28 @@
         <v>15</v>
       </c>
       <c r="O155" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P155" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q155" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="R155" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="S155" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T155" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U155" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V155" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W155" t="n">
         <v>1.57</v>
@@ -22193,7 +22531,7 @@
         <v>2.25</v>
       </c>
       <c r="Y155" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z155" t="n">
         <v>11</v>
@@ -22202,7 +22540,7 @@
         <v>9</v>
       </c>
       <c r="AB155" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC155" t="n">
         <v>15</v>
@@ -22223,7 +22561,7 @@
         <v>41</v>
       </c>
       <c r="AI155" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ155" t="n">
         <v>13</v>
@@ -22235,16 +22573,20 @@
         <v>12</v>
       </c>
       <c r="AM155" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN155" t="n">
+        <v>23</v>
+      </c>
+      <c r="AO155" t="n">
         <v>26</v>
       </c>
-      <c r="AO155" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP155" t="inlineStr"/>
-      <c r="AQ155" t="inlineStr"/>
+      <c r="AP155" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ155" t="n">
+        <v>1.85</v>
+      </c>
       <c r="AR155" t="inlineStr"/>
       <c r="AS155" t="inlineStr"/>
     </row>
@@ -22286,10 +22628,10 @@
         <v>3.7</v>
       </c>
       <c r="I156" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J156" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K156" t="n">
         <v>2.25</v>
@@ -22376,7 +22718,7 @@
         <v>9</v>
       </c>
       <c r="AM156" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN156" t="n">
         <v>17</v>
@@ -22421,7 +22763,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="H157" t="n">
         <v>3.6</v>
@@ -22442,7 +22784,7 @@
         <v>1.04</v>
       </c>
       <c r="N157" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O157" t="n">
         <v>1.25</v>
@@ -22451,10 +22793,10 @@
         <v>3.75</v>
       </c>
       <c r="Q157" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R157" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S157" t="n">
         <v>3</v>
@@ -22505,7 +22847,7 @@
         <v>41</v>
       </c>
       <c r="AI157" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ157" t="n">
         <v>9</v>
@@ -22520,7 +22862,7 @@
         <v>21</v>
       </c>
       <c r="AN157" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO157" t="n">
         <v>26</v>
@@ -22562,22 +22904,22 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="H158" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I158" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="J158" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="K158" t="n">
         <v>2.25</v>
       </c>
       <c r="L158" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M158" t="n">
         <v>1.04</v>
@@ -22616,10 +22958,10 @@
         <v>2.1</v>
       </c>
       <c r="Y158" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z158" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA158" t="n">
         <v>8.5</v>
@@ -22637,7 +22979,7 @@
         <v>12</v>
       </c>
       <c r="AF158" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG158" t="n">
         <v>13</v>
@@ -22652,7 +22994,7 @@
         <v>13</v>
       </c>
       <c r="AK158" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL158" t="n">
         <v>15</v>
@@ -22661,7 +23003,7 @@
         <v>41</v>
       </c>
       <c r="AN158" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO158" t="n">
         <v>34</v>
@@ -22703,28 +23045,28 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="H159" t="n">
         <v>3.2</v>
       </c>
       <c r="I159" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J159" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K159" t="n">
         <v>2.1</v>
       </c>
       <c r="L159" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="M159" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N159" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O159" t="n">
         <v>1.33</v>
@@ -22760,10 +23102,10 @@
         <v>8</v>
       </c>
       <c r="Z159" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA159" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB159" t="n">
         <v>23</v>
@@ -22793,7 +23135,7 @@
         <v>9</v>
       </c>
       <c r="AK159" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL159" t="n">
         <v>11</v>
@@ -23267,13 +23609,13 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H163" t="n">
         <v>3.2</v>
       </c>
       <c r="I163" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J163" t="n">
         <v>3.1</v>
@@ -23282,13 +23624,13 @@
         <v>2.05</v>
       </c>
       <c r="L163" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M163" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N163" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O163" t="n">
         <v>1.36</v>
@@ -23309,10 +23651,10 @@
         <v>1.22</v>
       </c>
       <c r="U163" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V163" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W163" t="n">
         <v>1.83</v>
@@ -23321,25 +23663,25 @@
         <v>1.83</v>
       </c>
       <c r="Y163" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z163" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA163" t="n">
         <v>9.5</v>
       </c>
       <c r="AB163" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC163" t="n">
         <v>21</v>
       </c>
       <c r="AD163" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE163" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF163" t="n">
         <v>6</v>
@@ -23360,16 +23702,16 @@
         <v>15</v>
       </c>
       <c r="AL163" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM163" t="n">
         <v>34</v>
       </c>
       <c r="AN163" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO163" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP163" t="inlineStr"/>
       <c r="AQ163" t="inlineStr"/>
@@ -24117,39 +24459,39 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.37</v>
+        <v>2.57</v>
       </c>
       <c r="H169" t="n">
         <v>3.15</v>
       </c>
       <c r="I169" t="n">
-        <v>2.82</v>
+        <v>2.6</v>
       </c>
       <c r="J169" t="n">
-        <v>2.95</v>
+        <v>3.2</v>
       </c>
       <c r="K169" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L169" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
       <c r="O169" t="n">
-        <v>1.36</v>
+        <v>1.35</v>
       </c>
       <c r="P169" t="n">
-        <v>2.67</v>
+        <v>2.7</v>
       </c>
       <c r="Q169" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="R169" t="n">
         <v>1.62</v>
       </c>
       <c r="S169" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="T169" t="n">
         <v>1.23</v>
@@ -24161,25 +24503,25 @@
         <v>2.47</v>
       </c>
       <c r="W169" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="X169" t="n">
         <v>1.8</v>
       </c>
       <c r="Y169" t="n">
-        <v>7.3</v>
+        <v>7.6</v>
       </c>
       <c r="Z169" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AA169" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB169" t="n">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="AC169" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD169" t="n">
         <v>35</v>
@@ -24191,7 +24533,7 @@
         <v>6.1</v>
       </c>
       <c r="AG169" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AH169" t="n">
         <v>80</v>
@@ -24200,22 +24542,22 @@
         <v>700</v>
       </c>
       <c r="AJ169" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AK169" t="n">
-        <v>13.5</v>
+        <v>12.5</v>
       </c>
       <c r="AL169" t="n">
-        <v>10.5</v>
+        <v>10</v>
       </c>
       <c r="AM169" t="n">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="AN169" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO169" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AP169" t="inlineStr"/>
       <c r="AQ169" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-16.xlsx
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="H3" t="n">
         <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.63</v>
+        <v>2.8</v>
       </c>
       <c r="J3" t="n">
         <v>2.88</v>
@@ -848,7 +848,7 @@
         <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -896,10 +896,10 @@
         <v>11</v>
       </c>
       <c r="AB3" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC3" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD3" t="n">
         <v>21</v>
@@ -923,7 +923,7 @@
         <v>17</v>
       </c>
       <c r="AK3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL3" t="n">
         <v>12</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="G4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H4" t="n">
         <v>4.5</v>
@@ -983,7 +983,7 @@
         <v>1.6</v>
       </c>
       <c r="J4" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="K4" t="n">
         <v>2.5</v>
@@ -992,16 +992,16 @@
         <v>2.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N4" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O4" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P4" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q4" t="n">
         <v>1.5</v>
@@ -1010,10 +1010,10 @@
         <v>2.63</v>
       </c>
       <c r="S4" t="n">
-        <v>2.2</v>
+        <v>2.3</v>
       </c>
       <c r="T4" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U4" t="n">
         <v>1.25</v>
@@ -1064,7 +1064,7 @@
         <v>10</v>
       </c>
       <c r="AK4" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL4" t="n">
         <v>8.5</v>
@@ -1079,10 +1079,10 @@
         <v>19</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="AQ4" t="n">
-        <v>2.07</v>
+        <v>2.08</v>
       </c>
       <c r="AR4" t="inlineStr"/>
       <c r="AS4" t="inlineStr"/>
@@ -1431,10 +1431,10 @@
         <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.06</v>
+        <v>2.05</v>
       </c>
       <c r="R7" t="n">
-        <v>1.84</v>
+        <v>1.85</v>
       </c>
       <c r="S7" t="n">
         <v>3.5</v>
@@ -1578,10 +1578,10 @@
         <v>1.86</v>
       </c>
       <c r="S8" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U8" t="n">
         <v>1.4</v>
@@ -1788,10 +1788,10 @@
         <v>29</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
@@ -1834,7 +1834,7 @@
         <v>5.75</v>
       </c>
       <c r="I10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
         <v>1.73</v>
@@ -1843,7 +1843,7 @@
         <v>2.75</v>
       </c>
       <c r="L10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
         <v>1.01</v>
@@ -1852,10 +1852,10 @@
         <v>23</v>
       </c>
       <c r="O10" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="P10" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="Q10" t="n">
         <v>1.4</v>
@@ -1891,22 +1891,22 @@
         <v>9</v>
       </c>
       <c r="AB10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC10" t="n">
         <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
         <v>23</v>
       </c>
       <c r="AF10" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH10" t="n">
         <v>41</v>
@@ -1927,7 +1927,7 @@
         <v>81</v>
       </c>
       <c r="AN10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO10" t="n">
         <v>41</v>
@@ -2128,10 +2128,10 @@
         <v>4</v>
       </c>
       <c r="M12" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O12" t="n">
         <v>1.29</v>
@@ -2140,10 +2140,10 @@
         <v>3.75</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.97</v>
+        <v>1.98</v>
       </c>
       <c r="R12" t="n">
-        <v>1.93</v>
+        <v>1.92</v>
       </c>
       <c r="S12" t="n">
         <v>3.4</v>
@@ -2281,16 +2281,16 @@
         <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="R13" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="S13" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T13" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U13" t="n">
         <v>1.5</v>
@@ -2620,7 +2620,7 @@
         <v>151</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK15" t="n">
         <v>11</v>
@@ -2845,10 +2845,10 @@
         <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R17" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S17" t="n">
         <v>3.25</v>
@@ -2956,13 +2956,13 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="H18" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="I18" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="J18" t="n">
         <v>1.8</v>
@@ -2986,10 +2986,10 @@
         <v>6</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R18" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="S18" t="n">
         <v>2</v>
@@ -3019,7 +3019,7 @@
         <v>8.5</v>
       </c>
       <c r="AB18" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC18" t="n">
         <v>10</v>
@@ -3034,7 +3034,7 @@
         <v>11</v>
       </c>
       <c r="AG18" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
         <v>41</v>
@@ -3055,7 +3055,7 @@
         <v>81</v>
       </c>
       <c r="AN18" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO18" t="n">
         <v>41</v>
@@ -3382,7 +3382,7 @@
         <v>5.25</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I21" t="n">
         <v>1.75</v>
@@ -3421,10 +3421,10 @@
         <v>1.2</v>
       </c>
       <c r="U21" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V21" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W21" t="n">
         <v>2.1</v>
@@ -3485,8 +3485,12 @@
       </c>
       <c r="AP21" t="inlineStr"/>
       <c r="AQ21" t="inlineStr"/>
-      <c r="AR21" t="inlineStr"/>
-      <c r="AS21" t="inlineStr"/>
+      <c r="AR21" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS21" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -3768,10 +3772,10 @@
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="n">
-        <v>1.87</v>
+        <v>1.88</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.03</v>
+        <v>2.02</v>
       </c>
     </row>
     <row r="24">
@@ -3806,22 +3810,22 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K24" t="n">
         <v>1.95</v>
       </c>
       <c r="L24" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M24" t="n">
         <v>1.1</v>
@@ -3863,7 +3867,7 @@
         <v>6.5</v>
       </c>
       <c r="Z24" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA24" t="n">
         <v>10</v>
@@ -3872,7 +3876,7 @@
         <v>23</v>
       </c>
       <c r="AC24" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD24" t="n">
         <v>34</v>
@@ -3913,10 +3917,10 @@
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="n">
-        <v>1.81</v>
+        <v>1.82</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.09</v>
+        <v>2.08</v>
       </c>
     </row>
     <row r="25">
@@ -4249,13 +4253,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="H27" t="n">
         <v>2.88</v>
       </c>
       <c r="I27" t="n">
-        <v>4.33</v>
+        <v>4.2</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
@@ -4267,10 +4271,10 @@
         <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N27" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O27" t="n">
         <v>1.62</v>
@@ -4306,7 +4310,7 @@
         <v>5</v>
       </c>
       <c r="Z27" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA27" t="n">
         <v>10</v>
@@ -4345,7 +4349,7 @@
         <v>17</v>
       </c>
       <c r="AM27" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN27" t="n">
         <v>41</v>
@@ -4357,13 +4361,13 @@
         <v>5.2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.21</v>
+        <v>2.24</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.68</v>
+        <v>1.66</v>
       </c>
     </row>
     <row r="28">
@@ -4503,7 +4507,7 @@
         <v>51</v>
       </c>
       <c r="AP28" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.32</v>
@@ -4556,7 +4560,7 @@
         <v>3.7</v>
       </c>
       <c r="J29" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K29" t="n">
         <v>1.8</v>
@@ -4565,10 +4569,10 @@
         <v>4.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N29" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
         <v>1.67</v>
@@ -4622,7 +4626,7 @@
         <v>5</v>
       </c>
       <c r="AF29" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG29" t="n">
         <v>23</v>
@@ -4704,16 +4708,16 @@
         <v>3.25</v>
       </c>
       <c r="K30" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L30" t="n">
         <v>4.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="N30" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="O30" t="n">
         <v>1.62</v>
@@ -4779,7 +4783,7 @@
         <v>101</v>
       </c>
       <c r="AJ30" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK30" t="n">
         <v>15</v>
@@ -4855,10 +4859,10 @@
         <v>5</v>
       </c>
       <c r="M31" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N31" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O31" t="n">
         <v>1.67</v>
@@ -4891,7 +4895,7 @@
         <v>1.44</v>
       </c>
       <c r="Y31" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z31" t="n">
         <v>8</v>
@@ -4903,7 +4907,7 @@
         <v>19</v>
       </c>
       <c r="AC31" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD31" t="n">
         <v>51</v>
@@ -4918,7 +4922,7 @@
         <v>26</v>
       </c>
       <c r="AH31" t="n">
-        <v>101</v>
+        <v>126</v>
       </c>
       <c r="AI31" t="n">
         <v>101</v>
@@ -4933,13 +4937,13 @@
         <v>17</v>
       </c>
       <c r="AM31" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN31" t="n">
         <v>41</v>
       </c>
       <c r="AO31" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -5000,10 +5004,10 @@
         <v>4.5</v>
       </c>
       <c r="M32" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N32" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O32" t="n">
         <v>1.67</v>
@@ -5042,13 +5046,13 @@
         <v>9.5</v>
       </c>
       <c r="AA32" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB32" t="n">
         <v>23</v>
       </c>
       <c r="AC32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD32" t="n">
         <v>51</v>
@@ -5283,7 +5287,7 @@
         <v>1.83</v>
       </c>
       <c r="L34" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M34" t="n">
         <v>1.14</v>
@@ -5349,7 +5353,7 @@
         <v>21</v>
       </c>
       <c r="AH34" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI34" t="n">
         <v>101</v>
@@ -5428,13 +5432,13 @@
         <v>1.83</v>
       </c>
       <c r="L35" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M35" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N35" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O35" t="n">
         <v>1.62</v>
@@ -5461,13 +5465,13 @@
         <v>2.1</v>
       </c>
       <c r="W35" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X35" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y35" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Z35" t="n">
         <v>10</v>
@@ -5476,16 +5480,16 @@
         <v>11</v>
       </c>
       <c r="AB35" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD35" t="n">
         <v>41</v>
       </c>
       <c r="AE35" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="AF35" t="n">
         <v>5.5</v>
@@ -5509,7 +5513,7 @@
         <v>13</v>
       </c>
       <c r="AM35" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN35" t="n">
         <v>34</v>
@@ -5572,10 +5576,10 @@
         <v>5.5</v>
       </c>
       <c r="M36" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="N36" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="O36" t="n">
         <v>1.83</v>
@@ -5632,7 +5636,7 @@
         <v>6</v>
       </c>
       <c r="AG36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH36" t="n">
         <v>151</v>
@@ -5707,7 +5711,7 @@
         <v>2.6</v>
       </c>
       <c r="K37" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L37" t="n">
         <v>3.4</v>
@@ -5788,7 +5792,7 @@
         <v>21</v>
       </c>
       <c r="AL37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM37" t="n">
         <v>34</v>
@@ -5839,10 +5843,10 @@
         <v>3.25</v>
       </c>
       <c r="H38" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I38" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="J38" t="n">
         <v>3.75</v>
@@ -5851,13 +5855,13 @@
         <v>2.1</v>
       </c>
       <c r="L38" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M38" t="n">
         <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O38" t="n">
         <v>1.3</v>
@@ -5866,10 +5870,10 @@
         <v>3.4</v>
       </c>
       <c r="Q38" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R38" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S38" t="n">
         <v>3.5</v>
@@ -5878,10 +5882,10 @@
         <v>1.29</v>
       </c>
       <c r="U38" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V38" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W38" t="n">
         <v>1.8</v>
@@ -5890,10 +5894,10 @@
         <v>1.95</v>
       </c>
       <c r="Y38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="Z38" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA38" t="n">
         <v>12</v>
@@ -5911,7 +5915,7 @@
         <v>9.5</v>
       </c>
       <c r="AF38" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG38" t="n">
         <v>15</v>
@@ -5923,13 +5927,13 @@
         <v>251</v>
       </c>
       <c r="AJ38" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK38" t="n">
         <v>11</v>
       </c>
       <c r="AL38" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM38" t="n">
         <v>21</v>
@@ -6118,13 +6122,13 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="H40" t="n">
         <v>3.4</v>
       </c>
       <c r="I40" t="n">
-        <v>2.9</v>
+        <v>2.8</v>
       </c>
       <c r="J40" t="n">
         <v>3</v>
@@ -6133,13 +6137,13 @@
         <v>2.2</v>
       </c>
       <c r="L40" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M40" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="O40" t="n">
         <v>1.25</v>
@@ -6148,16 +6152,16 @@
         <v>3.75</v>
       </c>
       <c r="Q40" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="R40" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S40" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T40" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U40" t="n">
         <v>1.36</v>
@@ -6259,22 +6263,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.65</v>
+        <v>2.5</v>
       </c>
       <c r="H41" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="I41" t="n">
-        <v>2.67</v>
+        <v>2.82</v>
       </c>
       <c r="J41" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="K41" t="n">
-        <v>1.9</v>
+        <v>1.91</v>
       </c>
       <c r="L41" t="n">
-        <v>3.35</v>
+        <v>3.5</v>
       </c>
       <c r="M41" t="n">
         <v>1.1</v>
@@ -6286,10 +6290,10 @@
         <v>1.47</v>
       </c>
       <c r="P41" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="Q41" t="n">
         <v>2.35</v>
-      </c>
-      <c r="Q41" t="n">
-        <v>2.32</v>
       </c>
       <c r="R41" t="n">
         <v>1.47</v>
@@ -6301,31 +6305,31 @@
         <v>1.16</v>
       </c>
       <c r="U41" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="V41" t="n">
-        <v>2.22</v>
+        <v>2.25</v>
       </c>
       <c r="W41" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="X41" t="n">
         <v>1.65</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.5</v>
+        <v>6.3</v>
       </c>
       <c r="Z41" t="n">
-        <v>11.75</v>
+        <v>10.75</v>
       </c>
       <c r="AA41" t="n">
-        <v>10.5</v>
+        <v>10.25</v>
       </c>
       <c r="AB41" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="AC41" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="AD41" t="n">
         <v>45</v>
@@ -6334,10 +6338,10 @@
         <v>6.7</v>
       </c>
       <c r="AF41" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AG41" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AH41" t="n">
         <v>110</v>
@@ -6346,19 +6350,19 @@
         <v>101</v>
       </c>
       <c r="AJ41" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AK41" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL41" t="n">
-        <v>10.5</v>
+        <v>11</v>
       </c>
       <c r="AM41" t="n">
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="AN41" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AO41" t="n">
         <v>45</v>
@@ -6403,13 +6407,13 @@
         <v>5.9</v>
       </c>
       <c r="H42" t="n">
-        <v>4.45</v>
+        <v>4.4</v>
       </c>
       <c r="I42" t="n">
         <v>1.44</v>
       </c>
       <c r="J42" t="n">
-        <v>5.5</v>
+        <v>5.6</v>
       </c>
       <c r="K42" t="n">
         <v>2.4</v>
@@ -6423,27 +6427,27 @@
         <v>1.19</v>
       </c>
       <c r="P42" t="n">
-        <v>4.2</v>
+        <v>3.7</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R42" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="S42" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="T42" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="X42" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="Y42" t="n">
         <v>18</v>
@@ -6452,49 +6456,49 @@
         <v>37</v>
       </c>
       <c r="AA42" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AB42" t="n">
         <v>120</v>
       </c>
       <c r="AC42" t="n">
-        <v>55</v>
+        <v>60</v>
       </c>
       <c r="AD42" t="n">
         <v>55</v>
       </c>
       <c r="AE42" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AF42" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AG42" t="n">
         <v>17.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>70</v>
+        <v>75</v>
       </c>
       <c r="AI42" t="n">
         <v>500</v>
       </c>
       <c r="AJ42" t="n">
-        <v>8</v>
+        <v>7.8</v>
       </c>
       <c r="AK42" t="n">
-        <v>7.4</v>
+        <v>7.2</v>
       </c>
       <c r="AL42" t="n">
         <v>8.25</v>
       </c>
       <c r="AM42" t="n">
-        <v>10</v>
+        <v>9.75</v>
       </c>
       <c r="AN42" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AO42" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
@@ -6533,7 +6537,7 @@
         </is>
       </c>
       <c r="G43" t="n">
-        <v>1.48</v>
+        <v>1.45</v>
       </c>
       <c r="H43" t="n">
         <v>4.5</v>
@@ -6551,28 +6555,28 @@
         <v>6</v>
       </c>
       <c r="M43" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N43" t="n">
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P43" t="n">
         <v>4.33</v>
       </c>
       <c r="Q43" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R43" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S43" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T43" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U43" t="n">
         <v>1.33</v>
@@ -6581,10 +6585,10 @@
         <v>3.25</v>
       </c>
       <c r="W43" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X43" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y43" t="n">
         <v>7.5</v>
@@ -6611,7 +6615,7 @@
         <v>8.5</v>
       </c>
       <c r="AG43" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH43" t="n">
         <v>51</v>
@@ -6674,31 +6678,31 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="H44" t="n">
         <v>4.33</v>
       </c>
       <c r="I44" t="n">
-        <v>5.25</v>
+        <v>5.5</v>
       </c>
       <c r="J44" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="K44" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L44" t="n">
         <v>5.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N44" t="n">
         <v>15</v>
       </c>
       <c r="O44" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P44" t="n">
         <v>4.33</v>
@@ -6710,22 +6714,22 @@
         <v>2.15</v>
       </c>
       <c r="S44" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T44" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U44" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V44" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W44" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X44" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y44" t="n">
         <v>8</v>
@@ -6737,7 +6741,7 @@
         <v>8.5</v>
       </c>
       <c r="AB44" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC44" t="n">
         <v>12</v>
@@ -6746,7 +6750,7 @@
         <v>23</v>
       </c>
       <c r="AE44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF44" t="n">
         <v>8.5</v>
@@ -6761,7 +6765,7 @@
         <v>201</v>
       </c>
       <c r="AJ44" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK44" t="n">
         <v>29</v>
@@ -6833,13 +6837,13 @@
         <v>3.4</v>
       </c>
       <c r="M45" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N45" t="n">
         <v>11</v>
       </c>
       <c r="O45" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P45" t="n">
         <v>3.5</v>
@@ -6854,7 +6858,7 @@
         <v>3.4</v>
       </c>
       <c r="T45" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="U45" t="n">
         <v>1.4</v>
@@ -6974,13 +6978,13 @@
         <v>3.4</v>
       </c>
       <c r="M46" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N46" t="n">
         <v>13</v>
       </c>
       <c r="O46" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="P46" t="n">
         <v>4.33</v>
@@ -6992,10 +6996,10 @@
         <v>2.1</v>
       </c>
       <c r="S46" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="T46" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="U46" t="n">
         <v>1.33</v>
@@ -7097,46 +7101,46 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H47" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I47" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="J47" t="n">
         <v>4</v>
       </c>
       <c r="K47" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L47" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N47" t="n">
         <v>12</v>
       </c>
       <c r="O47" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P47" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q47" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="R47" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="S47" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T47" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="U47" t="n">
         <v>1.36</v>
@@ -7154,16 +7158,16 @@
         <v>12</v>
       </c>
       <c r="Z47" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AA47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB47" t="n">
         <v>41</v>
       </c>
       <c r="AC47" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD47" t="n">
         <v>34</v>
@@ -7190,7 +7194,7 @@
         <v>10</v>
       </c>
       <c r="AL47" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AM47" t="n">
         <v>17</v>
@@ -7400,7 +7404,7 @@
         <v>1.03</v>
       </c>
       <c r="N49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O49" t="n">
         <v>1.17</v>
@@ -7409,16 +7413,16 @@
         <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R49" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S49" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T49" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U49" t="n">
         <v>1.29</v>
@@ -7484,10 +7488,10 @@
         <v>21</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr"/>
@@ -7536,16 +7540,16 @@
         <v>2.25</v>
       </c>
       <c r="K50" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L50" t="n">
         <v>5.5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N50" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="O50" t="n">
         <v>1.29</v>
@@ -7593,10 +7597,10 @@
         <v>13</v>
       </c>
       <c r="AD50" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AE50" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF50" t="n">
         <v>7</v>
@@ -7608,7 +7612,7 @@
         <v>51</v>
       </c>
       <c r="AI50" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ50" t="n">
         <v>15</v>
@@ -7617,7 +7621,7 @@
         <v>29</v>
       </c>
       <c r="AL50" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM50" t="n">
         <v>51</v>
@@ -7683,10 +7687,10 @@
         <v>11</v>
       </c>
       <c r="M51" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N51" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="O51" t="n">
         <v>1.29</v>
@@ -7746,25 +7750,25 @@
         <v>29</v>
       </c>
       <c r="AH51" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI51" t="n">
         <v>101</v>
       </c>
       <c r="AJ51" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK51" t="n">
         <v>51</v>
       </c>
       <c r="AL51" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AM51" t="n">
         <v>201</v>
       </c>
       <c r="AN51" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AO51" t="n">
         <v>101</v>
@@ -7965,10 +7969,10 @@
         <v>2.2</v>
       </c>
       <c r="M53" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N53" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O53" t="n">
         <v>1.29</v>
@@ -7977,10 +7981,10 @@
         <v>3.5</v>
       </c>
       <c r="Q53" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R53" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S53" t="n">
         <v>3.4</v>
@@ -8245,28 +8249,28 @@
         </is>
       </c>
       <c r="G55" t="n">
-        <v>2.45</v>
+        <v>2.35</v>
       </c>
       <c r="H55" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I55" t="n">
+        <v>3</v>
+      </c>
+      <c r="J55" t="n">
         <v>3.25</v>
-      </c>
-      <c r="I55" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="J55" t="n">
-        <v>3.4</v>
       </c>
       <c r="K55" t="n">
         <v>1.91</v>
       </c>
       <c r="L55" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M55" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O55" t="n">
         <v>1.53</v>
@@ -8275,10 +8279,10 @@
         <v>2.38</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.6</v>
+        <v>2.7</v>
       </c>
       <c r="R55" t="n">
-        <v>1.48</v>
+        <v>1.44</v>
       </c>
       <c r="S55" t="n">
         <v>5.5</v>
@@ -8305,7 +8309,7 @@
         <v>10</v>
       </c>
       <c r="AA55" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB55" t="n">
         <v>23</v>
@@ -8317,7 +8321,7 @@
         <v>41</v>
       </c>
       <c r="AE55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF55" t="n">
         <v>6.5</v>
@@ -8332,7 +8336,7 @@
         <v>101</v>
       </c>
       <c r="AJ55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK55" t="n">
         <v>13</v>
@@ -8356,10 +8360,10 @@
         <v>1.21</v>
       </c>
       <c r="AR55" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="56">
@@ -8546,7 +8550,7 @@
         <v>2.1</v>
       </c>
       <c r="H57" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I57" t="n">
         <v>3.6</v>
@@ -8555,28 +8559,28 @@
         <v>2.88</v>
       </c>
       <c r="K57" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L57" t="n">
         <v>4</v>
       </c>
       <c r="M57" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N57" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O57" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P57" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q57" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R57" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S57" t="n">
         <v>3.75</v>
@@ -8615,7 +8619,7 @@
         <v>29</v>
       </c>
       <c r="AE57" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF57" t="n">
         <v>6</v>
@@ -8630,7 +8634,7 @@
         <v>301</v>
       </c>
       <c r="AJ57" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK57" t="n">
         <v>17</v>
@@ -8702,10 +8706,10 @@
         <v>3.1</v>
       </c>
       <c r="M58" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O58" t="n">
         <v>1.4</v>
@@ -8714,16 +8718,16 @@
         <v>2.75</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R58" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="S58" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T58" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U58" t="n">
         <v>1.5</v>
@@ -8825,19 +8829,19 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="H59" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="I59" t="n">
-        <v>17.5</v>
+        <v>18.5</v>
       </c>
       <c r="J59" t="n">
-        <v>1.5</v>
+        <v>1.52</v>
       </c>
       <c r="K59" t="n">
-        <v>2.77</v>
+        <v>2.72</v>
       </c>
       <c r="L59" t="n">
         <v>11.5</v>
@@ -8849,16 +8853,16 @@
         <v>10.5</v>
       </c>
       <c r="O59" t="n">
-        <v>1.15</v>
+        <v>1.14</v>
       </c>
       <c r="P59" t="n">
-        <v>5</v>
+        <v>5.1</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.47</v>
+        <v>1.45</v>
       </c>
       <c r="R59" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="S59" t="n">
         <v>2.07</v>
@@ -8867,10 +8871,10 @@
         <v>1.7</v>
       </c>
       <c r="U59" t="n">
-        <v>1.26</v>
+        <v>1.27</v>
       </c>
       <c r="V59" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="W59" t="n">
         <v>2.18</v>
@@ -8882,46 +8886,46 @@
         <v>7</v>
       </c>
       <c r="Z59" t="n">
-        <v>6.5</v>
+        <v>6.4</v>
       </c>
       <c r="AA59" t="n">
         <v>10.75</v>
       </c>
       <c r="AB59" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AC59" t="n">
         <v>11.5</v>
       </c>
       <c r="AD59" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE59" t="n">
         <v>10.5</v>
       </c>
       <c r="AF59" t="n">
-        <v>14.5</v>
+        <v>15</v>
       </c>
       <c r="AG59" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AH59" t="n">
-        <v>175</v>
+        <v>150</v>
       </c>
       <c r="AI59" t="n">
         <v>1250</v>
       </c>
       <c r="AJ59" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AK59" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AL59" t="n">
         <v>60</v>
       </c>
       <c r="AM59" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AN59" t="n">
         <v>350</v>
@@ -9296,10 +9300,10 @@
         <v>2.63</v>
       </c>
       <c r="W62" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="X62" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="Y62" t="n">
         <v>7</v>
@@ -9389,7 +9393,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="H63" t="n">
         <v>3.5</v>
@@ -9413,22 +9417,22 @@
         <v>11</v>
       </c>
       <c r="O63" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P63" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.79</v>
+        <v>1.93</v>
       </c>
       <c r="R63" t="n">
-        <v>1.94</v>
+        <v>1.93</v>
       </c>
       <c r="S63" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T63" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U63" t="n">
         <v>1.36</v>
@@ -9437,7 +9441,7 @@
         <v>3</v>
       </c>
       <c r="W63" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X63" t="n">
         <v>2.05</v>
@@ -9548,28 +9552,28 @@
         <v>2.63</v>
       </c>
       <c r="M64" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N64" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O64" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T64" t="n">
         <v>1.3</v>
-      </c>
-      <c r="P64" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R64" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="S64" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T64" t="n">
-        <v>1.29</v>
       </c>
       <c r="U64" t="n">
         <v>1.4</v>
@@ -9692,7 +9696,7 @@
         <v>1.03</v>
       </c>
       <c r="N65" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O65" t="n">
         <v>1.17</v>
@@ -9701,16 +9705,16 @@
         <v>5</v>
       </c>
       <c r="Q65" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T65" t="n">
         <v>1.57</v>
-      </c>
-      <c r="R65" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="S65" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="T65" t="n">
-        <v>1.53</v>
       </c>
       <c r="U65" t="n">
         <v>1.29</v>
@@ -9776,10 +9780,10 @@
         <v>67</v>
       </c>
       <c r="AP65" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AQ65" t="n">
         <v>1.98</v>
-      </c>
-      <c r="AQ65" t="n">
-        <v>1.88</v>
       </c>
       <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr"/>
@@ -9921,10 +9925,10 @@
         <v>19</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="AR66" t="inlineStr"/>
       <c r="AS66" t="inlineStr"/>
@@ -10533,22 +10537,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="H71" t="n">
         <v>3.2</v>
       </c>
       <c r="I71" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="J71" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K71" t="n">
         <v>2.05</v>
       </c>
       <c r="L71" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="M71" t="n">
         <v>1.07</v>
@@ -10587,7 +10591,7 @@
         <v>1.83</v>
       </c>
       <c r="Y71" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z71" t="n">
         <v>13</v>
@@ -10596,7 +10600,7 @@
         <v>11</v>
       </c>
       <c r="AB71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC71" t="n">
         <v>23</v>
@@ -10620,16 +10624,16 @@
         <v>301</v>
       </c>
       <c r="AJ71" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK71" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL71" t="n">
         <v>10</v>
       </c>
       <c r="AM71" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN71" t="n">
         <v>21</v>
@@ -10674,22 +10678,22 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H72" t="n">
         <v>3.1</v>
       </c>
       <c r="I72" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="J72" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K72" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L72" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M72" t="n">
         <v>1.07</v>
@@ -10722,10 +10726,10 @@
         <v>2.63</v>
       </c>
       <c r="W72" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X72" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y72" t="n">
         <v>8</v>
@@ -10737,22 +10741,22 @@
         <v>10</v>
       </c>
       <c r="AB72" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC72" t="n">
         <v>21</v>
       </c>
       <c r="AD72" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE72" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF72" t="n">
         <v>6</v>
       </c>
       <c r="AG72" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH72" t="n">
         <v>51</v>
@@ -10761,10 +10765,10 @@
         <v>251</v>
       </c>
       <c r="AJ72" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK72" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL72" t="n">
         <v>11</v>
@@ -10959,16 +10963,16 @@
         <v>1.6</v>
       </c>
       <c r="H74" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="I74" t="n">
         <v>5.7</v>
       </c>
       <c r="J74" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="K74" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L74" t="n">
         <v>5.6</v>
@@ -10980,10 +10984,10 @@
         <v>6.9</v>
       </c>
       <c r="O74" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="P74" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="Q74" t="n">
         <v>1.95</v>
@@ -10992,28 +10996,28 @@
         <v>1.75</v>
       </c>
       <c r="S74" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="T74" t="n">
         <v>1.29</v>
       </c>
       <c r="U74" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="V74" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="W74" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="X74" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="Y74" t="n">
         <v>6</v>
       </c>
       <c r="Z74" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AA74" t="n">
         <v>8</v>
@@ -11043,13 +11047,13 @@
         <v>800</v>
       </c>
       <c r="AJ74" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AK74" t="n">
         <v>35</v>
       </c>
       <c r="AL74" t="n">
-        <v>17.5</v>
+        <v>18</v>
       </c>
       <c r="AM74" t="n">
         <v>120</v>
@@ -11058,7 +11062,7 @@
         <v>65</v>
       </c>
       <c r="AO74" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AP74" t="inlineStr"/>
       <c r="AQ74" t="inlineStr"/>
@@ -11097,67 +11101,67 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="H75" t="n">
-        <v>4.3</v>
+        <v>4.05</v>
       </c>
       <c r="I75" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="J75" t="n">
         <v>8.25</v>
       </c>
       <c r="K75" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="L75" t="n">
-        <v>1.82</v>
+        <v>1.88</v>
       </c>
       <c r="M75" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N75" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="O75" t="n">
-        <v>1.33</v>
+        <v>1.38</v>
       </c>
       <c r="P75" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
       <c r="Q75" t="n">
-        <v>1.98</v>
+        <v>2.12</v>
       </c>
       <c r="R75" t="n">
-        <v>1.75</v>
+        <v>1.65</v>
       </c>
       <c r="S75" t="n">
-        <v>3.3</v>
+        <v>3.65</v>
       </c>
       <c r="T75" t="n">
-        <v>1.29</v>
+        <v>1.24</v>
       </c>
       <c r="U75" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V75" t="n">
-        <v>2.75</v>
+        <v>2.57</v>
       </c>
       <c r="W75" t="n">
-        <v>2.37</v>
+        <v>2.52</v>
       </c>
       <c r="X75" t="n">
-        <v>1.52</v>
+        <v>1.47</v>
       </c>
       <c r="Y75" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="Z75" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AA75" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AB75" t="n">
         <v>300</v>
@@ -11169,37 +11173,37 @@
         <v>150</v>
       </c>
       <c r="AE75" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF75" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AG75" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AH75" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AI75" t="n">
         <v>101</v>
       </c>
       <c r="AJ75" t="n">
-        <v>5.3</v>
+        <v>4.85</v>
       </c>
       <c r="AK75" t="n">
-        <v>5.4</v>
+        <v>5.2</v>
       </c>
       <c r="AL75" t="n">
         <v>9</v>
       </c>
       <c r="AM75" t="n">
-        <v>7.8</v>
+        <v>8</v>
       </c>
       <c r="AN75" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO75" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP75" t="inlineStr"/>
       <c r="AQ75" t="inlineStr"/>
@@ -11397,13 +11401,13 @@
         <v>4.5</v>
       </c>
       <c r="M77" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N77" t="n">
         <v>15</v>
       </c>
       <c r="O77" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P77" t="n">
         <v>4</v>
@@ -11418,7 +11422,7 @@
         <v>2.75</v>
       </c>
       <c r="T77" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U77" t="n">
         <v>1.33</v>
@@ -11538,13 +11542,13 @@
         <v>2.2</v>
       </c>
       <c r="M78" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N78" t="n">
         <v>15</v>
       </c>
       <c r="O78" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P78" t="n">
         <v>4.33</v>
@@ -11556,10 +11560,10 @@
         <v>2.1</v>
       </c>
       <c r="S78" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T78" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U78" t="n">
         <v>1.33</v>
@@ -11679,13 +11683,13 @@
         <v>3.75</v>
       </c>
       <c r="M79" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N79" t="n">
         <v>17</v>
       </c>
       <c r="O79" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P79" t="n">
         <v>5</v>
@@ -11697,10 +11701,10 @@
         <v>2.35</v>
       </c>
       <c r="S79" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T79" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U79" t="n">
         <v>1.29</v>
@@ -11824,13 +11828,13 @@
         <v>2.3</v>
       </c>
       <c r="M80" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N80" t="n">
         <v>13</v>
       </c>
       <c r="O80" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P80" t="n">
         <v>4</v>
@@ -11845,7 +11849,7 @@
         <v>2.75</v>
       </c>
       <c r="T80" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U80" t="n">
         <v>1.33</v>
@@ -11947,31 +11951,31 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H81" t="n">
         <v>3.7</v>
       </c>
       <c r="I81" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="J81" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K81" t="n">
         <v>2.38</v>
       </c>
       <c r="L81" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M81" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N81" t="n">
         <v>17</v>
       </c>
       <c r="O81" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="P81" t="n">
         <v>5</v>
@@ -11983,10 +11987,10 @@
         <v>2.35</v>
       </c>
       <c r="S81" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="T81" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U81" t="n">
         <v>1.3</v>
@@ -12010,7 +12014,7 @@
         <v>9</v>
       </c>
       <c r="AB81" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC81" t="n">
         <v>15</v>
@@ -12040,13 +12044,13 @@
         <v>19</v>
       </c>
       <c r="AL81" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM81" t="n">
         <v>34</v>
       </c>
       <c r="AN81" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO81" t="n">
         <v>26</v>
@@ -12110,13 +12114,13 @@
         <v>4.75</v>
       </c>
       <c r="M82" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N82" t="n">
         <v>15</v>
       </c>
       <c r="O82" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P82" t="n">
         <v>4.33</v>
@@ -12128,10 +12132,10 @@
         <v>2.15</v>
       </c>
       <c r="S82" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T82" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U82" t="n">
         <v>1.33</v>
@@ -12266,7 +12270,7 @@
         <v>2.6</v>
       </c>
       <c r="R83" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S83" t="n">
         <v>5.5</v>
@@ -12284,7 +12288,7 @@
         <v>2.2</v>
       </c>
       <c r="X83" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Y83" t="n">
         <v>7.5</v>
@@ -12382,7 +12386,7 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="H84" t="n">
         <v>5.5</v>
@@ -12400,40 +12404,40 @@
         <v>10</v>
       </c>
       <c r="M84" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N84" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O84" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P84" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="R84" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="S84" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T84" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U84" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V84" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W84" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="X84" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y84" t="n">
         <v>6</v>
@@ -12457,7 +12461,7 @@
         <v>11</v>
       </c>
       <c r="AF84" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AG84" t="n">
         <v>29</v>
@@ -12487,16 +12491,16 @@
         <v>81</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.59</v>
+        <v>1.62</v>
       </c>
       <c r="AR84" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AS84" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="85">
@@ -12531,22 +12535,22 @@
         </is>
       </c>
       <c r="G85" t="n">
+        <v>21</v>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+      <c r="I85" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="J85" t="n">
         <v>17</v>
       </c>
-      <c r="H85" t="n">
-        <v>6.25</v>
-      </c>
-      <c r="I85" t="n">
-        <v>1.15</v>
-      </c>
-      <c r="J85" t="n">
-        <v>13</v>
-      </c>
       <c r="K85" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L85" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="M85" t="n">
         <v>1.03</v>
@@ -12564,7 +12568,7 @@
         <v>1.67</v>
       </c>
       <c r="R85" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S85" t="n">
         <v>2.63</v>
@@ -12573,58 +12577,58 @@
         <v>1.44</v>
       </c>
       <c r="U85" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V85" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="W85" t="n">
-        <v>2.62</v>
+        <v>3</v>
       </c>
       <c r="X85" t="n">
-        <v>1.41</v>
+        <v>1.36</v>
       </c>
       <c r="Y85" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z85" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AA85" t="n">
+        <v>51</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>401</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>201</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>151</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>12</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>15</v>
+      </c>
+      <c r="AG85" t="n">
         <v>41</v>
       </c>
-      <c r="AB85" t="n">
-        <v>301</v>
-      </c>
-      <c r="AC85" t="n">
+      <c r="AH85" t="n">
         <v>151</v>
-      </c>
-      <c r="AD85" t="n">
-        <v>126</v>
-      </c>
-      <c r="AE85" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF85" t="n">
-        <v>12</v>
-      </c>
-      <c r="AG85" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH85" t="n">
-        <v>126</v>
       </c>
       <c r="AI85" t="n">
         <v>501</v>
       </c>
       <c r="AJ85" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK85" t="n">
         <v>5</v>
       </c>
       <c r="AL85" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM85" t="n">
         <v>6</v>
@@ -12642,10 +12646,10 @@
         <v>1.83</v>
       </c>
       <c r="AR85" t="n">
-        <v>1.33</v>
+        <v>1.32</v>
       </c>
       <c r="AS85" t="n">
-        <v>3.35</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="86">
@@ -12680,46 +12684,46 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="H86" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I86" t="n">
         <v>19</v>
       </c>
       <c r="J86" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="K86" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="L86" t="n">
         <v>13</v>
       </c>
       <c r="M86" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N86" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="O86" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P86" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="R86" t="n">
-        <v>2.4</v>
+        <v>2.7</v>
       </c>
       <c r="S86" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="T86" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="U86" t="n">
         <v>1.25</v>
@@ -12728,34 +12732,34 @@
         <v>3.75</v>
       </c>
       <c r="W86" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X86" t="n">
-        <v>1.47</v>
+        <v>1.53</v>
       </c>
       <c r="Y86" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z86" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AA86" t="n">
         <v>11</v>
       </c>
       <c r="AB86" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AC86" t="n">
         <v>12</v>
       </c>
       <c r="AD86" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE86" t="n">
+        <v>17</v>
+      </c>
+      <c r="AF86" t="n">
         <v>15</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>13</v>
       </c>
       <c r="AG86" t="n">
         <v>34</v>
@@ -12767,7 +12771,7 @@
         <v>101</v>
       </c>
       <c r="AJ86" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AK86" t="n">
         <v>81</v>
@@ -12785,16 +12789,16 @@
         <v>101</v>
       </c>
       <c r="AP86" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AR86" t="n">
         <v>1.21</v>
       </c>
       <c r="AS86" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
     </row>
     <row r="87">
@@ -12829,28 +12833,28 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.35</v>
+        <v>2.38</v>
       </c>
       <c r="H87" t="n">
         <v>3</v>
       </c>
       <c r="I87" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="J87" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K87" t="n">
         <v>1.91</v>
       </c>
       <c r="L87" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M87" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N87" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O87" t="n">
         <v>1.53</v>
@@ -12886,7 +12890,7 @@
         <v>6</v>
       </c>
       <c r="Z87" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA87" t="n">
         <v>10</v>
@@ -13143,10 +13147,10 @@
         <v>15</v>
       </c>
       <c r="O89" t="n">
-        <v>1.18</v>
+        <v>1.17</v>
       </c>
       <c r="P89" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q89" t="n">
         <v>1.6</v>
@@ -13264,13 +13268,13 @@
         </is>
       </c>
       <c r="G90" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="H90" t="n">
         <v>3.4</v>
       </c>
       <c r="I90" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J90" t="n">
         <v>3.75</v>
@@ -13279,31 +13283,31 @@
         <v>2.25</v>
       </c>
       <c r="L90" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="M90" t="n">
         <v>1.04</v>
       </c>
       <c r="N90" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O90" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P90" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.7</v>
+        <v>1.8</v>
       </c>
       <c r="R90" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="S90" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T90" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U90" t="n">
         <v>1.36</v>
@@ -13312,28 +13316,28 @@
         <v>3</v>
       </c>
       <c r="W90" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X90" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y90" t="n">
         <v>12</v>
       </c>
       <c r="Z90" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA90" t="n">
         <v>12</v>
       </c>
       <c r="AB90" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC90" t="n">
         <v>26</v>
       </c>
       <c r="AD90" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE90" t="n">
         <v>12</v>
@@ -13351,7 +13355,7 @@
         <v>151</v>
       </c>
       <c r="AJ90" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK90" t="n">
         <v>11</v>
@@ -13363,7 +13367,7 @@
         <v>19</v>
       </c>
       <c r="AN90" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO90" t="n">
         <v>23</v>
@@ -13405,42 +13409,42 @@
         </is>
       </c>
       <c r="G91" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H91" t="n">
-        <v>3.95</v>
+        <v>3.85</v>
       </c>
       <c r="I91" t="n">
         <v>4.9</v>
       </c>
       <c r="J91" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="K91" t="n">
-        <v>2.27</v>
+        <v>2.22</v>
       </c>
       <c r="L91" t="n">
-        <v>4.9</v>
+        <v>5</v>
       </c>
       <c r="M91" t="inlineStr"/>
       <c r="N91" t="inlineStr"/>
       <c r="O91" t="n">
-        <v>1.21</v>
+        <v>1.23</v>
       </c>
       <c r="P91" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q91" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R91" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="S91" t="n">
-        <v>2.5</v>
+        <v>2.57</v>
       </c>
       <c r="T91" t="n">
-        <v>1.4</v>
+        <v>1.38</v>
       </c>
       <c r="U91" t="n">
         <v>1.38</v>
@@ -13449,16 +13453,16 @@
         <v>2.57</v>
       </c>
       <c r="W91" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="X91" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="Y91" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="Z91" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AA91" t="n">
         <v>8</v>
@@ -13470,13 +13474,13 @@
         <v>12</v>
       </c>
       <c r="AD91" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AE91" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF91" t="n">
-        <v>7.8</v>
+        <v>7.6</v>
       </c>
       <c r="AG91" t="n">
         <v>15.5</v>
@@ -13485,25 +13489,25 @@
         <v>65</v>
       </c>
       <c r="AI91" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AJ91" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AK91" t="n">
         <v>30</v>
       </c>
       <c r="AL91" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AM91" t="n">
         <v>90</v>
       </c>
       <c r="AN91" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AO91" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP91" t="inlineStr"/>
       <c r="AQ91" t="inlineStr"/>
@@ -13679,60 +13683,60 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="H93" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I93" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="J93" t="n">
-        <v>3.45</v>
+        <v>3.4</v>
       </c>
       <c r="K93" t="n">
-        <v>2.02</v>
+        <v>2.07</v>
       </c>
       <c r="L93" t="n">
-        <v>2.95</v>
+        <v>2.9</v>
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="n">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="P93" t="n">
-        <v>2.6</v>
+        <v>2.65</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="R93" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="S93" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T93" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="U93" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V93" t="n">
-        <v>2.45</v>
+        <v>2.52</v>
       </c>
       <c r="W93" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="X93" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Y93" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="Z93" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AA93" t="n">
         <v>10.75</v>
@@ -13747,13 +13751,13 @@
         <v>40</v>
       </c>
       <c r="AE93" t="n">
-        <v>7.9</v>
+        <v>8.25</v>
       </c>
       <c r="AF93" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AG93" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AH93" t="n">
         <v>90</v>
@@ -13762,7 +13766,7 @@
         <v>800</v>
       </c>
       <c r="AJ93" t="n">
-        <v>6.8</v>
+        <v>7</v>
       </c>
       <c r="AK93" t="n">
         <v>10.75</v>
@@ -13771,13 +13775,13 @@
         <v>9.5</v>
       </c>
       <c r="AM93" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN93" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AO93" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AP93" t="inlineStr"/>
       <c r="AQ93" t="inlineStr"/>
@@ -14117,13 +14121,13 @@
         <v>1.91</v>
       </c>
       <c r="L96" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M96" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N96" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O96" t="n">
         <v>1.5</v>
@@ -14168,13 +14172,13 @@
         <v>26</v>
       </c>
       <c r="AC96" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD96" t="n">
         <v>41</v>
       </c>
       <c r="AE96" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AF96" t="n">
         <v>5.5</v>
@@ -14209,10 +14213,10 @@
       <c r="AP96" t="inlineStr"/>
       <c r="AQ96" t="inlineStr"/>
       <c r="AR96" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="97">
@@ -14410,10 +14414,10 @@
         <v>4.75</v>
       </c>
       <c r="M98" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N98" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O98" t="n">
         <v>1.25</v>
@@ -14422,10 +14426,10 @@
         <v>3.75</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="R98" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="S98" t="n">
         <v>3</v>
@@ -14554,25 +14558,25 @@
         <v>1.08</v>
       </c>
       <c r="N99" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="O99" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P99" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="R99" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="S99" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T99" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U99" t="n">
         <v>1.5</v>
@@ -14674,13 +14678,13 @@
         </is>
       </c>
       <c r="G100" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="H100" t="n">
         <v>3.4</v>
       </c>
       <c r="I100" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J100" t="n">
         <v>4</v>
@@ -14704,10 +14708,10 @@
         <v>3.25</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="R100" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="S100" t="n">
         <v>3.75</v>
@@ -14746,7 +14750,7 @@
         <v>34</v>
       </c>
       <c r="AE100" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF100" t="n">
         <v>6.5</v>
@@ -15814,22 +15818,22 @@
         <v>11</v>
       </c>
       <c r="O108" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P108" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q108" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="R108" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="S108" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T108" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U108" t="n">
         <v>1.4</v>
@@ -15931,13 +15935,13 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H109" t="n">
         <v>3.5</v>
       </c>
       <c r="I109" t="n">
-        <v>2.7</v>
+        <v>2.55</v>
       </c>
       <c r="J109" t="n">
         <v>3.2</v>
@@ -15946,13 +15950,13 @@
         <v>2.2</v>
       </c>
       <c r="L109" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M109" t="n">
         <v>1.04</v>
       </c>
       <c r="N109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O109" t="n">
         <v>1.25</v>
@@ -15985,7 +15989,7 @@
         <v>2.1</v>
       </c>
       <c r="Y109" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z109" t="n">
         <v>13</v>
@@ -15997,7 +16001,7 @@
         <v>26</v>
       </c>
       <c r="AC109" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD109" t="n">
         <v>26</v>
@@ -16018,7 +16022,7 @@
         <v>151</v>
       </c>
       <c r="AJ109" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK109" t="n">
         <v>13</v>
@@ -16030,7 +16034,7 @@
         <v>26</v>
       </c>
       <c r="AN109" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO109" t="n">
         <v>26</v>
@@ -16374,10 +16378,10 @@
         <v>6.5</v>
       </c>
       <c r="O112" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P112" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q112" t="n">
         <v>2.88</v>
@@ -16491,88 +16495,88 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="H113" t="n">
-        <v>5</v>
+        <v>6.25</v>
       </c>
       <c r="I113" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="J113" t="n">
+        <v>15</v>
+      </c>
+      <c r="K113" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="L113" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="M113" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N113" t="n">
+        <v>13</v>
+      </c>
+      <c r="O113" t="n">
         <v>1.25</v>
       </c>
-      <c r="J113" t="n">
+      <c r="P113" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q113" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R113" t="n">
+        <v>2</v>
+      </c>
+      <c r="S113" t="n">
+        <v>3</v>
+      </c>
+      <c r="T113" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U113" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V113" t="n">
+        <v>3</v>
+      </c>
+      <c r="W113" t="n">
+        <v>3</v>
+      </c>
+      <c r="X113" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="Y113" t="n">
+        <v>23</v>
+      </c>
+      <c r="Z113" t="n">
+        <v>51</v>
+      </c>
+      <c r="AA113" t="n">
+        <v>41</v>
+      </c>
+      <c r="AB113" t="n">
+        <v>251</v>
+      </c>
+      <c r="AC113" t="n">
+        <v>126</v>
+      </c>
+      <c r="AD113" t="n">
+        <v>101</v>
+      </c>
+      <c r="AE113" t="n">
         <v>11</v>
       </c>
-      <c r="K113" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="L113" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="M113" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N113" t="n">
-        <v>10</v>
-      </c>
-      <c r="O113" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P113" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q113" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R113" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S113" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T113" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="U113" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V113" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="W113" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="X113" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="Y113" t="n">
-        <v>19</v>
-      </c>
-      <c r="Z113" t="n">
+      <c r="AF113" t="n">
+        <v>13</v>
+      </c>
+      <c r="AG113" t="n">
         <v>41</v>
       </c>
-      <c r="AA113" t="n">
-        <v>29</v>
-      </c>
-      <c r="AB113" t="n">
+      <c r="AH113" t="n">
         <v>151</v>
-      </c>
-      <c r="AC113" t="n">
-        <v>81</v>
-      </c>
-      <c r="AD113" t="n">
-        <v>81</v>
-      </c>
-      <c r="AE113" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF113" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG113" t="n">
-        <v>34</v>
-      </c>
-      <c r="AH113" t="n">
-        <v>126</v>
       </c>
       <c r="AI113" t="n">
         <v>101</v>
@@ -16584,10 +16588,10 @@
         <v>5</v>
       </c>
       <c r="AL113" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM113" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AN113" t="n">
         <v>13</v>
@@ -16632,22 +16636,22 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="H114" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I114" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="J114" t="n">
-        <v>2.4</v>
+        <v>2.3</v>
       </c>
       <c r="K114" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L114" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="M114" t="n">
         <v>1.1</v>
@@ -16668,34 +16672,34 @@
         <v>1.57</v>
       </c>
       <c r="S114" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T114" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U114" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V114" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W114" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="X114" t="n">
         <v>1.53</v>
       </c>
-      <c r="V114" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W114" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X114" t="n">
-        <v>1.57</v>
-      </c>
       <c r="Y114" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z114" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA114" t="n">
         <v>9</v>
       </c>
       <c r="AB114" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AC114" t="n">
         <v>17</v>
@@ -16710,7 +16714,7 @@
         <v>7</v>
       </c>
       <c r="AG114" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH114" t="n">
         <v>81</v>
@@ -16719,16 +16723,16 @@
         <v>101</v>
       </c>
       <c r="AJ114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK114" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL114" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM114" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AN114" t="n">
         <v>51</v>
@@ -16739,10 +16743,10 @@
       <c r="AP114" t="inlineStr"/>
       <c r="AQ114" t="inlineStr"/>
       <c r="AR114" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="115">
@@ -16777,13 +16781,13 @@
         </is>
       </c>
       <c r="G115" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H115" t="n">
         <v>4.1</v>
       </c>
       <c r="I115" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J115" t="n">
         <v>3.4</v>
@@ -16813,25 +16817,25 @@
         <v>2.5</v>
       </c>
       <c r="S115" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T115" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U115" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V115" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W115" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="X115" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y115" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z115" t="n">
         <v>19</v>
@@ -16846,13 +16850,13 @@
         <v>21</v>
       </c>
       <c r="AD115" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE115" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF115" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG115" t="n">
         <v>12</v>
@@ -16870,7 +16874,7 @@
         <v>13</v>
       </c>
       <c r="AL115" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM115" t="n">
         <v>21</v>
@@ -16882,10 +16886,10 @@
         <v>19</v>
       </c>
       <c r="AP115" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AQ115" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AR115" t="inlineStr"/>
       <c r="AS115" t="inlineStr"/>
@@ -16940,13 +16944,13 @@
         <v>6.5</v>
       </c>
       <c r="M116" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N116" t="n">
         <v>15</v>
       </c>
       <c r="O116" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="P116" t="n">
         <v>4.5</v>
@@ -16961,7 +16965,7 @@
         <v>2.5</v>
       </c>
       <c r="T116" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="U116" t="n">
         <v>1.3</v>
@@ -17085,13 +17089,13 @@
         <v>6</v>
       </c>
       <c r="M117" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N117" t="n">
         <v>10</v>
       </c>
       <c r="O117" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P117" t="n">
         <v>3</v>
@@ -17106,7 +17110,7 @@
         <v>3.75</v>
       </c>
       <c r="T117" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U117" t="n">
         <v>1.44</v>
@@ -17226,16 +17230,16 @@
         <v>6</v>
       </c>
       <c r="M118" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N118" t="n">
         <v>7</v>
       </c>
       <c r="O118" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="P118" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="Q118" t="n">
         <v>2.4</v>
@@ -17247,7 +17251,7 @@
         <v>4.5</v>
       </c>
       <c r="T118" t="n">
-        <v>1.15</v>
+        <v>1.18</v>
       </c>
       <c r="U118" t="n">
         <v>1.53</v>
@@ -17353,22 +17357,22 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.36</v>
+        <v>1.42</v>
       </c>
       <c r="H119" t="n">
-        <v>4.5</v>
+        <v>4.2</v>
       </c>
       <c r="I119" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="J119" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="K119" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="L119" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M119" t="n">
         <v>1.03</v>
@@ -17377,46 +17381,46 @@
         <v>15</v>
       </c>
       <c r="O119" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P119" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.57</v>
+        <v>1.65</v>
       </c>
       <c r="R119" t="n">
-        <v>2.35</v>
+        <v>2.2</v>
       </c>
       <c r="S119" t="n">
-        <v>2.38</v>
+        <v>2.63</v>
       </c>
       <c r="T119" t="n">
-        <v>1.53</v>
+        <v>1.44</v>
       </c>
       <c r="U119" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V119" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W119" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X119" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y119" t="n">
         <v>8</v>
       </c>
       <c r="Z119" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA119" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB119" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AC119" t="n">
         <v>11</v>
@@ -17425,49 +17429,49 @@
         <v>23</v>
       </c>
       <c r="AE119" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF119" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AG119" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH119" t="n">
         <v>51</v>
       </c>
       <c r="AI119" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ119" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AK119" t="n">
         <v>41</v>
       </c>
       <c r="AL119" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AM119" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN119" t="n">
         <v>51</v>
       </c>
       <c r="AO119" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP119" t="n">
-        <v>1.98</v>
+        <v>2.03</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="AR119" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="AS119" t="n">
-        <v>3.85</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="120">
@@ -17502,13 +17506,13 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="H120" t="n">
         <v>3.1</v>
       </c>
       <c r="I120" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J120" t="n">
         <v>3.5</v>
@@ -17517,13 +17521,13 @@
         <v>2</v>
       </c>
       <c r="L120" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M120" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N120" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O120" t="n">
         <v>1.36</v>
@@ -17589,13 +17593,13 @@
         <v>301</v>
       </c>
       <c r="AJ120" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK120" t="n">
         <v>12</v>
       </c>
       <c r="AL120" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM120" t="n">
         <v>26</v>
@@ -17651,22 +17655,22 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="H121" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I121" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="J121" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="K121" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L121" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M121" t="n">
         <v>1.04</v>
@@ -17681,10 +17685,10 @@
         <v>4</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="R121" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="S121" t="n">
         <v>2.75</v>
@@ -17699,22 +17703,22 @@
         <v>3.25</v>
       </c>
       <c r="W121" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X121" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y121" t="n">
         <v>7</v>
       </c>
       <c r="Z121" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AA121" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB121" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AC121" t="n">
         <v>12</v>
@@ -17726,46 +17730,46 @@
         <v>13</v>
       </c>
       <c r="AF121" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG121" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH121" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI121" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ121" t="n">
         <v>17</v>
       </c>
       <c r="AK121" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL121" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM121" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AN121" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO121" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP121" t="n">
-        <v>2.24</v>
+        <v>2.2</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.66</v>
+        <v>1.68</v>
       </c>
       <c r="AR121" t="n">
-        <v>1.35</v>
+        <v>1.34</v>
       </c>
       <c r="AS121" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
     </row>
     <row r="122">
@@ -17977,10 +17981,10 @@
         <v>1.67</v>
       </c>
       <c r="S123" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T123" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U123" t="n">
         <v>1.44</v>
@@ -18085,7 +18089,7 @@
         <v>1.7</v>
       </c>
       <c r="H124" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="I124" t="n">
         <v>4.5</v>
@@ -18094,7 +18098,7 @@
         <v>2.25</v>
       </c>
       <c r="K124" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="L124" t="n">
         <v>4.5</v>
@@ -18136,7 +18140,7 @@
         <v>2.2</v>
       </c>
       <c r="Y124" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z124" t="n">
         <v>9.5</v>
@@ -18932,22 +18936,22 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.45</v>
+        <v>2.55</v>
       </c>
       <c r="H130" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I130" t="n">
-        <v>2.88</v>
+        <v>2.7</v>
       </c>
       <c r="J130" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K130" t="n">
         <v>2.1</v>
       </c>
       <c r="L130" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M130" t="n">
         <v>1.06</v>
@@ -18962,10 +18966,10 @@
         <v>3.4</v>
       </c>
       <c r="Q130" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R130" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="S130" t="n">
         <v>3.5</v>
@@ -18974,28 +18978,28 @@
         <v>1.29</v>
       </c>
       <c r="U130" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V130" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W130" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X130" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y130" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z130" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA130" t="n">
         <v>10</v>
       </c>
       <c r="AB130" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC130" t="n">
         <v>21</v>
@@ -19004,37 +19008,37 @@
         <v>29</v>
       </c>
       <c r="AE130" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF130" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG130" t="n">
         <v>13</v>
       </c>
       <c r="AH130" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI130" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ130" t="n">
         <v>9</v>
       </c>
       <c r="AK130" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL130" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM130" t="n">
         <v>29</v>
       </c>
       <c r="AN130" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO130" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP130" t="inlineStr"/>
       <c r="AQ130" t="inlineStr"/>
@@ -19232,10 +19236,10 @@
         <v>5.5</v>
       </c>
       <c r="M132" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N132" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O132" t="n">
         <v>1.36</v>
@@ -19373,10 +19377,10 @@
         <v>3.5</v>
       </c>
       <c r="M133" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N133" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O133" t="n">
         <v>1.33</v>
@@ -19385,10 +19389,10 @@
         <v>3.25</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R133" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S133" t="n">
         <v>3.75</v>
@@ -20628,19 +20632,19 @@
         </is>
       </c>
       <c r="G142" t="n">
-        <v>2.07</v>
+        <v>2.1</v>
       </c>
       <c r="H142" t="n">
         <v>3.25</v>
       </c>
       <c r="I142" t="n">
-        <v>3.55</v>
+        <v>3.45</v>
       </c>
       <c r="J142" t="n">
-        <v>2.65</v>
+        <v>2.7</v>
       </c>
       <c r="K142" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L142" t="n">
         <v>3.9</v>
@@ -20652,10 +20656,10 @@
         <v>7</v>
       </c>
       <c r="O142" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P142" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="Q142" t="n">
         <v>2.07</v>
@@ -20664,22 +20668,22 @@
         <v>1.7</v>
       </c>
       <c r="S142" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="T142" t="n">
         <v>1.27</v>
       </c>
       <c r="U142" t="n">
-        <v>1.42</v>
+        <v>1.44</v>
       </c>
       <c r="V142" t="n">
-        <v>2.75</v>
+        <v>2.67</v>
       </c>
       <c r="W142" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="X142" t="n">
-        <v>1.87</v>
+        <v>1.85</v>
       </c>
       <c r="Y142" t="n">
         <v>6.6</v>
@@ -20688,7 +20692,7 @@
         <v>10</v>
       </c>
       <c r="AA142" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AB142" t="n">
         <v>21</v>
@@ -20706,10 +20710,10 @@
         <v>6.6</v>
       </c>
       <c r="AG142" t="n">
-        <v>16</v>
+        <v>16.5</v>
       </c>
       <c r="AH142" t="n">
-        <v>80</v>
+        <v>90</v>
       </c>
       <c r="AI142" t="n">
         <v>800</v>
@@ -20718,10 +20722,10 @@
         <v>9.5</v>
       </c>
       <c r="AK142" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AL142" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="AM142" t="n">
         <v>55</v>
@@ -20778,55 +20782,55 @@
         <v>2.15</v>
       </c>
       <c r="J143" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K143" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L143" t="n">
         <v>2.75</v>
       </c>
       <c r="M143" t="n">
-        <v>1.08</v>
+        <v>1.09</v>
       </c>
       <c r="N143" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="O143" t="n">
-        <v>1.39</v>
+        <v>1.42</v>
       </c>
       <c r="P143" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="Q143" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R143" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="S143" t="n">
-        <v>3.7</v>
+        <v>3.95</v>
       </c>
       <c r="T143" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="U143" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="V143" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="W143" t="n">
-        <v>1.9</v>
+        <v>1.98</v>
       </c>
       <c r="X143" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="Y143" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="Z143" t="n">
-        <v>16.5</v>
+        <v>16</v>
       </c>
       <c r="AA143" t="n">
         <v>12</v>
@@ -20838,40 +20842,40 @@
         <v>35</v>
       </c>
       <c r="AD143" t="n">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AE143" t="n">
+        <v>6.1</v>
+      </c>
+      <c r="AF143" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="AG143" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH143" t="n">
+        <v>100</v>
+      </c>
+      <c r="AI143" t="n">
+        <v>1000</v>
+      </c>
+      <c r="AJ143" t="n">
         <v>6.3</v>
       </c>
-      <c r="AF143" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AG143" t="n">
-        <v>16</v>
-      </c>
-      <c r="AH143" t="n">
-        <v>90</v>
-      </c>
-      <c r="AI143" t="n">
-        <v>800</v>
-      </c>
-      <c r="AJ143" t="n">
-        <v>6.7</v>
-      </c>
       <c r="AK143" t="n">
-        <v>9.75</v>
+        <v>9.25</v>
       </c>
       <c r="AL143" t="n">
         <v>9</v>
       </c>
       <c r="AM143" t="n">
-        <v>20</v>
+        <v>19.5</v>
       </c>
       <c r="AN143" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="AO143" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP143" t="inlineStr"/>
       <c r="AQ143" t="inlineStr"/>
@@ -20910,7 +20914,7 @@
         </is>
       </c>
       <c r="G144" t="n">
-        <v>3.85</v>
+        <v>3.8</v>
       </c>
       <c r="H144" t="n">
         <v>3.6</v>
@@ -20925,7 +20929,7 @@
         <v>2.18</v>
       </c>
       <c r="L144" t="n">
-        <v>2.45</v>
+        <v>2.42</v>
       </c>
       <c r="M144" t="n">
         <v>1.05</v>
@@ -20946,7 +20950,7 @@
         <v>2</v>
       </c>
       <c r="S144" t="n">
-        <v>2.7</v>
+        <v>2.72</v>
       </c>
       <c r="T144" t="n">
         <v>1.4</v>
@@ -20955,7 +20959,7 @@
         <v>1.37</v>
       </c>
       <c r="V144" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="W144" t="n">
         <v>1.65</v>
@@ -20964,22 +20968,22 @@
         <v>2.1</v>
       </c>
       <c r="Y144" t="n">
-        <v>13</v>
+        <v>12.5</v>
       </c>
       <c r="Z144" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AA144" t="n">
         <v>12.5</v>
       </c>
       <c r="AB144" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AC144" t="n">
         <v>32</v>
       </c>
       <c r="AD144" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE144" t="n">
         <v>8</v>
@@ -20988,10 +20992,10 @@
         <v>7</v>
       </c>
       <c r="AG144" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AH144" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AI144" t="n">
         <v>350</v>
@@ -21000,13 +21004,13 @@
         <v>8</v>
       </c>
       <c r="AK144" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AL144" t="n">
         <v>8.25</v>
       </c>
       <c r="AM144" t="n">
-        <v>15.5</v>
+        <v>16</v>
       </c>
       <c r="AN144" t="n">
         <v>14</v>
@@ -21192,40 +21196,40 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="H146" t="n">
-        <v>4</v>
+        <v>3.9</v>
       </c>
       <c r="I146" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="J146" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="K146" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="L146" t="n">
         <v>5.5</v>
       </c>
-      <c r="J146" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="K146" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="L146" t="n">
-        <v>6</v>
-      </c>
       <c r="M146" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N146" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O146" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="P146" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q146" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R146" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S146" t="n">
         <v>3.4</v>
@@ -21240,10 +21244,10 @@
         <v>2.75</v>
       </c>
       <c r="W146" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X146" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y146" t="n">
         <v>6.5</v>
@@ -21255,7 +21259,7 @@
         <v>8.5</v>
       </c>
       <c r="AB146" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC146" t="n">
         <v>13</v>
@@ -21273,22 +21277,22 @@
         <v>19</v>
       </c>
       <c r="AH146" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI146" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AJ146" t="n">
         <v>13</v>
       </c>
       <c r="AK146" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AL146" t="n">
         <v>17</v>
       </c>
       <c r="AM146" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN146" t="n">
         <v>41</v>
@@ -21363,10 +21367,10 @@
         <v>3</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="R147" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="S147" t="n">
         <v>4</v>
@@ -21919,10 +21923,10 @@
         <v>3.75</v>
       </c>
       <c r="M151" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N151" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O151" t="n">
         <v>1.5</v>
@@ -22046,7 +22050,7 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H152" t="n">
         <v>3</v>
@@ -22055,7 +22059,7 @@
         <v>4</v>
       </c>
       <c r="J152" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K152" t="n">
         <v>1.91</v>
@@ -22064,28 +22068,28 @@
         <v>4.75</v>
       </c>
       <c r="M152" t="n">
-        <v>1.11</v>
+        <v>1.14</v>
       </c>
       <c r="N152" t="n">
-        <v>6.5</v>
+        <v>5.5</v>
       </c>
       <c r="O152" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="P152" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.7</v>
+        <v>2.88</v>
       </c>
       <c r="R152" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="S152" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="T152" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="U152" t="n">
         <v>1.62</v>
@@ -22118,7 +22122,7 @@
         <v>41</v>
       </c>
       <c r="AE152" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AF152" t="n">
         <v>6</v>
@@ -22133,10 +22137,10 @@
         <v>101</v>
       </c>
       <c r="AJ152" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK152" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL152" t="n">
         <v>15</v>
@@ -22498,7 +22502,7 @@
         <v>1.03</v>
       </c>
       <c r="N155" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O155" t="n">
         <v>1.18</v>
@@ -22622,22 +22626,22 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="H156" t="n">
         <v>3.7</v>
       </c>
       <c r="I156" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="J156" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K156" t="n">
         <v>2.25</v>
       </c>
       <c r="L156" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M156" t="n">
         <v>1.04</v>
@@ -22652,10 +22656,10 @@
         <v>3.75</v>
       </c>
       <c r="Q156" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R156" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S156" t="n">
         <v>3</v>
@@ -22718,7 +22722,7 @@
         <v>9</v>
       </c>
       <c r="AM156" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN156" t="n">
         <v>17</v>
@@ -22763,7 +22767,7 @@
         </is>
       </c>
       <c r="G157" t="n">
-        <v>2.88</v>
+        <v>2.8</v>
       </c>
       <c r="H157" t="n">
         <v>3.6</v>
@@ -22772,7 +22776,7 @@
         <v>2.3</v>
       </c>
       <c r="J157" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K157" t="n">
         <v>2.2</v>
@@ -22862,7 +22866,7 @@
         <v>21</v>
       </c>
       <c r="AN157" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO157" t="n">
         <v>26</v>
@@ -23045,28 +23049,28 @@
         </is>
       </c>
       <c r="G159" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H159" t="n">
         <v>3.2</v>
       </c>
       <c r="I159" t="n">
-        <v>2.8</v>
+        <v>2.7</v>
       </c>
       <c r="J159" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K159" t="n">
         <v>2.1</v>
       </c>
       <c r="L159" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M159" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N159" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O159" t="n">
         <v>1.33</v>
@@ -23108,13 +23112,13 @@
         <v>10</v>
       </c>
       <c r="AB159" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC159" t="n">
         <v>21</v>
       </c>
       <c r="AD159" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE159" t="n">
         <v>9</v>
@@ -23132,7 +23136,7 @@
         <v>251</v>
       </c>
       <c r="AJ159" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK159" t="n">
         <v>13</v>
@@ -23210,10 +23214,10 @@
         <v>26</v>
       </c>
       <c r="O160" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="P160" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Q160" t="n">
         <v>1.33</v>
@@ -23222,10 +23226,10 @@
         <v>3.4</v>
       </c>
       <c r="S160" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="T160" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="U160" t="n">
         <v>1.2</v>
@@ -23348,7 +23352,7 @@
         <v>1.07</v>
       </c>
       <c r="N161" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O161" t="n">
         <v>1.36</v>
@@ -23609,52 +23613,52 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H163" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I163" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="J163" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K163" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L163" t="n">
+        <v>4</v>
+      </c>
+      <c r="M163" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N163" t="n">
+        <v>9</v>
+      </c>
+      <c r="O163" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P163" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q163" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="R163" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="S163" t="n">
         <v>3.75</v>
       </c>
-      <c r="M163" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N163" t="n">
-        <v>8</v>
-      </c>
-      <c r="O163" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P163" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q163" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R163" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S163" t="n">
-        <v>4</v>
-      </c>
       <c r="T163" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U163" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V163" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W163" t="n">
         <v>1.83</v>
@@ -23663,7 +23667,7 @@
         <v>1.83</v>
       </c>
       <c r="Y163" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z163" t="n">
         <v>10</v>
@@ -23675,13 +23679,13 @@
         <v>21</v>
       </c>
       <c r="AC163" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD163" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE163" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF163" t="n">
         <v>6</v>
@@ -23696,10 +23700,10 @@
         <v>301</v>
       </c>
       <c r="AJ163" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK163" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL163" t="n">
         <v>12</v>
@@ -23750,46 +23754,46 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H164" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I164" t="n">
         <v>2.38</v>
       </c>
       <c r="J164" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K164" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L164" t="n">
         <v>3.1</v>
       </c>
       <c r="M164" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N164" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="O164" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P164" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q164" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="R164" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="S164" t="n">
-        <v>3.5</v>
+        <v>4</v>
       </c>
       <c r="T164" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="U164" t="n">
         <v>1.44</v>
@@ -23798,31 +23802,31 @@
         <v>2.63</v>
       </c>
       <c r="W164" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X164" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y164" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z164" t="n">
         <v>15</v>
       </c>
       <c r="AA164" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB164" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC164" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD164" t="n">
         <v>34</v>
       </c>
       <c r="AE164" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF164" t="n">
         <v>6</v>
@@ -23834,25 +23838,25 @@
         <v>51</v>
       </c>
       <c r="AI164" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ164" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK164" t="n">
         <v>11</v>
       </c>
       <c r="AL164" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM164" t="n">
         <v>23</v>
       </c>
       <c r="AN164" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO164" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP164" t="inlineStr"/>
       <c r="AQ164" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-16.xlsx
@@ -692,13 +692,13 @@
         </is>
       </c>
       <c r="G2" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="H2" t="n">
         <v>8</v>
       </c>
       <c r="I2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J2" t="n">
         <v>1.57</v>
@@ -728,10 +728,10 @@
         <v>3.2</v>
       </c>
       <c r="S2" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="T2" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="U2" t="n">
         <v>1.2</v>
@@ -842,7 +842,7 @@
         <v>2.8</v>
       </c>
       <c r="J3" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K3" t="n">
         <v>2.5</v>
@@ -905,7 +905,7 @@
         <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AF3" t="n">
         <v>8.5</v>
@@ -992,16 +992,16 @@
         <v>2.1</v>
       </c>
       <c r="M4" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="O4" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P4" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q4" t="n">
         <v>1.5</v>
@@ -1010,10 +1010,10 @@
         <v>2.63</v>
       </c>
       <c r="S4" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="T4" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="U4" t="n">
         <v>1.25</v>
@@ -1073,7 +1073,7 @@
         <v>13</v>
       </c>
       <c r="AN4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AO4" t="n">
         <v>19</v>
@@ -1125,16 +1125,16 @@
         <v>4</v>
       </c>
       <c r="I5" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="J5" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="K5" t="n">
         <v>2.25</v>
       </c>
       <c r="L5" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="M5" t="n">
         <v>1.05</v>
@@ -1149,10 +1149,10 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.86</v>
+        <v>1.85</v>
       </c>
       <c r="R5" t="n">
-        <v>2.04</v>
+        <v>2.05</v>
       </c>
       <c r="S5" t="n">
         <v>3.2</v>
@@ -1179,7 +1179,7 @@
         <v>26</v>
       </c>
       <c r="AA5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AB5" t="n">
         <v>51</v>
@@ -1206,7 +1206,7 @@
         <v>251</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK5" t="n">
         <v>8</v>
@@ -1215,7 +1215,7 @@
         <v>8.5</v>
       </c>
       <c r="AM5" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AN5" t="n">
         <v>13</v>
@@ -1401,22 +1401,22 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="H7" t="n">
         <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>3.9</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="K7" t="n">
         <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1431,16 +1431,16 @@
         <v>3.5</v>
       </c>
       <c r="Q7" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="R7" t="n">
-        <v>1.85</v>
+        <v>1.87</v>
       </c>
       <c r="S7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T7" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U7" t="n">
         <v>1.4</v>
@@ -1455,10 +1455,10 @@
         <v>1.95</v>
       </c>
       <c r="Y7" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z7" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA7" t="n">
         <v>8.5</v>
@@ -1467,13 +1467,13 @@
         <v>17</v>
       </c>
       <c r="AC7" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD7" t="n">
         <v>26</v>
       </c>
       <c r="AE7" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF7" t="n">
         <v>6.5</v>
@@ -1488,10 +1488,10 @@
         <v>251</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK7" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL7" t="n">
         <v>13</v>
@@ -1500,7 +1500,7 @@
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO7" t="n">
         <v>41</v>
@@ -1560,28 +1560,28 @@
         <v>3.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N8" t="n">
         <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P8" t="n">
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.04</v>
+        <v>2.02</v>
       </c>
       <c r="R8" t="n">
-        <v>1.86</v>
+        <v>1.88</v>
       </c>
       <c r="S8" t="n">
         <v>3.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U8" t="n">
         <v>1.4</v>
@@ -1701,13 +1701,13 @@
         <v>4</v>
       </c>
       <c r="M9" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N9" t="n">
         <v>17</v>
       </c>
       <c r="O9" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="P9" t="n">
         <v>5</v>
@@ -1719,10 +1719,10 @@
         <v>2.5</v>
       </c>
       <c r="S9" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="T9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U9" t="n">
         <v>1.29</v>
@@ -1849,10 +1849,10 @@
         <v>1.01</v>
       </c>
       <c r="N10" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.1</v>
       </c>
       <c r="P10" t="n">
         <v>6</v>
@@ -1864,10 +1864,10 @@
         <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>1.76</v>
       </c>
       <c r="U10" t="n">
         <v>1.22</v>
@@ -1987,28 +1987,28 @@
         <v>2.63</v>
       </c>
       <c r="M11" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N11" t="n">
         <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P11" t="n">
         <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="R11" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S11" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="U11" t="n">
         <v>1.4</v>
@@ -2110,46 +2110,46 @@
         </is>
       </c>
       <c r="G12" t="n">
-        <v>2</v>
+        <v>2.15</v>
       </c>
       <c r="H12" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I12" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="J12" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="K12" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L12" t="n">
         <v>3.75</v>
       </c>
-      <c r="J12" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="K12" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L12" t="n">
-        <v>4</v>
-      </c>
       <c r="M12" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N12" t="n">
         <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="P12" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q12" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R12" t="n">
-        <v>1.92</v>
+        <v>1.9</v>
       </c>
       <c r="S12" t="n">
         <v>3.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U12" t="n">
         <v>1.4</v>
@@ -2167,22 +2167,22 @@
         <v>8</v>
       </c>
       <c r="Z12" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA12" t="n">
         <v>9</v>
       </c>
       <c r="AB12" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC12" t="n">
         <v>17</v>
-      </c>
-      <c r="AC12" t="n">
-        <v>15</v>
       </c>
       <c r="AD12" t="n">
         <v>26</v>
       </c>
       <c r="AE12" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF12" t="n">
         <v>6.5</v>
@@ -2200,16 +2200,16 @@
         <v>11</v>
       </c>
       <c r="AK12" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL12" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AM12" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN12" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO12" t="n">
         <v>34</v>
@@ -2251,31 +2251,31 @@
         </is>
       </c>
       <c r="G13" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H13" t="n">
         <v>3.1</v>
       </c>
       <c r="I13" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="J13" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K13" t="n">
         <v>2</v>
       </c>
       <c r="L13" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N13" t="n">
         <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -2287,10 +2287,10 @@
         <v>1.67</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T13" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="U13" t="n">
         <v>1.5</v>
@@ -2305,16 +2305,16 @@
         <v>1.8</v>
       </c>
       <c r="Y13" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z13" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA13" t="n">
         <v>11</v>
       </c>
       <c r="AB13" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC13" t="n">
         <v>23</v>
@@ -2329,7 +2329,7 @@
         <v>6</v>
       </c>
       <c r="AG13" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH13" t="n">
         <v>51</v>
@@ -2347,7 +2347,7 @@
         <v>11</v>
       </c>
       <c r="AM13" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN13" t="n">
         <v>23</v>
@@ -2395,7 +2395,7 @@
         <v>1.8</v>
       </c>
       <c r="H14" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I14" t="n">
         <v>4.75</v>
@@ -2410,22 +2410,22 @@
         <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N14" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O14" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P14" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="Q14" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R14" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S14" t="n">
         <v>4</v>
@@ -2464,7 +2464,7 @@
         <v>29</v>
       </c>
       <c r="AE14" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
         <v>6.5</v>
@@ -2674,19 +2674,19 @@
         </is>
       </c>
       <c r="G16" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H16" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I16" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="J16" t="n">
         <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L16" t="n">
         <v>2.88</v>
@@ -2698,10 +2698,10 @@
         <v>9</v>
       </c>
       <c r="O16" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P16" t="n">
-        <v>3.2</v>
+        <v>3.4</v>
       </c>
       <c r="Q16" t="n">
         <v>2.1</v>
@@ -2734,10 +2734,10 @@
         <v>17</v>
       </c>
       <c r="AA16" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB16" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC16" t="n">
         <v>29</v>
@@ -2761,7 +2761,7 @@
         <v>251</v>
       </c>
       <c r="AJ16" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK16" t="n">
         <v>10</v>
@@ -2770,7 +2770,7 @@
         <v>9</v>
       </c>
       <c r="AM16" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN16" t="n">
         <v>19</v>
@@ -3382,7 +3382,7 @@
         <v>5.25</v>
       </c>
       <c r="H21" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="I21" t="n">
         <v>1.75</v>
@@ -3421,10 +3421,10 @@
         <v>1.2</v>
       </c>
       <c r="U21" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V21" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="W21" t="n">
         <v>2.1</v>
@@ -3542,10 +3542,10 @@
         <v>2.75</v>
       </c>
       <c r="M22" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N22" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O22" t="n">
         <v>1.4</v>
@@ -3772,10 +3772,10 @@
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="24">
@@ -3810,61 +3810,61 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.45</v>
+        <v>2.5</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J24" t="n">
         <v>3.25</v>
       </c>
       <c r="K24" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
         <v>3.75</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
+        <v>8</v>
+      </c>
+      <c r="O24" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P24" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R24" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T24" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U24" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W24" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="X24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="Y24" t="n">
         <v>7</v>
-      </c>
-      <c r="O24" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P24" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q24" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="R24" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S24" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T24" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U24" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V24" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W24" t="n">
-        <v>2</v>
-      </c>
-      <c r="X24" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y24" t="n">
-        <v>6.5</v>
       </c>
       <c r="Z24" t="n">
         <v>11</v>
@@ -3876,40 +3876,40 @@
         <v>23</v>
       </c>
       <c r="AC24" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD24" t="n">
         <v>34</v>
       </c>
       <c r="AE24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF24" t="n">
         <v>6</v>
       </c>
       <c r="AG24" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH24" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI24" t="n">
-        <v>451</v>
+        <v>351</v>
       </c>
       <c r="AJ24" t="n">
         <v>8</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM24" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN24" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO24" t="n">
         <v>41</v>
@@ -3979,22 +3979,22 @@
         <v>5.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="P25" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="R25" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="S25" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="U25" t="n">
         <v>1.67</v>
@@ -4253,13 +4253,13 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H27" t="n">
         <v>2.88</v>
       </c>
       <c r="I27" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
@@ -4271,10 +4271,10 @@
         <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N27" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O27" t="n">
         <v>1.62</v>
@@ -4310,7 +4310,7 @@
         <v>5</v>
       </c>
       <c r="Z27" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA27" t="n">
         <v>10</v>
@@ -4349,7 +4349,7 @@
         <v>17</v>
       </c>
       <c r="AM27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN27" t="n">
         <v>41</v>
@@ -4420,10 +4420,10 @@
         <v>5.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O28" t="n">
         <v>1.4</v>
@@ -4438,10 +4438,10 @@
         <v>1.62</v>
       </c>
       <c r="S28" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="U28" t="n">
         <v>1.5</v>
@@ -4847,10 +4847,10 @@
         <v>2.9</v>
       </c>
       <c r="I31" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="J31" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K31" t="n">
         <v>1.8</v>
@@ -4865,10 +4865,10 @@
         <v>5</v>
       </c>
       <c r="O31" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="P31" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q31" t="n">
         <v>3.4</v>
@@ -4898,13 +4898,13 @@
         <v>4.75</v>
       </c>
       <c r="Z31" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA31" t="n">
         <v>11</v>
       </c>
       <c r="AB31" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC31" t="n">
         <v>26</v>
@@ -4934,16 +4934,16 @@
         <v>17</v>
       </c>
       <c r="AL31" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM31" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN31" t="n">
         <v>41</v>
       </c>
       <c r="AO31" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP31" t="inlineStr"/>
       <c r="AQ31" t="inlineStr"/>
@@ -5272,13 +5272,13 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H34" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="I34" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J34" t="n">
         <v>3.25</v>
@@ -5702,13 +5702,13 @@
         <v>2.05</v>
       </c>
       <c r="H37" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I37" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="J37" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K37" t="n">
         <v>2.6</v>
@@ -5717,10 +5717,10 @@
         <v>3.4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.02</v>
+        <v>1.01</v>
       </c>
       <c r="N37" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="O37" t="n">
         <v>1.11</v>
@@ -5747,10 +5747,10 @@
         <v>4</v>
       </c>
       <c r="W37" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="X37" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Y37" t="n">
         <v>15</v>
@@ -5765,7 +5765,7 @@
         <v>21</v>
       </c>
       <c r="AC37" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AD37" t="n">
         <v>17</v>
@@ -5981,7 +5981,7 @@
         </is>
       </c>
       <c r="G39" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="H39" t="n">
         <v>3.5</v>
@@ -5990,7 +5990,7 @@
         <v>4.75</v>
       </c>
       <c r="J39" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="K39" t="n">
         <v>2.2</v>
@@ -5999,28 +5999,28 @@
         <v>4.75</v>
       </c>
       <c r="M39" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O39" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P39" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q39" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R39" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S39" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T39" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U39" t="n">
         <v>1.4</v>
@@ -6035,7 +6035,7 @@
         <v>1.95</v>
       </c>
       <c r="Y39" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z39" t="n">
         <v>8.5</v>
@@ -6044,7 +6044,7 @@
         <v>8.5</v>
       </c>
       <c r="AB39" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC39" t="n">
         <v>15</v>
@@ -6053,7 +6053,7 @@
         <v>26</v>
       </c>
       <c r="AE39" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF39" t="n">
         <v>6.5</v>
@@ -6131,7 +6131,7 @@
         <v>2.8</v>
       </c>
       <c r="J40" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K40" t="n">
         <v>2.2</v>
@@ -6164,10 +6164,10 @@
         <v>1.33</v>
       </c>
       <c r="U40" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V40" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W40" t="n">
         <v>1.67</v>
@@ -6194,7 +6194,7 @@
         <v>26</v>
       </c>
       <c r="AE40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF40" t="n">
         <v>6.5</v>
@@ -6263,22 +6263,22 @@
         </is>
       </c>
       <c r="G41" t="n">
-        <v>2.5</v>
+        <v>2.52</v>
       </c>
       <c r="H41" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="I41" t="n">
-        <v>2.82</v>
+        <v>2.87</v>
       </c>
       <c r="J41" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="K41" t="n">
-        <v>1.91</v>
+        <v>1.88</v>
       </c>
       <c r="L41" t="n">
-        <v>3.5</v>
+        <v>3.55</v>
       </c>
       <c r="M41" t="n">
         <v>1.1</v>
@@ -6287,85 +6287,85 @@
         <v>5.8</v>
       </c>
       <c r="O41" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P41" t="n">
-        <v>2.32</v>
+        <v>2.25</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="R41" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="S41" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="T41" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="U41" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V41" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="W41" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X41" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="Y41" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA41" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>28</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>50</v>
+      </c>
+      <c r="AE41" t="n">
         <v>6.3</v>
       </c>
-      <c r="Z41" t="n">
-        <v>10.75</v>
-      </c>
-      <c r="AA41" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="AB41" t="n">
-        <v>27</v>
-      </c>
-      <c r="AC41" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD41" t="n">
-        <v>45</v>
-      </c>
-      <c r="AE41" t="n">
-        <v>6.7</v>
-      </c>
       <c r="AF41" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AG41" t="n">
         <v>18</v>
       </c>
       <c r="AH41" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AI41" t="n">
         <v>101</v>
       </c>
       <c r="AJ41" t="n">
-        <v>7</v>
+        <v>6.7</v>
       </c>
       <c r="AK41" t="n">
         <v>13</v>
       </c>
       <c r="AL41" t="n">
-        <v>11</v>
+        <v>11.25</v>
       </c>
       <c r="AM41" t="n">
         <v>35</v>
       </c>
       <c r="AN41" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO41" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
@@ -6555,13 +6555,13 @@
         <v>6</v>
       </c>
       <c r="M43" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N43" t="n">
         <v>15</v>
       </c>
       <c r="O43" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P43" t="n">
         <v>4.33</v>
@@ -6573,10 +6573,10 @@
         <v>2.15</v>
       </c>
       <c r="S43" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T43" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U43" t="n">
         <v>1.33</v>
@@ -6696,13 +6696,13 @@
         <v>5.5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
         <v>15</v>
       </c>
       <c r="O44" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P44" t="n">
         <v>4.33</v>
@@ -6714,10 +6714,10 @@
         <v>2.15</v>
       </c>
       <c r="S44" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T44" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U44" t="n">
         <v>1.33</v>
@@ -6837,28 +6837,28 @@
         <v>3.4</v>
       </c>
       <c r="M45" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N45" t="n">
         <v>11</v>
       </c>
       <c r="O45" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P45" t="n">
         <v>3.5</v>
       </c>
       <c r="Q45" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R45" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S45" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T45" t="n">
-        <v>1.27</v>
+        <v>1.33</v>
       </c>
       <c r="U45" t="n">
         <v>1.4</v>
@@ -6978,28 +6978,28 @@
         <v>3.4</v>
       </c>
       <c r="M46" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N46" t="n">
         <v>13</v>
       </c>
       <c r="O46" t="n">
-        <v>1.17</v>
+        <v>1.2</v>
       </c>
       <c r="P46" t="n">
         <v>4.33</v>
       </c>
       <c r="Q46" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R46" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S46" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="T46" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="U46" t="n">
         <v>1.33</v>
@@ -7101,16 +7101,16 @@
         </is>
       </c>
       <c r="G47" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H47" t="n">
         <v>3.5</v>
       </c>
       <c r="I47" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="J47" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K47" t="n">
         <v>2.25</v>
@@ -7119,13 +7119,13 @@
         <v>2.5</v>
       </c>
       <c r="M47" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O47" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P47" t="n">
         <v>4</v>
@@ -7140,7 +7140,7 @@
         <v>2.75</v>
       </c>
       <c r="T47" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U47" t="n">
         <v>1.36</v>
@@ -7155,7 +7155,7 @@
         <v>2.1</v>
       </c>
       <c r="Y47" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z47" t="n">
         <v>21</v>
@@ -7191,7 +7191,7 @@
         <v>8.5</v>
       </c>
       <c r="AK47" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AL47" t="n">
         <v>8.5</v>
@@ -7383,22 +7383,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="H49" t="n">
         <v>3.5</v>
       </c>
       <c r="I49" t="n">
-        <v>2.2</v>
+        <v>2.05</v>
       </c>
       <c r="J49" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K49" t="n">
         <v>2.38</v>
       </c>
       <c r="L49" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="M49" t="n">
         <v>1.03</v>
@@ -7413,28 +7413,28 @@
         <v>5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R49" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S49" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T49" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U49" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="V49" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W49" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X49" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y49" t="n">
         <v>13</v>
@@ -7443,25 +7443,25 @@
         <v>19</v>
       </c>
       <c r="AA49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB49" t="n">
         <v>34</v>
       </c>
       <c r="AC49" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD49" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE49" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF49" t="n">
         <v>7</v>
       </c>
       <c r="AG49" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH49" t="n">
         <v>34</v>
@@ -7473,10 +7473,10 @@
         <v>11</v>
       </c>
       <c r="AK49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL49" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AM49" t="n">
         <v>21</v>
@@ -7488,10 +7488,10 @@
         <v>21</v>
       </c>
       <c r="AP49" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.85</v>
+        <v>1.88</v>
       </c>
       <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr"/>
@@ -7537,31 +7537,31 @@
         <v>5.75</v>
       </c>
       <c r="J50" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="K50" t="n">
         <v>2.25</v>
-      </c>
-      <c r="K50" t="n">
-        <v>2.2</v>
       </c>
       <c r="L50" t="n">
         <v>5.5</v>
       </c>
       <c r="M50" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N50" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="O50" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P50" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="R50" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="S50" t="n">
         <v>3.25</v>
@@ -7597,10 +7597,10 @@
         <v>13</v>
       </c>
       <c r="AD50" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE50" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF50" t="n">
         <v>7</v>
@@ -9111,106 +9111,106 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.1</v>
+        <v>5.6</v>
       </c>
       <c r="H61" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I61" t="n">
-        <v>1.65</v>
+        <v>1.57</v>
       </c>
       <c r="J61" t="n">
-        <v>5.2</v>
+        <v>5.5</v>
       </c>
       <c r="K61" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="L61" t="n">
         <v>2.15</v>
-      </c>
-      <c r="L61" t="n">
-        <v>2.22</v>
       </c>
       <c r="M61" t="n">
         <v>1.06</v>
       </c>
       <c r="N61" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O61" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P61" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="Q61" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R61" t="n">
         <v>1.88</v>
       </c>
-      <c r="R61" t="n">
-        <v>1.85</v>
-      </c>
       <c r="S61" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="T61" t="n">
-        <v>1.34</v>
+        <v>1.35</v>
       </c>
       <c r="U61" t="n">
         <v>1.42</v>
       </c>
       <c r="V61" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="W61" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
       <c r="X61" t="n">
-        <v>1.83</v>
+        <v>1.82</v>
       </c>
       <c r="Y61" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="Z61" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AA61" t="n">
-        <v>17.5</v>
+        <v>19</v>
       </c>
       <c r="AB61" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AC61" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AD61" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AE61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AF61" t="n">
         <v>7.9</v>
       </c>
-      <c r="AF61" t="n">
-        <v>7.6</v>
-      </c>
       <c r="AG61" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI61" t="n">
         <v>800</v>
       </c>
       <c r="AJ61" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="AK61" t="n">
-        <v>7.9</v>
+        <v>7.5</v>
       </c>
       <c r="AL61" t="n">
         <v>8.5</v>
       </c>
       <c r="AM61" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AN61" t="n">
-        <v>14</v>
+        <v>13.5</v>
       </c>
       <c r="AO61" t="n">
         <v>30</v>
@@ -9417,16 +9417,16 @@
         <v>11</v>
       </c>
       <c r="O63" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P63" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R63" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S63" t="n">
         <v>3.25</v>
@@ -9552,28 +9552,28 @@
         <v>2.63</v>
       </c>
       <c r="M64" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N64" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q64" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R64" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T64" t="n">
         <v>1.29</v>
-      </c>
-      <c r="P64" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q64" t="n">
-        <v>2</v>
-      </c>
-      <c r="R64" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S64" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="T64" t="n">
-        <v>1.3</v>
       </c>
       <c r="U64" t="n">
         <v>1.4</v>
@@ -9868,13 +9868,13 @@
         <v>3.5</v>
       </c>
       <c r="W66" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="X66" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="Y66" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="Z66" t="n">
         <v>23</v>
@@ -9895,7 +9895,7 @@
         <v>17</v>
       </c>
       <c r="AF66" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG66" t="n">
         <v>12</v>
@@ -9922,7 +9922,7 @@
         <v>13</v>
       </c>
       <c r="AO66" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AP66" t="n">
         <v>1.98</v>
@@ -9995,10 +9995,10 @@
         <v>4</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="R67" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S67" t="n">
         <v>2.75</v>
@@ -10413,7 +10413,7 @@
         <v>1.04</v>
       </c>
       <c r="N70" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O70" t="n">
         <v>1.22</v>
@@ -10537,22 +10537,22 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H71" t="n">
         <v>3.2</v>
       </c>
       <c r="I71" t="n">
-        <v>2.45</v>
+        <v>2.3</v>
       </c>
       <c r="J71" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K71" t="n">
         <v>2.05</v>
       </c>
       <c r="L71" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="M71" t="n">
         <v>1.07</v>
@@ -10591,22 +10591,22 @@
         <v>1.83</v>
       </c>
       <c r="Y71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="Z71" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA71" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB71" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC71" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD71" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE71" t="n">
         <v>8.5</v>
@@ -10630,16 +10630,16 @@
         <v>11</v>
       </c>
       <c r="AL71" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM71" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AN71" t="n">
         <v>21</v>
       </c>
       <c r="AO71" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP71" t="inlineStr"/>
       <c r="AQ71" t="inlineStr"/>
@@ -10819,22 +10819,22 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.67</v>
+        <v>2.72</v>
       </c>
       <c r="H73" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="I73" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J73" t="n">
-        <v>3.35</v>
+        <v>3.4</v>
       </c>
       <c r="K73" t="n">
         <v>1.83</v>
       </c>
       <c r="L73" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="M73" t="n">
         <v>1.14</v>
@@ -10861,10 +10861,10 @@
         <v>1.17</v>
       </c>
       <c r="U73" t="n">
-        <v>1.55</v>
+        <v>1.57</v>
       </c>
       <c r="V73" t="n">
-        <v>2.3</v>
+        <v>2.27</v>
       </c>
       <c r="W73" t="n">
         <v>1.98</v>
@@ -10873,22 +10873,22 @@
         <v>1.75</v>
       </c>
       <c r="Y73" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="Z73" t="n">
         <v>12.5</v>
       </c>
       <c r="AA73" t="n">
-        <v>10</v>
+        <v>10.25</v>
       </c>
       <c r="AB73" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AC73" t="n">
         <v>28</v>
       </c>
       <c r="AD73" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AE73" t="n">
         <v>5</v>
@@ -10906,19 +10906,19 @@
         <v>900</v>
       </c>
       <c r="AJ73" t="n">
-        <v>7.3</v>
+        <v>7.2</v>
       </c>
       <c r="AK73" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AL73" t="n">
-        <v>11.25</v>
+        <v>11</v>
       </c>
       <c r="AM73" t="n">
         <v>45</v>
       </c>
       <c r="AN73" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AO73" t="n">
         <v>45</v>
@@ -10963,16 +10963,16 @@
         <v>1.6</v>
       </c>
       <c r="H74" t="n">
-        <v>3.6</v>
+        <v>3.55</v>
       </c>
       <c r="I74" t="n">
         <v>5.7</v>
       </c>
       <c r="J74" t="n">
-        <v>2.1</v>
+        <v>2.12</v>
       </c>
       <c r="K74" t="n">
-        <v>2.2</v>
+        <v>2.18</v>
       </c>
       <c r="L74" t="n">
         <v>5.6</v>
@@ -10996,7 +10996,7 @@
         <v>1.75</v>
       </c>
       <c r="S74" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="T74" t="n">
         <v>1.29</v>
@@ -11005,25 +11005,25 @@
         <v>1.38</v>
       </c>
       <c r="V74" t="n">
-        <v>2.8</v>
+        <v>2.82</v>
       </c>
       <c r="W74" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="X74" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Y74" t="n">
         <v>6</v>
       </c>
       <c r="Z74" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="AA74" t="n">
         <v>8</v>
       </c>
       <c r="AB74" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AC74" t="n">
         <v>13.5</v>
@@ -11035,10 +11035,10 @@
         <v>6.9</v>
       </c>
       <c r="AF74" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="AG74" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AH74" t="n">
         <v>90</v>
@@ -11053,7 +11053,7 @@
         <v>35</v>
       </c>
       <c r="AL74" t="n">
-        <v>18</v>
+        <v>17.5</v>
       </c>
       <c r="AM74" t="n">
         <v>120</v>
@@ -11062,7 +11062,7 @@
         <v>65</v>
       </c>
       <c r="AO74" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AP74" t="inlineStr"/>
       <c r="AQ74" t="inlineStr"/>
@@ -11242,22 +11242,22 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="H76" t="n">
-        <v>2.47</v>
+        <v>2.45</v>
       </c>
       <c r="I76" t="n">
-        <v>2.8</v>
+        <v>2.72</v>
       </c>
       <c r="J76" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="K76" t="n">
         <v>1.75</v>
       </c>
       <c r="L76" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="M76" t="n">
         <v>1.17</v>
@@ -11272,13 +11272,13 @@
         <v>2.15</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.85</v>
+        <v>2.82</v>
       </c>
       <c r="R76" t="n">
-        <v>1.37</v>
+        <v>1.38</v>
       </c>
       <c r="S76" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="T76" t="n">
         <v>1.13</v>
@@ -11296,19 +11296,19 @@
         <v>1.65</v>
       </c>
       <c r="Y76" t="n">
-        <v>6.5</v>
+        <v>6.8</v>
       </c>
       <c r="Z76" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AA76" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="AB76" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AC76" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AD76" t="n">
         <v>55</v>
@@ -11317,7 +11317,7 @@
         <v>4.5</v>
       </c>
       <c r="AF76" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AG76" t="n">
         <v>17</v>
@@ -11329,19 +11329,19 @@
         <v>101</v>
       </c>
       <c r="AJ76" t="n">
-        <v>6.1</v>
+        <v>6</v>
       </c>
       <c r="AK76" t="n">
         <v>12.5</v>
       </c>
       <c r="AL76" t="n">
-        <v>10.75</v>
+        <v>10.5</v>
       </c>
       <c r="AM76" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AN76" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AO76" t="n">
         <v>50</v>
@@ -11407,22 +11407,22 @@
         <v>15</v>
       </c>
       <c r="O77" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P77" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q77" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R77" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="S77" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T77" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U77" t="n">
         <v>1.33</v>
@@ -11665,16 +11665,16 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H79" t="n">
         <v>3.7</v>
       </c>
       <c r="I79" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J79" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="K79" t="n">
         <v>2.4</v>
@@ -12056,10 +12056,10 @@
         <v>26</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr"/>
@@ -12255,28 +12255,28 @@
         <v>3</v>
       </c>
       <c r="M83" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N83" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O83" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P83" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q83" t="n">
-        <v>2.6</v>
+        <v>2.4</v>
       </c>
       <c r="R83" t="n">
-        <v>1.48</v>
+        <v>1.53</v>
       </c>
       <c r="S83" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T83" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U83" t="n">
         <v>1.57</v>
@@ -12342,16 +12342,16 @@
         <v>41</v>
       </c>
       <c r="AP83" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.23</v>
+        <v>1.24</v>
       </c>
       <c r="AR83" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS83" t="n">
         <v>1.98</v>
-      </c>
-      <c r="AS83" t="n">
-        <v>1.88</v>
       </c>
     </row>
     <row r="84">
@@ -12386,13 +12386,13 @@
         </is>
       </c>
       <c r="G84" t="n">
-        <v>1.25</v>
+        <v>1.27</v>
       </c>
       <c r="H84" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="I84" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="J84" t="n">
         <v>1.73</v>
@@ -12401,13 +12401,13 @@
         <v>2.5</v>
       </c>
       <c r="L84" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="M84" t="n">
         <v>1.04</v>
       </c>
       <c r="N84" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O84" t="n">
         <v>1.22</v>
@@ -12434,22 +12434,22 @@
         <v>3.25</v>
       </c>
       <c r="W84" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="X84" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Y84" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z84" t="n">
         <v>6</v>
-      </c>
-      <c r="Z84" t="n">
-        <v>5.5</v>
       </c>
       <c r="AA84" t="n">
         <v>9.5</v>
       </c>
       <c r="AB84" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC84" t="n">
         <v>12</v>
@@ -12458,16 +12458,16 @@
         <v>34</v>
       </c>
       <c r="AE84" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF84" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG84" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH84" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI84" t="n">
         <v>101</v>
@@ -12479,7 +12479,7 @@
         <v>51</v>
       </c>
       <c r="AL84" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AM84" t="n">
         <v>151</v>
@@ -12488,7 +12488,7 @@
         <v>81</v>
       </c>
       <c r="AO84" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AP84" t="n">
         <v>2.32</v>
@@ -12535,7 +12535,7 @@
         </is>
       </c>
       <c r="G85" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="H85" t="n">
         <v>7</v>
@@ -12544,7 +12544,7 @@
         <v>1.14</v>
       </c>
       <c r="J85" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="K85" t="n">
         <v>2.75</v>
@@ -12553,28 +12553,28 @@
         <v>1.53</v>
       </c>
       <c r="M85" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O85" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="P85" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="R85" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="S85" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T85" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="U85" t="n">
         <v>1.3</v>
@@ -12583,52 +12583,52 @@
         <v>3.4</v>
       </c>
       <c r="W85" t="n">
-        <v>3</v>
+        <v>2.63</v>
       </c>
       <c r="X85" t="n">
-        <v>1.36</v>
+        <v>1.44</v>
       </c>
       <c r="Y85" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="Z85" t="n">
         <v>81</v>
       </c>
       <c r="AA85" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AB85" t="n">
-        <v>401</v>
+        <v>351</v>
       </c>
       <c r="AC85" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AD85" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AE85" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF85" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG85" t="n">
         <v>41</v>
       </c>
       <c r="AH85" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AI85" t="n">
         <v>501</v>
       </c>
       <c r="AJ85" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK85" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="AL85" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM85" t="n">
         <v>6</v>
@@ -12640,16 +12640,16 @@
         <v>41</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="AR85" t="n">
-        <v>1.32</v>
+        <v>1.3</v>
       </c>
       <c r="AS85" t="n">
-        <v>3.45</v>
+        <v>3.6</v>
       </c>
     </row>
     <row r="86">
@@ -12938,7 +12938,7 @@
         <v>41</v>
       </c>
       <c r="AP87" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="AQ87" t="n">
         <v>1.21</v>
@@ -13036,7 +13036,7 @@
         <v>2</v>
       </c>
       <c r="Y88" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z88" t="n">
         <v>9.5</v>
@@ -13063,7 +13063,7 @@
         <v>15</v>
       </c>
       <c r="AH88" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI88" t="n">
         <v>201</v>
@@ -13072,7 +13072,7 @@
         <v>12</v>
       </c>
       <c r="AK88" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL88" t="n">
         <v>13</v>
@@ -13289,7 +13289,7 @@
         <v>1.04</v>
       </c>
       <c r="N90" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O90" t="n">
         <v>1.22</v>
@@ -13298,10 +13298,10 @@
         <v>4</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R90" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S90" t="n">
         <v>2.75</v>
@@ -13325,7 +13325,7 @@
         <v>12</v>
       </c>
       <c r="Z90" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA90" t="n">
         <v>12</v>
@@ -13334,7 +13334,7 @@
         <v>34</v>
       </c>
       <c r="AC90" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD90" t="n">
         <v>29</v>
@@ -13346,7 +13346,7 @@
         <v>6.5</v>
       </c>
       <c r="AG90" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH90" t="n">
         <v>41</v>
@@ -13964,13 +13964,13 @@
         <v>1.2</v>
       </c>
       <c r="H95" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="I95" t="n">
         <v>11</v>
       </c>
       <c r="J95" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K95" t="n">
         <v>2.88</v>
@@ -13982,7 +13982,7 @@
         <v>1.02</v>
       </c>
       <c r="N95" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O95" t="n">
         <v>1.14</v>
@@ -14024,7 +14024,7 @@
         <v>10</v>
       </c>
       <c r="AB95" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC95" t="n">
         <v>11</v>
@@ -14036,10 +14036,10 @@
         <v>19</v>
       </c>
       <c r="AF95" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG95" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AH95" t="n">
         <v>81</v>
@@ -14063,7 +14063,7 @@
         <v>67</v>
       </c>
       <c r="AO95" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP95" t="n">
         <v>1.8</v>
@@ -14106,13 +14106,13 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H96" t="n">
         <v>2.88</v>
       </c>
       <c r="I96" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="J96" t="n">
         <v>3.4</v>
@@ -14121,7 +14121,7 @@
         <v>1.91</v>
       </c>
       <c r="L96" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M96" t="n">
         <v>1.11</v>
@@ -14169,7 +14169,7 @@
         <v>11</v>
       </c>
       <c r="AB96" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC96" t="n">
         <v>23</v>
@@ -14196,7 +14196,7 @@
         <v>7.5</v>
       </c>
       <c r="AK96" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL96" t="n">
         <v>12</v>
@@ -14213,10 +14213,10 @@
       <c r="AP96" t="inlineStr"/>
       <c r="AQ96" t="inlineStr"/>
       <c r="AR96" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
     </row>
     <row r="97">
@@ -14426,10 +14426,10 @@
         <v>3.75</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R98" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S98" t="n">
         <v>3</v>
@@ -14561,10 +14561,10 @@
         <v>8</v>
       </c>
       <c r="O99" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P99" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q99" t="n">
         <v>2.25</v>
@@ -14702,16 +14702,16 @@
         <v>10</v>
       </c>
       <c r="O100" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P100" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q100" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R100" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="S100" t="n">
         <v>3.75</v>
@@ -14822,10 +14822,10 @@
         <v>2.25</v>
       </c>
       <c r="H101" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I101" t="n">
-        <v>3.5</v>
+        <v>3.25</v>
       </c>
       <c r="J101" t="n">
         <v>3</v>
@@ -14855,22 +14855,22 @@
         <v>1.67</v>
       </c>
       <c r="S101" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T101" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U101" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V101" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W101" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X101" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y101" t="n">
         <v>7</v>
@@ -14885,10 +14885,10 @@
         <v>21</v>
       </c>
       <c r="AC101" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD101" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE101" t="n">
         <v>8</v>
@@ -14903,13 +14903,13 @@
         <v>51</v>
       </c>
       <c r="AI101" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ101" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK101" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL101" t="n">
         <v>12</v>
@@ -15208,10 +15208,10 @@
       <c r="AP103" t="inlineStr"/>
       <c r="AQ103" t="inlineStr"/>
       <c r="AR103" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="104">
@@ -15387,30 +15387,30 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.7</v>
+        <v>1.41</v>
       </c>
       <c r="H105" t="n">
-        <v>3.55</v>
+        <v>4.2</v>
       </c>
       <c r="I105" t="n">
-        <v>4.1</v>
+        <v>6.2</v>
       </c>
       <c r="J105" t="n">
-        <v>2.15</v>
+        <v>1.81</v>
       </c>
       <c r="K105" t="n">
-        <v>2.41</v>
+        <v>2.55</v>
       </c>
       <c r="L105" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P105" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Q105" t="n">
         <v>1.6</v>
@@ -15419,7 +15419,7 @@
         <v>2.24</v>
       </c>
       <c r="S105" t="n">
-        <v>2.44</v>
+        <v>2.46</v>
       </c>
       <c r="T105" t="n">
         <v>1.51</v>
@@ -15427,61 +15427,61 @@
       <c r="U105" t="inlineStr"/>
       <c r="V105" t="inlineStr"/>
       <c r="W105" t="n">
-        <v>1.58</v>
+        <v>1.77</v>
       </c>
       <c r="X105" t="n">
-        <v>2.23</v>
+        <v>1.93</v>
       </c>
       <c r="Y105" t="n">
-        <v>8.4</v>
+        <v>7.2</v>
       </c>
       <c r="Z105" t="n">
-        <v>7.4</v>
+        <v>5.8</v>
       </c>
       <c r="AA105" t="n">
         <v>6.6</v>
       </c>
       <c r="AB105" t="n">
-        <v>11</v>
+        <v>7.6</v>
       </c>
       <c r="AC105" t="n">
-        <v>10</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="AD105" t="n">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="AE105" t="n">
         <v>14</v>
       </c>
       <c r="AF105" t="n">
-        <v>6.6</v>
+        <v>7.8</v>
       </c>
       <c r="AG105" t="n">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AH105" t="n">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="AI105" t="n">
         <v>101</v>
       </c>
       <c r="AJ105" t="n">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="AK105" t="n">
-        <v>22</v>
+        <v>35</v>
       </c>
       <c r="AL105" t="n">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="AM105" t="n">
+        <v>101</v>
+      </c>
+      <c r="AN105" t="n">
         <v>60</v>
       </c>
-      <c r="AN105" t="n">
-        <v>30</v>
-      </c>
       <c r="AO105" t="n">
-        <v>30</v>
+        <v>50</v>
       </c>
       <c r="AP105" t="inlineStr"/>
       <c r="AQ105" t="inlineStr"/>
@@ -15665,7 +15665,7 @@
         <v>2.3</v>
       </c>
       <c r="K107" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="L107" t="n">
         <v>4.75</v>
@@ -15674,7 +15674,7 @@
         <v>1.04</v>
       </c>
       <c r="N107" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O107" t="n">
         <v>1.22</v>
@@ -15683,22 +15683,22 @@
         <v>4</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R107" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S107" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T107" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U107" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V107" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W107" t="n">
         <v>1.75</v>
@@ -15710,13 +15710,13 @@
         <v>8</v>
       </c>
       <c r="Z107" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA107" t="n">
         <v>8.5</v>
       </c>
       <c r="AB107" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AC107" t="n">
         <v>13</v>
@@ -15728,7 +15728,7 @@
         <v>12</v>
       </c>
       <c r="AF107" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG107" t="n">
         <v>15</v>
@@ -16217,42 +16217,42 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.12</v>
+        <v>2.05</v>
       </c>
       <c r="H111" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I111" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="J111" t="n">
-        <v>2.62</v>
+        <v>2.57</v>
       </c>
       <c r="K111" t="n">
-        <v>2.12</v>
+        <v>2.1</v>
       </c>
       <c r="L111" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
       <c r="O111" t="n">
-        <v>1.3</v>
+        <v>1.32</v>
       </c>
       <c r="P111" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="Q111" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R111" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="S111" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="T111" t="n">
-        <v>1.28</v>
+        <v>1.26</v>
       </c>
       <c r="U111" t="n">
         <v>1.42</v>
@@ -16261,61 +16261,61 @@
         <v>2.47</v>
       </c>
       <c r="W111" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="X111" t="n">
-        <v>1.91</v>
+        <v>1.85</v>
       </c>
       <c r="Y111" t="n">
-        <v>7.7</v>
+        <v>7</v>
       </c>
       <c r="Z111" t="n">
-        <v>10.5</v>
+        <v>9.75</v>
       </c>
       <c r="AA111" t="n">
         <v>8.5</v>
       </c>
       <c r="AB111" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC111" t="n">
         <v>17</v>
       </c>
       <c r="AD111" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AE111" t="n">
-        <v>9.25</v>
+        <v>8.75</v>
       </c>
       <c r="AF111" t="n">
         <v>6.2</v>
       </c>
       <c r="AG111" t="n">
-        <v>13.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH111" t="n">
-        <v>65</v>
+        <v>70</v>
       </c>
       <c r="AI111" t="n">
-        <v>500</v>
+        <v>600</v>
       </c>
       <c r="AJ111" t="n">
-        <v>9.25</v>
+        <v>9.75</v>
       </c>
       <c r="AK111" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AL111" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AM111" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AN111" t="n">
-        <v>30</v>
+        <v>32</v>
       </c>
       <c r="AO111" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AP111" t="inlineStr"/>
       <c r="AQ111" t="inlineStr"/>
@@ -16369,13 +16369,13 @@
         <v>1.83</v>
       </c>
       <c r="L112" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M112" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="N112" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="O112" t="n">
         <v>1.62</v>
@@ -16396,16 +16396,16 @@
         <v>1.13</v>
       </c>
       <c r="U112" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="V112" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W112" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X112" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y112" t="n">
         <v>6</v>
@@ -16429,7 +16429,7 @@
         <v>6</v>
       </c>
       <c r="AF112" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG112" t="n">
         <v>21</v>
@@ -16441,7 +16441,7 @@
         <v>101</v>
       </c>
       <c r="AJ112" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AK112" t="n">
         <v>12</v>
@@ -16495,52 +16495,52 @@
         </is>
       </c>
       <c r="G113" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="H113" t="n">
-        <v>6.25</v>
+        <v>7</v>
       </c>
       <c r="I113" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="J113" t="n">
         <v>15</v>
       </c>
       <c r="K113" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="L113" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="M113" t="n">
         <v>1.04</v>
       </c>
       <c r="N113" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O113" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P113" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q113" t="n">
-        <v>1.8</v>
+        <v>1.7</v>
       </c>
       <c r="R113" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="S113" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T113" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U113" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V113" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W113" t="n">
         <v>3</v>
@@ -16552,7 +16552,7 @@
         <v>23</v>
       </c>
       <c r="Z113" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AA113" t="n">
         <v>41</v>
@@ -16567,10 +16567,10 @@
         <v>101</v>
       </c>
       <c r="AE113" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF113" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AG113" t="n">
         <v>41</v>
@@ -16582,13 +16582,13 @@
         <v>101</v>
       </c>
       <c r="AJ113" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK113" t="n">
         <v>5</v>
       </c>
       <c r="AL113" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM113" t="n">
         <v>6</v>
@@ -16802,7 +16802,7 @@
         <v>1.02</v>
       </c>
       <c r="N115" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="O115" t="n">
         <v>1.14</v>
@@ -16935,13 +16935,13 @@
         <v>7</v>
       </c>
       <c r="J116" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K116" t="n">
         <v>2.5</v>
       </c>
       <c r="L116" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M116" t="n">
         <v>1.03</v>
@@ -16968,22 +16968,22 @@
         <v>1.5</v>
       </c>
       <c r="U116" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V116" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W116" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="X116" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y116" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="Z116" t="n">
         <v>8</v>
-      </c>
-      <c r="Z116" t="n">
-        <v>7.5</v>
       </c>
       <c r="AA116" t="n">
         <v>8.5</v>
@@ -16995,7 +16995,7 @@
         <v>11</v>
       </c>
       <c r="AD116" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE116" t="n">
         <v>15</v>
@@ -17016,16 +17016,16 @@
         <v>21</v>
       </c>
       <c r="AK116" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL116" t="n">
         <v>21</v>
       </c>
       <c r="AM116" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN116" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO116" t="n">
         <v>41</v>
@@ -17655,22 +17655,22 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="H121" t="n">
         <v>4.75</v>
       </c>
       <c r="I121" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J121" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="K121" t="n">
         <v>2.4</v>
       </c>
       <c r="L121" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M121" t="n">
         <v>1.04</v>
@@ -17685,10 +17685,10 @@
         <v>4</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="R121" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="S121" t="n">
         <v>2.75</v>
@@ -17703,22 +17703,22 @@
         <v>3.25</v>
       </c>
       <c r="W121" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="X121" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="Y121" t="n">
         <v>7</v>
       </c>
       <c r="Z121" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA121" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB121" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AC121" t="n">
         <v>12</v>
@@ -17736,7 +17736,7 @@
         <v>21</v>
       </c>
       <c r="AH121" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI121" t="n">
         <v>351</v>
@@ -17745,10 +17745,10 @@
         <v>17</v>
       </c>
       <c r="AK121" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL121" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM121" t="n">
         <v>81</v>
@@ -17948,7 +17948,7 @@
         <v>2.7</v>
       </c>
       <c r="H123" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I123" t="n">
         <v>2.63</v>
@@ -17957,16 +17957,16 @@
         <v>3.4</v>
       </c>
       <c r="K123" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L123" t="n">
         <v>3.4</v>
       </c>
       <c r="M123" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N123" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O123" t="n">
         <v>1.36</v>
@@ -17975,10 +17975,10 @@
         <v>3</v>
       </c>
       <c r="Q123" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R123" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S123" t="n">
         <v>4</v>
@@ -17987,28 +17987,28 @@
         <v>1.22</v>
       </c>
       <c r="U123" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V123" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W123" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X123" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y123" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z123" t="n">
         <v>13</v>
       </c>
       <c r="AA123" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AB123" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC123" t="n">
         <v>23</v>
@@ -18017,7 +18017,7 @@
         <v>34</v>
       </c>
       <c r="AE123" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF123" t="n">
         <v>6</v>
@@ -18029,13 +18029,13 @@
         <v>51</v>
       </c>
       <c r="AI123" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ123" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK123" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL123" t="n">
         <v>10</v>
@@ -18044,7 +18044,7 @@
         <v>26</v>
       </c>
       <c r="AN123" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO123" t="n">
         <v>34</v>
@@ -18525,7 +18525,7 @@
         <v>4.5</v>
       </c>
       <c r="K127" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L127" t="n">
         <v>2.4</v>
@@ -18561,13 +18561,13 @@
         <v>3</v>
       </c>
       <c r="W127" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X127" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="Y127" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z127" t="n">
         <v>21</v>
@@ -18579,13 +18579,13 @@
         <v>41</v>
       </c>
       <c r="AC127" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD127" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE127" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF127" t="n">
         <v>7</v>
@@ -18597,10 +18597,10 @@
         <v>51</v>
       </c>
       <c r="AI127" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ127" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK127" t="n">
         <v>9</v>
@@ -18936,46 +18936,46 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.55</v>
+        <v>2.38</v>
       </c>
       <c r="H130" t="n">
         <v>3.3</v>
       </c>
       <c r="I130" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J130" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K130" t="n">
         <v>2.1</v>
       </c>
       <c r="L130" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M130" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N130" t="n">
+        <v>11</v>
+      </c>
+      <c r="O130" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P130" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q130" t="n">
+        <v>2</v>
+      </c>
+      <c r="R130" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S130" t="n">
         <v>3.4</v>
       </c>
-      <c r="M130" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N130" t="n">
-        <v>10</v>
-      </c>
-      <c r="O130" t="n">
+      <c r="T130" t="n">
         <v>1.3</v>
-      </c>
-      <c r="P130" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q130" t="n">
-        <v>2.03</v>
-      </c>
-      <c r="R130" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="S130" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T130" t="n">
-        <v>1.29</v>
       </c>
       <c r="U130" t="n">
         <v>1.4</v>
@@ -18993,16 +18993,16 @@
         <v>8.5</v>
       </c>
       <c r="Z130" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA130" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB130" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC130" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD130" t="n">
         <v>29</v>
@@ -19023,22 +19023,22 @@
         <v>201</v>
       </c>
       <c r="AJ130" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK130" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL130" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM130" t="n">
         <v>29</v>
       </c>
       <c r="AN130" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO130" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP130" t="inlineStr"/>
       <c r="AQ130" t="inlineStr"/>
@@ -19107,16 +19107,16 @@
         <v>3.75</v>
       </c>
       <c r="Q131" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="R131" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="S131" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="T131" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U131" t="n">
         <v>1.36</v>
@@ -19485,7 +19485,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -19951,10 +19951,10 @@
         <v>8</v>
       </c>
       <c r="O137" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P137" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q137" t="n">
         <v>2.2</v>
@@ -20215,22 +20215,22 @@
         <v>4.45</v>
       </c>
       <c r="I139" t="n">
-        <v>10.25</v>
+        <v>10.5</v>
       </c>
       <c r="J139" t="n">
         <v>1.78</v>
       </c>
       <c r="K139" t="n">
-        <v>2.35</v>
+        <v>2.32</v>
       </c>
       <c r="L139" t="n">
-        <v>8.25</v>
+        <v>8.75</v>
       </c>
       <c r="M139" t="n">
         <v>1.05</v>
       </c>
       <c r="N139" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O139" t="n">
         <v>1.24</v>
@@ -20245,34 +20245,34 @@
         <v>2</v>
       </c>
       <c r="S139" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="T139" t="n">
         <v>1.4</v>
       </c>
       <c r="U139" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="V139" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="W139" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="X139" t="n">
         <v>1.62</v>
       </c>
       <c r="Y139" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z139" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AA139" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AB139" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AC139" t="n">
         <v>11.5</v>
@@ -20281,7 +20281,7 @@
         <v>32</v>
       </c>
       <c r="AE139" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AF139" t="n">
         <v>9.5</v>
@@ -20296,7 +20296,7 @@
         <v>1000</v>
       </c>
       <c r="AJ139" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AK139" t="n">
         <v>90</v>
@@ -20782,13 +20782,13 @@
         <v>2.15</v>
       </c>
       <c r="J143" t="n">
-        <v>3.95</v>
+        <v>3.9</v>
       </c>
       <c r="K143" t="n">
         <v>2.02</v>
       </c>
       <c r="L143" t="n">
-        <v>2.75</v>
+        <v>2.77</v>
       </c>
       <c r="M143" t="n">
         <v>1.09</v>
@@ -20842,7 +20842,7 @@
         <v>35</v>
       </c>
       <c r="AD143" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AE143" t="n">
         <v>6.1</v>
@@ -20860,13 +20860,13 @@
         <v>1000</v>
       </c>
       <c r="AJ143" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="AK143" t="n">
         <v>9.25</v>
       </c>
       <c r="AL143" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AM143" t="n">
         <v>19.5</v>
@@ -20875,7 +20875,7 @@
         <v>19.5</v>
       </c>
       <c r="AO143" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AP143" t="inlineStr"/>
       <c r="AQ143" t="inlineStr"/>
@@ -21196,13 +21196,13 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H146" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I146" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J146" t="n">
         <v>2.25</v>
@@ -21253,7 +21253,7 @@
         <v>6.5</v>
       </c>
       <c r="Z146" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AA146" t="n">
         <v>8.5</v>
@@ -21262,7 +21262,7 @@
         <v>12</v>
       </c>
       <c r="AC146" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AD146" t="n">
         <v>29</v>
@@ -21283,7 +21283,7 @@
         <v>351</v>
       </c>
       <c r="AJ146" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK146" t="n">
         <v>26</v>
@@ -21367,10 +21367,10 @@
         <v>3</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="R147" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="S147" t="n">
         <v>4</v>
@@ -21481,13 +21481,13 @@
         <v>2.45</v>
       </c>
       <c r="H148" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I148" t="n">
         <v>2.88</v>
       </c>
       <c r="J148" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K148" t="n">
         <v>2.1</v>
@@ -21499,7 +21499,7 @@
         <v>1.06</v>
       </c>
       <c r="N148" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O148" t="n">
         <v>1.3</v>
@@ -21511,7 +21511,7 @@
         <v>2.05</v>
       </c>
       <c r="R148" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="S148" t="n">
         <v>3.5</v>
@@ -21538,7 +21538,7 @@
         <v>12</v>
       </c>
       <c r="AA148" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB148" t="n">
         <v>23</v>
@@ -21550,13 +21550,13 @@
         <v>29</v>
       </c>
       <c r="AE148" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF148" t="n">
         <v>6</v>
       </c>
       <c r="AG148" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH148" t="n">
         <v>51</v>
@@ -21905,13 +21905,13 @@
         </is>
       </c>
       <c r="G151" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="H151" t="n">
         <v>2.8</v>
       </c>
       <c r="I151" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="J151" t="n">
         <v>3.4</v>
@@ -21923,16 +21923,16 @@
         <v>3.75</v>
       </c>
       <c r="M151" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N151" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O151" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="P151" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Q151" t="n">
         <v>2.5</v>
@@ -21968,10 +21968,10 @@
         <v>11</v>
       </c>
       <c r="AB151" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC151" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD151" t="n">
         <v>41</v>
@@ -21992,13 +21992,13 @@
         <v>1250</v>
       </c>
       <c r="AJ151" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK151" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL151" t="n">
         <v>13</v>
-      </c>
-      <c r="AL151" t="n">
-        <v>12</v>
       </c>
       <c r="AM151" t="n">
         <v>34</v>
@@ -22012,10 +22012,10 @@
       <c r="AP151" t="inlineStr"/>
       <c r="AQ151" t="inlineStr"/>
       <c r="AR151" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
     </row>
     <row r="152">
@@ -22216,7 +22216,7 @@
         <v>1.07</v>
       </c>
       <c r="N153" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O153" t="n">
         <v>1.36</v>
@@ -22264,7 +22264,7 @@
         <v>15</v>
       </c>
       <c r="AD153" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE153" t="n">
         <v>8.5</v>
@@ -22354,16 +22354,16 @@
         <v>2.3</v>
       </c>
       <c r="M154" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N154" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O154" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P154" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q154" t="n">
         <v>1.7</v>
@@ -22372,10 +22372,10 @@
         <v>2.1</v>
       </c>
       <c r="S154" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T154" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U154" t="n">
         <v>1.33</v>
@@ -22502,7 +22502,7 @@
         <v>1.03</v>
       </c>
       <c r="N155" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O155" t="n">
         <v>1.18</v>
@@ -23067,10 +23067,10 @@
         <v>3.4</v>
       </c>
       <c r="M159" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N159" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O159" t="n">
         <v>1.33</v>
@@ -23190,22 +23190,22 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="H160" t="n">
-        <v>6.25</v>
+        <v>5.75</v>
       </c>
       <c r="I160" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="J160" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="K160" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="L160" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="M160" t="n">
         <v>1.01</v>
@@ -23238,55 +23238,55 @@
         <v>4.33</v>
       </c>
       <c r="W160" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X160" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y160" t="n">
         <v>12</v>
       </c>
       <c r="Z160" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AA160" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB160" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC160" t="n">
         <v>10</v>
       </c>
       <c r="AD160" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE160" t="n">
         <v>26</v>
       </c>
       <c r="AF160" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AG160" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH160" t="n">
         <v>41</v>
       </c>
       <c r="AI160" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ160" t="n">
         <v>29</v>
       </c>
       <c r="AK160" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AL160" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AM160" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AN160" t="n">
         <v>51</v>
@@ -23346,13 +23346,13 @@
         <v>2.05</v>
       </c>
       <c r="L161" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="M161" t="n">
         <v>1.07</v>
       </c>
       <c r="N161" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O161" t="n">
         <v>1.36</v>
@@ -23613,28 +23613,28 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="H163" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I163" t="n">
-        <v>3.3</v>
+        <v>3.2</v>
       </c>
       <c r="J163" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K163" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L163" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M163" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N163" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O163" t="n">
         <v>1.33</v>
@@ -23685,7 +23685,7 @@
         <v>29</v>
       </c>
       <c r="AE163" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AF163" t="n">
         <v>6</v>
@@ -23700,10 +23700,10 @@
         <v>301</v>
       </c>
       <c r="AJ163" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK163" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL163" t="n">
         <v>12</v>
@@ -23712,7 +23712,7 @@
         <v>34</v>
       </c>
       <c r="AN163" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO163" t="n">
         <v>41</v>
@@ -23772,10 +23772,10 @@
         <v>3.1</v>
       </c>
       <c r="M164" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N164" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O164" t="n">
         <v>1.36</v>
@@ -23796,10 +23796,10 @@
         <v>1.22</v>
       </c>
       <c r="U164" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V164" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W164" t="n">
         <v>1.83</v>
@@ -23823,10 +23823,10 @@
         <v>26</v>
       </c>
       <c r="AD164" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE164" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF164" t="n">
         <v>6</v>
@@ -24054,10 +24054,10 @@
         <v>3.75</v>
       </c>
       <c r="M166" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N166" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O166" t="n">
         <v>1.5</v>
@@ -24332,7 +24332,7 @@
         <v>3.3</v>
       </c>
       <c r="I168" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="J168" t="n">
         <v>2.85</v>
@@ -24349,7 +24349,7 @@
         <v>1.33</v>
       </c>
       <c r="P168" t="n">
-        <v>2.77</v>
+        <v>2.8</v>
       </c>
       <c r="Q168" t="n">
         <v>1.98</v>
@@ -24367,7 +24367,7 @@
         <v>1.39</v>
       </c>
       <c r="V168" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="W168" t="n">
         <v>1.78</v>
@@ -24376,7 +24376,7 @@
         <v>1.82</v>
       </c>
       <c r="Y168" t="n">
-        <v>7.2</v>
+        <v>7.3</v>
       </c>
       <c r="Z168" t="n">
         <v>10.5</v>
@@ -24397,10 +24397,10 @@
         <v>9</v>
       </c>
       <c r="AF168" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AG168" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AH168" t="n">
         <v>75</v>
@@ -24412,7 +24412,7 @@
         <v>8.5</v>
       </c>
       <c r="AK168" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL168" t="n">
         <v>10.75</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-16.xlsx
@@ -701,7 +701,7 @@
         <v>11</v>
       </c>
       <c r="J2" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="K2" t="n">
         <v>3</v>
@@ -722,7 +722,7 @@
         <v>6.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="R2" t="n">
         <v>3.2</v>
@@ -734,7 +734,7 @@
         <v>1.8</v>
       </c>
       <c r="U2" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="V2" t="n">
         <v>4.33</v>
@@ -749,7 +749,7 @@
         <v>11</v>
       </c>
       <c r="Z2" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AA2" t="n">
         <v>10</v>
@@ -833,13 +833,13 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H3" t="n">
         <v>3.75</v>
       </c>
       <c r="I3" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J3" t="n">
         <v>2.75</v>
@@ -848,7 +848,7 @@
         <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -893,7 +893,7 @@
         <v>17</v>
       </c>
       <c r="AA3" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB3" t="n">
         <v>26</v>
@@ -905,7 +905,7 @@
         <v>21</v>
       </c>
       <c r="AE3" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AF3" t="n">
         <v>8.5</v>
@@ -1149,16 +1149,16 @@
         <v>4</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.85</v>
+        <v>1.84</v>
       </c>
       <c r="R5" t="n">
-        <v>2.05</v>
+        <v>2.06</v>
       </c>
       <c r="S5" t="n">
-        <v>3.2</v>
+        <v>3</v>
       </c>
       <c r="T5" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U5" t="n">
         <v>1.36</v>
@@ -1401,13 +1401,13 @@
         </is>
       </c>
       <c r="G7" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="H7" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I7" t="n">
-        <v>4.2</v>
+        <v>3.8</v>
       </c>
       <c r="J7" t="n">
         <v>2.6</v>
@@ -1416,7 +1416,7 @@
         <v>2.1</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="M7" t="n">
         <v>1.06</v>
@@ -1455,7 +1455,7 @@
         <v>1.95</v>
       </c>
       <c r="Y7" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z7" t="n">
         <v>9</v>
@@ -1473,7 +1473,7 @@
         <v>26</v>
       </c>
       <c r="AE7" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF7" t="n">
         <v>6.5</v>
@@ -1488,7 +1488,7 @@
         <v>251</v>
       </c>
       <c r="AJ7" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK7" t="n">
         <v>21</v>
@@ -1560,28 +1560,28 @@
         <v>3.25</v>
       </c>
       <c r="M8" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N8" t="n">
         <v>10</v>
       </c>
       <c r="O8" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P8" t="n">
         <v>3.5</v>
       </c>
       <c r="Q8" t="n">
-        <v>2.02</v>
+        <v>2.03</v>
       </c>
       <c r="R8" t="n">
-        <v>1.88</v>
+        <v>1.87</v>
       </c>
       <c r="S8" t="n">
         <v>3.4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U8" t="n">
         <v>1.4</v>
@@ -1683,7 +1683,7 @@
         </is>
       </c>
       <c r="G9" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="H9" t="n">
         <v>3.8</v>
@@ -1695,40 +1695,40 @@
         <v>2.4</v>
       </c>
       <c r="K9" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L9" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M9" t="n">
         <v>1.02</v>
       </c>
       <c r="N9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="O9" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P9" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="R9" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="S9" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T9" t="n">
-        <v>1.57</v>
+        <v>1.67</v>
       </c>
       <c r="U9" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V9" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W9" t="n">
         <v>1.5</v>
@@ -1740,10 +1740,10 @@
         <v>11</v>
       </c>
       <c r="Z9" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AA9" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB9" t="n">
         <v>17</v>
@@ -1755,7 +1755,7 @@
         <v>19</v>
       </c>
       <c r="AE9" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF9" t="n">
         <v>7.5</v>
@@ -1785,13 +1785,13 @@
         <v>26</v>
       </c>
       <c r="AO9" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.84</v>
+        <v>1.83</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.06</v>
+        <v>2.07</v>
       </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
@@ -1843,19 +1843,19 @@
         <v>2.75</v>
       </c>
       <c r="L10" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="M10" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N10" t="n">
         <v>21</v>
       </c>
       <c r="O10" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="P10" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="Q10" t="n">
         <v>1.4</v>
@@ -1864,10 +1864,10 @@
         <v>3</v>
       </c>
       <c r="S10" t="n">
-        <v>1.96</v>
+        <v>2</v>
       </c>
       <c r="T10" t="n">
-        <v>1.76</v>
+        <v>1.8</v>
       </c>
       <c r="U10" t="n">
         <v>1.22</v>
@@ -1891,7 +1891,7 @@
         <v>9</v>
       </c>
       <c r="AB10" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC10" t="n">
         <v>10</v>
@@ -1906,7 +1906,7 @@
         <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH10" t="n">
         <v>41</v>
@@ -1987,13 +1987,13 @@
         <v>2.63</v>
       </c>
       <c r="M11" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N11" t="n">
         <v>11</v>
       </c>
       <c r="O11" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P11" t="n">
         <v>3.75</v>
@@ -2008,7 +2008,7 @@
         <v>3.4</v>
       </c>
       <c r="T11" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U11" t="n">
         <v>1.4</v>
@@ -2128,13 +2128,13 @@
         <v>3.75</v>
       </c>
       <c r="M12" t="n">
-        <v>1.04</v>
+        <v>1.06</v>
       </c>
       <c r="N12" t="n">
         <v>10</v>
       </c>
       <c r="O12" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="P12" t="n">
         <v>3.5</v>
@@ -2149,7 +2149,7 @@
         <v>3.4</v>
       </c>
       <c r="T12" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U12" t="n">
         <v>1.4</v>
@@ -2269,13 +2269,13 @@
         <v>3.4</v>
       </c>
       <c r="M13" t="n">
-        <v>1.05</v>
+        <v>1.08</v>
       </c>
       <c r="N13" t="n">
         <v>8</v>
       </c>
       <c r="O13" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -2290,7 +2290,7 @@
         <v>4.33</v>
       </c>
       <c r="T13" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="U13" t="n">
         <v>1.5</v>
@@ -2410,16 +2410,16 @@
         <v>5</v>
       </c>
       <c r="M14" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N14" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O14" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="P14" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="Q14" t="n">
         <v>2.2</v>
@@ -2581,10 +2581,10 @@
         <v>3.25</v>
       </c>
       <c r="W15" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="X15" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="Y15" t="n">
         <v>13</v>
@@ -2617,7 +2617,7 @@
         <v>41</v>
       </c>
       <c r="AI15" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AJ15" t="n">
         <v>9.5</v>
@@ -2635,7 +2635,7 @@
         <v>15</v>
       </c>
       <c r="AO15" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP15" t="inlineStr"/>
       <c r="AQ15" t="inlineStr"/>
@@ -2845,16 +2845,16 @@
         <v>3.75</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="R17" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="S17" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T17" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U17" t="n">
         <v>1.36</v>
@@ -2956,10 +2956,10 @@
         </is>
       </c>
       <c r="G18" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="H18" t="n">
-        <v>5.5</v>
+        <v>5.75</v>
       </c>
       <c r="I18" t="n">
         <v>7</v>
@@ -2986,10 +2986,10 @@
         <v>6</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="R18" t="n">
-        <v>2.7</v>
+        <v>2.87</v>
       </c>
       <c r="S18" t="n">
         <v>2</v>
@@ -3004,10 +3004,10 @@
         <v>4</v>
       </c>
       <c r="W18" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="X18" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="Y18" t="n">
         <v>10</v>
@@ -3025,7 +3025,7 @@
         <v>10</v>
       </c>
       <c r="AD18" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AE18" t="n">
         <v>21</v>
@@ -3043,7 +3043,7 @@
         <v>151</v>
       </c>
       <c r="AJ18" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AK18" t="n">
         <v>41</v>
@@ -3055,7 +3055,7 @@
         <v>81</v>
       </c>
       <c r="AN18" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO18" t="n">
         <v>41</v>
@@ -3286,10 +3286,10 @@
         <v>4</v>
       </c>
       <c r="W20" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="X20" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="Y20" t="n">
         <v>9.5</v>
@@ -3379,10 +3379,10 @@
         </is>
       </c>
       <c r="G21" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="H21" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="I21" t="n">
         <v>1.75</v>
@@ -3391,16 +3391,16 @@
         <v>5.5</v>
       </c>
       <c r="K21" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="L21" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M21" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O21" t="n">
         <v>1.44</v>
@@ -3409,10 +3409,10 @@
         <v>2.75</v>
       </c>
       <c r="Q21" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="R21" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S21" t="n">
         <v>4.5</v>
@@ -3436,7 +3436,7 @@
         <v>11</v>
       </c>
       <c r="Z21" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA21" t="n">
         <v>17</v>
@@ -3451,7 +3451,7 @@
         <v>51</v>
       </c>
       <c r="AE21" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF21" t="n">
         <v>6.5</v>
@@ -3772,10 +3772,10 @@
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="n">
-        <v>1.87</v>
+        <v>1.86</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.03</v>
+        <v>2.04</v>
       </c>
     </row>
     <row r="24">
@@ -3810,16 +3810,16 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H24" t="n">
         <v>3.1</v>
       </c>
       <c r="I24" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
         <v>2</v>
@@ -3900,13 +3900,13 @@
         <v>8</v>
       </c>
       <c r="AK24" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM24" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN24" t="n">
         <v>26</v>
@@ -3955,31 +3955,31 @@
         </is>
       </c>
       <c r="G25" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="H25" t="n">
         <v>2.8</v>
       </c>
       <c r="I25" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J25" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="K25" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L25" t="n">
         <v>3.4</v>
       </c>
       <c r="M25" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N25" t="n">
         <v>5.5</v>
       </c>
       <c r="O25" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P25" t="n">
         <v>2.2</v>
@@ -3994,7 +3994,7 @@
         <v>6.5</v>
       </c>
       <c r="T25" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="U25" t="n">
         <v>1.67</v>
@@ -4006,7 +4006,7 @@
         <v>2.25</v>
       </c>
       <c r="X25" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Y25" t="n">
         <v>7</v>
@@ -4018,7 +4018,7 @@
         <v>13</v>
       </c>
       <c r="AB25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC25" t="n">
         <v>34</v>
@@ -4042,7 +4042,7 @@
         <v>501</v>
       </c>
       <c r="AJ25" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AK25" t="n">
         <v>10</v>
@@ -4051,7 +4051,7 @@
         <v>11</v>
       </c>
       <c r="AM25" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN25" t="n">
         <v>26</v>
@@ -4060,10 +4060,10 @@
         <v>41</v>
       </c>
       <c r="AP25" t="n">
-        <v>4.8</v>
+        <v>4.9</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.19</v>
+        <v>1.18</v>
       </c>
       <c r="AR25" t="n">
         <v>2.1</v>
@@ -4122,13 +4122,13 @@
         <v>7</v>
       </c>
       <c r="M26" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N26" t="n">
         <v>8</v>
       </c>
       <c r="O26" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P26" t="n">
         <v>3</v>
@@ -4143,7 +4143,7 @@
         <v>4</v>
       </c>
       <c r="T26" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U26" t="n">
         <v>1.44</v>
@@ -4155,7 +4155,7 @@
         <v>2.2</v>
       </c>
       <c r="X26" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Y26" t="n">
         <v>5.5</v>
@@ -4253,31 +4253,31 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H27" t="n">
         <v>2.88</v>
       </c>
       <c r="I27" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J27" t="n">
         <v>3</v>
       </c>
       <c r="K27" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="L27" t="n">
         <v>5</v>
       </c>
       <c r="M27" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N27" t="n">
         <v>5</v>
       </c>
       <c r="O27" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P27" t="n">
         <v>2.2</v>
@@ -4292,7 +4292,7 @@
         <v>6.5</v>
       </c>
       <c r="T27" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="U27" t="n">
         <v>1.67</v>
@@ -4301,10 +4301,10 @@
         <v>2.1</v>
       </c>
       <c r="W27" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X27" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="Y27" t="n">
         <v>5</v>
@@ -4331,7 +4331,7 @@
         <v>6</v>
       </c>
       <c r="AG27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
         <v>101</v>
@@ -4420,13 +4420,13 @@
         <v>5.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N28" t="n">
         <v>9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P28" t="n">
         <v>2.75</v>
@@ -4441,7 +4441,7 @@
         <v>4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U28" t="n">
         <v>1.5</v>
@@ -4453,7 +4453,7 @@
         <v>2.1</v>
       </c>
       <c r="X28" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="Y28" t="n">
         <v>5.5</v>
@@ -4563,19 +4563,19 @@
         <v>3.2</v>
       </c>
       <c r="K29" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L29" t="n">
         <v>4.75</v>
       </c>
       <c r="M29" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="N29" t="n">
         <v>5</v>
       </c>
       <c r="O29" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="P29" t="n">
         <v>2.1</v>
@@ -4590,7 +4590,7 @@
         <v>7</v>
       </c>
       <c r="T29" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="U29" t="n">
         <v>1.75</v>
@@ -4599,10 +4599,10 @@
         <v>2.05</v>
       </c>
       <c r="W29" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="X29" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="Y29" t="n">
         <v>5</v>
@@ -4708,19 +4708,19 @@
         <v>3.25</v>
       </c>
       <c r="K30" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="L30" t="n">
         <v>4.5</v>
       </c>
       <c r="M30" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N30" t="n">
         <v>5.5</v>
       </c>
       <c r="O30" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P30" t="n">
         <v>2.2</v>
@@ -4735,7 +4735,7 @@
         <v>6.5</v>
       </c>
       <c r="T30" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="U30" t="n">
         <v>1.67</v>
@@ -4747,7 +4747,7 @@
         <v>2.5</v>
       </c>
       <c r="X30" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="Y30" t="n">
         <v>5.5</v>
@@ -5314,7 +5314,7 @@
         <v>1.11</v>
       </c>
       <c r="U34" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="V34" t="n">
         <v>2.1</v>
@@ -5417,13 +5417,13 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="H35" t="n">
         <v>2.7</v>
       </c>
       <c r="I35" t="n">
-        <v>3.3</v>
+        <v>3.4</v>
       </c>
       <c r="J35" t="n">
         <v>3.4</v>
@@ -5699,13 +5699,13 @@
         </is>
       </c>
       <c r="G37" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H37" t="n">
         <v>4.33</v>
       </c>
       <c r="I37" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="J37" t="n">
         <v>2.5</v>
@@ -5717,10 +5717,10 @@
         <v>3.4</v>
       </c>
       <c r="M37" t="n">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="N37" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="O37" t="n">
         <v>1.11</v>
@@ -5729,16 +5729,16 @@
         <v>6.5</v>
       </c>
       <c r="Q37" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="R37" t="n">
-        <v>3</v>
+        <v>3.2</v>
       </c>
       <c r="S37" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="T37" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="U37" t="n">
         <v>1.22</v>
@@ -5774,10 +5774,10 @@
         <v>26</v>
       </c>
       <c r="AF37" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG37" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AH37" t="n">
         <v>29</v>
@@ -5786,7 +5786,7 @@
         <v>81</v>
       </c>
       <c r="AJ37" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AK37" t="n">
         <v>21</v>
@@ -5840,13 +5840,13 @@
         </is>
       </c>
       <c r="G38" t="n">
-        <v>3.25</v>
+        <v>3.1</v>
       </c>
       <c r="H38" t="n">
         <v>3.25</v>
       </c>
       <c r="I38" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J38" t="n">
         <v>3.75</v>
@@ -5861,7 +5861,7 @@
         <v>1.06</v>
       </c>
       <c r="N38" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O38" t="n">
         <v>1.3</v>
@@ -5927,7 +5927,7 @@
         <v>251</v>
       </c>
       <c r="AJ38" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK38" t="n">
         <v>11</v>
@@ -6122,7 +6122,7 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H40" t="n">
         <v>3.4</v>
@@ -6179,7 +6179,7 @@
         <v>9</v>
       </c>
       <c r="Z40" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA40" t="n">
         <v>9.5</v>
@@ -6266,37 +6266,37 @@
         <v>2.52</v>
       </c>
       <c r="H41" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="I41" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="J41" t="n">
         <v>3.25</v>
       </c>
       <c r="K41" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="L41" t="n">
-        <v>3.55</v>
+        <v>3.75</v>
       </c>
       <c r="M41" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N41" t="n">
-        <v>5.8</v>
+        <v>4.45</v>
       </c>
       <c r="O41" t="n">
-        <v>1.5</v>
+        <v>1.57</v>
       </c>
       <c r="P41" t="n">
-        <v>2.25</v>
+        <v>2.1</v>
       </c>
       <c r="Q41" t="n">
-        <v>2.42</v>
+        <v>2.62</v>
       </c>
       <c r="R41" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="S41" t="n">
         <v>4.2</v>
@@ -6305,67 +6305,67 @@
         <v>1.15</v>
       </c>
       <c r="U41" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V41" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="W41" t="n">
-        <v>2.05</v>
+        <v>2.15</v>
       </c>
       <c r="X41" t="n">
-        <v>1.62</v>
+        <v>1.55</v>
       </c>
       <c r="Y41" t="n">
-        <v>6.2</v>
+        <v>5.9</v>
       </c>
       <c r="Z41" t="n">
-        <v>11</v>
+        <v>10.75</v>
       </c>
       <c r="AA41" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AB41" t="n">
         <v>28</v>
       </c>
       <c r="AC41" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AD41" t="n">
-        <v>50</v>
+        <v>55</v>
       </c>
       <c r="AE41" t="n">
-        <v>6.3</v>
+        <v>4.8</v>
       </c>
       <c r="AF41" t="n">
         <v>5.8</v>
       </c>
       <c r="AG41" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AH41" t="n">
-        <v>120</v>
+        <v>150</v>
       </c>
       <c r="AI41" t="n">
         <v>101</v>
       </c>
       <c r="AJ41" t="n">
-        <v>6.7</v>
+        <v>6.3</v>
       </c>
       <c r="AK41" t="n">
         <v>13</v>
       </c>
       <c r="AL41" t="n">
-        <v>11.25</v>
+        <v>12</v>
       </c>
       <c r="AM41" t="n">
-        <v>35</v>
+        <v>40</v>
       </c>
       <c r="AN41" t="n">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="AO41" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AP41" t="inlineStr"/>
       <c r="AQ41" t="inlineStr"/>
@@ -6404,98 +6404,98 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.9</v>
+        <v>5.4</v>
       </c>
       <c r="H42" t="n">
-        <v>4.4</v>
+        <v>3.95</v>
       </c>
       <c r="I42" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="J42" t="n">
-        <v>5.6</v>
+        <v>5.2</v>
       </c>
       <c r="K42" t="n">
-        <v>2.4</v>
+        <v>2.27</v>
       </c>
       <c r="L42" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="n">
-        <v>1.19</v>
+        <v>1.21</v>
       </c>
       <c r="P42" t="n">
-        <v>3.7</v>
+        <v>3.5</v>
       </c>
       <c r="Q42" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="R42" t="n">
-        <v>2.07</v>
+        <v>1.98</v>
       </c>
       <c r="S42" t="n">
-        <v>2.4</v>
+        <v>2.52</v>
       </c>
       <c r="T42" t="n">
-        <v>1.45</v>
+        <v>1.4</v>
       </c>
       <c r="U42" t="inlineStr"/>
       <c r="V42" t="inlineStr"/>
       <c r="W42" t="n">
-        <v>1.78</v>
+        <v>1.72</v>
       </c>
       <c r="X42" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="Y42" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="Z42" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AA42" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB42" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AC42" t="n">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="AD42" t="n">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="AE42" t="n">
-        <v>14</v>
+        <v>12.5</v>
       </c>
       <c r="AF42" t="n">
-        <v>8.75</v>
+        <v>7.9</v>
       </c>
       <c r="AG42" t="n">
-        <v>17.5</v>
+        <v>16</v>
       </c>
       <c r="AH42" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AI42" t="n">
         <v>500</v>
       </c>
       <c r="AJ42" t="n">
-        <v>7.8</v>
+        <v>7.5</v>
       </c>
       <c r="AK42" t="n">
-        <v>7.2</v>
+        <v>7.6</v>
       </c>
       <c r="AL42" t="n">
-        <v>8.25</v>
+        <v>8</v>
       </c>
       <c r="AM42" t="n">
-        <v>9.75</v>
+        <v>11.25</v>
       </c>
       <c r="AN42" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AO42" t="n">
         <v>24</v>
@@ -7395,10 +7395,10 @@
         <v>3.6</v>
       </c>
       <c r="K49" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L49" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="M49" t="n">
         <v>1.03</v>
@@ -7407,22 +7407,22 @@
         <v>15</v>
       </c>
       <c r="O49" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="P49" t="n">
-        <v>5</v>
+        <v>4.5</v>
       </c>
       <c r="Q49" t="n">
         <v>1.57</v>
       </c>
       <c r="R49" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S49" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T49" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U49" t="n">
         <v>1.3</v>
@@ -7488,10 +7488,10 @@
         <v>21</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr"/>
@@ -7528,16 +7528,16 @@
         </is>
       </c>
       <c r="G50" t="n">
-        <v>1.62</v>
+        <v>1.65</v>
       </c>
       <c r="H50" t="n">
         <v>3.6</v>
       </c>
       <c r="I50" t="n">
-        <v>5.75</v>
+        <v>5.5</v>
       </c>
       <c r="J50" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K50" t="n">
         <v>2.25</v>
@@ -7552,16 +7552,16 @@
         <v>11</v>
       </c>
       <c r="O50" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P50" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q50" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="R50" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="S50" t="n">
         <v>3.25</v>
@@ -7606,13 +7606,13 @@
         <v>7</v>
       </c>
       <c r="AG50" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH50" t="n">
         <v>51</v>
       </c>
       <c r="AI50" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ50" t="n">
         <v>15</v>
@@ -7621,7 +7621,7 @@
         <v>29</v>
       </c>
       <c r="AL50" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM50" t="n">
         <v>51</v>
@@ -7678,7 +7678,7 @@
         <v>13</v>
       </c>
       <c r="J51" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="K51" t="n">
         <v>2.4</v>
@@ -7687,10 +7687,10 @@
         <v>11</v>
       </c>
       <c r="M51" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N51" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="O51" t="n">
         <v>1.29</v>
@@ -8106,7 +8106,7 @@
         <v>3.5</v>
       </c>
       <c r="I54" t="n">
-        <v>2.05</v>
+        <v>2.01</v>
       </c>
       <c r="J54" t="n">
         <v>4</v>
@@ -8118,10 +8118,10 @@
         <v>2.75</v>
       </c>
       <c r="M54" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N54" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O54" t="n">
         <v>1.25</v>
@@ -8130,10 +8130,10 @@
         <v>3.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="R54" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="S54" t="n">
         <v>3</v>
@@ -8261,7 +8261,7 @@
         <v>3.25</v>
       </c>
       <c r="K55" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L55" t="n">
         <v>4</v>
@@ -8279,10 +8279,10 @@
         <v>2.38</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="R55" t="n">
-        <v>1.44</v>
+        <v>1.48</v>
       </c>
       <c r="S55" t="n">
         <v>5.5</v>
@@ -8360,10 +8360,10 @@
         <v>1.21</v>
       </c>
       <c r="AR55" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="56">
@@ -8440,10 +8440,10 @@
         <v>1.18</v>
       </c>
       <c r="U56" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="V56" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="W56" t="n">
         <v>2.2</v>
@@ -8688,19 +8688,19 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="H58" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I58" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J58" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K58" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L58" t="n">
         <v>3.1</v>
@@ -8718,10 +8718,10 @@
         <v>2.75</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R58" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S58" t="n">
         <v>4.33</v>
@@ -8730,19 +8730,19 @@
         <v>1.2</v>
       </c>
       <c r="U58" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V58" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W58" t="n">
-        <v>1.83</v>
+        <v>2</v>
       </c>
       <c r="X58" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="Y58" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z58" t="n">
         <v>15</v>
@@ -8760,13 +8760,13 @@
         <v>41</v>
       </c>
       <c r="AE58" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF58" t="n">
         <v>6</v>
       </c>
       <c r="AG58" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH58" t="n">
         <v>51</v>
@@ -8775,13 +8775,13 @@
         <v>301</v>
       </c>
       <c r="AJ58" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK58" t="n">
         <v>10</v>
       </c>
       <c r="AL58" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM58" t="n">
         <v>21</v>
@@ -8829,64 +8829,64 @@
         </is>
       </c>
       <c r="G59" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="H59" t="n">
-        <v>6.4</v>
+        <v>6.6</v>
       </c>
       <c r="I59" t="n">
-        <v>18.5</v>
+        <v>19.5</v>
       </c>
       <c r="J59" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="K59" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="L59" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="M59" t="n">
         <v>1.03</v>
       </c>
       <c r="N59" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="O59" t="n">
         <v>1.14</v>
       </c>
       <c r="P59" t="n">
-        <v>5.1</v>
+        <v>5.3</v>
       </c>
       <c r="Q59" t="n">
-        <v>1.45</v>
+        <v>1.44</v>
       </c>
       <c r="R59" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="S59" t="n">
-        <v>2.07</v>
+        <v>2.05</v>
       </c>
       <c r="T59" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="U59" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="V59" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="W59" t="n">
         <v>2.18</v>
       </c>
       <c r="X59" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="Y59" t="n">
-        <v>7</v>
+        <v>7.1</v>
       </c>
       <c r="Z59" t="n">
-        <v>6.4</v>
+        <v>6.5</v>
       </c>
       <c r="AA59" t="n">
         <v>10.75</v>
@@ -8901,10 +8901,10 @@
         <v>35</v>
       </c>
       <c r="AE59" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AF59" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AG59" t="n">
         <v>32</v>
@@ -8916,13 +8916,13 @@
         <v>1250</v>
       </c>
       <c r="AJ59" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AK59" t="n">
         <v>250</v>
       </c>
       <c r="AL59" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AM59" t="n">
         <v>1250</v>
@@ -8973,25 +8973,25 @@
         <v>1.65</v>
       </c>
       <c r="H60" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I60" t="n">
-        <v>5.3</v>
+        <v>5.5</v>
       </c>
       <c r="J60" t="n">
         <v>2.18</v>
       </c>
       <c r="K60" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L60" t="n">
-        <v>5.2</v>
+        <v>5.3</v>
       </c>
       <c r="M60" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N60" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="O60" t="n">
         <v>1.35</v>
@@ -9006,7 +9006,7 @@
         <v>1.72</v>
       </c>
       <c r="S60" t="n">
-        <v>3.5</v>
+        <v>3.45</v>
       </c>
       <c r="T60" t="n">
         <v>1.28</v>
@@ -9018,7 +9018,7 @@
         <v>2.82</v>
       </c>
       <c r="W60" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="X60" t="n">
         <v>1.75</v>
@@ -9033,46 +9033,46 @@
         <v>8.75</v>
       </c>
       <c r="AB60" t="n">
-        <v>13</v>
+        <v>13.5</v>
       </c>
       <c r="AC60" t="n">
         <v>15.5</v>
       </c>
       <c r="AD60" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AE60" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AF60" t="n">
         <v>7.2</v>
       </c>
-      <c r="AF60" t="n">
-        <v>7.3</v>
-      </c>
       <c r="AG60" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI60" t="n">
         <v>1000</v>
       </c>
       <c r="AJ60" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AK60" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AL60" t="n">
-        <v>18</v>
+        <v>18.5</v>
       </c>
       <c r="AM60" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AN60" t="n">
-        <v>60</v>
+        <v>65</v>
       </c>
       <c r="AO60" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
@@ -9111,7 +9111,7 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.6</v>
+        <v>5.7</v>
       </c>
       <c r="H61" t="n">
         <v>3.9</v>
@@ -9123,10 +9123,10 @@
         <v>5.5</v>
       </c>
       <c r="K61" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="L61" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="M61" t="n">
         <v>1.06</v>
@@ -9135,37 +9135,37 @@
         <v>8</v>
       </c>
       <c r="O61" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="P61" t="n">
-        <v>3.4</v>
+        <v>3.45</v>
       </c>
       <c r="Q61" t="n">
         <v>1.85</v>
       </c>
       <c r="R61" t="n">
-        <v>1.88</v>
+        <v>1.9</v>
       </c>
       <c r="S61" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="T61" t="n">
         <v>1.35</v>
       </c>
       <c r="U61" t="n">
-        <v>1.42</v>
+        <v>1.4</v>
       </c>
       <c r="V61" t="n">
-        <v>2.77</v>
+        <v>2.82</v>
       </c>
       <c r="W61" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="X61" t="n">
         <v>1.82</v>
       </c>
       <c r="Y61" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="Z61" t="n">
         <v>37</v>
@@ -9186,13 +9186,13 @@
         <v>8</v>
       </c>
       <c r="AF61" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AG61" t="n">
         <v>18.5</v>
       </c>
       <c r="AH61" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI61" t="n">
         <v>800</v>
@@ -9207,7 +9207,7 @@
         <v>8.5</v>
       </c>
       <c r="AM61" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AN61" t="n">
         <v>13.5</v>
@@ -9294,10 +9294,10 @@
         <v>1.29</v>
       </c>
       <c r="U62" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V62" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W62" t="n">
         <v>1.8</v>
@@ -9423,19 +9423,19 @@
         <v>3.75</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R63" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S63" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T63" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U63" t="n">
         <v>1.33</v>
-      </c>
-      <c r="U63" t="n">
-        <v>1.36</v>
       </c>
       <c r="V63" t="n">
         <v>3</v>
@@ -9576,7 +9576,7 @@
         <v>1.29</v>
       </c>
       <c r="U64" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V64" t="n">
         <v>2.75</v>
@@ -9675,13 +9675,13 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.27</v>
+        <v>1.29</v>
       </c>
       <c r="H65" t="n">
         <v>5.25</v>
       </c>
       <c r="I65" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="J65" t="n">
         <v>1.73</v>
@@ -9705,28 +9705,28 @@
         <v>5</v>
       </c>
       <c r="Q65" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S65" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="T65" t="n">
         <v>1.53</v>
       </c>
-      <c r="R65" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="S65" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="T65" t="n">
-        <v>1.57</v>
-      </c>
       <c r="U65" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V65" t="n">
         <v>3.5</v>
       </c>
       <c r="W65" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="X65" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y65" t="n">
         <v>8</v>
@@ -9744,7 +9744,7 @@
         <v>11</v>
       </c>
       <c r="AD65" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE65" t="n">
         <v>15</v>
@@ -9756,34 +9756,34 @@
         <v>21</v>
       </c>
       <c r="AH65" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI65" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ65" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK65" t="n">
         <v>51</v>
       </c>
       <c r="AL65" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AM65" t="n">
-        <v>151</v>
+        <v>126</v>
       </c>
       <c r="AN65" t="n">
         <v>67</v>
       </c>
       <c r="AO65" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr"/>
@@ -9820,10 +9820,10 @@
         </is>
       </c>
       <c r="G66" t="n">
-        <v>4.1</v>
+        <v>4</v>
       </c>
       <c r="H66" t="n">
-        <v>3.9</v>
+        <v>3.8</v>
       </c>
       <c r="I66" t="n">
         <v>1.8</v>
@@ -9832,7 +9832,7 @@
         <v>4.33</v>
       </c>
       <c r="K66" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L66" t="n">
         <v>2.38</v>
@@ -9841,7 +9841,7 @@
         <v>1.03</v>
       </c>
       <c r="N66" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O66" t="n">
         <v>1.17</v>
@@ -9850,22 +9850,22 @@
         <v>5</v>
       </c>
       <c r="Q66" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R66" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S66" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T66" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U66" t="n">
-        <v>1.29</v>
+        <v>1.27</v>
       </c>
       <c r="V66" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="W66" t="n">
         <v>1.57</v>
@@ -9892,7 +9892,7 @@
         <v>29</v>
       </c>
       <c r="AE66" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF66" t="n">
         <v>7.5</v>
@@ -9907,7 +9907,7 @@
         <v>126</v>
       </c>
       <c r="AJ66" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AK66" t="n">
         <v>10</v>
@@ -9925,10 +9925,10 @@
         <v>21</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="AR66" t="inlineStr"/>
       <c r="AS66" t="inlineStr"/>
@@ -9989,25 +9989,25 @@
         <v>13</v>
       </c>
       <c r="O67" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P67" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q67" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="R67" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="S67" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T67" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U67" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V67" t="n">
         <v>3.25</v>
@@ -10148,16 +10148,16 @@
         <v>1.3</v>
       </c>
       <c r="U68" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V68" t="n">
         <v>2.75</v>
       </c>
       <c r="W68" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="X68" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Y68" t="n">
         <v>12</v>
@@ -10268,7 +10268,7 @@
         <v>1.03</v>
       </c>
       <c r="N69" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O69" t="n">
         <v>1.18</v>
@@ -10277,10 +10277,10 @@
         <v>4.5</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="R69" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S69" t="n">
         <v>2.5</v>
@@ -10289,16 +10289,16 @@
         <v>1.5</v>
       </c>
       <c r="U69" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="V69" t="n">
         <v>3.4</v>
       </c>
       <c r="W69" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="X69" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="Y69" t="n">
         <v>8</v>
@@ -10310,7 +10310,7 @@
         <v>8.5</v>
       </c>
       <c r="AB69" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AC69" t="n">
         <v>11</v>
@@ -10340,22 +10340,22 @@
         <v>34</v>
       </c>
       <c r="AL69" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM69" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN69" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO69" t="n">
         <v>41</v>
       </c>
       <c r="AP69" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR69" t="inlineStr"/>
       <c r="AS69" t="inlineStr"/>
@@ -10434,7 +10434,7 @@
         <v>1.4</v>
       </c>
       <c r="U70" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="V70" t="n">
         <v>3.25</v>
@@ -10443,7 +10443,7 @@
         <v>2</v>
       </c>
       <c r="X70" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="Y70" t="n">
         <v>7</v>
@@ -10537,16 +10537,16 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>3.1</v>
+        <v>3.25</v>
       </c>
       <c r="H71" t="n">
         <v>3.2</v>
       </c>
       <c r="I71" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="J71" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K71" t="n">
         <v>2.05</v>
@@ -10579,19 +10579,19 @@
         <v>1.25</v>
       </c>
       <c r="U71" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V71" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W71" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X71" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y71" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z71" t="n">
         <v>15</v>
@@ -10603,7 +10603,7 @@
         <v>34</v>
       </c>
       <c r="AC71" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD71" t="n">
         <v>41</v>
@@ -10624,10 +10624,10 @@
         <v>301</v>
       </c>
       <c r="AJ71" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK71" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL71" t="n">
         <v>9.5</v>
@@ -10636,7 +10636,7 @@
         <v>21</v>
       </c>
       <c r="AN71" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO71" t="n">
         <v>29</v>
@@ -10720,16 +10720,16 @@
         <v>1.25</v>
       </c>
       <c r="U72" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V72" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W72" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X72" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y72" t="n">
         <v>8</v>
@@ -10819,97 +10819,97 @@
         </is>
       </c>
       <c r="G73" t="n">
-        <v>2.72</v>
+        <v>2.7</v>
       </c>
       <c r="H73" t="n">
-        <v>2.57</v>
+        <v>2.6</v>
       </c>
       <c r="I73" t="n">
         <v>3.1</v>
       </c>
       <c r="J73" t="n">
-        <v>3.4</v>
+        <v>3.35</v>
       </c>
       <c r="K73" t="n">
         <v>1.83</v>
       </c>
       <c r="L73" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="M73" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N73" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="O73" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="P73" t="n">
-        <v>2.35</v>
+        <v>2.42</v>
       </c>
       <c r="Q73" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="R73" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="S73" t="n">
-        <v>4.5</v>
+        <v>4.35</v>
       </c>
       <c r="T73" t="n">
-        <v>1.17</v>
+        <v>1.18</v>
       </c>
       <c r="U73" t="n">
-        <v>1.57</v>
+        <v>1.55</v>
       </c>
       <c r="V73" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="W73" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="X73" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="Y73" t="n">
-        <v>6.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z73" t="n">
         <v>12.5</v>
       </c>
       <c r="AA73" t="n">
-        <v>10.25</v>
+        <v>10</v>
       </c>
       <c r="AB73" t="n">
         <v>35</v>
       </c>
       <c r="AC73" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AD73" t="n">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="AE73" t="n">
-        <v>5</v>
+        <v>5.2</v>
       </c>
       <c r="AF73" t="n">
         <v>5.1</v>
       </c>
       <c r="AG73" t="n">
-        <v>15</v>
+        <v>14.5</v>
       </c>
       <c r="AH73" t="n">
         <v>90</v>
       </c>
       <c r="AI73" t="n">
-        <v>900</v>
+        <v>800</v>
       </c>
       <c r="AJ73" t="n">
-        <v>7.2</v>
+        <v>7.4</v>
       </c>
       <c r="AK73" t="n">
-        <v>15</v>
+        <v>15.5</v>
       </c>
       <c r="AL73" t="n">
         <v>11</v>
@@ -10960,52 +10960,52 @@
         </is>
       </c>
       <c r="G74" t="n">
-        <v>1.6</v>
+        <v>1.65</v>
       </c>
       <c r="H74" t="n">
-        <v>3.55</v>
+        <v>3.4</v>
       </c>
       <c r="I74" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="J74" t="n">
-        <v>2.12</v>
+        <v>2.15</v>
       </c>
       <c r="K74" t="n">
-        <v>2.18</v>
+        <v>2.15</v>
       </c>
       <c r="L74" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="M74" t="n">
         <v>1.07</v>
       </c>
       <c r="N74" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="O74" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P74" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="Q74" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="R74" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S74" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="T74" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="U74" t="n">
-        <v>1.38</v>
+        <v>1.39</v>
       </c>
       <c r="V74" t="n">
-        <v>2.82</v>
+        <v>2.77</v>
       </c>
       <c r="W74" t="n">
         <v>1.93</v>
@@ -11017,28 +11017,28 @@
         <v>6</v>
       </c>
       <c r="Z74" t="n">
-        <v>7</v>
+        <v>7.2</v>
       </c>
       <c r="AA74" t="n">
         <v>8</v>
       </c>
       <c r="AB74" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AC74" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AD74" t="n">
         <v>29</v>
       </c>
       <c r="AE74" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AF74" t="n">
-        <v>6.9</v>
+        <v>6.7</v>
       </c>
       <c r="AG74" t="n">
-        <v>17</v>
+        <v>16.5</v>
       </c>
       <c r="AH74" t="n">
         <v>90</v>
@@ -11047,19 +11047,19 @@
         <v>800</v>
       </c>
       <c r="AJ74" t="n">
-        <v>13.5</v>
+        <v>13</v>
       </c>
       <c r="AK74" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AL74" t="n">
-        <v>17.5</v>
+        <v>17</v>
       </c>
       <c r="AM74" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN74" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO74" t="n">
         <v>60</v>
@@ -11072,7 +11072,7 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>CvhU5ut3</t>
+          <t>xMwng2dc</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
@@ -11082,7 +11082,7 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
@@ -11092,118 +11092,118 @@
       </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>El Ismaily</t>
+          <t>Haras El Hodood</t>
         </is>
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Al Ahly</t>
+          <t>Pharco</t>
         </is>
       </c>
       <c r="G75" t="n">
-        <v>9.5</v>
+        <v>3.1</v>
       </c>
       <c r="H75" t="n">
-        <v>4.05</v>
+        <v>2.45</v>
       </c>
       <c r="I75" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="J75" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="L75" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M75" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N75" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="O75" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="P75" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="Q75" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="R75" t="n">
         <v>1.38</v>
       </c>
-      <c r="J75" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="K75" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="L75" t="n">
-        <v>1.88</v>
-      </c>
-      <c r="M75" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N75" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="O75" t="n">
-        <v>1.38</v>
-      </c>
-      <c r="P75" t="n">
-        <v>2.8</v>
-      </c>
-      <c r="Q75" t="n">
-        <v>2.12</v>
-      </c>
-      <c r="R75" t="n">
+      <c r="S75" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="U75" t="n">
         <v>1.65</v>
       </c>
-      <c r="S75" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T75" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="U75" t="n">
-        <v>1.44</v>
-      </c>
       <c r="V75" t="n">
-        <v>2.57</v>
+        <v>2.1</v>
       </c>
       <c r="W75" t="n">
-        <v>2.52</v>
+        <v>2.1</v>
       </c>
       <c r="X75" t="n">
-        <v>1.47</v>
+        <v>1.65</v>
       </c>
       <c r="Y75" t="n">
-        <v>17.5</v>
+        <v>6.6</v>
       </c>
       <c r="Z75" t="n">
-        <v>60</v>
+        <v>14.5</v>
       </c>
       <c r="AA75" t="n">
-        <v>32</v>
+        <v>11.5</v>
       </c>
       <c r="AB75" t="n">
-        <v>300</v>
+        <v>45</v>
       </c>
       <c r="AC75" t="n">
-        <v>150</v>
+        <v>37</v>
       </c>
       <c r="AD75" t="n">
-        <v>150</v>
+        <v>55</v>
       </c>
       <c r="AE75" t="n">
-        <v>6.5</v>
+        <v>4.5</v>
       </c>
       <c r="AF75" t="n">
-        <v>8.5</v>
+        <v>5</v>
       </c>
       <c r="AG75" t="n">
-        <v>29</v>
+        <v>16.5</v>
       </c>
       <c r="AH75" t="n">
-        <v>200</v>
+        <v>110</v>
       </c>
       <c r="AI75" t="n">
         <v>101</v>
       </c>
       <c r="AJ75" t="n">
-        <v>4.85</v>
+        <v>6.2</v>
       </c>
       <c r="AK75" t="n">
-        <v>5.2</v>
+        <v>13</v>
       </c>
       <c r="AL75" t="n">
-        <v>9</v>
+        <v>10.75</v>
       </c>
       <c r="AM75" t="n">
-        <v>8</v>
+        <v>40</v>
       </c>
       <c r="AN75" t="n">
-        <v>14</v>
+        <v>32</v>
       </c>
       <c r="AO75" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AP75" t="inlineStr"/>
       <c r="AQ75" t="inlineStr"/>
@@ -11213,7 +11213,7 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>xMwng2dc</t>
+          <t>CvhU5ut3</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
@@ -11233,118 +11233,118 @@
       </c>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Haras El Hodood</t>
+          <t>El Ismaily</t>
         </is>
       </c>
       <c r="F76" t="inlineStr">
         <is>
-          <t>Pharco</t>
+          <t>Al Ahly</t>
         </is>
       </c>
       <c r="G76" t="n">
-        <v>3.25</v>
+        <v>8.5</v>
       </c>
       <c r="H76" t="n">
-        <v>2.45</v>
+        <v>4</v>
       </c>
       <c r="I76" t="n">
-        <v>2.72</v>
+        <v>1.4</v>
       </c>
       <c r="J76" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="K76" t="n">
-        <v>1.75</v>
+        <v>2.18</v>
       </c>
       <c r="L76" t="n">
-        <v>3.45</v>
+        <v>1.91</v>
       </c>
       <c r="M76" t="n">
-        <v>1.17</v>
+        <v>1.08</v>
       </c>
       <c r="N76" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="O76" t="n">
-        <v>1.62</v>
+        <v>1.39</v>
       </c>
       <c r="P76" t="n">
-        <v>2.15</v>
+        <v>2.77</v>
       </c>
       <c r="Q76" t="n">
-        <v>2.82</v>
+        <v>2.12</v>
       </c>
       <c r="R76" t="n">
-        <v>1.38</v>
+        <v>1.65</v>
       </c>
       <c r="S76" t="n">
-        <v>5.1</v>
+        <v>3.7</v>
       </c>
       <c r="T76" t="n">
-        <v>1.13</v>
+        <v>1.24</v>
       </c>
       <c r="U76" t="n">
-        <v>1.65</v>
+        <v>1.45</v>
       </c>
       <c r="V76" t="n">
-        <v>2.12</v>
+        <v>2.55</v>
       </c>
       <c r="W76" t="n">
-        <v>2.12</v>
+        <v>2.5</v>
       </c>
       <c r="X76" t="n">
-        <v>1.65</v>
+        <v>1.47</v>
       </c>
       <c r="Y76" t="n">
-        <v>6.8</v>
+        <v>15.5</v>
       </c>
       <c r="Z76" t="n">
-        <v>15.5</v>
+        <v>55</v>
       </c>
       <c r="AA76" t="n">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="AB76" t="n">
-        <v>50</v>
+        <v>300</v>
       </c>
       <c r="AC76" t="n">
-        <v>40</v>
+        <v>150</v>
       </c>
       <c r="AD76" t="n">
-        <v>55</v>
+        <v>150</v>
       </c>
       <c r="AE76" t="n">
-        <v>4.5</v>
+        <v>6.4</v>
       </c>
       <c r="AF76" t="n">
-        <v>5</v>
+        <v>8.25</v>
       </c>
       <c r="AG76" t="n">
-        <v>17</v>
+        <v>29</v>
       </c>
       <c r="AH76" t="n">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="AI76" t="n">
         <v>101</v>
       </c>
       <c r="AJ76" t="n">
-        <v>6</v>
+        <v>4.9</v>
       </c>
       <c r="AK76" t="n">
-        <v>12.5</v>
+        <v>5.4</v>
       </c>
       <c r="AL76" t="n">
-        <v>10.5</v>
+        <v>9</v>
       </c>
       <c r="AM76" t="n">
-        <v>35</v>
+        <v>8.25</v>
       </c>
       <c r="AN76" t="n">
-        <v>30</v>
+        <v>14</v>
       </c>
       <c r="AO76" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AP76" t="inlineStr"/>
       <c r="AQ76" t="inlineStr"/>
@@ -11383,7 +11383,7 @@
         </is>
       </c>
       <c r="G77" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="H77" t="n">
         <v>4.1</v>
@@ -11392,7 +11392,7 @@
         <v>4</v>
       </c>
       <c r="J77" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="K77" t="n">
         <v>2.3</v>
@@ -11407,16 +11407,16 @@
         <v>15</v>
       </c>
       <c r="O77" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="P77" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q77" t="n">
         <v>1.67</v>
       </c>
       <c r="R77" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="S77" t="n">
         <v>2.63</v>
@@ -11431,7 +11431,7 @@
         <v>3.25</v>
       </c>
       <c r="W77" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="X77" t="n">
         <v>2</v>
@@ -11530,13 +11530,13 @@
         <v>4</v>
       </c>
       <c r="I78" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="J78" t="n">
         <v>5</v>
       </c>
       <c r="K78" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L78" t="n">
         <v>2.2</v>
@@ -11554,7 +11554,7 @@
         <v>4.33</v>
       </c>
       <c r="Q78" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R78" t="n">
         <v>2.1</v>
@@ -11572,7 +11572,7 @@
         <v>3.25</v>
       </c>
       <c r="W78" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="X78" t="n">
         <v>2</v>
@@ -11665,7 +11665,7 @@
         </is>
       </c>
       <c r="G79" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H79" t="n">
         <v>3.7</v>
@@ -11695,7 +11695,7 @@
         <v>5</v>
       </c>
       <c r="Q79" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R79" t="n">
         <v>2.35</v>
@@ -11713,7 +11713,7 @@
         <v>3.5</v>
       </c>
       <c r="W79" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X79" t="n">
         <v>2.5</v>
@@ -11816,7 +11816,7 @@
         <v>3.8</v>
       </c>
       <c r="I80" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="J80" t="n">
         <v>4.75</v>
@@ -11840,10 +11840,10 @@
         <v>4</v>
       </c>
       <c r="Q80" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="R80" t="n">
-        <v>2.08</v>
+        <v>2.07</v>
       </c>
       <c r="S80" t="n">
         <v>2.75</v>
@@ -11858,7 +11858,7 @@
         <v>3.25</v>
       </c>
       <c r="W80" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="X80" t="n">
         <v>2</v>
@@ -11960,10 +11960,10 @@
         <v>3.2</v>
       </c>
       <c r="J81" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="K81" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L81" t="n">
         <v>3.6</v>
@@ -11981,7 +11981,7 @@
         <v>5</v>
       </c>
       <c r="Q81" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="R81" t="n">
         <v>2.35</v>
@@ -11999,7 +11999,7 @@
         <v>3.4</v>
       </c>
       <c r="W81" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="X81" t="n">
         <v>2.5</v>
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="G82" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="H82" t="n">
         <v>4.2</v>
@@ -12108,7 +12108,7 @@
         <v>2.25</v>
       </c>
       <c r="K82" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="L82" t="n">
         <v>4.75</v>
@@ -12126,7 +12126,7 @@
         <v>4.33</v>
       </c>
       <c r="Q82" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="R82" t="n">
         <v>2.15</v>
@@ -12144,7 +12144,7 @@
         <v>3.25</v>
       </c>
       <c r="W82" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="X82" t="n">
         <v>2</v>
@@ -12237,28 +12237,28 @@
         </is>
       </c>
       <c r="G83" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="H83" t="n">
-        <v>3.2</v>
+        <v>3.3</v>
       </c>
       <c r="I83" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="J83" t="n">
         <v>4.5</v>
       </c>
       <c r="K83" t="n">
-        <v>1.91</v>
+        <v>1.92</v>
       </c>
       <c r="L83" t="n">
-        <v>3</v>
+        <v>2.87</v>
       </c>
       <c r="M83" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N83" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O83" t="n">
         <v>1.44</v>
@@ -12270,7 +12270,7 @@
         <v>2.4</v>
       </c>
       <c r="R83" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S83" t="n">
         <v>5</v>
@@ -12285,16 +12285,16 @@
         <v>2.25</v>
       </c>
       <c r="W83" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X83" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y83" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z83" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA83" t="n">
         <v>13</v>
@@ -12309,13 +12309,13 @@
         <v>41</v>
       </c>
       <c r="AE83" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF83" t="n">
         <v>6.5</v>
       </c>
       <c r="AG83" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH83" t="n">
         <v>81</v>
@@ -12324,13 +12324,13 @@
         <v>501</v>
       </c>
       <c r="AJ83" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AK83" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL83" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM83" t="n">
         <v>19</v>
@@ -12395,7 +12395,7 @@
         <v>11</v>
       </c>
       <c r="J84" t="n">
-        <v>1.73</v>
+        <v>1.69</v>
       </c>
       <c r="K84" t="n">
         <v>2.5</v>
@@ -12407,7 +12407,7 @@
         <v>1.04</v>
       </c>
       <c r="N84" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O84" t="n">
         <v>1.22</v>
@@ -12416,10 +12416,10 @@
         <v>4</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.73</v>
+        <v>1.72</v>
       </c>
       <c r="R84" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="S84" t="n">
         <v>2.75</v>
@@ -12541,13 +12541,13 @@
         <v>7</v>
       </c>
       <c r="I85" t="n">
-        <v>1.14</v>
+        <v>1.1</v>
       </c>
       <c r="J85" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="K85" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="L85" t="n">
         <v>1.53</v>
@@ -12565,10 +12565,10 @@
         <v>4.5</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="R85" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="S85" t="n">
         <v>2.5</v>
@@ -12577,10 +12577,10 @@
         <v>1.5</v>
       </c>
       <c r="U85" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="V85" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="W85" t="n">
         <v>2.63</v>
@@ -12589,22 +12589,22 @@
         <v>1.44</v>
       </c>
       <c r="Y85" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="Z85" t="n">
         <v>81</v>
       </c>
       <c r="AA85" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AB85" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AC85" t="n">
         <v>151</v>
       </c>
       <c r="AD85" t="n">
-        <v>126</v>
+        <v>151</v>
       </c>
       <c r="AE85" t="n">
         <v>13</v>
@@ -12622,7 +12622,7 @@
         <v>501</v>
       </c>
       <c r="AJ85" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK85" t="n">
         <v>5.5</v>
@@ -12634,22 +12634,22 @@
         <v>6</v>
       </c>
       <c r="AN85" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO85" t="n">
         <v>41</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR85" t="n">
-        <v>1.3</v>
+        <v>1.28</v>
       </c>
       <c r="AS85" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
     </row>
     <row r="86">
@@ -12693,7 +12693,7 @@
         <v>19</v>
       </c>
       <c r="J86" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="K86" t="n">
         <v>3</v>
@@ -12714,7 +12714,7 @@
         <v>6</v>
       </c>
       <c r="Q86" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="R86" t="n">
         <v>2.7</v>
@@ -12732,25 +12732,25 @@
         <v>3.75</v>
       </c>
       <c r="W86" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="X86" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Y86" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z86" t="n">
         <v>6</v>
       </c>
       <c r="AA86" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB86" t="n">
         <v>6.5</v>
       </c>
       <c r="AC86" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD86" t="n">
         <v>34</v>
@@ -12762,10 +12762,10 @@
         <v>15</v>
       </c>
       <c r="AG86" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AH86" t="n">
-        <v>101</v>
+        <v>81</v>
       </c>
       <c r="AI86" t="n">
         <v>101</v>
@@ -12866,7 +12866,7 @@
         <v>2.7</v>
       </c>
       <c r="R87" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="S87" t="n">
         <v>5.5</v>
@@ -12944,10 +12944,10 @@
         <v>1.21</v>
       </c>
       <c r="AR87" t="n">
-        <v>2.05</v>
+        <v>1.97</v>
       </c>
       <c r="AS87" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
     </row>
     <row r="88">
@@ -13012,10 +13012,10 @@
         <v>3.75</v>
       </c>
       <c r="Q88" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="R88" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S88" t="n">
         <v>3.25</v>
@@ -13153,16 +13153,16 @@
         <v>5</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="R89" t="n">
         <v>2.3</v>
       </c>
       <c r="S89" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="T89" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="U89" t="n">
         <v>1.29</v>
@@ -13228,10 +13228,10 @@
         <v>41</v>
       </c>
       <c r="AP89" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr"/>
@@ -13298,10 +13298,10 @@
         <v>4</v>
       </c>
       <c r="Q90" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R90" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S90" t="n">
         <v>2.75</v>
@@ -13546,48 +13546,48 @@
         </is>
       </c>
       <c r="G92" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H92" t="n">
-        <v>2.9</v>
+        <v>2.87</v>
       </c>
       <c r="I92" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="J92" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
       <c r="K92" t="n">
-        <v>2.05</v>
+        <v>2.02</v>
       </c>
       <c r="L92" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="M92" t="inlineStr"/>
       <c r="N92" t="inlineStr"/>
       <c r="O92" t="n">
-        <v>1.31</v>
+        <v>1.32</v>
       </c>
       <c r="P92" t="n">
-        <v>2.9</v>
+        <v>2.82</v>
       </c>
       <c r="Q92" t="n">
-        <v>1.91</v>
+        <v>1.93</v>
       </c>
       <c r="R92" t="n">
         <v>1.7</v>
       </c>
       <c r="S92" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="T92" t="n">
-        <v>1.28</v>
+        <v>1.27</v>
       </c>
       <c r="U92" t="n">
-        <v>1.44</v>
+        <v>1.46</v>
       </c>
       <c r="V92" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="W92" t="n">
         <v>1.65</v>
@@ -13596,55 +13596,55 @@
         <v>1.98</v>
       </c>
       <c r="Y92" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Z92" t="n">
-        <v>11.5</v>
+        <v>12</v>
       </c>
       <c r="AA92" t="n">
         <v>8.75</v>
       </c>
       <c r="AB92" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AC92" t="n">
-        <v>19</v>
+        <v>19.5</v>
       </c>
       <c r="AD92" t="n">
         <v>27</v>
       </c>
       <c r="AE92" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AF92" t="n">
-        <v>5.7</v>
+        <v>5.6</v>
       </c>
       <c r="AG92" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AH92" t="n">
         <v>55</v>
       </c>
       <c r="AI92" t="n">
-        <v>400</v>
+        <v>450</v>
       </c>
       <c r="AJ92" t="n">
-        <v>10</v>
+        <v>9.25</v>
       </c>
       <c r="AK92" t="n">
-        <v>18.5</v>
+        <v>17</v>
       </c>
       <c r="AL92" t="n">
         <v>10.75</v>
       </c>
       <c r="AM92" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AN92" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AO92" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AP92" t="inlineStr"/>
       <c r="AQ92" t="inlineStr"/>
@@ -13683,13 +13683,13 @@
         </is>
       </c>
       <c r="G93" t="n">
-        <v>2.85</v>
+        <v>2.87</v>
       </c>
       <c r="H93" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="I93" t="n">
-        <v>2.32</v>
+        <v>2.35</v>
       </c>
       <c r="J93" t="n">
         <v>3.4</v>
@@ -13698,18 +13698,18 @@
         <v>2.07</v>
       </c>
       <c r="L93" t="n">
-        <v>2.9</v>
+        <v>2.92</v>
       </c>
       <c r="M93" t="inlineStr"/>
       <c r="N93" t="inlineStr"/>
       <c r="O93" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="P93" t="n">
         <v>2.65</v>
       </c>
       <c r="Q93" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R93" t="n">
         <v>1.6</v>
@@ -13724,7 +13724,7 @@
         <v>1.4</v>
       </c>
       <c r="V93" t="n">
-        <v>2.52</v>
+        <v>2.55</v>
       </c>
       <c r="W93" t="n">
         <v>1.83</v>
@@ -13736,7 +13736,7 @@
         <v>8</v>
       </c>
       <c r="Z93" t="n">
-        <v>13.5</v>
+        <v>14</v>
       </c>
       <c r="AA93" t="n">
         <v>10.75</v>
@@ -13754,13 +13754,13 @@
         <v>8.25</v>
       </c>
       <c r="AF93" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AG93" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AH93" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI93" t="n">
         <v>800</v>
@@ -13775,7 +13775,7 @@
         <v>9.5</v>
       </c>
       <c r="AM93" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN93" t="n">
         <v>21</v>
@@ -13850,10 +13850,10 @@
         <v>3.4</v>
       </c>
       <c r="Q94" t="n">
-        <v>2.03</v>
+        <v>1.97</v>
       </c>
       <c r="R94" t="n">
-        <v>1.83</v>
+        <v>1.77</v>
       </c>
       <c r="S94" t="n">
         <v>3.5</v>
@@ -13964,13 +13964,13 @@
         <v>1.2</v>
       </c>
       <c r="H95" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="I95" t="n">
         <v>11</v>
       </c>
       <c r="J95" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="K95" t="n">
         <v>2.88</v>
@@ -13997,10 +13997,10 @@
         <v>2.6</v>
       </c>
       <c r="S95" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="T95" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="U95" t="n">
         <v>1.25</v>
@@ -14024,7 +14024,7 @@
         <v>10</v>
       </c>
       <c r="AB95" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AC95" t="n">
         <v>11</v>
@@ -14036,10 +14036,10 @@
         <v>19</v>
       </c>
       <c r="AF95" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG95" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH95" t="n">
         <v>81</v>
@@ -14063,7 +14063,7 @@
         <v>67</v>
       </c>
       <c r="AO95" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AP95" t="n">
         <v>1.8</v>
@@ -14106,13 +14106,13 @@
         </is>
       </c>
       <c r="G96" t="n">
-        <v>2.5</v>
+        <v>2.55</v>
       </c>
       <c r="H96" t="n">
         <v>2.88</v>
       </c>
       <c r="I96" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="J96" t="n">
         <v>3.4</v>
@@ -14154,10 +14154,10 @@
         <v>2.25</v>
       </c>
       <c r="W96" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="X96" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="Y96" t="n">
         <v>6.5</v>
@@ -14169,10 +14169,10 @@
         <v>11</v>
       </c>
       <c r="AB96" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC96" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD96" t="n">
         <v>41</v>
@@ -14196,7 +14196,7 @@
         <v>7.5</v>
       </c>
       <c r="AK96" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL96" t="n">
         <v>12</v>
@@ -14213,10 +14213,10 @@
       <c r="AP96" t="inlineStr"/>
       <c r="AQ96" t="inlineStr"/>
       <c r="AR96" t="n">
-        <v>1.98</v>
+        <v>1.92</v>
       </c>
       <c r="AS96" t="n">
-        <v>1.88</v>
+        <v>1.82</v>
       </c>
     </row>
     <row r="97">
@@ -14358,10 +14358,10 @@
       <c r="AP97" t="inlineStr"/>
       <c r="AQ97" t="inlineStr"/>
       <c r="AR97" t="n">
-        <v>1.85</v>
+        <v>1.79</v>
       </c>
       <c r="AS97" t="n">
-        <v>2</v>
+        <v>1.94</v>
       </c>
     </row>
     <row r="98">
@@ -14399,7 +14399,7 @@
         <v>1.75</v>
       </c>
       <c r="H98" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I98" t="n">
         <v>5.25</v>
@@ -14408,16 +14408,16 @@
         <v>2.38</v>
       </c>
       <c r="K98" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L98" t="n">
         <v>4.75</v>
       </c>
       <c r="M98" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N98" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O98" t="n">
         <v>1.25</v>
@@ -14426,10 +14426,10 @@
         <v>3.75</v>
       </c>
       <c r="Q98" t="n">
-        <v>1.9</v>
+        <v>1.82</v>
       </c>
       <c r="R98" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="S98" t="n">
         <v>3</v>
@@ -14438,16 +14438,16 @@
         <v>1.36</v>
       </c>
       <c r="U98" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V98" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W98" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X98" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y98" t="n">
         <v>7.5</v>
@@ -14537,13 +14537,13 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="H99" t="n">
         <v>3</v>
       </c>
       <c r="I99" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="J99" t="n">
         <v>3.4</v>
@@ -14552,7 +14552,7 @@
         <v>2</v>
       </c>
       <c r="L99" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="M99" t="n">
         <v>1.08</v>
@@ -14585,16 +14585,16 @@
         <v>2.5</v>
       </c>
       <c r="W99" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X99" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y99" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z99" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA99" t="n">
         <v>11</v>
@@ -14609,10 +14609,10 @@
         <v>34</v>
       </c>
       <c r="AE99" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF99" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG99" t="n">
         <v>15</v>
@@ -14621,7 +14621,7 @@
         <v>51</v>
       </c>
       <c r="AI99" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ99" t="n">
         <v>8</v>
@@ -14633,13 +14633,13 @@
         <v>11</v>
       </c>
       <c r="AM99" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN99" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO99" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP99" t="inlineStr"/>
       <c r="AQ99" t="inlineStr"/>
@@ -14681,19 +14681,19 @@
         <v>3.25</v>
       </c>
       <c r="H100" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I100" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J100" t="n">
         <v>4</v>
       </c>
       <c r="K100" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L100" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="M100" t="n">
         <v>1.06</v>
@@ -14726,16 +14726,16 @@
         <v>2.63</v>
       </c>
       <c r="W100" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X100" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="Y100" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z100" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA100" t="n">
         <v>12</v>
@@ -14747,10 +14747,10 @@
         <v>29</v>
       </c>
       <c r="AD100" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE100" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF100" t="n">
         <v>6.5</v>
@@ -14765,13 +14765,13 @@
         <v>301</v>
       </c>
       <c r="AJ100" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK100" t="n">
         <v>10</v>
       </c>
       <c r="AL100" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AM100" t="n">
         <v>21</v>
@@ -14819,49 +14819,49 @@
         </is>
       </c>
       <c r="G101" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="H101" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I101" t="n">
         <v>3.25</v>
       </c>
       <c r="J101" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K101" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L101" t="n">
         <v>4</v>
       </c>
       <c r="M101" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N101" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O101" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P101" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q101" t="n">
-        <v>2.15</v>
+        <v>2.3</v>
       </c>
       <c r="R101" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="S101" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T101" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U101" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="V101" t="n">
         <v>2.5</v>
@@ -14873,7 +14873,7 @@
         <v>1.8</v>
       </c>
       <c r="Y101" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z101" t="n">
         <v>10</v>
@@ -14891,22 +14891,22 @@
         <v>34</v>
       </c>
       <c r="AE101" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF101" t="n">
         <v>6</v>
       </c>
       <c r="AG101" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH101" t="n">
         <v>51</v>
       </c>
       <c r="AI101" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ101" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK101" t="n">
         <v>15</v>
@@ -14990,10 +14990,10 @@
         <v>3</v>
       </c>
       <c r="Q102" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R102" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S102" t="n">
         <v>3.75</v>
@@ -15002,10 +15002,10 @@
         <v>1.25</v>
       </c>
       <c r="U102" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V102" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W102" t="n">
         <v>1.83</v>
@@ -15101,19 +15101,19 @@
         </is>
       </c>
       <c r="G103" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="H103" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="I103" t="n">
         <v>2.7</v>
       </c>
-      <c r="H103" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>2.6</v>
-      </c>
       <c r="J103" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K103" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="L103" t="n">
         <v>3.6</v>
@@ -15131,28 +15131,28 @@
         <v>2.5</v>
       </c>
       <c r="Q103" t="n">
-        <v>2.6</v>
+        <v>2.5</v>
       </c>
       <c r="R103" t="n">
-        <v>1.48</v>
+        <v>1.47</v>
       </c>
       <c r="S103" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="T103" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="U103" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V103" t="n">
         <v>2.25</v>
       </c>
       <c r="W103" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X103" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y103" t="n">
         <v>6.5</v>
@@ -15164,16 +15164,16 @@
         <v>11</v>
       </c>
       <c r="AB103" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC103" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD103" t="n">
         <v>41</v>
       </c>
       <c r="AE103" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AF103" t="n">
         <v>6</v>
@@ -15182,22 +15182,22 @@
         <v>19</v>
       </c>
       <c r="AH103" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI103" t="n">
-        <v>101</v>
+        <v>1250</v>
       </c>
       <c r="AJ103" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK103" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL103" t="n">
         <v>11</v>
       </c>
       <c r="AM103" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN103" t="n">
         <v>26</v>
@@ -15208,10 +15208,10 @@
       <c r="AP103" t="inlineStr"/>
       <c r="AQ103" t="inlineStr"/>
       <c r="AR103" t="n">
-        <v>2</v>
+        <v>1.93</v>
       </c>
       <c r="AS103" t="n">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="104">
@@ -15246,109 +15246,109 @@
         </is>
       </c>
       <c r="G104" t="n">
-        <v>3</v>
+        <v>3.3</v>
       </c>
       <c r="H104" t="n">
         <v>3.3</v>
       </c>
       <c r="I104" t="n">
-        <v>2.3</v>
+        <v>2.15</v>
       </c>
       <c r="J104" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K104" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L104" t="n">
-        <v>3.1</v>
+        <v>2.87</v>
       </c>
       <c r="M104" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N104" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="O104" t="n">
-        <v>1.33</v>
+        <v>1.4</v>
       </c>
       <c r="P104" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="Q104" t="n">
-        <v>2.08</v>
+        <v>2.2</v>
       </c>
       <c r="R104" t="n">
-        <v>1.73</v>
+        <v>1.62</v>
       </c>
       <c r="S104" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T104" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U104" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="V104" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W104" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="X104" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Y104" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="Z104" t="n">
         <v>15</v>
       </c>
       <c r="AA104" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB104" t="n">
         <v>34</v>
       </c>
       <c r="AC104" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD104" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE104" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AF104" t="n">
         <v>6.5</v>
       </c>
       <c r="AG104" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH104" t="n">
         <v>51</v>
       </c>
       <c r="AI104" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AJ104" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AK104" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AL104" t="n">
         <v>9.5</v>
       </c>
       <c r="AM104" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN104" t="n">
         <v>19</v>
       </c>
       <c r="AO104" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP104" t="inlineStr"/>
       <c r="AQ104" t="inlineStr"/>
@@ -15387,101 +15387,105 @@
         </is>
       </c>
       <c r="G105" t="n">
-        <v>1.41</v>
+        <v>1.52</v>
       </c>
       <c r="H105" t="n">
-        <v>4.2</v>
+        <v>3.9</v>
       </c>
       <c r="I105" t="n">
-        <v>6.2</v>
+        <v>5.1</v>
       </c>
       <c r="J105" t="n">
-        <v>1.81</v>
+        <v>2.02</v>
       </c>
       <c r="K105" t="n">
-        <v>2.55</v>
+        <v>2.25</v>
       </c>
       <c r="L105" t="n">
-        <v>6.4</v>
+        <v>5.2</v>
       </c>
       <c r="M105" t="inlineStr"/>
       <c r="N105" t="inlineStr"/>
       <c r="O105" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="P105" t="n">
-        <v>4.4</v>
+        <v>3.75</v>
       </c>
       <c r="Q105" t="n">
-        <v>1.6</v>
+        <v>1.7</v>
       </c>
       <c r="R105" t="n">
-        <v>2.24</v>
+        <v>1.93</v>
       </c>
       <c r="S105" t="n">
-        <v>2.46</v>
+        <v>2.9</v>
       </c>
       <c r="T105" t="n">
-        <v>1.51</v>
-      </c>
-      <c r="U105" t="inlineStr"/>
-      <c r="V105" t="inlineStr"/>
+        <v>1.38</v>
+      </c>
+      <c r="U105" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V105" t="n">
+        <v>2.47</v>
+      </c>
       <c r="W105" t="n">
-        <v>1.77</v>
+        <v>1.79</v>
       </c>
       <c r="X105" t="n">
-        <v>1.93</v>
+        <v>1.91</v>
       </c>
       <c r="Y105" t="n">
-        <v>7.2</v>
+        <v>6.1</v>
       </c>
       <c r="Z105" t="n">
-        <v>5.8</v>
+        <v>6.2</v>
       </c>
       <c r="AA105" t="n">
-        <v>6.6</v>
+        <v>6.9</v>
       </c>
       <c r="AB105" t="n">
-        <v>7.6</v>
+        <v>9</v>
       </c>
       <c r="AC105" t="n">
-        <v>8.800000000000001</v>
+        <v>10</v>
       </c>
       <c r="AD105" t="n">
         <v>20</v>
       </c>
       <c r="AE105" t="n">
-        <v>14</v>
+        <v>11.5</v>
       </c>
       <c r="AF105" t="n">
-        <v>7.8</v>
+        <v>6.8</v>
       </c>
       <c r="AG105" t="n">
         <v>14</v>
       </c>
       <c r="AH105" t="n">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="AI105" t="n">
-        <v>101</v>
+        <v>350</v>
       </c>
       <c r="AJ105" t="n">
-        <v>18</v>
+        <v>12.5</v>
       </c>
       <c r="AK105" t="n">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="AL105" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="AM105" t="n">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="AN105" t="n">
-        <v>60</v>
+        <v>40</v>
       </c>
       <c r="AO105" t="n">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="AP105" t="inlineStr"/>
       <c r="AQ105" t="inlineStr"/>
@@ -15520,101 +15524,101 @@
         </is>
       </c>
       <c r="G106" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="H106" t="n">
         <v>3.15</v>
       </c>
       <c r="I106" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="J106" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K106" t="n">
-        <v>2.21</v>
+        <v>2.07</v>
       </c>
       <c r="L106" t="n">
-        <v>3.05</v>
+        <v>3.2</v>
       </c>
       <c r="M106" t="inlineStr"/>
       <c r="N106" t="inlineStr"/>
       <c r="O106" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P106" t="n">
-        <v>3.8</v>
+        <v>3.7</v>
       </c>
       <c r="Q106" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="R106" t="n">
-        <v>1.98</v>
+        <v>1.82</v>
       </c>
       <c r="S106" t="n">
-        <v>2.85</v>
+        <v>2.9</v>
       </c>
       <c r="T106" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="U106" t="inlineStr"/>
       <c r="V106" t="inlineStr"/>
       <c r="W106" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="X106" t="n">
-        <v>2.2</v>
+        <v>2.16</v>
       </c>
       <c r="Y106" t="n">
-        <v>8</v>
+        <v>7.2</v>
       </c>
       <c r="Z106" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AA106" t="n">
         <v>7.8</v>
       </c>
       <c r="AB106" t="n">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="AC106" t="n">
-        <v>16</v>
+        <v>15.5</v>
       </c>
       <c r="AD106" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AE106" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF106" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AG106" t="n">
-        <v>9.6</v>
+        <v>10.5</v>
       </c>
       <c r="AH106" t="n">
         <v>40</v>
       </c>
       <c r="AI106" t="n">
-        <v>101</v>
+        <v>250</v>
       </c>
       <c r="AJ106" t="n">
-        <v>8</v>
+        <v>8.25</v>
       </c>
       <c r="AK106" t="n">
-        <v>11</v>
+        <v>12.5</v>
       </c>
       <c r="AL106" t="n">
-        <v>7.8</v>
+        <v>8.25</v>
       </c>
       <c r="AM106" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AN106" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AO106" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AP106" t="inlineStr"/>
       <c r="AQ106" t="inlineStr"/>
@@ -15656,7 +15660,7 @@
         <v>1.75</v>
       </c>
       <c r="H107" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="I107" t="n">
         <v>4.5</v>
@@ -15674,7 +15678,7 @@
         <v>1.04</v>
       </c>
       <c r="N107" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O107" t="n">
         <v>1.22</v>
@@ -15701,10 +15705,10 @@
         <v>3.25</v>
       </c>
       <c r="W107" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="X107" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="Y107" t="n">
         <v>8</v>
@@ -15725,7 +15729,7 @@
         <v>23</v>
       </c>
       <c r="AE107" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF107" t="n">
         <v>7.5</v>
@@ -15740,7 +15744,7 @@
         <v>201</v>
       </c>
       <c r="AJ107" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AK107" t="n">
         <v>23</v>
@@ -15755,7 +15759,7 @@
         <v>34</v>
       </c>
       <c r="AO107" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP107" t="inlineStr"/>
       <c r="AQ107" t="inlineStr"/>
@@ -15818,22 +15822,22 @@
         <v>11</v>
       </c>
       <c r="O108" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P108" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="R108" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="S108" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="T108" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U108" t="n">
         <v>1.4</v>
@@ -16109,7 +16113,7 @@
         <v>2.05</v>
       </c>
       <c r="R110" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="S110" t="n">
         <v>3.5</v>
@@ -16133,7 +16137,7 @@
         <v>7.5</v>
       </c>
       <c r="Z110" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA110" t="n">
         <v>9</v>
@@ -16217,22 +16221,22 @@
         </is>
       </c>
       <c r="G111" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="H111" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="I111" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="J111" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="K111" t="n">
-        <v>2.1</v>
+        <v>2.07</v>
       </c>
       <c r="L111" t="n">
-        <v>3.9</v>
+        <v>4.05</v>
       </c>
       <c r="M111" t="inlineStr"/>
       <c r="N111" t="inlineStr"/>
@@ -16267,52 +16271,52 @@
         <v>1.85</v>
       </c>
       <c r="Y111" t="n">
-        <v>7</v>
+        <v>6.6</v>
       </c>
       <c r="Z111" t="n">
-        <v>9.75</v>
+        <v>9</v>
       </c>
       <c r="AA111" t="n">
         <v>8.5</v>
       </c>
       <c r="AB111" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AC111" t="n">
         <v>17</v>
       </c>
       <c r="AD111" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AE111" t="n">
-        <v>8.75</v>
+        <v>8.5</v>
       </c>
       <c r="AF111" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="AG111" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AH111" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI111" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AJ111" t="n">
-        <v>9.75</v>
+        <v>11</v>
       </c>
       <c r="AK111" t="n">
-        <v>18.5</v>
+        <v>22</v>
       </c>
       <c r="AL111" t="n">
-        <v>12</v>
+        <v>12.5</v>
       </c>
       <c r="AM111" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AN111" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AO111" t="n">
         <v>40</v>
@@ -16354,13 +16358,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H112" t="n">
         <v>2.9</v>
       </c>
       <c r="I112" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J112" t="n">
         <v>3.6</v>
@@ -16372,10 +16376,10 @@
         <v>4</v>
       </c>
       <c r="M112" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N112" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O112" t="n">
         <v>1.62</v>
@@ -16441,7 +16445,7 @@
         <v>101</v>
       </c>
       <c r="AJ112" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AK112" t="n">
         <v>12</v>
@@ -16450,10 +16454,10 @@
         <v>12</v>
       </c>
       <c r="AM112" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AN112" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO112" t="n">
         <v>41</v>
@@ -16513,10 +16517,10 @@
         <v>1.57</v>
       </c>
       <c r="M113" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N113" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="O113" t="n">
         <v>1.22</v>
@@ -16790,7 +16794,7 @@
         <v>2.15</v>
       </c>
       <c r="J115" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K115" t="n">
         <v>2.4</v>
@@ -16802,7 +16806,7 @@
         <v>1.02</v>
       </c>
       <c r="N115" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O115" t="n">
         <v>1.14</v>
@@ -16835,16 +16839,16 @@
         <v>2.63</v>
       </c>
       <c r="Y115" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z115" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA115" t="n">
         <v>11</v>
       </c>
       <c r="AB115" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AC115" t="n">
         <v>21</v>
@@ -16926,7 +16930,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.42</v>
+        <v>1.39</v>
       </c>
       <c r="H116" t="n">
         <v>4.5</v>
@@ -16944,28 +16948,28 @@
         <v>6</v>
       </c>
       <c r="M116" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N116" t="n">
         <v>15</v>
       </c>
       <c r="O116" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P116" t="n">
         <v>4.5</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="R116" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="S116" t="n">
         <v>2.5</v>
       </c>
       <c r="T116" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U116" t="n">
         <v>1.29</v>
@@ -17031,10 +17035,10 @@
         <v>41</v>
       </c>
       <c r="AP116" t="n">
-        <v>2</v>
+        <v>2.03</v>
       </c>
       <c r="AQ116" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="AR116" t="inlineStr"/>
       <c r="AS116" t="inlineStr"/>
@@ -17071,46 +17075,46 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H117" t="n">
         <v>3.7</v>
       </c>
       <c r="I117" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="J117" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K117" t="n">
         <v>2.1</v>
       </c>
       <c r="L117" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M117" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N117" t="n">
         <v>10</v>
       </c>
       <c r="O117" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P117" t="n">
         <v>3</v>
       </c>
       <c r="Q117" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R117" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S117" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T117" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="U117" t="n">
         <v>1.44</v>
@@ -17119,13 +17123,13 @@
         <v>2.63</v>
       </c>
       <c r="W117" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X117" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y117" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z117" t="n">
         <v>7</v>
@@ -17143,7 +17147,7 @@
         <v>34</v>
       </c>
       <c r="AE117" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF117" t="n">
         <v>7.5</v>
@@ -17152,7 +17156,7 @@
         <v>21</v>
       </c>
       <c r="AH117" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI117" t="n">
         <v>1250</v>
@@ -17161,7 +17165,7 @@
         <v>11</v>
       </c>
       <c r="AK117" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL117" t="n">
         <v>17</v>
@@ -17212,34 +17216,34 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.7</v>
+        <v>1.72</v>
       </c>
       <c r="H118" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I118" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J118" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K118" t="n">
         <v>2</v>
       </c>
       <c r="L118" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M118" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N118" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O118" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="P118" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="Q118" t="n">
         <v>2.4</v>
@@ -17251,7 +17255,7 @@
         <v>4.5</v>
       </c>
       <c r="T118" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="U118" t="n">
         <v>1.53</v>
@@ -17260,10 +17264,10 @@
         <v>2.38</v>
       </c>
       <c r="W118" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X118" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y118" t="n">
         <v>5.5</v>
@@ -17287,7 +17291,7 @@
         <v>7</v>
       </c>
       <c r="AF118" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG118" t="n">
         <v>21</v>
@@ -17360,16 +17364,16 @@
         <v>1.42</v>
       </c>
       <c r="H119" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="I119" t="n">
         <v>7</v>
       </c>
       <c r="J119" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="K119" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="L119" t="n">
         <v>6.5</v>
@@ -17378,43 +17382,43 @@
         <v>1.03</v>
       </c>
       <c r="N119" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="O119" t="n">
-        <v>1.18</v>
+        <v>1.19</v>
       </c>
       <c r="P119" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="Q119" t="n">
-        <v>1.65</v>
+        <v>1.73</v>
       </c>
       <c r="R119" t="n">
-        <v>2.2</v>
+        <v>2.08</v>
       </c>
       <c r="S119" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="T119" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="U119" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="V119" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="W119" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X119" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="Y119" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z119" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA119" t="n">
         <v>8.5</v>
@@ -17423,16 +17427,16 @@
         <v>10</v>
       </c>
       <c r="AC119" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AD119" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AE119" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AF119" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG119" t="n">
         <v>17</v>
@@ -17441,10 +17445,10 @@
         <v>51</v>
       </c>
       <c r="AI119" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ119" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AK119" t="n">
         <v>41</v>
@@ -17459,7 +17463,7 @@
         <v>51</v>
       </c>
       <c r="AO119" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP119" t="n">
         <v>2.03</v>
@@ -17468,10 +17472,10 @@
         <v>1.83</v>
       </c>
       <c r="AR119" t="n">
-        <v>1.29</v>
+        <v>1.31</v>
       </c>
       <c r="AS119" t="n">
-        <v>3.6</v>
+        <v>3.45</v>
       </c>
     </row>
     <row r="120">
@@ -17524,10 +17528,10 @@
         <v>3.25</v>
       </c>
       <c r="M120" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N120" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O120" t="n">
         <v>1.36</v>
@@ -17673,10 +17677,10 @@
         <v>6.5</v>
       </c>
       <c r="M121" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N121" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O121" t="n">
         <v>1.22</v>
@@ -17804,16 +17808,16 @@
         </is>
       </c>
       <c r="G122" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="H122" t="n">
         <v>3.3</v>
       </c>
       <c r="I122" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="J122" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K122" t="n">
         <v>2.2</v>
@@ -17822,28 +17826,28 @@
         <v>3</v>
       </c>
       <c r="M122" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N122" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O122" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P122" t="n">
         <v>3.75</v>
       </c>
       <c r="Q122" t="n">
-        <v>1.83</v>
+        <v>1.79</v>
       </c>
       <c r="R122" t="n">
-        <v>2.03</v>
+        <v>1.94</v>
       </c>
       <c r="S122" t="n">
         <v>3</v>
       </c>
       <c r="T122" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U122" t="n">
         <v>1.36</v>
@@ -17858,7 +17862,7 @@
         <v>2.1</v>
       </c>
       <c r="Y122" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="Z122" t="n">
         <v>15</v>
@@ -17870,7 +17874,7 @@
         <v>29</v>
       </c>
       <c r="AC122" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD122" t="n">
         <v>29</v>
@@ -17882,7 +17886,7 @@
         <v>6.5</v>
       </c>
       <c r="AG122" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AH122" t="n">
         <v>41</v>
@@ -17891,19 +17895,19 @@
         <v>151</v>
       </c>
       <c r="AJ122" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK122" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL122" t="n">
         <v>9.5</v>
       </c>
       <c r="AM122" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AN122" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AO122" t="n">
         <v>26</v>
@@ -17963,13 +17967,13 @@
         <v>3.4</v>
       </c>
       <c r="M123" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N123" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O123" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P123" t="n">
         <v>3</v>
@@ -17978,13 +17982,13 @@
         <v>2.2</v>
       </c>
       <c r="R123" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S123" t="n">
         <v>4</v>
       </c>
       <c r="T123" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U123" t="n">
         <v>1.5</v>
@@ -18086,37 +18090,37 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="H124" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I124" t="n">
         <v>4.5</v>
       </c>
       <c r="J124" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K124" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="L124" t="n">
         <v>4.5</v>
       </c>
       <c r="M124" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N124" t="n">
         <v>15</v>
       </c>
       <c r="O124" t="n">
-        <v>1.18</v>
+        <v>1.15</v>
       </c>
       <c r="P124" t="n">
         <v>4.5</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="R124" t="n">
         <v>2.25</v>
@@ -18125,7 +18129,7 @@
         <v>2.5</v>
       </c>
       <c r="T124" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="U124" t="n">
         <v>1.3</v>
@@ -18140,7 +18144,7 @@
         <v>2.2</v>
       </c>
       <c r="Y124" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="Z124" t="n">
         <v>9.5</v>
@@ -18191,10 +18195,10 @@
         <v>34</v>
       </c>
       <c r="AP124" t="n">
-        <v>2.05</v>
+        <v>1.99</v>
       </c>
       <c r="AQ124" t="n">
-        <v>1.8</v>
+        <v>1.74</v>
       </c>
       <c r="AR124" t="inlineStr"/>
       <c r="AS124" t="inlineStr"/>
@@ -18231,31 +18235,31 @@
         </is>
       </c>
       <c r="G125" t="n">
-        <v>2.9</v>
+        <v>2.45</v>
       </c>
       <c r="H125" t="n">
         <v>3.1</v>
       </c>
       <c r="I125" t="n">
-        <v>2.5</v>
+        <v>3</v>
       </c>
       <c r="J125" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="K125" t="n">
         <v>2</v>
       </c>
       <c r="L125" t="n">
-        <v>3.25</v>
+        <v>3.75</v>
       </c>
       <c r="M125" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N125" t="n">
         <v>7.5</v>
       </c>
       <c r="O125" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P125" t="n">
         <v>2.75</v>
@@ -18264,13 +18268,13 @@
         <v>2.25</v>
       </c>
       <c r="R125" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S125" t="n">
         <v>4</v>
       </c>
       <c r="T125" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="U125" t="n">
         <v>1.5</v>
@@ -18285,22 +18289,22 @@
         <v>1.8</v>
       </c>
       <c r="Y125" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="Z125" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AA125" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB125" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AC125" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AD125" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE125" t="n">
         <v>7.5</v>
@@ -18318,22 +18322,22 @@
         <v>351</v>
       </c>
       <c r="AJ125" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK125" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL125" t="n">
         <v>11</v>
       </c>
-      <c r="AL125" t="n">
-        <v>10</v>
-      </c>
       <c r="AM125" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AN125" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AO125" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP125" t="inlineStr"/>
       <c r="AQ125" t="inlineStr"/>
@@ -18390,28 +18394,28 @@
         <v>3.2</v>
       </c>
       <c r="M126" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N126" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O126" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="P126" t="n">
         <v>3.4</v>
       </c>
       <c r="Q126" t="n">
-        <v>2.03</v>
+        <v>1.99</v>
       </c>
       <c r="R126" t="n">
-        <v>1.83</v>
+        <v>1.74</v>
       </c>
       <c r="S126" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T126" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U126" t="n">
         <v>1.4</v>
@@ -18531,28 +18535,28 @@
         <v>2.4</v>
       </c>
       <c r="M127" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N127" t="n">
         <v>11</v>
       </c>
       <c r="O127" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P127" t="n">
         <v>3.5</v>
       </c>
       <c r="Q127" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="R127" t="n">
-        <v>1.95</v>
+        <v>1.87</v>
       </c>
       <c r="S127" t="n">
         <v>3.25</v>
       </c>
       <c r="T127" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U127" t="n">
         <v>1.36</v>
@@ -18672,13 +18676,13 @@
         <v>4</v>
       </c>
       <c r="M128" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="N128" t="n">
         <v>9</v>
       </c>
       <c r="O128" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="P128" t="n">
         <v>2.75</v>
@@ -18687,13 +18691,13 @@
         <v>2.25</v>
       </c>
       <c r="R128" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S128" t="n">
         <v>4.33</v>
       </c>
       <c r="T128" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="U128" t="n">
         <v>1.5</v>
@@ -18795,22 +18799,22 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>6.5</v>
+        <v>6.25</v>
       </c>
       <c r="H129" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="I129" t="n">
-        <v>1.42</v>
+        <v>1.45</v>
       </c>
       <c r="J129" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="K129" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="L129" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="M129" t="n">
         <v>1.05</v>
@@ -18825,10 +18829,10 @@
         <v>3.5</v>
       </c>
       <c r="Q129" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="R129" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="S129" t="n">
         <v>3.4</v>
@@ -18849,13 +18853,13 @@
         <v>1.67</v>
       </c>
       <c r="Y129" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z129" t="n">
         <v>34</v>
       </c>
       <c r="AA129" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AB129" t="n">
         <v>81</v>
@@ -18876,7 +18880,7 @@
         <v>23</v>
       </c>
       <c r="AH129" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI129" t="n">
         <v>501</v>
@@ -18885,13 +18889,13 @@
         <v>6</v>
       </c>
       <c r="AK129" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AL129" t="n">
         <v>8.5</v>
       </c>
       <c r="AM129" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AN129" t="n">
         <v>13</v>
@@ -18936,7 +18940,7 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.38</v>
+        <v>2.4</v>
       </c>
       <c r="H130" t="n">
         <v>3.3</v>
@@ -18990,7 +18994,7 @@
         <v>2</v>
       </c>
       <c r="Y130" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z130" t="n">
         <v>12</v>
@@ -19017,10 +19021,10 @@
         <v>13</v>
       </c>
       <c r="AH130" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI130" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AJ130" t="n">
         <v>9.5</v>
@@ -19389,10 +19393,10 @@
         <v>3.25</v>
       </c>
       <c r="Q133" t="n">
-        <v>2.08</v>
+        <v>2.05</v>
       </c>
       <c r="R133" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="S133" t="n">
         <v>3.75</v>
@@ -19475,7 +19479,7 @@
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>pfRZelbU</t>
+          <t>vVRsPnSG</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
@@ -19485,7 +19489,7 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>14:00</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
@@ -19495,70 +19499,70 @@
       </c>
       <c r="E134" t="inlineStr">
         <is>
-          <t>Alverca</t>
+          <t>FC Porto B</t>
         </is>
       </c>
       <c r="F134" t="inlineStr">
         <is>
-          <t>Maritimo</t>
+          <t>Penafiel</t>
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="H134" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="I134" t="n">
         <v>3.1</v>
       </c>
       <c r="J134" t="n">
-        <v>3.1</v>
+        <v>2.88</v>
       </c>
       <c r="K134" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L134" t="n">
         <v>3.75</v>
       </c>
       <c r="M134" t="n">
-        <v>1.08</v>
+        <v>1.05</v>
       </c>
       <c r="N134" t="n">
+        <v>11</v>
+      </c>
+      <c r="O134" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="P134" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q134" t="n">
+        <v>2</v>
+      </c>
+      <c r="R134" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="S134" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T134" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U134" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V134" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W134" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X134" t="n">
+        <v>2</v>
+      </c>
+      <c r="Y134" t="n">
         <v>8</v>
-      </c>
-      <c r="O134" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P134" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q134" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R134" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S134" t="n">
-        <v>4</v>
-      </c>
-      <c r="T134" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U134" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V134" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W134" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X134" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="Y134" t="n">
-        <v>7</v>
       </c>
       <c r="Z134" t="n">
         <v>11</v>
@@ -19570,31 +19574,31 @@
         <v>21</v>
       </c>
       <c r="AC134" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AD134" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE134" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AF134" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG134" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH134" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI134" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AJ134" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK134" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL134" t="n">
         <v>12</v>
@@ -19603,10 +19607,10 @@
         <v>34</v>
       </c>
       <c r="AN134" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO134" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP134" t="inlineStr"/>
       <c r="AQ134" t="inlineStr"/>
@@ -19616,7 +19620,7 @@
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>vVRsPnSG</t>
+          <t>pfRZelbU</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
@@ -19626,7 +19630,7 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>14:00</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
@@ -19636,70 +19640,70 @@
       </c>
       <c r="E135" t="inlineStr">
         <is>
-          <t>FC Porto B</t>
+          <t>Alverca</t>
         </is>
       </c>
       <c r="F135" t="inlineStr">
         <is>
-          <t>Penafiel</t>
+          <t>Maritimo</t>
         </is>
       </c>
       <c r="G135" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="H135" t="n">
+        <v>3</v>
+      </c>
+      <c r="I135" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J135" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="K135" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L135" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M135" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N135" t="n">
+        <v>8</v>
+      </c>
+      <c r="O135" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P135" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q135" t="n">
         <v>2.25</v>
       </c>
-      <c r="H135" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="I135" t="n">
-        <v>3</v>
-      </c>
-      <c r="J135" t="n">
-        <v>3</v>
-      </c>
-      <c r="K135" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L135" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M135" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N135" t="n">
-        <v>11</v>
-      </c>
-      <c r="O135" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="P135" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="Q135" t="n">
-        <v>2</v>
-      </c>
       <c r="R135" t="n">
-        <v>1.85</v>
+        <v>1.62</v>
       </c>
       <c r="S135" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T135" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="U135" t="n">
-        <v>1.4</v>
+        <v>1.5</v>
       </c>
       <c r="V135" t="n">
-        <v>2.75</v>
+        <v>2.5</v>
       </c>
       <c r="W135" t="n">
-        <v>1.73</v>
+        <v>1.8</v>
       </c>
       <c r="X135" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="Y135" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Z135" t="n">
         <v>11</v>
@@ -19711,43 +19715,43 @@
         <v>21</v>
       </c>
       <c r="AC135" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AD135" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AE135" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AF135" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG135" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH135" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI135" t="n">
-        <v>201</v>
+        <v>301</v>
       </c>
       <c r="AJ135" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AK135" t="n">
         <v>15</v>
       </c>
       <c r="AL135" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM135" t="n">
         <v>34</v>
       </c>
       <c r="AN135" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AO135" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP135" t="inlineStr"/>
       <c r="AQ135" t="inlineStr"/>
@@ -19834,7 +19838,7 @@
         <v>3.25</v>
       </c>
       <c r="W136" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="X136" t="n">
         <v>2.1</v>
@@ -19927,13 +19931,13 @@
         </is>
       </c>
       <c r="G137" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="H137" t="n">
         <v>3.2</v>
       </c>
       <c r="I137" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="J137" t="n">
         <v>3.75</v>
@@ -19942,7 +19946,7 @@
         <v>2.05</v>
       </c>
       <c r="L137" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="M137" t="n">
         <v>1.08</v>
@@ -19975,10 +19979,10 @@
         <v>2.63</v>
       </c>
       <c r="W137" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="X137" t="n">
-        <v>1.91</v>
+        <v>1.87</v>
       </c>
       <c r="Y137" t="n">
         <v>9</v>
@@ -19993,7 +19997,7 @@
         <v>34</v>
       </c>
       <c r="AC137" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD137" t="n">
         <v>41</v>
@@ -20017,7 +20021,7 @@
         <v>7</v>
       </c>
       <c r="AK137" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL137" t="n">
         <v>9.5</v>
@@ -20026,7 +20030,7 @@
         <v>21</v>
       </c>
       <c r="AN137" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO137" t="n">
         <v>34</v>
@@ -20068,109 +20072,109 @@
         </is>
       </c>
       <c r="G138" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="H138" t="n">
-        <v>3.4</v>
+        <v>3.55</v>
       </c>
       <c r="I138" t="n">
+        <v>7</v>
+      </c>
+      <c r="J138" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="K138" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="L138" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="M138" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="N138" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="O138" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P138" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="Q138" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="R138" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S138" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T138" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U138" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="V138" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W138" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X138" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Y138" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="Z138" t="n">
+        <v>7.1</v>
+      </c>
+      <c r="AA138" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="AB138" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AC138" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AD138" t="n">
+        <v>23</v>
+      </c>
+      <c r="AE138" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AF138" t="n">
         <v>7.3</v>
       </c>
-      <c r="J138" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="K138" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L138" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="M138" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N138" t="n">
-        <v>7</v>
-      </c>
-      <c r="O138" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="P138" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="Q138" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="R138" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="S138" t="n">
-        <v>2.95</v>
-      </c>
-      <c r="T138" t="n">
-        <v>1.35</v>
-      </c>
-      <c r="U138" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="V138" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="W138" t="n">
-        <v>1.87</v>
-      </c>
-      <c r="X138" t="n">
-        <v>1.85</v>
-      </c>
-      <c r="Y138" t="n">
-        <v>6.2</v>
-      </c>
-      <c r="Z138" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="AA138" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="AB138" t="n">
-        <v>11</v>
-      </c>
-      <c r="AC138" t="n">
-        <v>12</v>
-      </c>
-      <c r="AD138" t="n">
-        <v>25</v>
-      </c>
-      <c r="AE138" t="n">
-        <v>7</v>
-      </c>
-      <c r="AF138" t="n">
-        <v>6.9</v>
-      </c>
       <c r="AG138" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AH138" t="n">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="AI138" t="n">
-        <v>600</v>
+        <v>450</v>
       </c>
       <c r="AJ138" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AK138" t="n">
         <v>55</v>
       </c>
       <c r="AL138" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AM138" t="n">
         <v>200</v>
       </c>
       <c r="AN138" t="n">
-        <v>90</v>
+        <v>75</v>
       </c>
       <c r="AO138" t="n">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="AP138" t="inlineStr"/>
       <c r="AQ138" t="inlineStr"/>
@@ -20209,85 +20213,85 @@
         </is>
       </c>
       <c r="G139" t="n">
-        <v>1.28</v>
+        <v>1.24</v>
       </c>
       <c r="H139" t="n">
-        <v>4.45</v>
+        <v>4.65</v>
       </c>
       <c r="I139" t="n">
-        <v>10.5</v>
+        <v>12.5</v>
       </c>
       <c r="J139" t="n">
-        <v>1.78</v>
+        <v>1.7</v>
       </c>
       <c r="K139" t="n">
-        <v>2.32</v>
+        <v>2.4</v>
       </c>
       <c r="L139" t="n">
-        <v>8.75</v>
+        <v>9.75</v>
       </c>
       <c r="M139" t="n">
         <v>1.05</v>
       </c>
       <c r="N139" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="O139" t="n">
-        <v>1.24</v>
+        <v>1.23</v>
       </c>
       <c r="P139" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="Q139" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="R139" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S139" t="n">
-        <v>2.75</v>
+        <v>2.65</v>
       </c>
       <c r="T139" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="U139" t="n">
-        <v>1.37</v>
+        <v>1.35</v>
       </c>
       <c r="V139" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="W139" t="n">
-        <v>2.18</v>
+        <v>2.25</v>
       </c>
       <c r="X139" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y139" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z139" t="n">
-        <v>5.6</v>
+        <v>5.5</v>
       </c>
       <c r="AA139" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB139" t="n">
-        <v>7.5</v>
+        <v>7.1</v>
       </c>
       <c r="AC139" t="n">
         <v>11.5</v>
       </c>
       <c r="AD139" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE139" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="AF139" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AG139" t="n">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="AH139" t="n">
         <v>120</v>
@@ -20296,22 +20300,22 @@
         <v>1000</v>
       </c>
       <c r="AJ139" t="n">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="AK139" t="n">
-        <v>90</v>
+        <v>120</v>
       </c>
       <c r="AL139" t="n">
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AM139" t="n">
-        <v>400</v>
+        <v>600</v>
       </c>
       <c r="AN139" t="n">
-        <v>150</v>
+        <v>200</v>
       </c>
       <c r="AO139" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AP139" t="inlineStr"/>
       <c r="AQ139" t="inlineStr"/>
@@ -20350,61 +20354,61 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="H140" t="n">
-        <v>4.9</v>
+        <v>5.1</v>
       </c>
       <c r="I140" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="J140" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="K140" t="n">
-        <v>2.52</v>
+        <v>2.57</v>
       </c>
       <c r="L140" t="n">
-        <v>9</v>
+        <v>9.75</v>
       </c>
       <c r="M140" t="n">
         <v>1.03</v>
       </c>
       <c r="N140" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="O140" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="P140" t="n">
-        <v>4.5</v>
+        <v>4.65</v>
       </c>
       <c r="Q140" t="n">
-        <v>1.52</v>
+        <v>1.5</v>
       </c>
       <c r="R140" t="n">
-        <v>2.37</v>
+        <v>2.42</v>
       </c>
       <c r="S140" t="n">
-        <v>2.25</v>
+        <v>2.18</v>
       </c>
       <c r="T140" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U140" t="n">
-        <v>1.29</v>
+        <v>1.28</v>
       </c>
       <c r="V140" t="n">
-        <v>3.25</v>
+        <v>3.35</v>
       </c>
       <c r="W140" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="X140" t="n">
         <v>1.75</v>
       </c>
       <c r="Y140" t="n">
-        <v>7.7</v>
+        <v>7.9</v>
       </c>
       <c r="Z140" t="n">
         <v>6.4</v>
@@ -20413,7 +20417,7 @@
         <v>8.75</v>
       </c>
       <c r="AB140" t="n">
-        <v>7.6</v>
+        <v>7.4</v>
       </c>
       <c r="AC140" t="n">
         <v>10.25</v>
@@ -20422,37 +20426,37 @@
         <v>26</v>
       </c>
       <c r="AE140" t="n">
-        <v>9</v>
+        <v>9.25</v>
       </c>
       <c r="AF140" t="n">
-        <v>10.75</v>
+        <v>11.25</v>
       </c>
       <c r="AG140" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AH140" t="n">
         <v>90</v>
       </c>
       <c r="AI140" t="n">
+        <v>700</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>40</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>150</v>
+      </c>
+      <c r="AL140" t="n">
+        <v>40</v>
+      </c>
+      <c r="AM140" t="n">
         <v>600</v>
       </c>
-      <c r="AJ140" t="n">
-        <v>37</v>
-      </c>
-      <c r="AK140" t="n">
-        <v>120</v>
-      </c>
-      <c r="AL140" t="n">
-        <v>37</v>
-      </c>
-      <c r="AM140" t="n">
-        <v>500</v>
-      </c>
       <c r="AN140" t="n">
-        <v>175</v>
+        <v>200</v>
       </c>
       <c r="AO140" t="n">
-        <v>100</v>
+        <v>110</v>
       </c>
       <c r="AP140" t="inlineStr"/>
       <c r="AQ140" t="inlineStr"/>
@@ -20491,52 +20495,52 @@
         </is>
       </c>
       <c r="G141" t="n">
-        <v>2.32</v>
+        <v>2.27</v>
       </c>
       <c r="H141" t="n">
-        <v>3.2</v>
+        <v>3.35</v>
       </c>
       <c r="I141" t="n">
         <v>3.05</v>
       </c>
       <c r="J141" t="n">
-        <v>2.87</v>
+        <v>2.92</v>
       </c>
       <c r="K141" t="n">
-        <v>2.12</v>
+        <v>2.07</v>
       </c>
       <c r="L141" t="n">
-        <v>3.45</v>
+        <v>3.55</v>
       </c>
       <c r="M141" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N141" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="O141" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="P141" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q141" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R141" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="S141" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T141" t="n">
         <v>1.32</v>
       </c>
-      <c r="P141" t="n">
-        <v>3.2</v>
-      </c>
-      <c r="Q141" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="R141" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="S141" t="n">
-        <v>3.3</v>
-      </c>
-      <c r="T141" t="n">
-        <v>1.31</v>
-      </c>
       <c r="U141" t="n">
-        <v>1.38</v>
+        <v>1.44</v>
       </c>
       <c r="V141" t="n">
-        <v>2.9</v>
+        <v>2.67</v>
       </c>
       <c r="W141" t="n">
         <v>1.72</v>
@@ -20548,37 +20552,37 @@
         <v>7.6</v>
       </c>
       <c r="Z141" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AA141" t="n">
-        <v>9.75</v>
+        <v>9.5</v>
       </c>
       <c r="AB141" t="n">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="AC141" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AD141" t="n">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="AE141" t="n">
-        <v>7.4</v>
+        <v>7.7</v>
       </c>
       <c r="AF141" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="AG141" t="n">
         <v>14.5</v>
       </c>
       <c r="AH141" t="n">
-        <v>70</v>
+        <v>65</v>
       </c>
       <c r="AI141" t="n">
-        <v>600</v>
+        <v>500</v>
       </c>
       <c r="AJ141" t="n">
-        <v>9.25</v>
+        <v>9.5</v>
       </c>
       <c r="AK141" t="n">
         <v>17.5</v>
@@ -20590,7 +20594,7 @@
         <v>40</v>
       </c>
       <c r="AN141" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AO141" t="n">
         <v>35</v>
@@ -20782,19 +20786,19 @@
         <v>2.15</v>
       </c>
       <c r="J143" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
       <c r="K143" t="n">
         <v>2.02</v>
       </c>
       <c r="L143" t="n">
-        <v>2.77</v>
+        <v>2.75</v>
       </c>
       <c r="M143" t="n">
         <v>1.09</v>
       </c>
       <c r="N143" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="O143" t="n">
         <v>1.42</v>
@@ -20842,10 +20846,10 @@
         <v>35</v>
       </c>
       <c r="AD143" t="n">
-        <v>45</v>
+        <v>50</v>
       </c>
       <c r="AE143" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="AF143" t="n">
         <v>6.2</v>
@@ -20860,13 +20864,13 @@
         <v>1000</v>
       </c>
       <c r="AJ143" t="n">
-        <v>6.2</v>
+        <v>6.3</v>
       </c>
       <c r="AK143" t="n">
         <v>9.25</v>
       </c>
       <c r="AL143" t="n">
-        <v>9.25</v>
+        <v>9</v>
       </c>
       <c r="AM143" t="n">
         <v>19.5</v>
@@ -21067,7 +21071,7 @@
         <v>1.78</v>
       </c>
       <c r="K145" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="L145" t="n">
         <v>7.9</v>
@@ -21079,52 +21083,52 @@
         <v>8</v>
       </c>
       <c r="O145" t="n">
-        <v>1.24</v>
+        <v>1.25</v>
       </c>
       <c r="P145" t="n">
-        <v>3.65</v>
+        <v>3.6</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="R145" t="n">
-        <v>2</v>
+        <v>1.98</v>
       </c>
       <c r="S145" t="n">
-        <v>2.72</v>
+        <v>2.77</v>
       </c>
       <c r="T145" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="U145" t="n">
         <v>1.37</v>
       </c>
       <c r="V145" t="n">
-        <v>2.87</v>
+        <v>2.85</v>
       </c>
       <c r="W145" t="n">
-        <v>2.18</v>
+        <v>2.22</v>
       </c>
       <c r="X145" t="n">
-        <v>1.62</v>
+        <v>1.6</v>
       </c>
       <c r="Y145" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Z145" t="n">
-        <v>5.8</v>
+        <v>5.7</v>
       </c>
       <c r="AA145" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AB145" t="n">
-        <v>7.6</v>
+        <v>7.5</v>
       </c>
       <c r="AC145" t="n">
-        <v>11.5</v>
+        <v>11.75</v>
       </c>
       <c r="AD145" t="n">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="AE145" t="n">
         <v>8</v>
@@ -21133,7 +21137,7 @@
         <v>9.75</v>
       </c>
       <c r="AG145" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AH145" t="n">
         <v>150</v>
@@ -21145,7 +21149,7 @@
         <v>21</v>
       </c>
       <c r="AK145" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AL145" t="n">
         <v>29</v>
@@ -21196,16 +21200,16 @@
         </is>
       </c>
       <c r="G146" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H146" t="n">
         <v>3.8</v>
       </c>
       <c r="I146" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J146" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="K146" t="n">
         <v>2.2</v>
@@ -21259,7 +21263,7 @@
         <v>8.5</v>
       </c>
       <c r="AB146" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC146" t="n">
         <v>15</v>
@@ -21274,7 +21278,7 @@
         <v>7.5</v>
       </c>
       <c r="AG146" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH146" t="n">
         <v>51</v>
@@ -21286,10 +21290,10 @@
         <v>12</v>
       </c>
       <c r="AK146" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL146" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM146" t="n">
         <v>51</v>
@@ -21355,28 +21359,28 @@
         <v>3.25</v>
       </c>
       <c r="M147" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N147" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O147" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P147" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R147" t="n">
-        <v>1.65</v>
+        <v>1.58</v>
       </c>
       <c r="S147" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="T147" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="U147" t="n">
         <v>1.44</v>
@@ -21496,22 +21500,22 @@
         <v>3.5</v>
       </c>
       <c r="M148" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N148" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O148" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P148" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q148" t="n">
         <v>2.05</v>
       </c>
       <c r="R148" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S148" t="n">
         <v>3.5</v>
@@ -21619,28 +21623,28 @@
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="H149" t="n">
         <v>3.1</v>
       </c>
       <c r="I149" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="J149" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K149" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L149" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="M149" t="n">
         <v>1.08</v>
       </c>
       <c r="N149" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O149" t="n">
         <v>1.4</v>
@@ -21652,7 +21656,7 @@
         <v>2.25</v>
       </c>
       <c r="R149" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="S149" t="n">
         <v>4</v>
@@ -21676,13 +21680,13 @@
         <v>6.5</v>
       </c>
       <c r="Z149" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA149" t="n">
         <v>9.5</v>
       </c>
       <c r="AB149" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AC149" t="n">
         <v>19</v>
@@ -21706,7 +21710,7 @@
         <v>351</v>
       </c>
       <c r="AJ149" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK149" t="n">
         <v>17</v>
@@ -21772,16 +21776,16 @@
         <v>3.4</v>
       </c>
       <c r="K150" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="L150" t="n">
         <v>3.6</v>
       </c>
       <c r="M150" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N150" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="O150" t="n">
         <v>1.44</v>
@@ -21793,7 +21797,7 @@
         <v>2.4</v>
       </c>
       <c r="R150" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="S150" t="n">
         <v>4.5</v>
@@ -21938,7 +21942,7 @@
         <v>2.5</v>
       </c>
       <c r="R151" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="S151" t="n">
         <v>5</v>
@@ -22012,10 +22016,10 @@
       <c r="AP151" t="inlineStr"/>
       <c r="AQ151" t="inlineStr"/>
       <c r="AR151" t="n">
-        <v>1.9</v>
+        <v>1.84</v>
       </c>
       <c r="AS151" t="n">
-        <v>1.95</v>
+        <v>1.89</v>
       </c>
     </row>
     <row r="152">
@@ -22050,28 +22054,28 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H152" t="n">
-        <v>3</v>
+        <v>2.9</v>
       </c>
       <c r="I152" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J152" t="n">
         <v>3</v>
       </c>
       <c r="K152" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="L152" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="M152" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N152" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="O152" t="n">
         <v>1.57</v>
@@ -22080,10 +22084,10 @@
         <v>2.25</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="R152" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="S152" t="n">
         <v>6</v>
@@ -22098,16 +22102,16 @@
         <v>2.2</v>
       </c>
       <c r="W152" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X152" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y152" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Z152" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA152" t="n">
         <v>10</v>
@@ -22116,7 +22120,7 @@
         <v>19</v>
       </c>
       <c r="AC152" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD152" t="n">
         <v>41</v>
@@ -22140,7 +22144,7 @@
         <v>8</v>
       </c>
       <c r="AK152" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL152" t="n">
         <v>15</v>
@@ -22216,19 +22220,19 @@
         <v>1.07</v>
       </c>
       <c r="N153" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O153" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P153" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q153" t="n">
         <v>2.1</v>
       </c>
       <c r="R153" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S153" t="n">
         <v>3.75</v>
@@ -22336,13 +22340,13 @@
         </is>
       </c>
       <c r="G154" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="H154" t="n">
         <v>4</v>
       </c>
       <c r="I154" t="n">
-        <v>1.73</v>
+        <v>1.75</v>
       </c>
       <c r="J154" t="n">
         <v>4.5</v>
@@ -22351,31 +22355,31 @@
         <v>2.3</v>
       </c>
       <c r="L154" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="M154" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N154" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O154" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P154" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q154" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="R154" t="n">
         <v>2.1</v>
       </c>
       <c r="S154" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T154" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U154" t="n">
         <v>1.33</v>
@@ -22390,19 +22394,19 @@
         <v>2.1</v>
       </c>
       <c r="Y154" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="Z154" t="n">
         <v>23</v>
       </c>
       <c r="AA154" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB154" t="n">
         <v>41</v>
       </c>
       <c r="AC154" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD154" t="n">
         <v>34</v>
@@ -22414,7 +22418,7 @@
         <v>7.5</v>
       </c>
       <c r="AG154" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH154" t="n">
         <v>41</v>
@@ -22438,7 +22442,7 @@
         <v>13</v>
       </c>
       <c r="AO154" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AP154" t="n">
         <v>2.03</v>
@@ -22481,7 +22485,7 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>2</v>
+        <v>1.96</v>
       </c>
       <c r="H155" t="n">
         <v>3.8</v>
@@ -22499,25 +22503,25 @@
         <v>3.75</v>
       </c>
       <c r="M155" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N155" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O155" t="n">
-        <v>1.18</v>
+        <v>1.13</v>
       </c>
       <c r="P155" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="Q155" t="n">
-        <v>1.6</v>
+        <v>1.54</v>
       </c>
       <c r="R155" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="S155" t="n">
-        <v>2.5</v>
+        <v>2.37</v>
       </c>
       <c r="T155" t="n">
         <v>1.5</v>
@@ -22586,10 +22590,10 @@
         <v>26</v>
       </c>
       <c r="AP155" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="AQ155" t="n">
-        <v>1.85</v>
+        <v>1.9</v>
       </c>
       <c r="AR155" t="inlineStr"/>
       <c r="AS155" t="inlineStr"/>
@@ -22626,37 +22630,37 @@
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H156" t="n">
         <v>3.7</v>
       </c>
       <c r="I156" t="n">
-        <v>2.15</v>
+        <v>2.05</v>
       </c>
       <c r="J156" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K156" t="n">
         <v>2.25</v>
       </c>
       <c r="L156" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M156" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N156" t="n">
         <v>13</v>
       </c>
       <c r="O156" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P156" t="n">
         <v>3.75</v>
       </c>
       <c r="Q156" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="R156" t="n">
         <v>2.05</v>
@@ -22665,7 +22669,7 @@
         <v>3</v>
       </c>
       <c r="T156" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="U156" t="n">
         <v>1.36</v>
@@ -22713,7 +22717,7 @@
         <v>151</v>
       </c>
       <c r="AJ156" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK156" t="n">
         <v>11</v>
@@ -22722,7 +22726,7 @@
         <v>9</v>
       </c>
       <c r="AM156" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN156" t="n">
         <v>17</v>
@@ -22785,28 +22789,28 @@
         <v>3</v>
       </c>
       <c r="M157" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N157" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O157" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="P157" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q157" t="n">
-        <v>1.83</v>
+        <v>1.72</v>
       </c>
       <c r="R157" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S157" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T157" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="U157" t="n">
         <v>1.36</v>
@@ -22839,7 +22843,7 @@
         <v>29</v>
       </c>
       <c r="AE157" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF157" t="n">
         <v>7</v>
@@ -22854,7 +22858,7 @@
         <v>151</v>
       </c>
       <c r="AJ157" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK157" t="n">
         <v>12</v>
@@ -22866,7 +22870,7 @@
         <v>21</v>
       </c>
       <c r="AN157" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO157" t="n">
         <v>26</v>
@@ -22908,7 +22912,7 @@
         </is>
       </c>
       <c r="G158" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="H158" t="n">
         <v>3.5</v>
@@ -22926,19 +22930,19 @@
         <v>4.5</v>
       </c>
       <c r="M158" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N158" t="n">
         <v>13</v>
       </c>
       <c r="O158" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P158" t="n">
         <v>4</v>
       </c>
       <c r="Q158" t="n">
-        <v>1.8</v>
+        <v>1.77</v>
       </c>
       <c r="R158" t="n">
         <v>2</v>
@@ -22947,7 +22951,7 @@
         <v>2.75</v>
       </c>
       <c r="T158" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="U158" t="n">
         <v>1.36</v>
@@ -23067,13 +23071,13 @@
         <v>3.4</v>
       </c>
       <c r="M159" t="n">
-        <v>1.06</v>
+        <v>1.04</v>
       </c>
       <c r="N159" t="n">
         <v>10</v>
       </c>
       <c r="O159" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P159" t="n">
         <v>3.25</v>
@@ -23082,13 +23086,13 @@
         <v>2.05</v>
       </c>
       <c r="R159" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="S159" t="n">
         <v>3.5</v>
       </c>
       <c r="T159" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U159" t="n">
         <v>1.44</v>
@@ -23190,7 +23194,7 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="H160" t="n">
         <v>5.75</v>
@@ -23211,25 +23215,25 @@
         <v>1.01</v>
       </c>
       <c r="N160" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="O160" t="n">
-        <v>1.1</v>
+        <v>1.07</v>
       </c>
       <c r="P160" t="n">
         <v>7</v>
       </c>
       <c r="Q160" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="R160" t="n">
         <v>3.4</v>
       </c>
       <c r="S160" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="T160" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="U160" t="n">
         <v>1.2</v>
@@ -23331,16 +23335,16 @@
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H161" t="n">
         <v>3.25</v>
       </c>
       <c r="I161" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J161" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K161" t="n">
         <v>2.05</v>
@@ -23352,7 +23356,7 @@
         <v>1.07</v>
       </c>
       <c r="N161" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O161" t="n">
         <v>1.36</v>
@@ -23364,13 +23368,13 @@
         <v>2.15</v>
       </c>
       <c r="R161" t="n">
-        <v>1.67</v>
+        <v>1.63</v>
       </c>
       <c r="S161" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T161" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U161" t="n">
         <v>1.44</v>
@@ -23388,7 +23392,7 @@
         <v>7.5</v>
       </c>
       <c r="Z161" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA161" t="n">
         <v>10</v>
@@ -23418,7 +23422,7 @@
         <v>301</v>
       </c>
       <c r="AJ161" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK161" t="n">
         <v>13</v>
@@ -23472,16 +23476,16 @@
         </is>
       </c>
       <c r="G162" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H162" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I162" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="J162" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="K162" t="n">
         <v>2.1</v>
@@ -23502,10 +23506,10 @@
         <v>3.25</v>
       </c>
       <c r="Q162" t="n">
-        <v>2.05</v>
+        <v>2.07</v>
       </c>
       <c r="R162" t="n">
-        <v>1.75</v>
+        <v>1.69</v>
       </c>
       <c r="S162" t="n">
         <v>3.75</v>
@@ -23529,7 +23533,7 @@
         <v>7</v>
       </c>
       <c r="Z162" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA162" t="n">
         <v>9</v>
@@ -23562,7 +23566,7 @@
         <v>10</v>
       </c>
       <c r="AK162" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AL162" t="n">
         <v>13</v>
@@ -23571,7 +23575,7 @@
         <v>41</v>
       </c>
       <c r="AN162" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO162" t="n">
         <v>41</v>
@@ -23613,13 +23617,13 @@
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H163" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="I163" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J163" t="n">
         <v>3</v>
@@ -23628,25 +23632,25 @@
         <v>2.05</v>
       </c>
       <c r="L163" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M163" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N163" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O163" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P163" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q163" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
       <c r="R163" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="S163" t="n">
         <v>3.75</v>
@@ -23667,7 +23671,7 @@
         <v>1.83</v>
       </c>
       <c r="Y163" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z163" t="n">
         <v>10</v>
@@ -23688,7 +23692,7 @@
         <v>8.5</v>
       </c>
       <c r="AF163" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG163" t="n">
         <v>15</v>
@@ -23712,7 +23716,7 @@
         <v>34</v>
       </c>
       <c r="AN163" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO163" t="n">
         <v>41</v>
@@ -23772,22 +23776,22 @@
         <v>3.1</v>
       </c>
       <c r="M164" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N164" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="O164" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="P164" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="Q164" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="R164" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="S164" t="n">
         <v>4</v>
@@ -24045,10 +24049,10 @@
         <v>2.75</v>
       </c>
       <c r="J166" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K166" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="L166" t="n">
         <v>3.75</v>
@@ -24066,7 +24070,7 @@
         <v>2.5</v>
       </c>
       <c r="Q166" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="R166" t="n">
         <v>1.5</v>
@@ -24143,10 +24147,10 @@
       <c r="AP166" t="inlineStr"/>
       <c r="AQ166" t="inlineStr"/>
       <c r="AR166" t="n">
-        <v>1.9</v>
+        <v>1.88</v>
       </c>
       <c r="AS166" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
     </row>
     <row r="167">
@@ -24181,117 +24185,117 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="H167" t="n">
-        <v>3.2</v>
+        <v>2.88</v>
       </c>
       <c r="I167" t="n">
-        <v>3.7</v>
+        <v>3.9</v>
       </c>
       <c r="J167" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="K167" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="L167" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M167" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N167" t="n">
+        <v>5</v>
+      </c>
+      <c r="O167" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="P167" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="Q167" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R167" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="S167" t="n">
+        <v>7</v>
+      </c>
+      <c r="T167" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="U167" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="V167" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="W167" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="X167" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="Y167" t="n">
         <v>4.75</v>
       </c>
-      <c r="M167" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N167" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="O167" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P167" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q167" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R167" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S167" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T167" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U167" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V167" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W167" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X167" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="Y167" t="n">
-        <v>6</v>
-      </c>
       <c r="Z167" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA167" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB167" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC167" t="n">
-        <v>19</v>
+        <v>23</v>
       </c>
       <c r="AD167" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AE167" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="AF167" t="n">
         <v>6.5</v>
       </c>
       <c r="AG167" t="n">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="AH167" t="n">
-        <v>67</v>
+        <v>126</v>
       </c>
       <c r="AI167" t="n">
         <v>351</v>
       </c>
       <c r="AJ167" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AK167" t="n">
         <v>19</v>
       </c>
       <c r="AL167" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM167" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN167" t="n">
         <v>41</v>
       </c>
       <c r="AO167" t="n">
-        <v>41</v>
+        <v>67</v>
       </c>
       <c r="AP167" t="inlineStr"/>
       <c r="AQ167" t="inlineStr"/>
       <c r="AR167" t="n">
-        <v>1.78</v>
+        <v>2.05</v>
       </c>
       <c r="AS167" t="n">
-        <v>2.1</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="168">

--- a/Jogos_da_Semana_FlashScore_2025-02-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-16.xlsx
@@ -833,22 +833,22 @@
         </is>
       </c>
       <c r="G3" t="n">
-        <v>2.25</v>
+        <v>2.15</v>
       </c>
       <c r="H3" t="n">
         <v>3.8</v>
       </c>
       <c r="I3" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="J3" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K3" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L3" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="M3" t="n">
         <v>1.03</v>
@@ -890,13 +890,13 @@
         <v>15</v>
       </c>
       <c r="Z3" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AA3" t="n">
         <v>10</v>
       </c>
       <c r="AB3" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC3" t="n">
         <v>17</v>
@@ -926,16 +926,16 @@
         <v>21</v>
       </c>
       <c r="AL3" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM3" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN3" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO3" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP3" t="inlineStr"/>
       <c r="AQ3" t="inlineStr"/>
@@ -1119,64 +1119,64 @@
         </is>
       </c>
       <c r="G5" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+      <c r="I5" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="J5" t="n">
         <v>5</v>
       </c>
-      <c r="H5" t="n">
-        <v>3.9</v>
-      </c>
-      <c r="I5" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="J5" t="n">
-        <v>5.5</v>
-      </c>
       <c r="K5" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="L5" t="n">
         <v>2.2</v>
       </c>
-      <c r="L5" t="n">
-        <v>2.25</v>
-      </c>
       <c r="M5" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O5" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P5" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q5" t="n">
-        <v>1.95</v>
+        <v>1.73</v>
       </c>
       <c r="R5" t="n">
-        <v>1.95</v>
+        <v>2.1</v>
       </c>
       <c r="S5" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="T5" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U5" t="n">
         <v>1.33</v>
       </c>
-      <c r="U5" t="n">
-        <v>1.4</v>
-      </c>
       <c r="V5" t="n">
-        <v>2.75</v>
+        <v>3.25</v>
       </c>
       <c r="W5" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="X5" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="Y5" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="Z5" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AA5" t="n">
         <v>17</v>
@@ -1191,25 +1191,25 @@
         <v>41</v>
       </c>
       <c r="AE5" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF5" t="n">
         <v>7.5</v>
       </c>
       <c r="AG5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH5" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI5" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AJ5" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AK5" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AL5" t="n">
         <v>8.5</v>
@@ -1218,10 +1218,10 @@
         <v>12</v>
       </c>
       <c r="AN5" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO5" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP5" t="inlineStr"/>
       <c r="AQ5" t="inlineStr"/>
@@ -1260,13 +1260,13 @@
         </is>
       </c>
       <c r="G6" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="H6" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I6" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J6" t="n">
         <v>2.4</v>
@@ -1308,16 +1308,16 @@
         <v>3.25</v>
       </c>
       <c r="W6" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X6" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y6" t="n">
         <v>8.5</v>
       </c>
       <c r="Z6" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA6" t="n">
         <v>8.5</v>
@@ -1329,7 +1329,7 @@
         <v>13</v>
       </c>
       <c r="AD6" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AE6" t="n">
         <v>13</v>
@@ -1404,103 +1404,103 @@
         <v>1.9</v>
       </c>
       <c r="H7" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I7" t="n">
-        <v>4</v>
+        <v>4.2</v>
       </c>
       <c r="J7" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="K7" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="L7" t="n">
-        <v>4.5</v>
+        <v>5</v>
       </c>
       <c r="M7" t="n">
-        <v>1.06</v>
+        <v>1.08</v>
       </c>
       <c r="N7" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="O7" t="n">
-        <v>1.33</v>
+        <v>1.44</v>
       </c>
       <c r="P7" t="n">
-        <v>3.4</v>
+        <v>2.75</v>
       </c>
       <c r="Q7" t="n">
-        <v>2</v>
+        <v>2.3</v>
       </c>
       <c r="R7" t="n">
-        <v>1.8</v>
+        <v>1.62</v>
       </c>
       <c r="S7" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="T7" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="U7" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V7" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W7" t="n">
-        <v>1.91</v>
+        <v>2.05</v>
       </c>
       <c r="X7" t="n">
-        <v>1.91</v>
+        <v>1.7</v>
       </c>
       <c r="Y7" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="Z7" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA7" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB7" t="n">
         <v>15</v>
       </c>
       <c r="AC7" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AD7" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE7" t="n">
-        <v>9.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF7" t="n">
         <v>6.5</v>
       </c>
       <c r="AG7" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AH7" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI7" t="n">
-        <v>301</v>
+        <v>451</v>
       </c>
       <c r="AJ7" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK7" t="n">
         <v>21</v>
       </c>
       <c r="AL7" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AM7" t="n">
         <v>41</v>
       </c>
       <c r="AN7" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO7" t="n">
         <v>41</v>
@@ -1542,13 +1542,13 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J8" t="n">
         <v>3.4</v>
@@ -1578,34 +1578,34 @@
         <v>1.73</v>
       </c>
       <c r="S8" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T8" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U8" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V8" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W8" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="X8" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Y8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
         <v>13</v>
       </c>
       <c r="AA8" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AC8" t="n">
         <v>23</v>
@@ -1626,10 +1626,10 @@
         <v>51</v>
       </c>
       <c r="AI8" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK8" t="n">
         <v>13</v>
@@ -1686,10 +1686,10 @@
         <v>1.85</v>
       </c>
       <c r="H9" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I9" t="n">
         <v>3.9</v>
-      </c>
-      <c r="I9" t="n">
-        <v>3.8</v>
       </c>
       <c r="J9" t="n">
         <v>2.4</v>
@@ -1713,16 +1713,16 @@
         <v>5</v>
       </c>
       <c r="Q9" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="R9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="S9" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="T9" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="U9" t="n">
         <v>1.29</v>
@@ -1731,10 +1731,10 @@
         <v>3.5</v>
       </c>
       <c r="W9" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="X9" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="Y9" t="n">
         <v>11</v>
@@ -1770,7 +1770,7 @@
         <v>101</v>
       </c>
       <c r="AJ9" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK9" t="n">
         <v>23</v>
@@ -1788,10 +1788,10 @@
         <v>29</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.89</v>
+        <v>1.95</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.01</v>
+        <v>1.95</v>
       </c>
       <c r="AR9" t="inlineStr"/>
       <c r="AS9" t="inlineStr"/>
@@ -1834,7 +1834,7 @@
         <v>5.75</v>
       </c>
       <c r="I10" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="J10" t="n">
         <v>1.8</v>
@@ -1843,61 +1843,61 @@
         <v>2.75</v>
       </c>
       <c r="L10" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M10" t="n">
         <v>1.02</v>
       </c>
       <c r="N10" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="O10" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P10" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="Q10" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="R10" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="S10" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="T10" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="U10" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="V10" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="W10" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X10" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y10" t="n">
         <v>10</v>
       </c>
       <c r="Z10" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA10" t="n">
         <v>8.5</v>
       </c>
       <c r="AB10" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AC10" t="n">
         <v>10</v>
       </c>
       <c r="AD10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -1906,16 +1906,16 @@
         <v>11</v>
       </c>
       <c r="AG10" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH10" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI10" t="n">
         <v>151</v>
       </c>
       <c r="AJ10" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AK10" t="n">
         <v>41</v>
@@ -1969,22 +1969,22 @@
         </is>
       </c>
       <c r="G11" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="H11" t="n">
         <v>3.4</v>
       </c>
-      <c r="H11" t="n">
-        <v>3.5</v>
-      </c>
       <c r="I11" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="J11" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K11" t="n">
         <v>2.2</v>
       </c>
       <c r="L11" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="M11" t="n">
         <v>1.06</v>
@@ -1999,10 +1999,10 @@
         <v>3.75</v>
       </c>
       <c r="Q11" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="R11" t="n">
-        <v>1.92</v>
+        <v>1.93</v>
       </c>
       <c r="S11" t="n">
         <v>3.4</v>
@@ -2011,7 +2011,7 @@
         <v>1.33</v>
       </c>
       <c r="U11" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="V11" t="n">
         <v>2.75</v>
@@ -2032,7 +2032,7 @@
         <v>12</v>
       </c>
       <c r="AB11" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC11" t="n">
         <v>26</v>
@@ -2059,13 +2059,13 @@
         <v>8</v>
       </c>
       <c r="AK11" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AL11" t="n">
         <v>9</v>
       </c>
       <c r="AM11" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AN11" t="n">
         <v>17</v>
@@ -2537,19 +2537,19 @@
         </is>
       </c>
       <c r="G15" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="H15" t="n">
         <v>3.4</v>
       </c>
       <c r="I15" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="J15" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K15" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L15" t="n">
         <v>2.63</v>
@@ -2561,61 +2561,61 @@
         <v>11</v>
       </c>
       <c r="O15" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P15" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="Q15" t="n">
-        <v>1.8</v>
+        <v>1.84</v>
       </c>
       <c r="R15" t="n">
-        <v>2</v>
+        <v>2.06</v>
       </c>
       <c r="S15" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T15" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="U15" t="n">
         <v>1.33</v>
       </c>
       <c r="V15" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W15" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X15" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y15" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z15" t="n">
         <v>19</v>
       </c>
       <c r="AA15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB15" t="n">
         <v>41</v>
       </c>
       <c r="AC15" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD15" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE15" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF15" t="n">
         <v>6.5</v>
       </c>
       <c r="AG15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AH15" t="n">
         <v>41</v>
@@ -2624,10 +2624,10 @@
         <v>151</v>
       </c>
       <c r="AJ15" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK15" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL15" t="n">
         <v>9</v>
@@ -2687,13 +2687,13 @@
         <v>2.1</v>
       </c>
       <c r="J16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L16" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="M16" t="n">
         <v>1.07</v>
@@ -2714,16 +2714,16 @@
         <v>1.73</v>
       </c>
       <c r="S16" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T16" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U16" t="n">
-        <v>1.44</v>
+        <v>1.41</v>
       </c>
       <c r="V16" t="n">
-        <v>2.63</v>
+        <v>2.62</v>
       </c>
       <c r="W16" t="n">
         <v>1.91</v>
@@ -2732,7 +2732,7 @@
         <v>1.91</v>
       </c>
       <c r="Y16" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="Z16" t="n">
         <v>17</v>
@@ -2777,7 +2777,7 @@
         <v>19</v>
       </c>
       <c r="AN16" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AO16" t="n">
         <v>29</v>
@@ -3242,22 +3242,22 @@
         </is>
       </c>
       <c r="G20" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="H20" t="n">
-        <v>6.5</v>
+        <v>5.75</v>
       </c>
       <c r="I20" t="n">
-        <v>11</v>
+        <v>8.5</v>
       </c>
       <c r="J20" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="K20" t="n">
         <v>2.75</v>
       </c>
       <c r="L20" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="M20" t="n">
         <v>1.02</v>
@@ -3290,64 +3290,68 @@
         <v>3.75</v>
       </c>
       <c r="W20" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="X20" t="n">
-        <v>1.75</v>
+        <v>1.95</v>
       </c>
       <c r="Y20" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="Z20" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA20" t="n">
         <v>9</v>
       </c>
-      <c r="Z20" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AA20" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AB20" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="AC20" t="n">
         <v>11</v>
       </c>
       <c r="AD20" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE20" t="n">
         <v>19</v>
       </c>
       <c r="AF20" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AG20" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AH20" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AI20" t="n">
-        <v>351</v>
+        <v>251</v>
       </c>
       <c r="AJ20" t="n">
         <v>23</v>
       </c>
       <c r="AK20" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN20" t="n">
         <v>51</v>
       </c>
-      <c r="AL20" t="n">
-        <v>26</v>
-      </c>
-      <c r="AM20" t="n">
-        <v>126</v>
-      </c>
-      <c r="AN20" t="n">
-        <v>67</v>
-      </c>
       <c r="AO20" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP20" t="inlineStr"/>
-      <c r="AQ20" t="inlineStr"/>
+        <v>41</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ20" t="n">
+        <v>2.05</v>
+      </c>
       <c r="AR20" t="inlineStr"/>
       <c r="AS20" t="inlineStr"/>
     </row>
@@ -3540,10 +3544,10 @@
         <v>4.75</v>
       </c>
       <c r="K22" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L22" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="M22" t="n">
         <v>1.08</v>
@@ -3552,16 +3556,16 @@
         <v>8</v>
       </c>
       <c r="O22" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="P22" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="Q22" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R22" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S22" t="n">
         <v>4.33</v>
@@ -3576,10 +3580,10 @@
         <v>2.5</v>
       </c>
       <c r="W22" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="X22" t="n">
-        <v>1.75</v>
+        <v>1.7</v>
       </c>
       <c r="Y22" t="n">
         <v>9.5</v>
@@ -3594,19 +3598,19 @@
         <v>41</v>
       </c>
       <c r="AC22" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD22" t="n">
         <v>41</v>
       </c>
       <c r="AE22" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF22" t="n">
         <v>6.5</v>
       </c>
       <c r="AG22" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH22" t="n">
         <v>67</v>
@@ -3618,7 +3622,7 @@
         <v>6</v>
       </c>
       <c r="AK22" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AL22" t="n">
         <v>9</v>
@@ -3669,13 +3673,13 @@
         </is>
       </c>
       <c r="G23" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H23" t="n">
         <v>3.5</v>
       </c>
       <c r="I23" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="J23" t="n">
         <v>2.4</v>
@@ -3684,64 +3688,64 @@
         <v>2</v>
       </c>
       <c r="L23" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M23" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N23" t="n">
+        <v>8</v>
+      </c>
+      <c r="O23" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="R23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="S23" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T23" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U23" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W23" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="X23" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="Y23" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Z23" t="n">
         <v>7</v>
-      </c>
-      <c r="O23" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P23" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q23" t="n">
-        <v>2.45</v>
-      </c>
-      <c r="R23" t="n">
-        <v>1.49</v>
-      </c>
-      <c r="S23" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="T23" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U23" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="V23" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="W23" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X23" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y23" t="n">
-        <v>5</v>
-      </c>
-      <c r="Z23" t="n">
-        <v>6.5</v>
       </c>
       <c r="AA23" t="n">
         <v>9</v>
       </c>
       <c r="AB23" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC23" t="n">
         <v>17</v>
       </c>
       <c r="AD23" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE23" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF23" t="n">
         <v>7</v>
@@ -3756,19 +3760,19 @@
         <v>501</v>
       </c>
       <c r="AJ23" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AK23" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AL23" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM23" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN23" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AO23" t="n">
         <v>51</v>
@@ -3776,10 +3780,10 @@
       <c r="AP23" t="inlineStr"/>
       <c r="AQ23" t="inlineStr"/>
       <c r="AR23" t="n">
-        <v>1.87</v>
+        <v>1.83</v>
       </c>
       <c r="AS23" t="n">
-        <v>2.03</v>
+        <v>2.07</v>
       </c>
     </row>
     <row r="24">
@@ -3814,19 +3818,19 @@
         </is>
       </c>
       <c r="G24" t="n">
-        <v>2.4</v>
+        <v>2.45</v>
       </c>
       <c r="H24" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
         <v>3.1</v>
       </c>
       <c r="J24" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K24" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L24" t="n">
         <v>3.75</v>
@@ -3844,10 +3848,10 @@
         <v>2.75</v>
       </c>
       <c r="Q24" t="n">
-        <v>2.25</v>
+        <v>2.3</v>
       </c>
       <c r="R24" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="S24" t="n">
         <v>4.33</v>
@@ -3874,7 +3878,7 @@
         <v>11</v>
       </c>
       <c r="AA24" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB24" t="n">
         <v>23</v>
@@ -3886,28 +3890,28 @@
         <v>34</v>
       </c>
       <c r="AE24" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AF24" t="n">
         <v>6</v>
       </c>
       <c r="AG24" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH24" t="n">
         <v>51</v>
       </c>
       <c r="AI24" t="n">
-        <v>351</v>
+        <v>401</v>
       </c>
       <c r="AJ24" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK24" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL24" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM24" t="n">
         <v>34</v>
@@ -4010,7 +4014,7 @@
         <v>2.25</v>
       </c>
       <c r="X25" t="n">
-        <v>1.54</v>
+        <v>1.57</v>
       </c>
       <c r="Y25" t="n">
         <v>7</v>
@@ -4067,7 +4071,7 @@
         <v>5.2</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.17</v>
+        <v>1.16</v>
       </c>
       <c r="AR25" t="n">
         <v>2.1</v>
@@ -4144,10 +4148,10 @@
         <v>1.67</v>
       </c>
       <c r="S26" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T26" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U26" t="n">
         <v>1.5</v>
@@ -4159,7 +4163,7 @@
         <v>2.2</v>
       </c>
       <c r="X26" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Y26" t="n">
         <v>5.5</v>
@@ -4308,7 +4312,7 @@
         <v>2.5</v>
       </c>
       <c r="X27" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Y27" t="n">
         <v>4.75</v>
@@ -4406,40 +4410,40 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.7</v>
+        <v>1.6</v>
       </c>
       <c r="H28" t="n">
-        <v>3.5</v>
+        <v>3.7</v>
       </c>
       <c r="I28" t="n">
-        <v>5.5</v>
+        <v>6.25</v>
       </c>
       <c r="J28" t="n">
-        <v>2.38</v>
+        <v>2.2</v>
       </c>
       <c r="K28" t="n">
         <v>2.1</v>
       </c>
       <c r="L28" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="M28" t="n">
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R28" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S28" t="n">
         <v>3.75</v>
@@ -4457,7 +4461,7 @@
         <v>2.05</v>
       </c>
       <c r="X28" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Y28" t="n">
         <v>6</v>
@@ -4469,19 +4473,19 @@
         <v>8.5</v>
       </c>
       <c r="AB28" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AC28" t="n">
         <v>15</v>
       </c>
       <c r="AD28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG28" t="n">
         <v>19</v>
@@ -4493,28 +4497,28 @@
         <v>451</v>
       </c>
       <c r="AJ28" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK28" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AL28" t="n">
         <v>19</v>
       </c>
       <c r="AM28" t="n">
+        <v>67</v>
+      </c>
+      <c r="AN28" t="n">
         <v>51</v>
-      </c>
-      <c r="AN28" t="n">
-        <v>41</v>
       </c>
       <c r="AO28" t="n">
         <v>51</v>
       </c>
       <c r="AP28" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.35</v>
+        <v>1.39</v>
       </c>
       <c r="AR28" t="n">
         <v>2</v>
@@ -4555,28 +4559,28 @@
         </is>
       </c>
       <c r="G29" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H29" t="n">
         <v>2.88</v>
       </c>
       <c r="I29" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J29" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="K29" t="n">
         <v>1.8</v>
       </c>
       <c r="L29" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N29" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O29" t="n">
         <v>1.67</v>
@@ -4603,25 +4607,25 @@
         <v>2.05</v>
       </c>
       <c r="W29" t="n">
-        <v>2.62</v>
+        <v>2.5</v>
       </c>
       <c r="X29" t="n">
-        <v>1.41</v>
+        <v>1.5</v>
       </c>
       <c r="Y29" t="n">
         <v>5</v>
       </c>
       <c r="Z29" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA29" t="n">
         <v>11</v>
       </c>
       <c r="AB29" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC29" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD29" t="n">
         <v>51</v>
@@ -4751,7 +4755,7 @@
         <v>2.5</v>
       </c>
       <c r="X30" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Y30" t="n">
         <v>5.5</v>
@@ -4845,13 +4849,13 @@
         </is>
       </c>
       <c r="G31" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H31" t="n">
-        <v>2.9</v>
+        <v>2.75</v>
       </c>
       <c r="I31" t="n">
-        <v>4</v>
+        <v>4.1</v>
       </c>
       <c r="J31" t="n">
         <v>3</v>
@@ -4860,13 +4864,13 @@
         <v>1.8</v>
       </c>
       <c r="L31" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M31" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="N31" t="n">
         <v>5</v>
-      </c>
-      <c r="M31" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N31" t="n">
-        <v>5.5</v>
       </c>
       <c r="O31" t="n">
         <v>1.67</v>
@@ -4893,10 +4897,10 @@
         <v>2.05</v>
       </c>
       <c r="W31" t="n">
-        <v>2.62</v>
+        <v>2.63</v>
       </c>
       <c r="X31" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="Y31" t="n">
         <v>4.75</v>
@@ -4911,7 +4915,7 @@
         <v>19</v>
       </c>
       <c r="AC31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AD31" t="n">
         <v>51</v>
@@ -4920,22 +4924,22 @@
         <v>5</v>
       </c>
       <c r="AF31" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG31" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AH31" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AI31" t="n">
         <v>101</v>
       </c>
       <c r="AJ31" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK31" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL31" t="n">
         <v>17</v>
@@ -4990,16 +4994,16 @@
         </is>
       </c>
       <c r="G32" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="H32" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="I32" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J32" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K32" t="n">
         <v>1.8</v>
@@ -5008,40 +5012,40 @@
         <v>4</v>
       </c>
       <c r="M32" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="N32" t="n">
-        <v>5.5</v>
+        <v>4.75</v>
       </c>
       <c r="O32" t="n">
-        <v>1.67</v>
+        <v>1.69</v>
       </c>
       <c r="P32" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Q32" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="R32" t="n">
-        <v>1.33</v>
+        <v>1.27</v>
       </c>
       <c r="S32" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="T32" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="U32" t="n">
         <v>1.75</v>
       </c>
       <c r="V32" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="W32" t="n">
-        <v>2.5</v>
+        <v>2.62</v>
       </c>
       <c r="X32" t="n">
-        <v>1.47</v>
+        <v>1.41</v>
       </c>
       <c r="Y32" t="n">
         <v>5.5</v>
@@ -5050,19 +5054,19 @@
         <v>11</v>
       </c>
       <c r="AA32" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB32" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AC32" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AD32" t="n">
         <v>51</v>
       </c>
       <c r="AE32" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AF32" t="n">
         <v>6</v>
@@ -5080,7 +5084,7 @@
         <v>6</v>
       </c>
       <c r="AK32" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL32" t="n">
         <v>13</v>
@@ -5153,40 +5157,40 @@
         <v>5.5</v>
       </c>
       <c r="M33" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="N33" t="n">
         <v>4</v>
       </c>
       <c r="O33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P33" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q33" t="n">
         <v>4</v>
       </c>
       <c r="R33" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S33" t="n">
         <v>9</v>
       </c>
       <c r="T33" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="U33" t="n">
-        <v>1.85</v>
+        <v>1.82</v>
       </c>
       <c r="V33" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="W33" t="n">
         <v>2.75</v>
       </c>
       <c r="X33" t="n">
-        <v>1.4</v>
+        <v>1.37</v>
       </c>
       <c r="Y33" t="n">
         <v>4.5</v>
@@ -5279,13 +5283,13 @@
         <v>2.3</v>
       </c>
       <c r="H34" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="I34" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K34" t="n">
         <v>1.83</v>
@@ -5294,13 +5298,13 @@
         <v>4.5</v>
       </c>
       <c r="M34" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N34" t="n">
         <v>5.5</v>
       </c>
       <c r="O34" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P34" t="n">
         <v>2.2</v>
@@ -5309,13 +5313,13 @@
         <v>3.1</v>
       </c>
       <c r="R34" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S34" t="n">
         <v>6.5</v>
       </c>
       <c r="T34" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="U34" t="n">
         <v>1.67</v>
@@ -5324,16 +5328,16 @@
         <v>2.1</v>
       </c>
       <c r="W34" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="X34" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y34" t="n">
         <v>5.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AA34" t="n">
         <v>11</v>
@@ -5366,7 +5370,7 @@
         <v>7.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL34" t="n">
         <v>15</v>
@@ -5439,13 +5443,13 @@
         <v>4</v>
       </c>
       <c r="M35" t="n">
-        <v>1.14</v>
+        <v>1.11</v>
       </c>
       <c r="N35" t="n">
         <v>5.5</v>
       </c>
       <c r="O35" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="P35" t="n">
         <v>2.2</v>
@@ -5454,13 +5458,13 @@
         <v>3.1</v>
       </c>
       <c r="R35" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S35" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="T35" t="n">
-        <v>1.13</v>
+        <v>1.08</v>
       </c>
       <c r="U35" t="n">
         <v>1.67</v>
@@ -5472,7 +5476,7 @@
         <v>2.25</v>
       </c>
       <c r="X35" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="Y35" t="n">
         <v>6</v>
@@ -5562,7 +5566,7 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="H36" t="n">
         <v>2.63</v>
@@ -5580,40 +5584,40 @@
         <v>6</v>
       </c>
       <c r="M36" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="N36" t="n">
         <v>4</v>
       </c>
       <c r="O36" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="P36" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="Q36" t="n">
         <v>4</v>
       </c>
       <c r="R36" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S36" t="n">
         <v>9</v>
       </c>
       <c r="T36" t="n">
-        <v>1.07</v>
+        <v>1.05</v>
       </c>
       <c r="U36" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="V36" t="n">
-        <v>1.98</v>
+        <v>1.95</v>
       </c>
       <c r="W36" t="n">
         <v>3</v>
       </c>
       <c r="X36" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="Y36" t="n">
         <v>4.33</v>
@@ -5625,7 +5629,7 @@
         <v>12</v>
       </c>
       <c r="AB36" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC36" t="n">
         <v>26</v>
@@ -5652,7 +5656,7 @@
         <v>8</v>
       </c>
       <c r="AK36" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL36" t="n">
         <v>21</v>
@@ -6126,28 +6130,28 @@
         </is>
       </c>
       <c r="G40" t="n">
-        <v>2.8</v>
+        <v>3</v>
       </c>
       <c r="H40" t="n">
         <v>3.25</v>
       </c>
       <c r="I40" t="n">
-        <v>2.55</v>
+        <v>2.4</v>
       </c>
       <c r="J40" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="K40" t="n">
         <v>2.1</v>
       </c>
       <c r="L40" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="M40" t="n">
         <v>1.06</v>
       </c>
       <c r="N40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O40" t="n">
         <v>1.3</v>
@@ -6159,7 +6163,7 @@
         <v>2.05</v>
       </c>
       <c r="R40" t="n">
-        <v>1.72</v>
+        <v>1.75</v>
       </c>
       <c r="S40" t="n">
         <v>3.5</v>
@@ -6183,7 +6187,7 @@
         <v>9</v>
       </c>
       <c r="Z40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA40" t="n">
         <v>11</v>
@@ -6204,7 +6208,7 @@
         <v>6</v>
       </c>
       <c r="AG40" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH40" t="n">
         <v>51</v>
@@ -6213,16 +6217,16 @@
         <v>251</v>
       </c>
       <c r="AJ40" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK40" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL40" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AM40" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN40" t="n">
         <v>21</v>
@@ -6408,19 +6412,19 @@
         </is>
       </c>
       <c r="G42" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="H42" t="n">
-        <v>3.9</v>
+        <v>3.5</v>
       </c>
       <c r="I42" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="J42" t="n">
-        <v>5.3</v>
+        <v>5.9</v>
       </c>
       <c r="K42" t="n">
-        <v>2.27</v>
+        <v>2.18</v>
       </c>
       <c r="L42" t="n">
         <v>2.05</v>
@@ -6428,10 +6432,10 @@
       <c r="M42" t="inlineStr"/>
       <c r="N42" t="inlineStr"/>
       <c r="O42" t="n">
-        <v>1.22</v>
+        <v>1.19</v>
       </c>
       <c r="P42" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="Q42" t="n">
         <v>1.65</v>
@@ -6440,69 +6444,73 @@
         <v>1.98</v>
       </c>
       <c r="S42" t="n">
-        <v>2.55</v>
+        <v>2.57</v>
       </c>
       <c r="T42" t="n">
         <v>1.39</v>
       </c>
-      <c r="U42" t="inlineStr"/>
-      <c r="V42" t="inlineStr"/>
+      <c r="U42" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V42" t="n">
+        <v>2.82</v>
+      </c>
       <c r="W42" t="n">
-        <v>1.72</v>
+        <v>1.65</v>
       </c>
       <c r="X42" t="n">
-        <v>1.88</v>
+        <v>1.95</v>
       </c>
       <c r="Y42" t="n">
-        <v>16</v>
+        <v>17.5</v>
       </c>
       <c r="Z42" t="n">
-        <v>35</v>
+        <v>45</v>
       </c>
       <c r="AA42" t="n">
-        <v>17</v>
+        <v>18.5</v>
       </c>
       <c r="AB42" t="n">
-        <v>110</v>
+        <v>150</v>
       </c>
       <c r="AC42" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD42" t="n">
         <v>55</v>
       </c>
-      <c r="AD42" t="n">
-        <v>50</v>
-      </c>
       <c r="AE42" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF42" t="n">
-        <v>7.7</v>
+        <v>7.2</v>
       </c>
       <c r="AG42" t="n">
-        <v>15.5</v>
+        <v>14.5</v>
       </c>
       <c r="AH42" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AI42" t="n">
-        <v>500</v>
+        <v>400</v>
       </c>
       <c r="AJ42" t="n">
         <v>7.4</v>
       </c>
       <c r="AK42" t="n">
-        <v>7.6</v>
+        <v>7.9</v>
       </c>
       <c r="AL42" t="n">
-        <v>7.9</v>
+        <v>7.7</v>
       </c>
       <c r="AM42" t="n">
-        <v>11.25</v>
+        <v>11.75</v>
       </c>
       <c r="AN42" t="n">
-        <v>11.75</v>
+        <v>11.5</v>
       </c>
       <c r="AO42" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AP42" t="inlineStr"/>
       <c r="AQ42" t="inlineStr"/>
@@ -6686,10 +6694,10 @@
         </is>
       </c>
       <c r="G44" t="n">
-        <v>1.6</v>
+        <v>1.62</v>
       </c>
       <c r="H44" t="n">
-        <v>4.2</v>
+        <v>4.1</v>
       </c>
       <c r="I44" t="n">
         <v>5</v>
@@ -6701,31 +6709,31 @@
         <v>2.3</v>
       </c>
       <c r="L44" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="M44" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N44" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O44" t="n">
-        <v>1.22</v>
+        <v>1.2</v>
       </c>
       <c r="P44" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="Q44" t="n">
-        <v>1.69</v>
+        <v>1.67</v>
       </c>
       <c r="R44" t="n">
-        <v>2.07</v>
+        <v>2.15</v>
       </c>
       <c r="S44" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="T44" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="U44" t="n">
         <v>1.33</v>
@@ -6734,31 +6742,31 @@
         <v>3.25</v>
       </c>
       <c r="W44" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X44" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y44" t="n">
         <v>8</v>
       </c>
       <c r="Z44" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AA44" t="n">
         <v>8.5</v>
       </c>
       <c r="AB44" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC44" t="n">
         <v>13</v>
-      </c>
-      <c r="AC44" t="n">
-        <v>12</v>
       </c>
       <c r="AD44" t="n">
         <v>23</v>
       </c>
       <c r="AE44" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AF44" t="n">
         <v>8</v>
@@ -6785,7 +6793,7 @@
         <v>51</v>
       </c>
       <c r="AN44" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AO44" t="n">
         <v>41</v>
@@ -6855,16 +6863,16 @@
         <v>10</v>
       </c>
       <c r="O45" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P45" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q45" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R45" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S45" t="n">
         <v>3.75</v>
@@ -7254,34 +7262,34 @@
         </is>
       </c>
       <c r="G48" t="n">
-        <v>2.5</v>
+        <v>2.45</v>
       </c>
       <c r="H48" t="n">
         <v>3.1</v>
       </c>
       <c r="I48" t="n">
-        <v>2.7</v>
+        <v>2.75</v>
       </c>
       <c r="J48" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="K48" t="n">
         <v>2.1</v>
       </c>
       <c r="L48" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M48" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N48" t="n">
+        <v>10</v>
+      </c>
+      <c r="O48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P48" t="n">
         <v>3.4</v>
-      </c>
-      <c r="M48" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N48" t="n">
-        <v>9</v>
-      </c>
-      <c r="O48" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="P48" t="n">
-        <v>3.25</v>
       </c>
       <c r="Q48" t="n">
         <v>2.05</v>
@@ -7317,13 +7325,13 @@
         <v>10</v>
       </c>
       <c r="AB48" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC48" t="n">
         <v>21</v>
       </c>
       <c r="AD48" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE48" t="n">
         <v>9</v>
@@ -7341,7 +7349,7 @@
         <v>251</v>
       </c>
       <c r="AJ48" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK48" t="n">
         <v>13</v>
@@ -7395,22 +7403,22 @@
         </is>
       </c>
       <c r="G49" t="n">
-        <v>3</v>
+        <v>3.5</v>
       </c>
       <c r="H49" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I49" t="n">
-        <v>2.1</v>
+        <v>1.9</v>
       </c>
       <c r="J49" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="K49" t="n">
         <v>2.4</v>
       </c>
       <c r="L49" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="M49" t="n">
         <v>1.03</v>
@@ -7419,58 +7427,58 @@
         <v>17</v>
       </c>
       <c r="O49" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="P49" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q49" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="R49" t="n">
-        <v>2.35</v>
+        <v>2.5</v>
       </c>
       <c r="S49" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T49" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="U49" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V49" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W49" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="X49" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="Y49" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="Z49" t="n">
+        <v>21</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>13</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>41</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE49" t="n">
         <v>19</v>
       </c>
-      <c r="AA49" t="n">
-        <v>12</v>
-      </c>
-      <c r="AB49" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC49" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD49" t="n">
-        <v>23</v>
-      </c>
-      <c r="AE49" t="n">
-        <v>17</v>
-      </c>
       <c r="AF49" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG49" t="n">
         <v>11</v>
@@ -7485,25 +7493,25 @@
         <v>11</v>
       </c>
       <c r="AK49" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AL49" t="n">
         <v>9</v>
       </c>
       <c r="AM49" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AN49" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AO49" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="AQ49" t="n">
-        <v>1.95</v>
+        <v>2.05</v>
       </c>
       <c r="AR49" t="inlineStr"/>
       <c r="AS49" t="inlineStr"/>
@@ -7822,13 +7830,13 @@
         </is>
       </c>
       <c r="G52" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="H52" t="n">
-        <v>4.2</v>
+        <v>4.33</v>
       </c>
       <c r="I52" t="n">
-        <v>5.75</v>
+        <v>6.25</v>
       </c>
       <c r="J52" t="n">
         <v>2.1</v>
@@ -7837,7 +7845,7 @@
         <v>2.2</v>
       </c>
       <c r="L52" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="M52" t="n">
         <v>1.05</v>
@@ -7852,10 +7860,10 @@
         <v>3.25</v>
       </c>
       <c r="Q52" t="n">
-        <v>1.99</v>
+        <v>2.05</v>
       </c>
       <c r="R52" t="n">
-        <v>1.74</v>
+        <v>1.75</v>
       </c>
       <c r="S52" t="n">
         <v>3.5</v>
@@ -7864,16 +7872,16 @@
         <v>1.29</v>
       </c>
       <c r="U52" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V52" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W52" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X52" t="n">
-        <v>1.63</v>
+        <v>1.62</v>
       </c>
       <c r="Y52" t="n">
         <v>6</v>
@@ -7891,10 +7899,10 @@
         <v>13</v>
       </c>
       <c r="AD52" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE52" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF52" t="n">
         <v>8</v>
@@ -7903,10 +7911,10 @@
         <v>21</v>
       </c>
       <c r="AH52" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI52" t="n">
-        <v>1000</v>
+        <v>1250</v>
       </c>
       <c r="AJ52" t="n">
         <v>13</v>
@@ -7966,25 +7974,25 @@
         <v>4.5</v>
       </c>
       <c r="H53" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I53" t="n">
-        <v>1.83</v>
+        <v>1.9</v>
       </c>
       <c r="J53" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="K53" t="n">
         <v>2.05</v>
       </c>
       <c r="L53" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M53" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N53" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O53" t="n">
         <v>1.36</v>
@@ -8005,16 +8013,16 @@
         <v>1.22</v>
       </c>
       <c r="U53" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V53" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W53" t="n">
         <v>2</v>
       </c>
       <c r="X53" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Y53" t="n">
         <v>11</v>
@@ -8026,7 +8034,7 @@
         <v>15</v>
       </c>
       <c r="AB53" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC53" t="n">
         <v>41</v>
@@ -8068,16 +8076,16 @@
         <v>34</v>
       </c>
       <c r="AP53" t="n">
-        <v>3.15</v>
+        <v>3.25</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.34</v>
+        <v>1.33</v>
       </c>
       <c r="AR53" t="n">
-        <v>1.63</v>
+        <v>1.64</v>
       </c>
       <c r="AS53" t="n">
-        <v>2.25</v>
+        <v>2.22</v>
       </c>
     </row>
     <row r="54">
@@ -8115,13 +8123,13 @@
         <v>3.4</v>
       </c>
       <c r="H54" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I54" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="J54" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="K54" t="n">
         <v>2.2</v>
@@ -8142,10 +8150,10 @@
         <v>3.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="R54" t="n">
-        <v>1.87</v>
+        <v>1.93</v>
       </c>
       <c r="S54" t="n">
         <v>3.25</v>
@@ -8154,28 +8162,28 @@
         <v>1.33</v>
       </c>
       <c r="U54" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V54" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W54" t="n">
-        <v>1.63</v>
+        <v>1.73</v>
       </c>
       <c r="X54" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="Y54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z54" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AA54" t="n">
         <v>12</v>
       </c>
       <c r="AB54" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AC54" t="n">
         <v>26</v>
@@ -8184,7 +8192,7 @@
         <v>34</v>
       </c>
       <c r="AE54" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF54" t="n">
         <v>6.5</v>
@@ -8196,10 +8204,10 @@
         <v>41</v>
       </c>
       <c r="AI54" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ54" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AK54" t="n">
         <v>11</v>
@@ -8211,10 +8219,10 @@
         <v>19</v>
       </c>
       <c r="AN54" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AO54" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AP54" t="n">
         <v>2.5</v>
@@ -8226,7 +8234,7 @@
         <v>1.43</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="55">
@@ -8279,10 +8287,10 @@
         <v>5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.11</v>
+        <v>1.1</v>
       </c>
       <c r="N55" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="O55" t="n">
         <v>1.5</v>
@@ -8291,10 +8299,10 @@
         <v>2.5</v>
       </c>
       <c r="Q55" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="R55" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="S55" t="n">
         <v>5</v>
@@ -8312,7 +8320,7 @@
         <v>2.2</v>
       </c>
       <c r="X55" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="Y55" t="n">
         <v>5.5</v>
@@ -8369,13 +8377,13 @@
         <v>4.2</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.21</v>
+        <v>1.22</v>
       </c>
       <c r="AR55" t="n">
-        <v>1.87</v>
+        <v>1.95</v>
       </c>
       <c r="AS55" t="n">
-        <v>1.87</v>
+        <v>1.9</v>
       </c>
     </row>
     <row r="56">
@@ -8700,22 +8708,22 @@
         </is>
       </c>
       <c r="G58" t="n">
-        <v>3.4</v>
+        <v>2.8</v>
       </c>
       <c r="H58" t="n">
         <v>3.1</v>
       </c>
       <c r="I58" t="n">
-        <v>2.25</v>
+        <v>2.63</v>
       </c>
       <c r="J58" t="n">
-        <v>4</v>
+        <v>3.6</v>
       </c>
       <c r="K58" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="L58" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M58" t="n">
         <v>1.08</v>
@@ -8724,49 +8732,49 @@
         <v>8</v>
       </c>
       <c r="O58" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="P58" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="Q58" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="R58" t="n">
-        <v>1.6</v>
+        <v>1.57</v>
       </c>
       <c r="S58" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T58" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U58" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V58" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W58" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X58" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y58" t="n">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="Z58" t="n">
-        <v>17</v>
+        <v>13</v>
       </c>
       <c r="AA58" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AB58" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AC58" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AD58" t="n">
         <v>41</v>
@@ -8784,33 +8792,33 @@
         <v>51</v>
       </c>
       <c r="AI58" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ58" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AK58" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AL58" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AM58" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AN58" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO58" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP58" t="inlineStr"/>
       <c r="AQ58" t="inlineStr"/>
       <c r="AR58" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS58" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="59">
@@ -8851,13 +8859,13 @@
         <v>5.7</v>
       </c>
       <c r="I59" t="n">
-        <v>11.75</v>
+        <v>12</v>
       </c>
       <c r="J59" t="n">
         <v>1.6</v>
       </c>
       <c r="K59" t="n">
-        <v>2.72</v>
+        <v>2.75</v>
       </c>
       <c r="L59" t="n">
         <v>8.5</v>
@@ -8887,10 +8895,10 @@
         <v>1.65</v>
       </c>
       <c r="U59" t="n">
-        <v>1.25</v>
+        <v>1.24</v>
       </c>
       <c r="V59" t="n">
-        <v>3.65</v>
+        <v>3.75</v>
       </c>
       <c r="W59" t="n">
         <v>1.93</v>
@@ -8902,7 +8910,7 @@
         <v>7.5</v>
       </c>
       <c r="Z59" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="AA59" t="n">
         <v>9.75</v>
@@ -8914,7 +8922,7 @@
         <v>11</v>
       </c>
       <c r="AD59" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AE59" t="n">
         <v>10.5</v>
@@ -8926,25 +8934,25 @@
         <v>25</v>
       </c>
       <c r="AH59" t="n">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="AI59" t="n">
         <v>800</v>
       </c>
       <c r="AJ59" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="AK59" t="n">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="AL59" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AM59" t="n">
-        <v>450</v>
+        <v>500</v>
       </c>
       <c r="AN59" t="n">
-        <v>150</v>
+        <v>175</v>
       </c>
       <c r="AO59" t="n">
         <v>110</v>
@@ -8989,61 +8997,61 @@
         <v>1.65</v>
       </c>
       <c r="H60" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I60" t="n">
-        <v>5.5</v>
+        <v>5.3</v>
       </c>
       <c r="J60" t="n">
-        <v>2.18</v>
+        <v>2.27</v>
       </c>
       <c r="K60" t="n">
-        <v>2.15</v>
+        <v>2.07</v>
       </c>
       <c r="L60" t="n">
         <v>5.3</v>
       </c>
       <c r="M60" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N60" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="O60" t="n">
-        <v>1.35</v>
+        <v>1.33</v>
       </c>
       <c r="P60" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
       <c r="Q60" t="n">
-        <v>2.05</v>
+        <v>1.98</v>
       </c>
       <c r="R60" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="S60" t="n">
-        <v>3.45</v>
+        <v>3.3</v>
       </c>
       <c r="T60" t="n">
-        <v>1.28</v>
+        <v>1.3</v>
       </c>
       <c r="U60" t="n">
-        <v>1.4</v>
+        <v>1.45</v>
       </c>
       <c r="V60" t="n">
-        <v>2.82</v>
+        <v>2.65</v>
       </c>
       <c r="W60" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="X60" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="Y60" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="Z60" t="n">
-        <v>7.5</v>
+        <v>7.8</v>
       </c>
       <c r="AA60" t="n">
         <v>8.75</v>
@@ -9052,43 +9060,43 @@
         <v>13.5</v>
       </c>
       <c r="AC60" t="n">
-        <v>15.5</v>
+        <v>15</v>
       </c>
       <c r="AD60" t="n">
         <v>32</v>
       </c>
       <c r="AE60" t="n">
-        <v>7.1</v>
+        <v>7.4</v>
       </c>
       <c r="AF60" t="n">
         <v>7.2</v>
       </c>
       <c r="AG60" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AH60" t="n">
-        <v>100</v>
+        <v>90</v>
       </c>
       <c r="AI60" t="n">
-        <v>1000</v>
+        <v>800</v>
       </c>
       <c r="AJ60" t="n">
-        <v>12.5</v>
+        <v>13</v>
       </c>
       <c r="AK60" t="n">
         <v>35</v>
       </c>
       <c r="AL60" t="n">
-        <v>18.5</v>
+        <v>17.5</v>
       </c>
       <c r="AM60" t="n">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AN60" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AO60" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AP60" t="inlineStr"/>
       <c r="AQ60" t="inlineStr"/>
@@ -9127,52 +9135,52 @@
         </is>
       </c>
       <c r="G61" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="H61" t="n">
-        <v>3.9</v>
+        <v>3.85</v>
       </c>
       <c r="I61" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="J61" t="n">
-        <v>5.7</v>
+        <v>5.5</v>
       </c>
       <c r="K61" t="n">
         <v>2.18</v>
       </c>
       <c r="L61" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="M61" t="n">
         <v>1.06</v>
       </c>
       <c r="N61" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="O61" t="n">
-        <v>1.28</v>
+        <v>1.29</v>
       </c>
       <c r="P61" t="n">
-        <v>3.45</v>
+        <v>3.35</v>
       </c>
       <c r="Q61" t="n">
-        <v>1.83</v>
+        <v>1.87</v>
       </c>
       <c r="R61" t="n">
-        <v>1.9</v>
+        <v>1.87</v>
       </c>
       <c r="S61" t="n">
-        <v>3</v>
+        <v>3.05</v>
       </c>
       <c r="T61" t="n">
-        <v>1.36</v>
+        <v>1.34</v>
       </c>
       <c r="U61" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="V61" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="W61" t="n">
         <v>1.88</v>
@@ -9181,55 +9189,55 @@
         <v>1.82</v>
       </c>
       <c r="Y61" t="n">
-        <v>14.5</v>
+        <v>13</v>
       </c>
       <c r="Z61" t="n">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="AA61" t="n">
-        <v>19.5</v>
+        <v>18.5</v>
       </c>
       <c r="AB61" t="n">
-        <v>150</v>
+        <v>120</v>
       </c>
       <c r="AC61" t="n">
+        <v>65</v>
+      </c>
+      <c r="AD61" t="n">
         <v>70</v>
       </c>
-      <c r="AD61" t="n">
-        <v>65</v>
-      </c>
       <c r="AE61" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="AF61" t="n">
-        <v>7.9</v>
+        <v>7.8</v>
       </c>
       <c r="AG61" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AH61" t="n">
-        <v>90</v>
+        <v>100</v>
       </c>
       <c r="AI61" t="n">
-        <v>800</v>
+        <v>900</v>
       </c>
       <c r="AJ61" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="AK61" t="n">
-        <v>7.5</v>
+        <v>7.7</v>
       </c>
       <c r="AL61" t="n">
         <v>8.5</v>
       </c>
       <c r="AM61" t="n">
-        <v>11.75</v>
+        <v>12.5</v>
       </c>
       <c r="AN61" t="n">
         <v>13.5</v>
       </c>
       <c r="AO61" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AP61" t="inlineStr"/>
       <c r="AQ61" t="inlineStr"/>
@@ -9409,7 +9417,7 @@
         </is>
       </c>
       <c r="G63" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H63" t="n">
         <v>3.4</v>
@@ -9418,7 +9426,7 @@
         <v>3.6</v>
       </c>
       <c r="J63" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="K63" t="n">
         <v>2.2</v>
@@ -9439,22 +9447,22 @@
         <v>3.75</v>
       </c>
       <c r="Q63" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="R63" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="S63" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T63" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U63" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V63" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W63" t="n">
         <v>1.7</v>
@@ -9463,7 +9471,7 @@
         <v>2.05</v>
       </c>
       <c r="Y63" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z63" t="n">
         <v>10</v>
@@ -9475,10 +9483,10 @@
         <v>19</v>
       </c>
       <c r="AC63" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD63" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE63" t="n">
         <v>11</v>
@@ -9493,16 +9501,16 @@
         <v>41</v>
       </c>
       <c r="AI63" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ63" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK63" t="n">
         <v>19</v>
       </c>
       <c r="AL63" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM63" t="n">
         <v>41</v>
@@ -9550,22 +9558,22 @@
         </is>
       </c>
       <c r="G64" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="H64" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I64" t="n">
-        <v>1.77</v>
+        <v>1.9</v>
       </c>
       <c r="J64" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K64" t="n">
         <v>2.2</v>
       </c>
       <c r="L64" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M64" t="n">
         <v>1.05</v>
@@ -9580,10 +9588,10 @@
         <v>3.5</v>
       </c>
       <c r="Q64" t="n">
-        <v>1.98</v>
+        <v>2</v>
       </c>
       <c r="R64" t="n">
-        <v>1.88</v>
+        <v>1.85</v>
       </c>
       <c r="S64" t="n">
         <v>3.4</v>
@@ -9598,19 +9606,19 @@
         <v>2.75</v>
       </c>
       <c r="W64" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="X64" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="Y64" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Z64" t="n">
         <v>21</v>
       </c>
       <c r="AA64" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AB64" t="n">
         <v>41</v>
@@ -9625,7 +9633,7 @@
         <v>10</v>
       </c>
       <c r="AF64" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AG64" t="n">
         <v>15</v>
@@ -9634,19 +9642,19 @@
         <v>51</v>
       </c>
       <c r="AI64" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ64" t="n">
         <v>7</v>
       </c>
       <c r="AK64" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AL64" t="n">
         <v>8.5</v>
       </c>
       <c r="AM64" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN64" t="n">
         <v>15</v>
@@ -9691,28 +9699,28 @@
         </is>
       </c>
       <c r="G65" t="n">
-        <v>1.25</v>
+        <v>1.42</v>
       </c>
       <c r="H65" t="n">
-        <v>5.25</v>
+        <v>4.33</v>
       </c>
       <c r="I65" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="J65" t="n">
-        <v>1.73</v>
+        <v>1.91</v>
       </c>
       <c r="K65" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="L65" t="n">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="M65" t="n">
         <v>1.03</v>
       </c>
       <c r="N65" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O65" t="n">
         <v>1.17</v>
@@ -9721,16 +9729,16 @@
         <v>5</v>
       </c>
       <c r="Q65" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="R65" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="S65" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="T65" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="U65" t="n">
         <v>1.29</v>
@@ -9739,67 +9747,67 @@
         <v>3.5</v>
       </c>
       <c r="W65" t="n">
-        <v>1.95</v>
+        <v>1.77</v>
       </c>
       <c r="X65" t="n">
-        <v>1.8</v>
+        <v>1.92</v>
       </c>
       <c r="Y65" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z65" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="AA65" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AB65" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AC65" t="n">
         <v>11</v>
       </c>
       <c r="AD65" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AE65" t="n">
         <v>15</v>
       </c>
       <c r="AF65" t="n">
-        <v>10</v>
+        <v>8.5</v>
       </c>
       <c r="AG65" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AH65" t="n">
         <v>51</v>
       </c>
       <c r="AI65" t="n">
-        <v>301</v>
+        <v>201</v>
       </c>
       <c r="AJ65" t="n">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="AK65" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN65" t="n">
         <v>51</v>
-      </c>
-      <c r="AL65" t="n">
-        <v>29</v>
-      </c>
-      <c r="AM65" t="n">
-        <v>126</v>
-      </c>
-      <c r="AN65" t="n">
-        <v>67</v>
       </c>
       <c r="AO65" t="n">
         <v>51</v>
       </c>
       <c r="AP65" t="n">
-        <v>1.93</v>
+        <v>1.94</v>
       </c>
       <c r="AQ65" t="n">
-        <v>1.93</v>
+        <v>1.79</v>
       </c>
       <c r="AR65" t="inlineStr"/>
       <c r="AS65" t="inlineStr"/>
@@ -10122,13 +10130,13 @@
         </is>
       </c>
       <c r="G68" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="H68" t="n">
-        <v>3.75</v>
+        <v>3.8</v>
       </c>
       <c r="I68" t="n">
-        <v>1.66</v>
+        <v>1.65</v>
       </c>
       <c r="J68" t="n">
         <v>5.5</v>
@@ -10137,13 +10145,13 @@
         <v>2.2</v>
       </c>
       <c r="L68" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="M68" t="n">
-        <v>1.06</v>
+        <v>1.05</v>
       </c>
       <c r="N68" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="O68" t="n">
         <v>1.3</v>
@@ -10176,13 +10184,13 @@
         <v>1.8</v>
       </c>
       <c r="Y68" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z68" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AA68" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AB68" t="n">
         <v>51</v>
@@ -10197,7 +10205,7 @@
         <v>10</v>
       </c>
       <c r="AF68" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG68" t="n">
         <v>17</v>
@@ -10206,7 +10214,7 @@
         <v>51</v>
       </c>
       <c r="AI68" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ68" t="n">
         <v>6.5</v>
@@ -10218,10 +10226,10 @@
         <v>8.5</v>
       </c>
       <c r="AM68" t="n">
+        <v>12</v>
+      </c>
+      <c r="AN68" t="n">
         <v>13</v>
-      </c>
-      <c r="AN68" t="n">
-        <v>15</v>
       </c>
       <c r="AO68" t="n">
         <v>29</v>
@@ -10263,70 +10271,70 @@
         </is>
       </c>
       <c r="G69" t="n">
-        <v>1.53</v>
+        <v>1.4</v>
       </c>
       <c r="H69" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="I69" t="n">
-        <v>5.75</v>
+        <v>7.5</v>
       </c>
       <c r="J69" t="n">
-        <v>2.1</v>
+        <v>1.91</v>
       </c>
       <c r="K69" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L69" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="M69" t="n">
         <v>1.03</v>
       </c>
       <c r="N69" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O69" t="n">
-        <v>1.19</v>
+        <v>1.22</v>
       </c>
       <c r="P69" t="n">
         <v>4</v>
       </c>
       <c r="Q69" t="n">
-        <v>1.75</v>
+        <v>1.73</v>
       </c>
       <c r="R69" t="n">
-        <v>2.05</v>
+        <v>2.08</v>
       </c>
       <c r="S69" t="n">
         <v>2.75</v>
       </c>
       <c r="T69" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="U69" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V69" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W69" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="X69" t="n">
-        <v>1.87</v>
+        <v>1.72</v>
       </c>
       <c r="Y69" t="n">
         <v>7</v>
       </c>
       <c r="Z69" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA69" t="n">
         <v>8.5</v>
       </c>
       <c r="AB69" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AC69" t="n">
         <v>12</v>
@@ -10338,34 +10346,34 @@
         <v>12</v>
       </c>
       <c r="AF69" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AG69" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ69" t="n">
         <v>17</v>
       </c>
-      <c r="AH69" t="n">
+      <c r="AK69" t="n">
+        <v>41</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>21</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>81</v>
+      </c>
+      <c r="AN69" t="n">
         <v>51</v>
       </c>
-      <c r="AI69" t="n">
-        <v>301</v>
-      </c>
-      <c r="AJ69" t="n">
-        <v>15</v>
-      </c>
-      <c r="AK69" t="n">
-        <v>29</v>
-      </c>
-      <c r="AL69" t="n">
-        <v>19</v>
-      </c>
-      <c r="AM69" t="n">
-        <v>67</v>
-      </c>
-      <c r="AN69" t="n">
-        <v>41</v>
-      </c>
       <c r="AO69" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP69" t="n">
         <v>2.05</v>
@@ -10408,58 +10416,58 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="H70" t="n">
-        <v>4.1</v>
+        <v>3.9</v>
       </c>
       <c r="I70" t="n">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="J70" t="n">
-        <v>1.92</v>
+        <v>2.05</v>
       </c>
       <c r="K70" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="L70" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M70" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N70" t="n">
         <v>13</v>
       </c>
       <c r="O70" t="n">
-        <v>1.19</v>
+        <v>1.25</v>
       </c>
       <c r="P70" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q70" t="n">
-        <v>1.75</v>
+        <v>1.77</v>
       </c>
       <c r="R70" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S70" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T70" t="n">
-        <v>1.37</v>
+        <v>1.36</v>
       </c>
       <c r="U70" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="V70" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="W70" t="n">
-        <v>1.87</v>
+        <v>1.8</v>
       </c>
       <c r="X70" t="n">
-        <v>1.77</v>
+        <v>1.8</v>
       </c>
       <c r="Y70" t="n">
         <v>7</v>
@@ -10471,7 +10479,7 @@
         <v>8.5</v>
       </c>
       <c r="AB70" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AC70" t="n">
         <v>12</v>
@@ -10483,28 +10491,28 @@
         <v>11</v>
       </c>
       <c r="AF70" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AG70" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH70" t="n">
         <v>51</v>
       </c>
       <c r="AI70" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ70" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AK70" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AL70" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AM70" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN70" t="n">
         <v>51</v>
@@ -10571,13 +10579,13 @@
         <v>3</v>
       </c>
       <c r="M71" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N71" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O71" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P71" t="n">
         <v>3</v>
@@ -10592,7 +10600,7 @@
         <v>3.75</v>
       </c>
       <c r="T71" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U71" t="n">
         <v>1.44</v>
@@ -10601,10 +10609,10 @@
         <v>2.63</v>
       </c>
       <c r="W71" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X71" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y71" t="n">
         <v>9</v>
@@ -10694,16 +10702,16 @@
         </is>
       </c>
       <c r="G72" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="H72" t="n">
         <v>3.1</v>
       </c>
       <c r="I72" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="J72" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K72" t="n">
         <v>2.05</v>
@@ -10712,13 +10720,13 @@
         <v>3.25</v>
       </c>
       <c r="M72" t="n">
-        <v>1.05</v>
+        <v>1.07</v>
       </c>
       <c r="N72" t="n">
         <v>9</v>
       </c>
       <c r="O72" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P72" t="n">
         <v>3.25</v>
@@ -10733,7 +10741,7 @@
         <v>3.75</v>
       </c>
       <c r="T72" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U72" t="n">
         <v>1.44</v>
@@ -10742,10 +10750,10 @@
         <v>2.63</v>
       </c>
       <c r="W72" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="X72" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="Y72" t="n">
         <v>8.5</v>
@@ -11117,22 +11125,22 @@
         </is>
       </c>
       <c r="G75" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="H75" t="n">
         <v>2.4</v>
       </c>
       <c r="I75" t="n">
-        <v>2.87</v>
+        <v>2.95</v>
       </c>
       <c r="J75" t="n">
-        <v>4.05</v>
+        <v>3.9</v>
       </c>
       <c r="K75" t="n">
         <v>1.7</v>
       </c>
       <c r="L75" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="M75" t="n">
         <v>1.19</v>
@@ -11141,16 +11149,16 @@
         <v>4.2</v>
       </c>
       <c r="O75" t="n">
-        <v>1.72</v>
+        <v>1.7</v>
       </c>
       <c r="P75" t="n">
         <v>2.02</v>
       </c>
       <c r="Q75" t="n">
-        <v>3.1</v>
+        <v>3.05</v>
       </c>
       <c r="R75" t="n">
-        <v>1.32</v>
+        <v>1.33</v>
       </c>
       <c r="S75" t="n">
         <v>5.6</v>
@@ -11159,10 +11167,10 @@
         <v>1.11</v>
       </c>
       <c r="U75" t="n">
-        <v>1.75</v>
+        <v>1.72</v>
       </c>
       <c r="V75" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="W75" t="n">
         <v>2.25</v>
@@ -11174,28 +11182,28 @@
         <v>6.2</v>
       </c>
       <c r="Z75" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AA75" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AB75" t="n">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="AC75" t="n">
         <v>40</v>
       </c>
       <c r="AD75" t="n">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="AE75" t="n">
         <v>4.2</v>
       </c>
       <c r="AF75" t="n">
-        <v>5.1</v>
+        <v>5</v>
       </c>
       <c r="AG75" t="n">
-        <v>19</v>
+        <v>18.5</v>
       </c>
       <c r="AH75" t="n">
         <v>150</v>
@@ -11204,19 +11212,19 @@
         <v>101</v>
       </c>
       <c r="AJ75" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="AK75" t="n">
-        <v>12.5</v>
+        <v>13.5</v>
       </c>
       <c r="AL75" t="n">
-        <v>11.25</v>
+        <v>11.5</v>
       </c>
       <c r="AM75" t="n">
         <v>40</v>
       </c>
       <c r="AN75" t="n">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="AO75" t="n">
         <v>60</v>
@@ -11258,85 +11266,85 @@
         </is>
       </c>
       <c r="G76" t="n">
-        <v>7.5</v>
+        <v>9.25</v>
       </c>
       <c r="H76" t="n">
-        <v>3.45</v>
+        <v>3.7</v>
       </c>
       <c r="I76" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="J76" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="K76" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="N76" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="O76" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="P76" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="Q76" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="R76" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="S76" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U76" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W76" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="X76" t="n">
         <v>1.53</v>
       </c>
-      <c r="J76" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="K76" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="L76" t="n">
-        <v>2.07</v>
-      </c>
-      <c r="M76" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N76" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O76" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P76" t="n">
-        <v>2.65</v>
-      </c>
-      <c r="Q76" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R76" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S76" t="n">
-        <v>3.95</v>
-      </c>
-      <c r="T76" t="n">
-        <v>1.21</v>
-      </c>
-      <c r="U76" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V76" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W76" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="X76" t="n">
-        <v>1.55</v>
-      </c>
       <c r="Y76" t="n">
-        <v>14.5</v>
+        <v>18</v>
       </c>
       <c r="Z76" t="n">
-        <v>50</v>
+        <v>65</v>
       </c>
       <c r="AA76" t="n">
+        <v>29</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>300</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>150</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>120</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="AG76" t="n">
         <v>24</v>
-      </c>
-      <c r="AB76" t="n">
-        <v>200</v>
-      </c>
-      <c r="AC76" t="n">
-        <v>110</v>
-      </c>
-      <c r="AD76" t="n">
-        <v>110</v>
-      </c>
-      <c r="AE76" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AF76" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG76" t="n">
-        <v>22</v>
       </c>
       <c r="AH76" t="n">
         <v>150</v>
@@ -11348,16 +11356,16 @@
         <v>4.9</v>
       </c>
       <c r="AK76" t="n">
-        <v>5.9</v>
+        <v>5.5</v>
       </c>
       <c r="AL76" t="n">
         <v>8.5</v>
       </c>
       <c r="AM76" t="n">
-        <v>10.25</v>
+        <v>9</v>
       </c>
       <c r="AN76" t="n">
-        <v>14.5</v>
+        <v>13.5</v>
       </c>
       <c r="AO76" t="n">
         <v>40</v>
@@ -11971,19 +11979,19 @@
         </is>
       </c>
       <c r="G81" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="H81" t="n">
-        <v>3.6</v>
+        <v>3.7</v>
       </c>
       <c r="I81" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J81" t="n">
         <v>2.75</v>
       </c>
-      <c r="J81" t="n">
-        <v>2.87</v>
-      </c>
       <c r="K81" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="L81" t="n">
         <v>3.25</v>
@@ -11992,7 +12000,7 @@
         <v>1.03</v>
       </c>
       <c r="N81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="O81" t="n">
         <v>1.17</v>
@@ -12013,10 +12021,10 @@
         <v>1.53</v>
       </c>
       <c r="U81" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V81" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W81" t="n">
         <v>1.5</v>
@@ -12025,7 +12033,7 @@
         <v>2.5</v>
       </c>
       <c r="Y81" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Z81" t="n">
         <v>13</v>
@@ -12034,7 +12042,7 @@
         <v>9.5</v>
       </c>
       <c r="AB81" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC81" t="n">
         <v>17</v>
@@ -12043,7 +12051,7 @@
         <v>21</v>
       </c>
       <c r="AE81" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF81" t="n">
         <v>7.5</v>
@@ -12076,10 +12084,10 @@
         <v>23</v>
       </c>
       <c r="AP81" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AR81" t="inlineStr"/>
       <c r="AS81" t="inlineStr"/>
@@ -12119,7 +12127,7 @@
         <v>1.65</v>
       </c>
       <c r="H82" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="I82" t="n">
         <v>4.2</v>
@@ -12128,7 +12136,7 @@
         <v>2.2</v>
       </c>
       <c r="K82" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L82" t="n">
         <v>4.75</v>
@@ -12158,22 +12166,22 @@
         <v>1.53</v>
       </c>
       <c r="U82" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="V82" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="W82" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="X82" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y82" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z82" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AA82" t="n">
         <v>8.5</v>
@@ -12188,10 +12196,10 @@
         <v>21</v>
       </c>
       <c r="AE82" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AF82" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AG82" t="n">
         <v>15</v>
@@ -12206,7 +12214,7 @@
         <v>15</v>
       </c>
       <c r="AK82" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL82" t="n">
         <v>13</v>
@@ -12215,16 +12223,16 @@
         <v>51</v>
       </c>
       <c r="AN82" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AO82" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP82" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="AR82" t="inlineStr"/>
       <c r="AS82" t="inlineStr"/>
@@ -12428,22 +12436,22 @@
         <v>8.5</v>
       </c>
       <c r="M84" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N84" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O84" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P84" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q84" t="n">
-        <v>1.88</v>
+        <v>1.93</v>
       </c>
       <c r="R84" t="n">
-        <v>1.98</v>
+        <v>1.93</v>
       </c>
       <c r="S84" t="n">
         <v>3.25</v>
@@ -12515,16 +12523,16 @@
         <v>67</v>
       </c>
       <c r="AP84" t="n">
-        <v>2.36</v>
+        <v>2.55</v>
       </c>
       <c r="AQ84" t="n">
-        <v>1.6</v>
+        <v>1.52</v>
       </c>
       <c r="AR84" t="n">
-        <v>1.39</v>
+        <v>1.44</v>
       </c>
       <c r="AS84" t="n">
-        <v>3.05</v>
+        <v>2.8</v>
       </c>
     </row>
     <row r="85">
@@ -12589,7 +12597,7 @@
         <v>6</v>
       </c>
       <c r="Q85" t="n">
-        <v>1.41</v>
+        <v>1.44</v>
       </c>
       <c r="R85" t="n">
         <v>2.7</v>
@@ -12708,46 +12716,46 @@
         </is>
       </c>
       <c r="G86" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="H86" t="n">
-        <v>5.75</v>
+        <v>6</v>
       </c>
       <c r="I86" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="J86" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="K86" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="L86" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="M86" t="n">
-        <v>1.03</v>
+        <v>1.02</v>
       </c>
       <c r="N86" t="n">
         <v>15</v>
       </c>
       <c r="O86" t="n">
-        <v>1.2</v>
+        <v>1.15</v>
       </c>
       <c r="P86" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="Q86" t="n">
         <v>1.62</v>
       </c>
       <c r="R86" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="S86" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="T86" t="n">
-        <v>1.44</v>
+        <v>1.47</v>
       </c>
       <c r="U86" t="n">
         <v>1.3</v>
@@ -12756,10 +12764,10 @@
         <v>3.4</v>
       </c>
       <c r="W86" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X86" t="n">
-        <v>1.53</v>
+        <v>1.5</v>
       </c>
       <c r="Y86" t="n">
         <v>7</v>
@@ -12771,22 +12779,22 @@
         <v>10</v>
       </c>
       <c r="AB86" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AC86" t="n">
         <v>12</v>
       </c>
       <c r="AD86" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>13</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>12</v>
+      </c>
+      <c r="AG86" t="n">
         <v>34</v>
-      </c>
-      <c r="AE86" t="n">
-        <v>12</v>
-      </c>
-      <c r="AF86" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG86" t="n">
-        <v>29</v>
       </c>
       <c r="AH86" t="n">
         <v>101</v>
@@ -12795,34 +12803,34 @@
         <v>501</v>
       </c>
       <c r="AJ86" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AK86" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AL86" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AM86" t="n">
-        <v>201</v>
+        <v>251</v>
       </c>
       <c r="AN86" t="n">
+        <v>126</v>
+      </c>
+      <c r="AO86" t="n">
         <v>101</v>
       </c>
-      <c r="AO86" t="n">
-        <v>81</v>
-      </c>
       <c r="AP86" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="AQ86" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="AR86" t="n">
-        <v>1.26</v>
+        <v>1.25</v>
       </c>
       <c r="AS86" t="n">
-        <v>3.9</v>
+        <v>3.95</v>
       </c>
     </row>
     <row r="87">
@@ -12857,7 +12865,7 @@
         </is>
       </c>
       <c r="G87" t="n">
-        <v>2.38</v>
+        <v>2.37</v>
       </c>
       <c r="H87" t="n">
         <v>3</v>
@@ -12887,10 +12895,10 @@
         <v>2.25</v>
       </c>
       <c r="Q87" t="n">
-        <v>2.87</v>
+        <v>2.88</v>
       </c>
       <c r="R87" t="n">
-        <v>1.37</v>
+        <v>1.4</v>
       </c>
       <c r="S87" t="n">
         <v>6</v>
@@ -12908,7 +12916,7 @@
         <v>2.2</v>
       </c>
       <c r="X87" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="Y87" t="n">
         <v>5.5</v>
@@ -13024,13 +13032,13 @@
         <v>3.6</v>
       </c>
       <c r="M88" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N88" t="n">
         <v>11</v>
       </c>
       <c r="O88" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="P88" t="n">
         <v>3.5</v>
@@ -13045,7 +13053,7 @@
         <v>3.4</v>
       </c>
       <c r="T88" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="U88" t="n">
         <v>1.4</v>
@@ -13147,61 +13155,61 @@
         </is>
       </c>
       <c r="G89" t="n">
-        <v>1.5</v>
+        <v>1.48</v>
       </c>
       <c r="H89" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="I89" t="n">
         <v>6.25</v>
       </c>
       <c r="J89" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="K89" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="L89" t="n">
         <v>5.5</v>
       </c>
       <c r="M89" t="n">
-        <v>1.02</v>
+        <v>1.03</v>
       </c>
       <c r="N89" t="n">
         <v>17</v>
       </c>
       <c r="O89" t="n">
-        <v>1.13</v>
+        <v>1.14</v>
       </c>
       <c r="P89" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Q89" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R89" t="n">
         <v>2.4</v>
       </c>
       <c r="S89" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="T89" t="n">
-        <v>1.54</v>
+        <v>1.62</v>
       </c>
       <c r="U89" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="V89" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="W89" t="n">
-        <v>1.67</v>
+        <v>1.58</v>
       </c>
       <c r="X89" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y89" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="Z89" t="n">
         <v>8.5</v>
@@ -13219,10 +13227,10 @@
         <v>21</v>
       </c>
       <c r="AE89" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AF89" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AG89" t="n">
         <v>15</v>
@@ -13237,7 +13245,7 @@
         <v>21</v>
       </c>
       <c r="AK89" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL89" t="n">
         <v>19</v>
@@ -13252,10 +13260,10 @@
         <v>41</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.88</v>
+        <v>1.77</v>
       </c>
       <c r="AQ89" t="n">
-        <v>1.98</v>
+        <v>1.97</v>
       </c>
       <c r="AR89" t="inlineStr"/>
       <c r="AS89" t="inlineStr"/>
@@ -13991,7 +13999,7 @@
         <v>7</v>
       </c>
       <c r="I95" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="J95" t="n">
         <v>1.62</v>
@@ -14000,49 +14008,49 @@
         <v>2.75</v>
       </c>
       <c r="L95" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="M95" t="n">
         <v>1.03</v>
       </c>
       <c r="N95" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="O95" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="P95" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="Q95" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="R95" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="S95" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="T95" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="U95" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="V95" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="W95" t="n">
-        <v>2.1</v>
+        <v>2.25</v>
       </c>
       <c r="X95" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="Y95" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="Z95" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AA95" t="n">
         <v>10</v>
@@ -14054,10 +14062,10 @@
         <v>11</v>
       </c>
       <c r="AD95" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE95" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AF95" t="n">
         <v>13</v>
@@ -14069,7 +14077,7 @@
         <v>81</v>
       </c>
       <c r="AI95" t="n">
-        <v>900</v>
+        <v>1000</v>
       </c>
       <c r="AJ95" t="n">
         <v>23</v>
@@ -14084,16 +14092,16 @@
         <v>151</v>
       </c>
       <c r="AN95" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AO95" t="n">
         <v>67</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.8</v>
+        <v>1.93</v>
       </c>
       <c r="AQ95" t="n">
-        <v>2.05</v>
+        <v>1.93</v>
       </c>
       <c r="AR95" t="inlineStr"/>
       <c r="AS95" t="inlineStr"/>
@@ -14561,64 +14569,64 @@
         </is>
       </c>
       <c r="G99" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="H99" t="n">
-        <v>2.8</v>
+        <v>2.9</v>
       </c>
       <c r="I99" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="J99" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K99" t="n">
-        <v>1.83</v>
+        <v>1.95</v>
       </c>
       <c r="L99" t="n">
-        <v>3.6</v>
+        <v>3.2</v>
       </c>
       <c r="M99" t="n">
-        <v>1.07</v>
+        <v>1.1</v>
       </c>
       <c r="N99" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="O99" t="n">
-        <v>1.47</v>
+        <v>1.44</v>
       </c>
       <c r="P99" t="n">
-        <v>2.37</v>
+        <v>2.63</v>
       </c>
       <c r="Q99" t="n">
-        <v>2.7</v>
+        <v>2.4</v>
       </c>
       <c r="R99" t="n">
-        <v>1.44</v>
+        <v>1.53</v>
       </c>
       <c r="S99" t="n">
-        <v>5.5</v>
+        <v>4.5</v>
       </c>
       <c r="T99" t="n">
-        <v>1.08</v>
+        <v>1.18</v>
       </c>
       <c r="U99" t="n">
-        <v>1.62</v>
+        <v>1.53</v>
       </c>
       <c r="V99" t="n">
-        <v>2.2</v>
+        <v>2.38</v>
       </c>
       <c r="W99" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X99" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="Y99" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z99" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA99" t="n">
         <v>12</v>
@@ -14633,34 +14641,34 @@
         <v>41</v>
       </c>
       <c r="AE99" t="n">
-        <v>5.5</v>
+        <v>7</v>
       </c>
       <c r="AF99" t="n">
         <v>5.5</v>
       </c>
       <c r="AG99" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH99" t="n">
         <v>67</v>
       </c>
       <c r="AI99" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AJ99" t="n">
         <v>6.5</v>
       </c>
       <c r="AK99" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL99" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM99" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AN99" t="n">
-        <v>29</v>
+        <v>23</v>
       </c>
       <c r="AO99" t="n">
         <v>41</v>
@@ -14668,10 +14676,10 @@
       <c r="AP99" t="inlineStr"/>
       <c r="AQ99" t="inlineStr"/>
       <c r="AR99" t="n">
-        <v>2.1</v>
+        <v>1.83</v>
       </c>
       <c r="AS99" t="n">
-        <v>1.78</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="100">
@@ -15830,16 +15838,16 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="H108" t="n">
         <v>3.5</v>
       </c>
       <c r="I108" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="J108" t="n">
-        <v>4.75</v>
+        <v>4.5</v>
       </c>
       <c r="K108" t="n">
         <v>2.2</v>
@@ -15854,16 +15862,16 @@
         <v>11</v>
       </c>
       <c r="O108" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P108" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q108" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="R108" t="n">
         <v>1.95</v>
-      </c>
-      <c r="R108" t="n">
-        <v>1.9</v>
       </c>
       <c r="S108" t="n">
         <v>3.25</v>
@@ -15872,19 +15880,19 @@
         <v>1.33</v>
       </c>
       <c r="U108" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="V108" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="W108" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X108" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="Z108" t="n">
         <v>23</v>
@@ -15893,7 +15901,7 @@
         <v>15</v>
       </c>
       <c r="AB108" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AC108" t="n">
         <v>34</v>
@@ -15902,25 +15910,25 @@
         <v>41</v>
       </c>
       <c r="AE108" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF108" t="n">
         <v>6.5</v>
       </c>
       <c r="AG108" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH108" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI108" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ108" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK108" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AL108" t="n">
         <v>8.5</v>
@@ -15932,7 +15940,7 @@
         <v>15</v>
       </c>
       <c r="AO108" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP108" t="inlineStr"/>
       <c r="AQ108" t="inlineStr"/>
@@ -15971,64 +15979,64 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.5</v>
+        <v>2.35</v>
       </c>
       <c r="H109" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="I109" t="n">
-        <v>2.7</v>
+        <v>2.9</v>
       </c>
       <c r="J109" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="K109" t="n">
         <v>2.2</v>
       </c>
       <c r="L109" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M109" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N109" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O109" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P109" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q109" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="R109" t="n">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="S109" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T109" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U109" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="V109" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="W109" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="X109" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="Y109" t="n">
-        <v>9.5</v>
+        <v>8.5</v>
       </c>
       <c r="Z109" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA109" t="n">
         <v>9.5</v>
@@ -16043,7 +16051,7 @@
         <v>26</v>
       </c>
       <c r="AE109" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF109" t="n">
         <v>6.5</v>
@@ -16055,7 +16063,7 @@
         <v>41</v>
       </c>
       <c r="AI109" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ109" t="n">
         <v>10</v>
@@ -16064,16 +16072,16 @@
         <v>15</v>
       </c>
       <c r="AL109" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM109" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN109" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO109" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AP109" t="inlineStr"/>
       <c r="AQ109" t="inlineStr"/>
@@ -16112,22 +16120,22 @@
         </is>
       </c>
       <c r="G110" t="n">
-        <v>2.15</v>
+        <v>2.25</v>
       </c>
       <c r="H110" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I110" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="J110" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="K110" t="n">
         <v>2.1</v>
       </c>
       <c r="L110" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M110" t="n">
         <v>1.06</v>
@@ -16172,19 +16180,19 @@
         <v>10</v>
       </c>
       <c r="AA110" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AB110" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC110" t="n">
         <v>19</v>
-      </c>
-      <c r="AC110" t="n">
-        <v>17</v>
       </c>
       <c r="AD110" t="n">
         <v>29</v>
       </c>
       <c r="AE110" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AF110" t="n">
         <v>6.5</v>
@@ -16202,16 +16210,16 @@
         <v>9.5</v>
       </c>
       <c r="AK110" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AL110" t="n">
         <v>12</v>
       </c>
       <c r="AM110" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN110" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO110" t="n">
         <v>34</v>
@@ -16390,13 +16398,13 @@
         </is>
       </c>
       <c r="G112" t="n">
-        <v>2.38</v>
+        <v>2.3</v>
       </c>
       <c r="H112" t="n">
         <v>2.9</v>
       </c>
       <c r="I112" t="n">
-        <v>2.88</v>
+        <v>3</v>
       </c>
       <c r="J112" t="n">
         <v>3.4</v>
@@ -16405,7 +16413,7 @@
         <v>1.83</v>
       </c>
       <c r="L112" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="M112" t="n">
         <v>1.11</v>
@@ -16447,7 +16455,7 @@
         <v>5.5</v>
       </c>
       <c r="Z112" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AA112" t="n">
         <v>11</v>
@@ -16483,7 +16491,7 @@
         <v>13</v>
       </c>
       <c r="AL112" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM112" t="n">
         <v>34</v>
@@ -16540,7 +16548,7 @@
         <v>1.14</v>
       </c>
       <c r="J113" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="K113" t="n">
         <v>2.63</v>
@@ -16579,13 +16587,13 @@
         <v>3.25</v>
       </c>
       <c r="W113" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="X113" t="n">
-        <v>1.36</v>
+        <v>1.3</v>
       </c>
       <c r="Y113" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="Z113" t="n">
         <v>67</v>
@@ -16594,13 +16602,13 @@
         <v>41</v>
       </c>
       <c r="AB113" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AC113" t="n">
+        <v>151</v>
+      </c>
+      <c r="AD113" t="n">
         <v>126</v>
-      </c>
-      <c r="AD113" t="n">
-        <v>101</v>
       </c>
       <c r="AE113" t="n">
         <v>12</v>
@@ -16612,7 +16620,7 @@
         <v>41</v>
       </c>
       <c r="AH113" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AI113" t="n">
         <v>101</v>
@@ -16621,7 +16629,7 @@
         <v>6</v>
       </c>
       <c r="AK113" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="AL113" t="n">
         <v>12</v>
@@ -16630,10 +16638,10 @@
         <v>6</v>
       </c>
       <c r="AN113" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO113" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP113" t="inlineStr"/>
       <c r="AQ113" t="inlineStr"/>
@@ -16672,13 +16680,13 @@
         </is>
       </c>
       <c r="G114" t="n">
-        <v>1.57</v>
+        <v>1.6</v>
       </c>
       <c r="H114" t="n">
-        <v>3.4</v>
+        <v>3.3</v>
       </c>
       <c r="I114" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J114" t="n">
         <v>2.3</v>
@@ -16708,16 +16716,16 @@
         <v>1.57</v>
       </c>
       <c r="S114" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="T114" t="n">
-        <v>1.2</v>
+        <v>1.18</v>
       </c>
       <c r="U114" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="V114" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="W114" t="n">
         <v>2.38</v>
@@ -16735,7 +16743,7 @@
         <v>9</v>
       </c>
       <c r="AB114" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AC114" t="n">
         <v>17</v>
@@ -16759,13 +16767,13 @@
         <v>101</v>
       </c>
       <c r="AJ114" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AK114" t="n">
         <v>29</v>
       </c>
       <c r="AL114" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM114" t="n">
         <v>67</v>
@@ -16779,10 +16787,10 @@
       <c r="AP114" t="inlineStr"/>
       <c r="AQ114" t="inlineStr"/>
       <c r="AR114" t="n">
-        <v>1.75</v>
+        <v>1.78</v>
       </c>
       <c r="AS114" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
     </row>
     <row r="115">
@@ -16962,7 +16970,7 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.45</v>
+        <v>1.48</v>
       </c>
       <c r="H116" t="n">
         <v>4.2</v>
@@ -16971,7 +16979,7 @@
         <v>6.5</v>
       </c>
       <c r="J116" t="n">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="K116" t="n">
         <v>2.5</v>
@@ -16980,10 +16988,10 @@
         <v>6</v>
       </c>
       <c r="M116" t="n">
-        <v>1.04</v>
+        <v>1.03</v>
       </c>
       <c r="N116" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="O116" t="n">
         <v>1.2</v>
@@ -16992,10 +17000,10 @@
         <v>4.33</v>
       </c>
       <c r="Q116" t="n">
-        <v>1.67</v>
+        <v>1.65</v>
       </c>
       <c r="R116" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="S116" t="n">
         <v>2.63</v>
@@ -17004,28 +17012,28 @@
         <v>1.44</v>
       </c>
       <c r="U116" t="n">
-        <v>1.27</v>
+        <v>1.3</v>
       </c>
       <c r="V116" t="n">
         <v>3.4</v>
       </c>
       <c r="W116" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="X116" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="Y116" t="n">
         <v>8</v>
       </c>
       <c r="Z116" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AA116" t="n">
         <v>8.5</v>
       </c>
       <c r="AB116" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AC116" t="n">
         <v>12</v>
@@ -17037,10 +17045,10 @@
         <v>13</v>
       </c>
       <c r="AF116" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AG116" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH116" t="n">
         <v>51</v>
@@ -17055,7 +17063,7 @@
         <v>34</v>
       </c>
       <c r="AL116" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM116" t="n">
         <v>67</v>
@@ -17107,67 +17115,67 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.65</v>
+        <v>1.67</v>
       </c>
       <c r="H117" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="I117" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J117" t="n">
-        <v>2.37</v>
+        <v>2.3</v>
       </c>
       <c r="K117" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L117" t="n">
         <v>5.5</v>
       </c>
       <c r="M117" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N117" t="n">
+        <v>10</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="P117" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="R117" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="S117" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="U117" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V117" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W117" t="n">
+        <v>2</v>
+      </c>
+      <c r="X117" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AA117" t="n">
         <v>8.5</v>
-      </c>
-      <c r="O117" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P117" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>2.15</v>
-      </c>
-      <c r="R117" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="S117" t="n">
-        <v>4</v>
-      </c>
-      <c r="T117" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U117" t="n">
-        <v>1.41</v>
-      </c>
-      <c r="V117" t="n">
-        <v>2.62</v>
-      </c>
-      <c r="W117" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X117" t="n">
-        <v>1.63</v>
-      </c>
-      <c r="Y117" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z117" t="n">
-        <v>7</v>
-      </c>
-      <c r="AA117" t="n">
-        <v>9</v>
       </c>
       <c r="AB117" t="n">
         <v>13</v>
@@ -17176,22 +17184,22 @@
         <v>15</v>
       </c>
       <c r="AD117" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE117" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AF117" t="n">
         <v>7.5</v>
       </c>
       <c r="AG117" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH117" t="n">
         <v>67</v>
       </c>
       <c r="AI117" t="n">
-        <v>1250</v>
+        <v>1000</v>
       </c>
       <c r="AJ117" t="n">
         <v>11</v>
@@ -17200,7 +17208,7 @@
         <v>23</v>
       </c>
       <c r="AL117" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AM117" t="n">
         <v>51</v>
@@ -17209,7 +17217,7 @@
         <v>41</v>
       </c>
       <c r="AO117" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AP117" t="inlineStr"/>
       <c r="AQ117" t="inlineStr"/>
@@ -17248,28 +17256,28 @@
         </is>
       </c>
       <c r="G118" t="n">
-        <v>1.7</v>
+        <v>1.69</v>
       </c>
       <c r="H118" t="n">
         <v>3.4</v>
       </c>
       <c r="I118" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="J118" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="K118" t="n">
         <v>2</v>
       </c>
       <c r="L118" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M118" t="n">
         <v>1.08</v>
       </c>
       <c r="N118" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="O118" t="n">
         <v>1.44</v>
@@ -17284,22 +17292,22 @@
         <v>1.57</v>
       </c>
       <c r="S118" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="T118" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="U118" t="n">
         <v>1.5</v>
       </c>
       <c r="V118" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="W118" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X118" t="n">
-        <v>1.54</v>
+        <v>1.58</v>
       </c>
       <c r="Y118" t="n">
         <v>5.5</v>
@@ -17317,10 +17325,10 @@
         <v>17</v>
       </c>
       <c r="AD118" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE118" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF118" t="n">
         <v>7</v>
@@ -17355,10 +17363,10 @@
       <c r="AP118" t="inlineStr"/>
       <c r="AQ118" t="inlineStr"/>
       <c r="AR118" t="n">
-        <v>1.78</v>
+        <v>1.75</v>
       </c>
       <c r="AS118" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="119">
@@ -17393,22 +17401,22 @@
         </is>
       </c>
       <c r="G119" t="n">
-        <v>1.42</v>
+        <v>1.33</v>
       </c>
       <c r="H119" t="n">
-        <v>4.2</v>
+        <v>4.75</v>
       </c>
       <c r="I119" t="n">
-        <v>7.5</v>
+        <v>9</v>
       </c>
       <c r="J119" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="K119" t="n">
         <v>2.5</v>
       </c>
       <c r="L119" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="M119" t="n">
         <v>1.03</v>
@@ -17441,7 +17449,7 @@
         <v>3.4</v>
       </c>
       <c r="W119" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="X119" t="n">
         <v>1.8</v>
@@ -17453,13 +17461,13 @@
         <v>7</v>
       </c>
       <c r="AA119" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB119" t="n">
         <v>8.5</v>
       </c>
-      <c r="AB119" t="n">
-        <v>9.5</v>
-      </c>
       <c r="AC119" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AD119" t="n">
         <v>26</v>
@@ -17468,16 +17476,16 @@
         <v>13</v>
       </c>
       <c r="AF119" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AG119" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AH119" t="n">
         <v>51</v>
       </c>
       <c r="AI119" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ119" t="n">
         <v>21</v>
@@ -17489,7 +17497,7 @@
         <v>23</v>
       </c>
       <c r="AM119" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AN119" t="n">
         <v>51</v>
@@ -17498,10 +17506,10 @@
         <v>51</v>
       </c>
       <c r="AP119" t="n">
-        <v>2.05</v>
+        <v>2.03</v>
       </c>
       <c r="AQ119" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="AR119" t="n">
         <v>1.3</v>
@@ -17542,13 +17550,13 @@
         </is>
       </c>
       <c r="G120" t="n">
-        <v>2.88</v>
+        <v>2.82</v>
       </c>
       <c r="H120" t="n">
         <v>3.1</v>
       </c>
       <c r="I120" t="n">
-        <v>2.55</v>
+        <v>2.5</v>
       </c>
       <c r="J120" t="n">
         <v>3.6</v>
@@ -17691,22 +17699,22 @@
         </is>
       </c>
       <c r="G121" t="n">
-        <v>1.42</v>
+        <v>1.35</v>
       </c>
       <c r="H121" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I121" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="J121" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="K121" t="n">
-        <v>2.3</v>
+        <v>2.4</v>
       </c>
       <c r="L121" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M121" t="n">
         <v>1.04</v>
@@ -17721,16 +17729,16 @@
         <v>3.75</v>
       </c>
       <c r="Q121" t="n">
-        <v>1.85</v>
+        <v>1.75</v>
       </c>
       <c r="R121" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S121" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="T121" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="U121" t="n">
         <v>1.36</v>
@@ -17751,25 +17759,25 @@
         <v>6.5</v>
       </c>
       <c r="AA121" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB121" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AC121" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AD121" t="n">
         <v>29</v>
       </c>
       <c r="AE121" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF121" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG121" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH121" t="n">
         <v>67</v>
@@ -17778,10 +17786,10 @@
         <v>351</v>
       </c>
       <c r="AJ121" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AK121" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AL121" t="n">
         <v>21</v>
@@ -17796,16 +17804,16 @@
         <v>51</v>
       </c>
       <c r="AP121" t="n">
-        <v>2.38</v>
+        <v>2.32</v>
       </c>
       <c r="AQ121" t="n">
-        <v>1.59</v>
+        <v>1.61</v>
       </c>
       <c r="AR121" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AS121" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
     </row>
     <row r="122">
@@ -18126,13 +18134,13 @@
         </is>
       </c>
       <c r="G124" t="n">
-        <v>1.7</v>
+        <v>1.75</v>
       </c>
       <c r="H124" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I124" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="J124" t="n">
         <v>2.3</v>
@@ -18144,28 +18152,28 @@
         <v>4.5</v>
       </c>
       <c r="M124" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N124" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O124" t="n">
-        <v>1.18</v>
+        <v>1.2</v>
       </c>
       <c r="P124" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="Q124" t="n">
-        <v>1.65</v>
+        <v>1.7</v>
       </c>
       <c r="R124" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="S124" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="T124" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="U124" t="n">
         <v>1.3</v>
@@ -18174,7 +18182,7 @@
         <v>3.4</v>
       </c>
       <c r="W124" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X124" t="n">
         <v>2.2</v>
@@ -18201,7 +18209,7 @@
         <v>15</v>
       </c>
       <c r="AF124" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG124" t="n">
         <v>13</v>
@@ -18213,7 +18221,7 @@
         <v>151</v>
       </c>
       <c r="AJ124" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK124" t="n">
         <v>26</v>
@@ -18222,7 +18230,7 @@
         <v>15</v>
       </c>
       <c r="AM124" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AN124" t="n">
         <v>34</v>
@@ -18553,22 +18561,22 @@
         </is>
       </c>
       <c r="G127" t="n">
-        <v>3.8</v>
+        <v>3.6</v>
       </c>
       <c r="H127" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I127" t="n">
-        <v>1.9</v>
+        <v>1.95</v>
       </c>
       <c r="J127" t="n">
-        <v>4.5</v>
+        <v>4.33</v>
       </c>
       <c r="K127" t="n">
         <v>2.2</v>
       </c>
       <c r="L127" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="M127" t="n">
         <v>1.05</v>
@@ -18589,10 +18597,10 @@
         <v>1.9</v>
       </c>
       <c r="S127" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="T127" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U127" t="n">
         <v>1.4</v>
@@ -18610,7 +18618,7 @@
         <v>11</v>
       </c>
       <c r="Z127" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AA127" t="n">
         <v>13</v>
@@ -18625,7 +18633,7 @@
         <v>34</v>
       </c>
       <c r="AE127" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AF127" t="n">
         <v>7</v>
@@ -18646,10 +18654,10 @@
         <v>9</v>
       </c>
       <c r="AL127" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AM127" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AN127" t="n">
         <v>15</v>
@@ -18694,16 +18702,16 @@
         </is>
       </c>
       <c r="G128" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H128" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="I128" t="n">
         <v>3.3</v>
       </c>
-      <c r="I128" t="n">
-        <v>3.25</v>
-      </c>
       <c r="J128" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K128" t="n">
         <v>2.05</v>
@@ -18712,40 +18720,40 @@
         <v>4</v>
       </c>
       <c r="M128" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N128" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O128" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P128" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q128" t="n">
-        <v>2.15</v>
+        <v>2.08</v>
       </c>
       <c r="R128" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="S128" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="T128" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="U128" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="V128" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="W128" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="X128" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="Y128" t="n">
         <v>7</v>
@@ -18754,37 +18762,37 @@
         <v>10</v>
       </c>
       <c r="AA128" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB128" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC128" t="n">
         <v>19</v>
       </c>
       <c r="AD128" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE128" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF128" t="n">
         <v>6.5</v>
       </c>
       <c r="AG128" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH128" t="n">
         <v>51</v>
       </c>
       <c r="AI128" t="n">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="AJ128" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK128" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL128" t="n">
         <v>12</v>
@@ -18835,22 +18843,22 @@
         </is>
       </c>
       <c r="G129" t="n">
-        <v>6.25</v>
+        <v>5.25</v>
       </c>
       <c r="H129" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="I129" t="n">
-        <v>1.48</v>
+        <v>1.57</v>
       </c>
       <c r="J129" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="K129" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L129" t="n">
         <v>2.25</v>
-      </c>
-      <c r="L129" t="n">
-        <v>2.05</v>
       </c>
       <c r="M129" t="n">
         <v>1.05</v>
@@ -18859,64 +18867,64 @@
         <v>11</v>
       </c>
       <c r="O129" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P129" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q129" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="R129" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="S129" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="T129" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="U129" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V129" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W129" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X129" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y129" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="Z129" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AA129" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AB129" t="n">
-        <v>81</v>
+        <v>51</v>
       </c>
       <c r="AC129" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AD129" t="n">
         <v>51</v>
       </c>
       <c r="AE129" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF129" t="n">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="AG129" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AH129" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI129" t="n">
         <v>501</v>
@@ -18925,16 +18933,16 @@
         <v>6</v>
       </c>
       <c r="AK129" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AL129" t="n">
         <v>8.5</v>
       </c>
       <c r="AM129" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AN129" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AO129" t="n">
         <v>34</v>
@@ -18976,22 +18984,22 @@
         </is>
       </c>
       <c r="G130" t="n">
-        <v>2.35</v>
+        <v>2.3</v>
       </c>
       <c r="H130" t="n">
-        <v>3.25</v>
+        <v>3.3</v>
       </c>
       <c r="I130" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="J130" t="n">
         <v>3</v>
-      </c>
-      <c r="J130" t="n">
-        <v>3.1</v>
       </c>
       <c r="K130" t="n">
         <v>2.1</v>
       </c>
       <c r="L130" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M130" t="n">
         <v>1.06</v>
@@ -19000,10 +19008,10 @@
         <v>10</v>
       </c>
       <c r="O130" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P130" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q130" t="n">
         <v>2.05</v>
@@ -19012,10 +19020,10 @@
         <v>1.75</v>
       </c>
       <c r="S130" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T130" t="n">
-        <v>1.25</v>
+        <v>1.29</v>
       </c>
       <c r="U130" t="n">
         <v>1.44</v>
@@ -19039,7 +19047,7 @@
         <v>9.5</v>
       </c>
       <c r="AB130" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AC130" t="n">
         <v>19</v>
@@ -19048,10 +19056,10 @@
         <v>29</v>
       </c>
       <c r="AE130" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF130" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG130" t="n">
         <v>15</v>
@@ -19063,7 +19071,7 @@
         <v>251</v>
       </c>
       <c r="AJ130" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AK130" t="n">
         <v>15</v>
@@ -19544,28 +19552,28 @@
         </is>
       </c>
       <c r="G134" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="H134" t="n">
         <v>3.25</v>
       </c>
       <c r="I134" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="J134" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K134" t="n">
         <v>2.1</v>
       </c>
       <c r="L134" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="M134" t="n">
         <v>1.06</v>
       </c>
       <c r="N134" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O134" t="n">
         <v>1.3</v>
@@ -19580,10 +19588,10 @@
         <v>1.83</v>
       </c>
       <c r="S134" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="T134" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="U134" t="n">
         <v>1.4</v>
@@ -19592,10 +19600,10 @@
         <v>2.75</v>
       </c>
       <c r="W134" t="n">
-        <v>1.77</v>
+        <v>1.73</v>
       </c>
       <c r="X134" t="n">
-        <v>1.87</v>
+        <v>2</v>
       </c>
       <c r="Y134" t="n">
         <v>8</v>
@@ -19616,28 +19624,28 @@
         <v>29</v>
       </c>
       <c r="AE134" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF134" t="n">
         <v>6.5</v>
       </c>
       <c r="AG134" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH134" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI134" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ134" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AK134" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AL134" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM134" t="n">
         <v>34</v>
@@ -19685,19 +19693,19 @@
         </is>
       </c>
       <c r="G135" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="H135" t="n">
         <v>3</v>
       </c>
       <c r="I135" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="J135" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K135" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L135" t="n">
         <v>3.75</v>
@@ -19745,10 +19753,10 @@
         <v>11</v>
       </c>
       <c r="AA135" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB135" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC135" t="n">
         <v>21</v>
@@ -19769,10 +19777,10 @@
         <v>51</v>
       </c>
       <c r="AI135" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ135" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AK135" t="n">
         <v>15</v>
@@ -19784,7 +19792,7 @@
         <v>34</v>
       </c>
       <c r="AN135" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AO135" t="n">
         <v>41</v>
@@ -20394,109 +20402,109 @@
         </is>
       </c>
       <c r="G140" t="n">
-        <v>1.22</v>
+        <v>1.33</v>
       </c>
       <c r="H140" t="n">
-        <v>5</v>
+        <v>4.35</v>
       </c>
       <c r="I140" t="n">
-        <v>13</v>
+        <v>8.5</v>
       </c>
       <c r="J140" t="n">
-        <v>1.62</v>
+        <v>1.78</v>
       </c>
       <c r="K140" t="n">
-        <v>2.55</v>
+        <v>2.45</v>
       </c>
       <c r="L140" t="n">
-        <v>9.75</v>
+        <v>7.2</v>
       </c>
       <c r="M140" t="n">
         <v>1.03</v>
       </c>
       <c r="N140" t="n">
+        <v>9</v>
+      </c>
+      <c r="O140" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="P140" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="Q140" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="R140" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="S140" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="T140" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="U140" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="V140" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="W140" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="X140" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="Y140" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="Z140" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AA140" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB140" t="n">
         <v>9.25</v>
-      </c>
-      <c r="O140" t="n">
-        <v>1.16</v>
-      </c>
-      <c r="P140" t="n">
-        <v>4.65</v>
-      </c>
-      <c r="Q140" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="R140" t="n">
-        <v>2.42</v>
-      </c>
-      <c r="S140" t="n">
-        <v>2.18</v>
-      </c>
-      <c r="T140" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="U140" t="n">
-        <v>1.28</v>
-      </c>
-      <c r="V140" t="n">
-        <v>3.35</v>
-      </c>
-      <c r="W140" t="n">
-        <v>1.95</v>
-      </c>
-      <c r="X140" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="Y140" t="n">
-        <v>7.9</v>
-      </c>
-      <c r="Z140" t="n">
-        <v>6.4</v>
-      </c>
-      <c r="AA140" t="n">
-        <v>8.75</v>
-      </c>
-      <c r="AB140" t="n">
-        <v>7.5</v>
       </c>
       <c r="AC140" t="n">
         <v>10.25</v>
       </c>
       <c r="AD140" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE140" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF140" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="AG140" t="n">
+        <v>16.5</v>
+      </c>
+      <c r="AH140" t="n">
+        <v>60</v>
+      </c>
+      <c r="AI140" t="n">
+        <v>400</v>
+      </c>
+      <c r="AJ140" t="n">
+        <v>29</v>
+      </c>
+      <c r="AK140" t="n">
+        <v>75</v>
+      </c>
+      <c r="AL140" t="n">
         <v>26</v>
       </c>
-      <c r="AE140" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="AF140" t="n">
-        <v>11</v>
-      </c>
-      <c r="AG140" t="n">
-        <v>22</v>
-      </c>
-      <c r="AH140" t="n">
-        <v>90</v>
-      </c>
-      <c r="AI140" t="n">
-        <v>600</v>
-      </c>
-      <c r="AJ140" t="n">
-        <v>40</v>
-      </c>
-      <c r="AK140" t="n">
-        <v>150</v>
-      </c>
-      <c r="AL140" t="n">
-        <v>40</v>
-      </c>
       <c r="AM140" t="n">
-        <v>600</v>
+        <v>250</v>
       </c>
       <c r="AN140" t="n">
-        <v>200</v>
+        <v>100</v>
       </c>
       <c r="AO140" t="n">
-        <v>110</v>
+        <v>65</v>
       </c>
       <c r="AP140" t="inlineStr"/>
       <c r="AQ140" t="inlineStr"/>
@@ -21099,52 +21107,52 @@
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.38</v>
+        <v>1.35</v>
       </c>
       <c r="H145" t="n">
-        <v>4.4</v>
+        <v>4.5</v>
       </c>
       <c r="I145" t="n">
-        <v>7.6</v>
+        <v>8.5</v>
       </c>
       <c r="J145" t="n">
-        <v>1.9</v>
+        <v>1.85</v>
       </c>
       <c r="K145" t="n">
-        <v>2.27</v>
+        <v>2.3</v>
       </c>
       <c r="L145" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="M145" t="n">
         <v>1.05</v>
       </c>
       <c r="N145" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="O145" t="n">
-        <v>1.27</v>
+        <v>1.26</v>
       </c>
       <c r="P145" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q145" t="n">
-        <v>1.8</v>
+        <v>1.78</v>
       </c>
       <c r="R145" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="S145" t="n">
-        <v>2.92</v>
+        <v>2.82</v>
       </c>
       <c r="T145" t="n">
-        <v>1.35</v>
+        <v>1.38</v>
       </c>
       <c r="U145" t="n">
-        <v>1.4</v>
+        <v>1.39</v>
       </c>
       <c r="V145" t="n">
-        <v>2.75</v>
+        <v>2.8</v>
       </c>
       <c r="W145" t="n">
         <v>2.12</v>
@@ -21156,25 +21164,25 @@
         <v>6.2</v>
       </c>
       <c r="Z145" t="n">
-        <v>6</v>
+        <v>5.9</v>
       </c>
       <c r="AA145" t="n">
         <v>8.5</v>
       </c>
       <c r="AB145" t="n">
-        <v>8.5</v>
+        <v>8.25</v>
       </c>
       <c r="AC145" t="n">
-        <v>12</v>
+        <v>11.75</v>
       </c>
       <c r="AD145" t="n">
         <v>32</v>
       </c>
       <c r="AE145" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="AF145" t="n">
-        <v>8.75</v>
+        <v>9</v>
       </c>
       <c r="AG145" t="n">
         <v>23</v>
@@ -21186,22 +21194,22 @@
         <v>101</v>
       </c>
       <c r="AJ145" t="n">
-        <v>17.5</v>
+        <v>19.5</v>
       </c>
       <c r="AK145" t="n">
-        <v>50</v>
+        <v>60</v>
       </c>
       <c r="AL145" t="n">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="AM145" t="n">
-        <v>200</v>
+        <v>250</v>
       </c>
       <c r="AN145" t="n">
+        <v>110</v>
+      </c>
+      <c r="AO145" t="n">
         <v>100</v>
-      </c>
-      <c r="AO145" t="n">
-        <v>90</v>
       </c>
       <c r="AP145" t="inlineStr"/>
       <c r="AQ145" t="inlineStr"/>
@@ -21804,22 +21812,22 @@
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.7</v>
+        <v>2.6</v>
       </c>
       <c r="H150" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I150" t="n">
-        <v>2.7</v>
+        <v>2.8</v>
       </c>
       <c r="J150" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="K150" t="n">
         <v>2</v>
       </c>
       <c r="L150" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="M150" t="n">
         <v>1.08</v>
@@ -21837,7 +21845,7 @@
         <v>2.25</v>
       </c>
       <c r="R150" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="S150" t="n">
         <v>4</v>
@@ -21864,7 +21872,7 @@
         <v>12</v>
       </c>
       <c r="AA150" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB150" t="n">
         <v>26</v>
@@ -21873,10 +21881,10 @@
         <v>23</v>
       </c>
       <c r="AD150" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AE150" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AF150" t="n">
         <v>6</v>
@@ -21894,13 +21902,13 @@
         <v>7.5</v>
       </c>
       <c r="AK150" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AL150" t="n">
         <v>11</v>
       </c>
       <c r="AM150" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AN150" t="n">
         <v>23</v>
@@ -21955,13 +21963,13 @@
         <v>2.9</v>
       </c>
       <c r="I151" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="J151" t="n">
         <v>3.25</v>
       </c>
       <c r="K151" t="n">
-        <v>1.92</v>
+        <v>1.95</v>
       </c>
       <c r="L151" t="n">
         <v>3.75</v>
@@ -21982,7 +21990,7 @@
         <v>2.4</v>
       </c>
       <c r="R151" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="S151" t="n">
         <v>4.5</v>
@@ -21997,10 +22005,10 @@
         <v>2.38</v>
       </c>
       <c r="W151" t="n">
-        <v>1.91</v>
+        <v>2</v>
       </c>
       <c r="X151" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y151" t="n">
         <v>7</v>
@@ -22015,13 +22023,13 @@
         <v>23</v>
       </c>
       <c r="AC151" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AD151" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE151" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AF151" t="n">
         <v>5.5</v>
@@ -22094,19 +22102,19 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="H152" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I152" t="n">
         <v>4</v>
       </c>
       <c r="J152" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K152" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="L152" t="n">
         <v>4.75</v>
@@ -22118,37 +22126,37 @@
         <v>6</v>
       </c>
       <c r="O152" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P152" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q152" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R152" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S152" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U152" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V152" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W152" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="X152" t="n">
         <v>1.57</v>
       </c>
-      <c r="P152" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Q152" t="n">
-        <v>2.87</v>
-      </c>
-      <c r="R152" t="n">
-        <v>1.37</v>
-      </c>
-      <c r="S152" t="n">
-        <v>6</v>
-      </c>
-      <c r="T152" t="n">
-        <v>1.13</v>
-      </c>
-      <c r="U152" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V152" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="W152" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="X152" t="n">
-        <v>1.53</v>
-      </c>
       <c r="Y152" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="Z152" t="n">
         <v>8.5</v>
@@ -22160,13 +22168,13 @@
         <v>19</v>
       </c>
       <c r="AC152" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD152" t="n">
         <v>41</v>
       </c>
       <c r="AE152" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF152" t="n">
         <v>6</v>
@@ -22181,10 +22189,10 @@
         <v>101</v>
       </c>
       <c r="AJ152" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AK152" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL152" t="n">
         <v>15</v>
@@ -22201,10 +22209,10 @@
       <c r="AP152" t="inlineStr"/>
       <c r="AQ152" t="inlineStr"/>
       <c r="AR152" t="n">
-        <v>2.1</v>
+        <v>2.03</v>
       </c>
       <c r="AS152" t="n">
-        <v>1.78</v>
+        <v>1.83</v>
       </c>
     </row>
     <row r="153">
@@ -22239,16 +22247,16 @@
         </is>
       </c>
       <c r="G153" t="n">
-        <v>1.73</v>
+        <v>1.7</v>
       </c>
       <c r="H153" t="n">
         <v>3.5</v>
       </c>
       <c r="I153" t="n">
-        <v>5</v>
+        <v>5.25</v>
       </c>
       <c r="J153" t="n">
-        <v>2.37</v>
+        <v>2.38</v>
       </c>
       <c r="K153" t="n">
         <v>2.1</v>
@@ -22260,7 +22268,7 @@
         <v>1.07</v>
       </c>
       <c r="N153" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="O153" t="n">
         <v>1.36</v>
@@ -22290,13 +22298,13 @@
         <v>2</v>
       </c>
       <c r="X153" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Y153" t="n">
         <v>6</v>
       </c>
       <c r="Z153" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA153" t="n">
         <v>8.5</v>
@@ -22329,7 +22337,7 @@
         <v>12</v>
       </c>
       <c r="AK153" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AL153" t="n">
         <v>17</v>
@@ -22525,13 +22533,13 @@
         </is>
       </c>
       <c r="G155" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="H155" t="n">
-        <v>3.75</v>
+        <v>3.7</v>
       </c>
       <c r="I155" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="J155" t="n">
         <v>2.6</v>
@@ -22540,7 +22548,7 @@
         <v>2.3</v>
       </c>
       <c r="L155" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="M155" t="n">
         <v>1.04</v>
@@ -22573,7 +22581,7 @@
         <v>3.25</v>
       </c>
       <c r="W155" t="n">
-        <v>1.58</v>
+        <v>1.62</v>
       </c>
       <c r="X155" t="n">
         <v>2.2</v>
@@ -22582,13 +22590,13 @@
         <v>9</v>
       </c>
       <c r="Z155" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA155" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AB155" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC155" t="n">
         <v>15</v>
@@ -22600,7 +22608,7 @@
         <v>13</v>
       </c>
       <c r="AF155" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG155" t="n">
         <v>13</v>
@@ -22676,7 +22684,7 @@
         <v>3.6</v>
       </c>
       <c r="I156" t="n">
-        <v>2.15</v>
+        <v>2.2</v>
       </c>
       <c r="J156" t="n">
         <v>3.75</v>
@@ -22688,22 +22696,22 @@
         <v>2.88</v>
       </c>
       <c r="M156" t="n">
-        <v>1.05</v>
+        <v>1.04</v>
       </c>
       <c r="N156" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="O156" t="n">
-        <v>1.29</v>
+        <v>1.25</v>
       </c>
       <c r="P156" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q156" t="n">
-        <v>1.93</v>
+        <v>1.88</v>
       </c>
       <c r="R156" t="n">
-        <v>1.93</v>
+        <v>1.98</v>
       </c>
       <c r="S156" t="n">
         <v>3.25</v>
@@ -23234,22 +23242,22 @@
         </is>
       </c>
       <c r="G160" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="H160" t="n">
         <v>5.25</v>
       </c>
       <c r="I160" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J160" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="K160" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="L160" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M160" t="n">
         <v>1.01</v>
@@ -23282,16 +23290,16 @@
         <v>4.33</v>
       </c>
       <c r="W160" t="n">
-        <v>1.54</v>
+        <v>1.53</v>
       </c>
       <c r="X160" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="Y160" t="n">
         <v>12</v>
       </c>
       <c r="Z160" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AA160" t="n">
         <v>9</v>
@@ -23303,7 +23311,7 @@
         <v>10</v>
       </c>
       <c r="AD160" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AE160" t="n">
         <v>23</v>
@@ -23318,7 +23326,7 @@
         <v>41</v>
       </c>
       <c r="AI160" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AJ160" t="n">
         <v>26</v>
@@ -23330,13 +23338,13 @@
         <v>21</v>
       </c>
       <c r="AM160" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN160" t="n">
         <v>41</v>
       </c>
       <c r="AO160" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP160" t="inlineStr"/>
       <c r="AQ160" t="inlineStr"/>
@@ -23802,28 +23810,28 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>3</v>
+        <v>2.8</v>
       </c>
       <c r="H164" t="n">
         <v>3</v>
       </c>
       <c r="I164" t="n">
-        <v>2.5</v>
+        <v>2.7</v>
       </c>
       <c r="J164" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="K164" t="n">
         <v>1.95</v>
       </c>
       <c r="L164" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="M164" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N164" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O164" t="n">
         <v>1.44</v>
@@ -23832,10 +23840,10 @@
         <v>2.63</v>
       </c>
       <c r="Q164" t="n">
-        <v>2.35</v>
+        <v>2.4</v>
       </c>
       <c r="R164" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="S164" t="n">
         <v>4.5</v>
@@ -23853,16 +23861,16 @@
         <v>2</v>
       </c>
       <c r="X164" t="n">
-        <v>1.69</v>
+        <v>1.73</v>
       </c>
       <c r="Y164" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z164" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AA164" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AB164" t="n">
         <v>29</v>
@@ -23883,7 +23891,7 @@
         <v>17</v>
       </c>
       <c r="AH164" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AI164" t="n">
         <v>351</v>
@@ -23892,16 +23900,16 @@
         <v>7</v>
       </c>
       <c r="AK164" t="n">
+        <v>12</v>
+      </c>
+      <c r="AL164" t="n">
         <v>11</v>
       </c>
-      <c r="AL164" t="n">
-        <v>10</v>
-      </c>
       <c r="AM164" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AN164" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AO164" t="n">
         <v>41</v>
@@ -23909,10 +23917,10 @@
       <c r="AP164" t="inlineStr"/>
       <c r="AQ164" t="inlineStr"/>
       <c r="AR164" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS164" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
     </row>
     <row r="165">
@@ -23947,22 +23955,22 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="H165" t="n">
         <v>4.5</v>
       </c>
       <c r="I165" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="J165" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="K165" t="n">
-        <v>2.37</v>
+        <v>2.4</v>
       </c>
       <c r="L165" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="M165" t="n">
         <v>1.04</v>
@@ -23995,31 +24003,31 @@
         <v>3</v>
       </c>
       <c r="W165" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="X165" t="n">
-        <v>1.57</v>
+        <v>1.62</v>
       </c>
       <c r="Y165" t="n">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="Z165" t="n">
         <v>41</v>
       </c>
       <c r="AA165" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AB165" t="n">
         <v>101</v>
       </c>
       <c r="AC165" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AD165" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AE165" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF165" t="n">
         <v>9</v>
@@ -24028,28 +24036,28 @@
         <v>23</v>
       </c>
       <c r="AH165" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI165" t="n">
         <v>101</v>
       </c>
       <c r="AJ165" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK165" t="n">
         <v>6</v>
       </c>
       <c r="AL165" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AM165" t="n">
         <v>8</v>
       </c>
       <c r="AN165" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AO165" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AP165" t="inlineStr"/>
       <c r="AQ165" t="inlineStr"/>
@@ -24100,7 +24108,7 @@
         <v>3.25</v>
       </c>
       <c r="K166" t="n">
-        <v>1.87</v>
+        <v>1.91</v>
       </c>
       <c r="L166" t="n">
         <v>4</v>
@@ -24233,19 +24241,19 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="H167" t="n">
         <v>2.9</v>
       </c>
       <c r="I167" t="n">
-        <v>3.8</v>
+        <v>3.9</v>
       </c>
       <c r="J167" t="n">
-        <v>3</v>
+        <v>2.88</v>
       </c>
       <c r="K167" t="n">
-        <v>1.8</v>
+        <v>1.83</v>
       </c>
       <c r="L167" t="n">
         <v>5</v>
@@ -24293,10 +24301,10 @@
         <v>8</v>
       </c>
       <c r="AA167" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AB167" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AC167" t="n">
         <v>23</v>
@@ -24323,13 +24331,13 @@
         <v>7.5</v>
       </c>
       <c r="AK167" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL167" t="n">
         <v>15</v>
       </c>
       <c r="AM167" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN167" t="n">
         <v>41</v>
@@ -24515,13 +24523,13 @@
         </is>
       </c>
       <c r="G169" t="n">
-        <v>2.35</v>
+        <v>2.37</v>
       </c>
       <c r="H169" t="n">
-        <v>3.05</v>
+        <v>3</v>
       </c>
       <c r="I169" t="n">
-        <v>3</v>
+        <v>2.95</v>
       </c>
       <c r="J169" t="n">
         <v>3</v>
@@ -24530,7 +24538,7 @@
         <v>1.98</v>
       </c>
       <c r="L169" t="n">
-        <v>3.55</v>
+        <v>3.6</v>
       </c>
       <c r="M169" t="inlineStr"/>
       <c r="N169" t="inlineStr"/>
@@ -24538,13 +24546,13 @@
         <v>1.4</v>
       </c>
       <c r="P169" t="n">
-        <v>2.52</v>
+        <v>2.5</v>
       </c>
       <c r="Q169" t="n">
-        <v>2.15</v>
+        <v>2.18</v>
       </c>
       <c r="R169" t="n">
-        <v>1.55</v>
+        <v>1.53</v>
       </c>
       <c r="S169" t="n">
         <v>3.65</v>
@@ -24565,16 +24573,16 @@
         <v>1.72</v>
       </c>
       <c r="Y169" t="n">
-        <v>6.5</v>
+        <v>6.7</v>
       </c>
       <c r="Z169" t="n">
-        <v>10.5</v>
+        <v>10.75</v>
       </c>
       <c r="AA169" t="n">
         <v>9.5</v>
       </c>
       <c r="AB169" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AC169" t="n">
         <v>22</v>
@@ -24583,7 +24591,7 @@
         <v>37</v>
       </c>
       <c r="AE169" t="n">
-        <v>7.5</v>
+        <v>7.4</v>
       </c>
       <c r="AF169" t="n">
         <v>5.9</v>
@@ -24598,10 +24606,10 @@
         <v>900</v>
       </c>
       <c r="AJ169" t="n">
-        <v>7.9</v>
+        <v>7.6</v>
       </c>
       <c r="AK169" t="n">
-        <v>14.5</v>
+        <v>14</v>
       </c>
       <c r="AL169" t="n">
         <v>11</v>
@@ -24610,10 +24618,10 @@
         <v>37</v>
       </c>
       <c r="AN169" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AO169" t="n">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="AP169" t="inlineStr"/>
       <c r="AQ169" t="inlineStr"/>

--- a/Jogos_da_Semana_FlashScore_2025-02-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-16.xlsx
@@ -1542,22 +1542,22 @@
         </is>
       </c>
       <c r="G8" t="n">
-        <v>2.88</v>
+        <v>3.1</v>
       </c>
       <c r="H8" t="n">
         <v>3.1</v>
       </c>
       <c r="I8" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="J8" t="n">
-        <v>3.6</v>
+        <v>3.75</v>
       </c>
       <c r="K8" t="n">
         <v>2</v>
       </c>
       <c r="L8" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M8" t="n">
         <v>1.08</v>
@@ -1590,31 +1590,31 @@
         <v>2.5</v>
       </c>
       <c r="W8" t="n">
-        <v>1.91</v>
+        <v>1.95</v>
       </c>
       <c r="X8" t="n">
-        <v>1.91</v>
+        <v>1.8</v>
       </c>
       <c r="Y8" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="Z8" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AA8" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB8" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AC8" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD8" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE8" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AF8" t="n">
         <v>6</v>
@@ -1626,22 +1626,22 @@
         <v>51</v>
       </c>
       <c r="AI8" t="n">
-        <v>301</v>
+        <v>351</v>
       </c>
       <c r="AJ8" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AK8" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL8" t="n">
         <v>10</v>
       </c>
       <c r="AM8" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN8" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AO8" t="n">
         <v>34</v>
@@ -2687,7 +2687,7 @@
         <v>2.1</v>
       </c>
       <c r="J16" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="K16" t="n">
         <v>2.1</v>
@@ -2696,34 +2696,34 @@
         <v>2.75</v>
       </c>
       <c r="M16" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="O16" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P16" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q16" t="n">
-        <v>2.1</v>
+        <v>2.04</v>
       </c>
       <c r="R16" t="n">
-        <v>1.73</v>
+        <v>1.86</v>
       </c>
       <c r="S16" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="T16" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U16" t="n">
-        <v>1.44</v>
+        <v>1.4</v>
       </c>
       <c r="V16" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W16" t="n">
         <v>1.8</v>
@@ -2744,16 +2744,16 @@
         <v>41</v>
       </c>
       <c r="AC16" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AD16" t="n">
         <v>41</v>
       </c>
       <c r="AE16" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF16" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG16" t="n">
         <v>15</v>
@@ -2765,7 +2765,7 @@
         <v>251</v>
       </c>
       <c r="AJ16" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AK16" t="n">
         <v>9.5</v>
@@ -2780,7 +2780,7 @@
         <v>17</v>
       </c>
       <c r="AO16" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP16" t="inlineStr"/>
       <c r="AQ16" t="inlineStr"/>
@@ -3821,13 +3821,13 @@
         <v>2.35</v>
       </c>
       <c r="H24" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="I24" t="n">
         <v>3.25</v>
       </c>
       <c r="J24" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="K24" t="n">
         <v>1.95</v>
@@ -3836,10 +3836,10 @@
         <v>4</v>
       </c>
       <c r="M24" t="n">
-        <v>1.1</v>
+        <v>1.08</v>
       </c>
       <c r="N24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="O24" t="n">
         <v>1.44</v>
@@ -3890,7 +3890,7 @@
         <v>34</v>
       </c>
       <c r="AE24" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AF24" t="n">
         <v>6</v>
@@ -3925,10 +3925,10 @@
       <c r="AP24" t="inlineStr"/>
       <c r="AQ24" t="inlineStr"/>
       <c r="AR24" t="n">
-        <v>1.82</v>
+        <v>1.8</v>
       </c>
       <c r="AS24" t="n">
-        <v>2.08</v>
+        <v>2.1</v>
       </c>
     </row>
     <row r="25">
@@ -3966,7 +3966,7 @@
         <v>3.4</v>
       </c>
       <c r="H25" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I25" t="n">
         <v>2.55</v>
@@ -3981,10 +3981,10 @@
         <v>3.5</v>
       </c>
       <c r="M25" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N25" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O25" t="n">
         <v>1.67</v>
@@ -4017,19 +4017,19 @@
         <v>1.53</v>
       </c>
       <c r="Y25" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z25" t="n">
         <v>15</v>
       </c>
       <c r="AA25" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AB25" t="n">
         <v>41</v>
       </c>
       <c r="AC25" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AD25" t="n">
         <v>51</v>
@@ -4044,7 +4044,7 @@
         <v>21</v>
       </c>
       <c r="AH25" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI25" t="n">
         <v>501</v>
@@ -4056,7 +4056,7 @@
         <v>10</v>
       </c>
       <c r="AL25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM25" t="n">
         <v>26</v>
@@ -4065,13 +4065,13 @@
         <v>29</v>
       </c>
       <c r="AO25" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP25" t="n">
-        <v>5.4</v>
+        <v>5.6</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.16</v>
+        <v>1.15</v>
       </c>
       <c r="AR25" t="n">
         <v>2.1</v>
@@ -4112,13 +4112,13 @@
         </is>
       </c>
       <c r="G26" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H26" t="n">
-        <v>3.7</v>
+        <v>3.8</v>
       </c>
       <c r="I26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="J26" t="n">
         <v>2.2</v>
@@ -4127,13 +4127,13 @@
         <v>2.1</v>
       </c>
       <c r="L26" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="M26" t="n">
-        <v>1.07</v>
+        <v>1.06</v>
       </c>
       <c r="N26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="O26" t="n">
         <v>1.33</v>
@@ -4160,13 +4160,13 @@
         <v>2.63</v>
       </c>
       <c r="W26" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X26" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y26" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="Z26" t="n">
         <v>6.5</v>
@@ -4184,31 +4184,31 @@
         <v>34</v>
       </c>
       <c r="AE26" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF26" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG26" t="n">
         <v>21</v>
       </c>
       <c r="AH26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI26" t="n">
         <v>501</v>
       </c>
       <c r="AJ26" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM26" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN26" t="n">
         <v>51</v>
@@ -4217,16 +4217,16 @@
         <v>51</v>
       </c>
       <c r="AP26" t="n">
-        <v>3.15</v>
+        <v>3.05</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.36</v>
+        <v>1.39</v>
       </c>
       <c r="AR26" t="n">
-        <v>1.62</v>
+        <v>1.58</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.31</v>
+        <v>2.39</v>
       </c>
     </row>
     <row r="27">
@@ -4261,46 +4261,46 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>2.05</v>
+        <v>1.95</v>
       </c>
       <c r="H27" t="n">
-        <v>2.9</v>
+        <v>3</v>
       </c>
       <c r="I27" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J27" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="K27" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="L27" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M27" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="N27" t="n">
+        <v>6</v>
+      </c>
+      <c r="O27" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="P27" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="Q27" t="n">
         <v>2.88</v>
       </c>
-      <c r="K27" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="L27" t="n">
-        <v>5</v>
-      </c>
-      <c r="M27" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="N27" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="O27" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="P27" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="Q27" t="n">
-        <v>3.1</v>
-      </c>
       <c r="R27" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="S27" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="T27" t="n">
-        <v>1.11</v>
+        <v>1.13</v>
       </c>
       <c r="U27" t="n">
         <v>1.67</v>
@@ -4309,22 +4309,22 @@
         <v>2.1</v>
       </c>
       <c r="W27" t="n">
-        <v>2.38</v>
+        <v>2.5</v>
       </c>
       <c r="X27" t="n">
-        <v>1.53</v>
+        <v>1.47</v>
       </c>
       <c r="Y27" t="n">
-        <v>5</v>
+        <v>4.75</v>
       </c>
       <c r="Z27" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AA27" t="n">
         <v>10</v>
       </c>
       <c r="AB27" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC27" t="n">
         <v>21</v>
@@ -4339,7 +4339,7 @@
         <v>6</v>
       </c>
       <c r="AG27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH27" t="n">
         <v>101</v>
@@ -4348,22 +4348,22 @@
         <v>101</v>
       </c>
       <c r="AJ27" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AK27" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AL27" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AM27" t="n">
         <v>51</v>
       </c>
       <c r="AN27" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AO27" t="n">
-        <v>51</v>
+        <v>67</v>
       </c>
       <c r="AP27" t="n">
         <v>5.2</v>
@@ -4413,10 +4413,10 @@
         <v>1.55</v>
       </c>
       <c r="H28" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I28" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="J28" t="n">
         <v>2.2</v>
@@ -4428,16 +4428,16 @@
         <v>6.5</v>
       </c>
       <c r="M28" t="n">
-        <v>1.08</v>
+        <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="O28" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="P28" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="Q28" t="n">
         <v>2.1</v>
@@ -4458,10 +4458,10 @@
         <v>2.63</v>
       </c>
       <c r="W28" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X28" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y28" t="n">
         <v>5.5</v>
@@ -4482,7 +4482,7 @@
         <v>34</v>
       </c>
       <c r="AE28" t="n">
-        <v>8</v>
+        <v>8.5</v>
       </c>
       <c r="AF28" t="n">
         <v>7.5</v>
@@ -4491,7 +4491,7 @@
         <v>21</v>
       </c>
       <c r="AH28" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI28" t="n">
         <v>501</v>
@@ -4515,10 +4515,10 @@
         <v>51</v>
       </c>
       <c r="AP28" t="n">
-        <v>3.2</v>
+        <v>3.15</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.36</v>
+        <v>1.37</v>
       </c>
       <c r="AR28" t="n">
         <v>2</v>
@@ -4577,10 +4577,10 @@
         <v>4.5</v>
       </c>
       <c r="M29" t="n">
-        <v>1.17</v>
+        <v>1.14</v>
       </c>
       <c r="N29" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="O29" t="n">
         <v>1.73</v>
@@ -4870,7 +4870,7 @@
         <v>1.17</v>
       </c>
       <c r="N31" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="O31" t="n">
         <v>1.73</v>
@@ -5139,13 +5139,13 @@
         </is>
       </c>
       <c r="G33" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H33" t="n">
-        <v>2.6</v>
+        <v>2.63</v>
       </c>
       <c r="I33" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="J33" t="n">
         <v>3.1</v>
@@ -5181,10 +5181,10 @@
         <v>1.07</v>
       </c>
       <c r="U33" t="n">
-        <v>1.85</v>
+        <v>1.83</v>
       </c>
       <c r="V33" t="n">
-        <v>1.95</v>
+        <v>1.98</v>
       </c>
       <c r="W33" t="n">
         <v>2.75</v>
@@ -5202,7 +5202,7 @@
         <v>12</v>
       </c>
       <c r="AB33" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC33" t="n">
         <v>29</v>
@@ -5211,7 +5211,7 @@
         <v>51</v>
       </c>
       <c r="AE33" t="n">
-        <v>4</v>
+        <v>4.33</v>
       </c>
       <c r="AF33" t="n">
         <v>6</v>
@@ -5280,28 +5280,28 @@
         </is>
       </c>
       <c r="G34" t="n">
-        <v>2.35</v>
+        <v>2.6</v>
       </c>
       <c r="H34" t="n">
-        <v>2.75</v>
+        <v>2.7</v>
       </c>
       <c r="I34" t="n">
-        <v>3.6</v>
+        <v>3.25</v>
       </c>
       <c r="J34" t="n">
-        <v>3.25</v>
+        <v>3.5</v>
       </c>
       <c r="K34" t="n">
         <v>1.8</v>
       </c>
       <c r="L34" t="n">
-        <v>4.5</v>
+        <v>4</v>
       </c>
       <c r="M34" t="n">
-        <v>1.14</v>
+        <v>1.17</v>
       </c>
       <c r="N34" t="n">
-        <v>5.5</v>
+        <v>5</v>
       </c>
       <c r="O34" t="n">
         <v>1.67</v>
@@ -5322,40 +5322,40 @@
         <v>1.1</v>
       </c>
       <c r="U34" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="V34" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="W34" t="n">
-        <v>2.5</v>
+        <v>2.38</v>
       </c>
       <c r="X34" t="n">
-        <v>1.5</v>
+        <v>1.53</v>
       </c>
       <c r="Y34" t="n">
         <v>5.5</v>
       </c>
       <c r="Z34" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AA34" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB34" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC34" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD34" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AE34" t="n">
         <v>5</v>
       </c>
       <c r="AF34" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG34" t="n">
         <v>21</v>
@@ -5367,19 +5367,19 @@
         <v>101</v>
       </c>
       <c r="AJ34" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL34" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AM34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AN34" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AO34" t="n">
         <v>51</v>
@@ -5425,16 +5425,16 @@
         </is>
       </c>
       <c r="G35" t="n">
-        <v>2.5</v>
+        <v>2.63</v>
       </c>
       <c r="H35" t="n">
         <v>2.7</v>
       </c>
       <c r="I35" t="n">
-        <v>3.4</v>
+        <v>3.2</v>
       </c>
       <c r="J35" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="K35" t="n">
         <v>1.83</v>
@@ -5458,7 +5458,7 @@
         <v>3.1</v>
       </c>
       <c r="R35" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="S35" t="n">
         <v>6.5</v>
@@ -5473,25 +5473,25 @@
         <v>2.1</v>
       </c>
       <c r="W35" t="n">
-        <v>2.25</v>
+        <v>2.38</v>
       </c>
       <c r="X35" t="n">
-        <v>1.57</v>
+        <v>1.53</v>
       </c>
       <c r="Y35" t="n">
         <v>6</v>
       </c>
       <c r="Z35" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AA35" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AB35" t="n">
         <v>26</v>
       </c>
       <c r="AC35" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD35" t="n">
         <v>41</v>
@@ -5515,7 +5515,7 @@
         <v>7</v>
       </c>
       <c r="AK35" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL35" t="n">
         <v>13</v>
@@ -5566,13 +5566,13 @@
         </is>
       </c>
       <c r="G36" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="H36" t="n">
-        <v>2.63</v>
+        <v>2.6</v>
       </c>
       <c r="I36" t="n">
-        <v>5.25</v>
+        <v>5</v>
       </c>
       <c r="J36" t="n">
         <v>3</v>
@@ -5584,10 +5584,10 @@
         <v>6</v>
       </c>
       <c r="M36" t="n">
-        <v>1.2</v>
+        <v>1.22</v>
       </c>
       <c r="N36" t="n">
-        <v>4.33</v>
+        <v>4</v>
       </c>
       <c r="O36" t="n">
         <v>1.83</v>
@@ -5599,7 +5599,7 @@
         <v>4</v>
       </c>
       <c r="R36" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="S36" t="n">
         <v>9</v>
@@ -5629,10 +5629,10 @@
         <v>12</v>
       </c>
       <c r="AB36" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AC36" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD36" t="n">
         <v>51</v>
@@ -5656,13 +5656,13 @@
         <v>8</v>
       </c>
       <c r="AK36" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AL36" t="n">
         <v>21</v>
       </c>
       <c r="AM36" t="n">
-        <v>67</v>
+        <v>51</v>
       </c>
       <c r="AN36" t="n">
         <v>51</v>
@@ -8142,28 +8142,28 @@
         <v>2.75</v>
       </c>
       <c r="M54" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N54" t="n">
         <v>11</v>
       </c>
       <c r="O54" t="n">
-        <v>1.29</v>
+        <v>1.22</v>
       </c>
       <c r="P54" t="n">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.93</v>
+        <v>1.9</v>
       </c>
       <c r="R54" t="n">
-        <v>1.93</v>
+        <v>1.95</v>
       </c>
       <c r="S54" t="n">
         <v>3.25</v>
       </c>
       <c r="T54" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="U54" t="n">
         <v>1.4</v>
@@ -8229,16 +8229,16 @@
         <v>26</v>
       </c>
       <c r="AP54" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.51</v>
+        <v>1.53</v>
       </c>
       <c r="AR54" t="n">
-        <v>1.43</v>
+        <v>1.42</v>
       </c>
       <c r="AS54" t="n">
-        <v>2.8</v>
+        <v>2.85</v>
       </c>
     </row>
     <row r="55">
@@ -8279,25 +8279,25 @@
         <v>3.1</v>
       </c>
       <c r="I55" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J55" t="n">
         <v>2.75</v>
       </c>
       <c r="K55" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L55" t="n">
         <v>5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.11</v>
+        <v>1.08</v>
       </c>
       <c r="N55" t="n">
         <v>6.5</v>
       </c>
       <c r="O55" t="n">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="P55" t="n">
         <v>2.5</v>
@@ -8312,7 +8312,7 @@
         <v>5</v>
       </c>
       <c r="T55" t="n">
-        <v>1.17</v>
+        <v>1.13</v>
       </c>
       <c r="U55" t="n">
         <v>1.57</v>
@@ -8321,10 +8321,10 @@
         <v>2.25</v>
       </c>
       <c r="W55" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="X55" t="n">
-        <v>1.62</v>
+        <v>1.57</v>
       </c>
       <c r="Y55" t="n">
         <v>5.5</v>
@@ -8348,7 +8348,7 @@
         <v>6.5</v>
       </c>
       <c r="AF55" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AG55" t="n">
         <v>21</v>
@@ -8363,13 +8363,13 @@
         <v>9</v>
       </c>
       <c r="AK55" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL55" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM55" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AN55" t="n">
         <v>41</v>
@@ -10420,22 +10420,22 @@
         </is>
       </c>
       <c r="G70" t="n">
-        <v>3.1</v>
+        <v>2.63</v>
       </c>
       <c r="H70" t="n">
         <v>3.2</v>
       </c>
       <c r="I70" t="n">
-        <v>2.3</v>
+        <v>2.63</v>
       </c>
       <c r="J70" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="K70" t="n">
         <v>2.05</v>
       </c>
       <c r="L70" t="n">
-        <v>3</v>
+        <v>3.4</v>
       </c>
       <c r="M70" t="n">
         <v>1.07</v>
@@ -10450,10 +10450,10 @@
         <v>3</v>
       </c>
       <c r="Q70" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R70" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S70" t="n">
         <v>3.75</v>
@@ -10474,22 +10474,22 @@
         <v>1.83</v>
       </c>
       <c r="Y70" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="Z70" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AA70" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AB70" t="n">
+        <v>26</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD70" t="n">
         <v>34</v>
-      </c>
-      <c r="AC70" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD70" t="n">
-        <v>41</v>
       </c>
       <c r="AE70" t="n">
         <v>8.5</v>
@@ -10507,22 +10507,22 @@
         <v>301</v>
       </c>
       <c r="AJ70" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AK70" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL70" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AM70" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AN70" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AO70" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AP70" t="inlineStr"/>
       <c r="AQ70" t="inlineStr"/>
@@ -10585,28 +10585,28 @@
         <v>9</v>
       </c>
       <c r="O71" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P71" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q71" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="R71" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="S71" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T71" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U71" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V71" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W71" t="n">
         <v>1.83</v>
@@ -10633,7 +10633,7 @@
         <v>34</v>
       </c>
       <c r="AE71" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="AF71" t="n">
         <v>6</v>
@@ -10645,7 +10645,7 @@
         <v>51</v>
       </c>
       <c r="AI71" t="n">
-        <v>251</v>
+        <v>301</v>
       </c>
       <c r="AJ71" t="n">
         <v>8</v>
@@ -15697,22 +15697,22 @@
         </is>
       </c>
       <c r="G107" t="n">
-        <v>4.2</v>
+        <v>4.5</v>
       </c>
       <c r="H107" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I107" t="n">
-        <v>1.9</v>
+        <v>1.8</v>
       </c>
       <c r="J107" t="n">
-        <v>4.33</v>
+        <v>4.75</v>
       </c>
       <c r="K107" t="n">
         <v>2.2</v>
       </c>
       <c r="L107" t="n">
-        <v>2.5</v>
+        <v>2.4</v>
       </c>
       <c r="M107" t="n">
         <v>1.05</v>
@@ -15745,22 +15745,22 @@
         <v>2.75</v>
       </c>
       <c r="W107" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="X107" t="n">
-        <v>2</v>
+        <v>1.95</v>
       </c>
       <c r="Y107" t="n">
         <v>13</v>
       </c>
       <c r="Z107" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AA107" t="n">
         <v>15</v>
       </c>
       <c r="AB107" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AC107" t="n">
         <v>34</v>
@@ -15775,10 +15775,10 @@
         <v>6.5</v>
       </c>
       <c r="AG107" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH107" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI107" t="n">
         <v>201</v>
@@ -15787,7 +15787,7 @@
         <v>7.5</v>
       </c>
       <c r="AK107" t="n">
-        <v>9</v>
+        <v>8.5</v>
       </c>
       <c r="AL107" t="n">
         <v>8.5</v>
@@ -15838,13 +15838,13 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.4</v>
+        <v>2.35</v>
       </c>
       <c r="H108" t="n">
         <v>3.5</v>
       </c>
       <c r="I108" t="n">
-        <v>2.8</v>
+        <v>2.88</v>
       </c>
       <c r="J108" t="n">
         <v>3</v>
@@ -15859,16 +15859,16 @@
         <v>1.04</v>
       </c>
       <c r="N108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="O108" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P108" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.85</v>
+        <v>1.8</v>
       </c>
       <c r="R108" t="n">
         <v>2</v>
@@ -15994,13 +15994,13 @@
         <v>2.1</v>
       </c>
       <c r="L109" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="M109" t="n">
         <v>1.06</v>
       </c>
       <c r="N109" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="O109" t="n">
         <v>1.3</v>
@@ -16015,10 +16015,10 @@
         <v>1.83</v>
       </c>
       <c r="S109" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="T109" t="n">
-        <v>1.29</v>
+        <v>1.3</v>
       </c>
       <c r="U109" t="n">
         <v>1.4</v>
@@ -16042,7 +16042,7 @@
         <v>9</v>
       </c>
       <c r="AB109" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AC109" t="n">
         <v>17</v>
@@ -16051,13 +16051,13 @@
         <v>29</v>
       </c>
       <c r="AE109" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AF109" t="n">
         <v>6.5</v>
       </c>
       <c r="AG109" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AH109" t="n">
         <v>51</v>
@@ -16075,10 +16075,10 @@
         <v>12</v>
       </c>
       <c r="AM109" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AN109" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AO109" t="n">
         <v>34</v>
@@ -16974,16 +16974,16 @@
         </is>
       </c>
       <c r="G116" t="n">
-        <v>1.67</v>
+        <v>1.6</v>
       </c>
       <c r="H116" t="n">
-        <v>3.75</v>
+        <v>3.9</v>
       </c>
       <c r="I116" t="n">
-        <v>4.33</v>
+        <v>4.5</v>
       </c>
       <c r="J116" t="n">
-        <v>2.3</v>
+        <v>2.25</v>
       </c>
       <c r="K116" t="n">
         <v>2.2</v>
@@ -16998,16 +16998,16 @@
         <v>11</v>
       </c>
       <c r="O116" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P116" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q116" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R116" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="S116" t="n">
         <v>3.5</v>
@@ -17016,10 +17016,10 @@
         <v>1.29</v>
       </c>
       <c r="U116" t="n">
-        <v>1.44</v>
+        <v>1.37</v>
       </c>
       <c r="V116" t="n">
-        <v>2.63</v>
+        <v>2.75</v>
       </c>
       <c r="W116" t="n">
         <v>2</v>
@@ -17037,7 +17037,7 @@
         <v>8.5</v>
       </c>
       <c r="AB116" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC116" t="n">
         <v>15</v>
@@ -17049,7 +17049,7 @@
         <v>10</v>
       </c>
       <c r="AF116" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="AG116" t="n">
         <v>19</v>
@@ -17061,7 +17061,7 @@
         <v>1000</v>
       </c>
       <c r="AJ116" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AK116" t="n">
         <v>23</v>
@@ -17570,34 +17570,34 @@
         <v>1.8</v>
       </c>
       <c r="K120" t="n">
-        <v>2.4</v>
+        <v>2.5</v>
       </c>
       <c r="L120" t="n">
         <v>9</v>
       </c>
       <c r="M120" t="n">
-        <v>1.05</v>
+        <v>1.03</v>
       </c>
       <c r="N120" t="n">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="O120" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P120" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q120" t="n">
-        <v>1.83</v>
+        <v>1.73</v>
       </c>
       <c r="R120" t="n">
-        <v>2.03</v>
+        <v>2.08</v>
       </c>
       <c r="S120" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T120" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U120" t="n">
         <v>1.36</v>
@@ -17606,16 +17606,16 @@
         <v>3</v>
       </c>
       <c r="W120" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="X120" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="Y120" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Z120" t="n">
         <v>6</v>
-      </c>
-      <c r="Z120" t="n">
-        <v>5.5</v>
       </c>
       <c r="AA120" t="n">
         <v>9.5</v>
@@ -17636,7 +17636,7 @@
         <v>10</v>
       </c>
       <c r="AG120" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AH120" t="n">
         <v>81</v>
@@ -17663,16 +17663,16 @@
         <v>67</v>
       </c>
       <c r="AP120" t="n">
-        <v>2.36</v>
+        <v>2.3</v>
       </c>
       <c r="AQ120" t="n">
-        <v>1.6</v>
+        <v>1.63</v>
       </c>
       <c r="AR120" t="n">
-        <v>1.39</v>
+        <v>1.37</v>
       </c>
       <c r="AS120" t="n">
-        <v>3.05</v>
+        <v>3.15</v>
       </c>
     </row>
     <row r="121">
@@ -18864,7 +18864,7 @@
         <v>1.07</v>
       </c>
       <c r="N129" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O129" t="n">
         <v>1.36</v>
@@ -18879,10 +18879,10 @@
         <v>1.67</v>
       </c>
       <c r="S129" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T129" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U129" t="n">
         <v>1.44</v>
@@ -22106,22 +22106,22 @@
         </is>
       </c>
       <c r="G152" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="H152" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I152" t="n">
-        <v>5.5</v>
+        <v>5.25</v>
       </c>
       <c r="J152" t="n">
-        <v>2.3</v>
+        <v>2.38</v>
       </c>
       <c r="K152" t="n">
         <v>2.1</v>
       </c>
       <c r="L152" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="M152" t="n">
         <v>1.07</v>
@@ -22136,10 +22136,10 @@
         <v>3</v>
       </c>
       <c r="Q152" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="R152" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="S152" t="n">
         <v>3.75</v>
@@ -22169,7 +22169,7 @@
         <v>9</v>
       </c>
       <c r="AB152" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AC152" t="n">
         <v>15</v>
@@ -22199,7 +22199,7 @@
         <v>26</v>
       </c>
       <c r="AL152" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AM152" t="n">
         <v>51</v>
@@ -23814,16 +23814,16 @@
         </is>
       </c>
       <c r="G164" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="H164" t="n">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="I164" t="n">
         <v>1.33</v>
       </c>
       <c r="J164" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="K164" t="n">
         <v>2.4</v>
@@ -23832,40 +23832,40 @@
         <v>1.83</v>
       </c>
       <c r="M164" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N164" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="O164" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="P164" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="Q164" t="n">
-        <v>1.83</v>
+        <v>1.75</v>
       </c>
       <c r="R164" t="n">
-        <v>2.03</v>
+        <v>2.05</v>
       </c>
       <c r="S164" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T164" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U164" t="n">
-        <v>1.36</v>
+        <v>1.33</v>
       </c>
       <c r="V164" t="n">
-        <v>3</v>
+        <v>3.25</v>
       </c>
       <c r="W164" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="X164" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="Y164" t="n">
         <v>21</v>
@@ -23874,10 +23874,10 @@
         <v>41</v>
       </c>
       <c r="AA164" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AB164" t="n">
-        <v>126</v>
+        <v>101</v>
       </c>
       <c r="AC164" t="n">
         <v>67</v>
@@ -23889,13 +23889,13 @@
         <v>11</v>
       </c>
       <c r="AF164" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AG164" t="n">
         <v>23</v>
       </c>
       <c r="AH164" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI164" t="n">
         <v>1000</v>
@@ -23916,7 +23916,7 @@
         <v>12</v>
       </c>
       <c r="AO164" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AP164" t="inlineStr"/>
       <c r="AQ164" t="inlineStr"/>
@@ -23961,7 +23961,7 @@
         <v>3.2</v>
       </c>
       <c r="I165" t="n">
-        <v>2.88</v>
+        <v>2.87</v>
       </c>
       <c r="J165" t="n">
         <v>3.25</v>
@@ -23973,10 +23973,10 @@
         <v>4</v>
       </c>
       <c r="M165" t="n">
-        <v>1.08</v>
+        <v>1.1</v>
       </c>
       <c r="N165" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="O165" t="n">
         <v>1.5</v>
@@ -24003,10 +24003,10 @@
         <v>2.25</v>
       </c>
       <c r="W165" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X165" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y165" t="n">
         <v>6</v>
@@ -24033,10 +24033,10 @@
         <v>6.5</v>
       </c>
       <c r="AG165" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AH165" t="n">
-        <v>67</v>
+        <v>81</v>
       </c>
       <c r="AI165" t="n">
         <v>351</v>
@@ -24062,10 +24062,10 @@
       <c r="AP165" t="inlineStr"/>
       <c r="AQ165" t="inlineStr"/>
       <c r="AR165" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
     </row>
     <row r="166">
@@ -24100,7 +24100,7 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.95</v>
+        <v>1.92</v>
       </c>
       <c r="H166" t="n">
         <v>2.9</v>
@@ -24245,30 +24245,30 @@
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.3</v>
+        <v>2.92</v>
       </c>
       <c r="H167" t="n">
-        <v>3.25</v>
+        <v>3.15</v>
       </c>
       <c r="I167" t="n">
-        <v>2.87</v>
+        <v>2.32</v>
       </c>
       <c r="J167" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="K167" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="L167" t="n">
         <v>2.9</v>
-      </c>
-      <c r="K167" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="L167" t="n">
-        <v>3.4</v>
       </c>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="n">
-        <v>1.33</v>
+        <v>1.34</v>
       </c>
       <c r="P167" t="n">
-        <v>2.8</v>
+        <v>2.77</v>
       </c>
       <c r="Q167" t="n">
         <v>1.98</v>
@@ -24277,7 +24277,7 @@
         <v>1.65</v>
       </c>
       <c r="S167" t="n">
-        <v>3.2</v>
+        <v>3.25</v>
       </c>
       <c r="T167" t="n">
         <v>1.25</v>
@@ -24286,7 +24286,7 @@
         <v>1.39</v>
       </c>
       <c r="V167" t="n">
-        <v>2.57</v>
+        <v>2.55</v>
       </c>
       <c r="W167" t="n">
         <v>1.75</v>
@@ -24295,55 +24295,55 @@
         <v>1.85</v>
       </c>
       <c r="Y167" t="n">
-        <v>7.4</v>
+        <v>8.5</v>
       </c>
       <c r="Z167" t="n">
-        <v>11</v>
+        <v>14.5</v>
       </c>
       <c r="AA167" t="n">
-        <v>9.25</v>
+        <v>10.5</v>
       </c>
       <c r="AB167" t="n">
-        <v>23</v>
+        <v>35</v>
       </c>
       <c r="AC167" t="n">
-        <v>19.5</v>
+        <v>26</v>
       </c>
       <c r="AD167" t="n">
-        <v>32</v>
+        <v>37</v>
       </c>
       <c r="AE167" t="n">
-        <v>9</v>
+        <v>8.75</v>
       </c>
       <c r="AF167" t="n">
-        <v>6.3</v>
+        <v>6.1</v>
       </c>
       <c r="AG167" t="n">
         <v>14.5</v>
       </c>
       <c r="AH167" t="n">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="AI167" t="n">
         <v>600</v>
       </c>
       <c r="AJ167" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="AK167" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="AL167" t="n">
-        <v>10.5</v>
+        <v>9.25</v>
       </c>
       <c r="AM167" t="n">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="AN167" t="n">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="AO167" t="n">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="AP167" t="inlineStr"/>
       <c r="AQ167" t="inlineStr"/>
@@ -24388,7 +24388,7 @@
         <v>3</v>
       </c>
       <c r="I168" t="n">
-        <v>2.95</v>
+        <v>3</v>
       </c>
       <c r="J168" t="n">
         <v>3</v>
@@ -24417,7 +24417,7 @@
         <v>3.65</v>
       </c>
       <c r="T168" t="n">
-        <v>1.2</v>
+        <v>1.19</v>
       </c>
       <c r="U168" t="n">
         <v>1.45</v>
@@ -24432,7 +24432,7 @@
         <v>1.72</v>
       </c>
       <c r="Y168" t="n">
-        <v>6.7</v>
+        <v>6.6</v>
       </c>
       <c r="Z168" t="n">
         <v>10.75</v>
@@ -24450,10 +24450,10 @@
         <v>37</v>
       </c>
       <c r="AE168" t="n">
-        <v>7.4</v>
+        <v>7.3</v>
       </c>
       <c r="AF168" t="n">
-        <v>5.9</v>
+        <v>5.8</v>
       </c>
       <c r="AG168" t="n">
         <v>16</v>
@@ -24465,10 +24465,10 @@
         <v>900</v>
       </c>
       <c r="AJ168" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="AK168" t="n">
-        <v>14</v>
+        <v>14.5</v>
       </c>
       <c r="AL168" t="n">
         <v>11</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-16.xlsx
@@ -4124,7 +4124,7 @@
         <v>2.2</v>
       </c>
       <c r="K26" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="L26" t="n">
         <v>6</v>
@@ -4142,10 +4142,10 @@
         <v>3.25</v>
       </c>
       <c r="Q26" t="n">
-        <v>2.1</v>
+        <v>2.08</v>
       </c>
       <c r="R26" t="n">
-        <v>1.7</v>
+        <v>1.73</v>
       </c>
       <c r="S26" t="n">
         <v>3.75</v>
@@ -4160,16 +4160,16 @@
         <v>2.63</v>
       </c>
       <c r="W26" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="X26" t="n">
-        <v>1.67</v>
+        <v>1.7</v>
       </c>
       <c r="Y26" t="n">
         <v>6</v>
       </c>
       <c r="Z26" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AA26" t="n">
         <v>8.5</v>
@@ -4181,22 +4181,22 @@
         <v>15</v>
       </c>
       <c r="AD26" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE26" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="AF26" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG26" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AH26" t="n">
         <v>67</v>
       </c>
       <c r="AI26" t="n">
-        <v>501</v>
+        <v>451</v>
       </c>
       <c r="AJ26" t="n">
         <v>13</v>
@@ -4217,16 +4217,16 @@
         <v>51</v>
       </c>
       <c r="AP26" t="n">
-        <v>3.05</v>
+        <v>3.1</v>
       </c>
       <c r="AQ26" t="n">
-        <v>1.39</v>
+        <v>1.38</v>
       </c>
       <c r="AR26" t="n">
-        <v>1.58</v>
+        <v>1.6</v>
       </c>
       <c r="AS26" t="n">
-        <v>2.39</v>
+        <v>2.35</v>
       </c>
     </row>
     <row r="27">
@@ -4261,19 +4261,19 @@
         </is>
       </c>
       <c r="G27" t="n">
-        <v>1.95</v>
+        <v>1.9</v>
       </c>
       <c r="H27" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="I27" t="n">
-        <v>4.75</v>
+        <v>5</v>
       </c>
       <c r="J27" t="n">
         <v>2.75</v>
       </c>
       <c r="K27" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="L27" t="n">
         <v>5.5</v>
@@ -4303,22 +4303,22 @@
         <v>1.13</v>
       </c>
       <c r="U27" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="V27" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="W27" t="n">
         <v>2.5</v>
       </c>
       <c r="X27" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="Y27" t="n">
         <v>4.75</v>
       </c>
       <c r="Z27" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AA27" t="n">
         <v>10</v>
@@ -4336,7 +4336,7 @@
         <v>5.5</v>
       </c>
       <c r="AF27" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG27" t="n">
         <v>23</v>
@@ -4366,16 +4366,16 @@
         <v>67</v>
       </c>
       <c r="AP27" t="n">
-        <v>5.2</v>
+        <v>5</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.17</v>
       </c>
       <c r="AR27" t="n">
-        <v>2.2</v>
+        <v>2.17</v>
       </c>
       <c r="AS27" t="n">
-        <v>1.68</v>
+        <v>1.7</v>
       </c>
     </row>
     <row r="28">
@@ -4410,16 +4410,16 @@
         </is>
       </c>
       <c r="G28" t="n">
-        <v>1.55</v>
+        <v>1.6</v>
       </c>
       <c r="H28" t="n">
-        <v>3.9</v>
+        <v>3.75</v>
       </c>
       <c r="I28" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="J28" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="K28" t="n">
         <v>2.1</v>
@@ -4431,25 +4431,25 @@
         <v>1.07</v>
       </c>
       <c r="N28" t="n">
-        <v>8.5</v>
+        <v>9</v>
       </c>
       <c r="O28" t="n">
-        <v>1.33</v>
+        <v>1.36</v>
       </c>
       <c r="P28" t="n">
-        <v>3.25</v>
+        <v>3</v>
       </c>
       <c r="Q28" t="n">
-        <v>2.1</v>
+        <v>2.15</v>
       </c>
       <c r="R28" t="n">
-        <v>1.7</v>
+        <v>1.67</v>
       </c>
       <c r="S28" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="T28" t="n">
-        <v>1.25</v>
+        <v>1.22</v>
       </c>
       <c r="U28" t="n">
         <v>1.44</v>
@@ -4485,7 +4485,7 @@
         <v>8.5</v>
       </c>
       <c r="AF28" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG28" t="n">
         <v>21</v>
@@ -4500,13 +4500,13 @@
         <v>13</v>
       </c>
       <c r="AK28" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AL28" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AM28" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AN28" t="n">
         <v>51</v>
@@ -4515,7 +4515,7 @@
         <v>51</v>
       </c>
       <c r="AP28" t="n">
-        <v>3.15</v>
+        <v>3.1</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.37</v>
@@ -8124,16 +8124,16 @@
         </is>
       </c>
       <c r="G54" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="H54" t="n">
         <v>3.4</v>
       </c>
       <c r="I54" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="J54" t="n">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="K54" t="n">
         <v>2.2</v>
@@ -8142,28 +8142,28 @@
         <v>2.75</v>
       </c>
       <c r="M54" t="n">
-        <v>1.03</v>
+        <v>1.05</v>
       </c>
       <c r="N54" t="n">
         <v>11</v>
       </c>
       <c r="O54" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="P54" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="Q54" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R54" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S54" t="n">
         <v>3.25</v>
       </c>
       <c r="T54" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="U54" t="n">
         <v>1.4</v>
@@ -8181,16 +8181,16 @@
         <v>11</v>
       </c>
       <c r="Z54" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AA54" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AB54" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AC54" t="n">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="AD54" t="n">
         <v>34</v>
@@ -8214,7 +8214,7 @@
         <v>8</v>
       </c>
       <c r="AK54" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AL54" t="n">
         <v>9</v>
@@ -8291,13 +8291,13 @@
         <v>5</v>
       </c>
       <c r="M55" t="n">
-        <v>1.08</v>
+        <v>1.11</v>
       </c>
       <c r="N55" t="n">
         <v>6.5</v>
       </c>
       <c r="O55" t="n">
-        <v>1.47</v>
+        <v>1.5</v>
       </c>
       <c r="P55" t="n">
         <v>2.5</v>
@@ -8312,10 +8312,10 @@
         <v>5</v>
       </c>
       <c r="T55" t="n">
-        <v>1.13</v>
+        <v>1.17</v>
       </c>
       <c r="U55" t="n">
-        <v>1.57</v>
+        <v>1.54</v>
       </c>
       <c r="V55" t="n">
         <v>2.25</v>
@@ -8381,7 +8381,7 @@
         <v>4.2</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.22</v>
+        <v>1.21</v>
       </c>
       <c r="AR55" t="n">
         <v>1.98</v>
@@ -10561,28 +10561,28 @@
         </is>
       </c>
       <c r="G71" t="n">
-        <v>2.88</v>
+        <v>2.9</v>
       </c>
       <c r="H71" t="n">
         <v>3.1</v>
       </c>
       <c r="I71" t="n">
-        <v>2.6</v>
+        <v>2.55</v>
       </c>
       <c r="J71" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="K71" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="L71" t="n">
         <v>3.25</v>
       </c>
       <c r="M71" t="n">
-        <v>1.07</v>
+        <v>1.08</v>
       </c>
       <c r="N71" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="O71" t="n">
         <v>1.36</v>
@@ -10615,7 +10615,7 @@
         <v>1.83</v>
       </c>
       <c r="Y71" t="n">
-        <v>8.5</v>
+        <v>8</v>
       </c>
       <c r="Z71" t="n">
         <v>13</v>
@@ -10627,7 +10627,7 @@
         <v>29</v>
       </c>
       <c r="AC71" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AD71" t="n">
         <v>34</v>
@@ -10648,7 +10648,7 @@
         <v>301</v>
       </c>
       <c r="AJ71" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="AK71" t="n">
         <v>12</v>
@@ -10657,7 +10657,7 @@
         <v>10</v>
       </c>
       <c r="AM71" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AN71" t="n">
         <v>21</v>
@@ -15727,10 +15727,10 @@
         <v>3.75</v>
       </c>
       <c r="Q107" t="n">
-        <v>1.9</v>
+        <v>1.93</v>
       </c>
       <c r="R107" t="n">
-        <v>1.95</v>
+        <v>1.93</v>
       </c>
       <c r="S107" t="n">
         <v>3.25</v>
@@ -15838,22 +15838,22 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.35</v>
+        <v>2.45</v>
       </c>
       <c r="H108" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I108" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="J108" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K108" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L108" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="M108" t="n">
         <v>1.04</v>
@@ -15868,16 +15868,16 @@
         <v>4</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="R108" t="n">
-        <v>2</v>
+        <v>2.05</v>
       </c>
       <c r="S108" t="n">
-        <v>3</v>
+        <v>2.75</v>
       </c>
       <c r="T108" t="n">
-        <v>1.36</v>
+        <v>1.4</v>
       </c>
       <c r="U108" t="n">
         <v>1.36</v>
@@ -15886,16 +15886,16 @@
         <v>3</v>
       </c>
       <c r="W108" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X108" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y108" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AA108" t="n">
         <v>9.5</v>
@@ -15910,10 +15910,10 @@
         <v>26</v>
       </c>
       <c r="AE108" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF108" t="n">
-        <v>6.5</v>
+        <v>7</v>
       </c>
       <c r="AG108" t="n">
         <v>13</v>
@@ -15931,16 +15931,16 @@
         <v>15</v>
       </c>
       <c r="AL108" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM108" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AN108" t="n">
         <v>21</v>
       </c>
       <c r="AO108" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AP108" t="inlineStr"/>
       <c r="AQ108" t="inlineStr"/>
@@ -15979,16 +15979,16 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.2</v>
+        <v>2.15</v>
       </c>
       <c r="H109" t="n">
         <v>3.3</v>
       </c>
       <c r="I109" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="J109" t="n">
-        <v>2.88</v>
+        <v>2.75</v>
       </c>
       <c r="K109" t="n">
         <v>2.1</v>
@@ -16000,19 +16000,19 @@
         <v>1.06</v>
       </c>
       <c r="N109" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="O109" t="n">
-        <v>1.3</v>
+        <v>1.29</v>
       </c>
       <c r="P109" t="n">
-        <v>3.4</v>
+        <v>3.5</v>
       </c>
       <c r="Q109" t="n">
-        <v>2.03</v>
+        <v>2</v>
       </c>
       <c r="R109" t="n">
-        <v>1.83</v>
+        <v>1.85</v>
       </c>
       <c r="S109" t="n">
         <v>3.4</v>
@@ -16027,13 +16027,13 @@
         <v>2.75</v>
       </c>
       <c r="W109" t="n">
-        <v>1.8</v>
+        <v>1.75</v>
       </c>
       <c r="X109" t="n">
-        <v>1.95</v>
+        <v>2</v>
       </c>
       <c r="Y109" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z109" t="n">
         <v>10</v>
@@ -16048,10 +16048,10 @@
         <v>17</v>
       </c>
       <c r="AD109" t="n">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="AE109" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AF109" t="n">
         <v>6.5</v>
@@ -16060,13 +16060,13 @@
         <v>13</v>
       </c>
       <c r="AH109" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI109" t="n">
-        <v>251</v>
+        <v>201</v>
       </c>
       <c r="AJ109" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AK109" t="n">
         <v>17</v>
@@ -17115,61 +17115,61 @@
         </is>
       </c>
       <c r="G117" t="n">
-        <v>1.7</v>
+        <v>1.65</v>
       </c>
       <c r="H117" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="I117" t="n">
         <v>5</v>
       </c>
       <c r="J117" t="n">
-        <v>2.4</v>
+        <v>2.38</v>
       </c>
       <c r="K117" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L117" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N117" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="O117" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P117" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q117" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R117" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S117" t="n">
+        <v>4</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U117" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V117" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W117" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X117" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y117" t="n">
         <v>6</v>
-      </c>
-      <c r="M117" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N117" t="n">
-        <v>8</v>
-      </c>
-      <c r="O117" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="P117" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="Q117" t="n">
-        <v>2.35</v>
-      </c>
-      <c r="R117" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="S117" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="T117" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="U117" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V117" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W117" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X117" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y117" t="n">
-        <v>5.5</v>
       </c>
       <c r="Z117" t="n">
         <v>7</v>
@@ -17178,16 +17178,16 @@
         <v>9</v>
       </c>
       <c r="AB117" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AC117" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AD117" t="n">
         <v>34</v>
       </c>
       <c r="AE117" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AF117" t="n">
         <v>7</v>
@@ -17196,7 +17196,7 @@
         <v>21</v>
       </c>
       <c r="AH117" t="n">
-        <v>81</v>
+        <v>67</v>
       </c>
       <c r="AI117" t="n">
         <v>1250</v>
@@ -23955,13 +23955,13 @@
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.3</v>
+        <v>2.35</v>
       </c>
       <c r="H165" t="n">
         <v>3.2</v>
       </c>
       <c r="I165" t="n">
-        <v>2.87</v>
+        <v>2.8</v>
       </c>
       <c r="J165" t="n">
         <v>3.25</v>
@@ -24100,52 +24100,52 @@
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.92</v>
+        <v>1.83</v>
       </c>
       <c r="H166" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I166" t="n">
-        <v>3.9</v>
+        <v>4.33</v>
       </c>
       <c r="J166" t="n">
-        <v>2.88</v>
+        <v>2.63</v>
       </c>
       <c r="K166" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="L166" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M166" t="n">
-        <v>1.13</v>
+        <v>1.11</v>
       </c>
       <c r="N166" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="O166" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P166" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q166" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R166" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S166" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T166" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U166" t="n">
         <v>1.62</v>
       </c>
-      <c r="P166" t="n">
+      <c r="V166" t="n">
         <v>2.2</v>
-      </c>
-      <c r="Q166" t="n">
-        <v>2.88</v>
-      </c>
-      <c r="R166" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="S166" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="T166" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="U166" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="V166" t="n">
-        <v>2.1</v>
       </c>
       <c r="W166" t="n">
         <v>2.5</v>
@@ -24157,22 +24157,22 @@
         <v>5</v>
       </c>
       <c r="Z166" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA166" t="n">
         <v>10</v>
       </c>
       <c r="AB166" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AC166" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD166" t="n">
         <v>41</v>
       </c>
       <c r="AE166" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AF166" t="n">
         <v>6.5</v>
@@ -24187,13 +24187,13 @@
         <v>351</v>
       </c>
       <c r="AJ166" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK166" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AL166" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AM166" t="n">
         <v>51</v>
@@ -24382,36 +24382,36 @@
         </is>
       </c>
       <c r="G168" t="n">
-        <v>2.37</v>
+        <v>2.5</v>
       </c>
       <c r="H168" t="n">
-        <v>3</v>
+        <v>2.77</v>
       </c>
       <c r="I168" t="n">
         <v>3</v>
       </c>
       <c r="J168" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K168" t="n">
-        <v>1.98</v>
+        <v>1.9</v>
       </c>
       <c r="L168" t="n">
-        <v>3.6</v>
+        <v>3.65</v>
       </c>
       <c r="M168" t="inlineStr"/>
       <c r="N168" t="inlineStr"/>
       <c r="O168" t="n">
-        <v>1.4</v>
+        <v>1.42</v>
       </c>
       <c r="P168" t="n">
-        <v>2.5</v>
+        <v>2.47</v>
       </c>
       <c r="Q168" t="n">
-        <v>2.18</v>
+        <v>2.2</v>
       </c>
       <c r="R168" t="n">
-        <v>1.53</v>
+        <v>1.52</v>
       </c>
       <c r="S168" t="n">
         <v>3.65</v>
@@ -24420,52 +24420,52 @@
         <v>1.19</v>
       </c>
       <c r="U168" t="n">
-        <v>1.45</v>
+        <v>1.47</v>
       </c>
       <c r="V168" t="n">
-        <v>2.37</v>
+        <v>2.32</v>
       </c>
       <c r="W168" t="n">
-        <v>1.88</v>
+        <v>1.83</v>
       </c>
       <c r="X168" t="n">
-        <v>1.72</v>
+        <v>1.78</v>
       </c>
       <c r="Y168" t="n">
-        <v>6.6</v>
+        <v>7</v>
       </c>
       <c r="Z168" t="n">
-        <v>10.75</v>
+        <v>12</v>
       </c>
       <c r="AA168" t="n">
         <v>9.5</v>
       </c>
       <c r="AB168" t="n">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="AC168" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AD168" t="n">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="AE168" t="n">
-        <v>7.3</v>
+        <v>6.8</v>
       </c>
       <c r="AF168" t="n">
-        <v>5.8</v>
+        <v>5.5</v>
       </c>
       <c r="AG168" t="n">
-        <v>16</v>
+        <v>14.5</v>
       </c>
       <c r="AH168" t="n">
-        <v>90</v>
+        <v>80</v>
       </c>
       <c r="AI168" t="n">
-        <v>900</v>
+        <v>700</v>
       </c>
       <c r="AJ168" t="n">
-        <v>7.7</v>
+        <v>7.5</v>
       </c>
       <c r="AK168" t="n">
         <v>14.5</v>
@@ -24474,7 +24474,7 @@
         <v>11</v>
       </c>
       <c r="AM168" t="n">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="AN168" t="n">
         <v>30</v>

--- a/Jogos_da_Semana_FlashScore_2025-02-16.xlsx
+++ b/Jogos_da_Semana_FlashScore_2025-02-16.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AS168"/>
+  <dimension ref="A1:AS167"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -15838,22 +15838,22 @@
         </is>
       </c>
       <c r="G108" t="n">
-        <v>2.45</v>
+        <v>2.6</v>
       </c>
       <c r="H108" t="n">
         <v>3.6</v>
       </c>
       <c r="I108" t="n">
-        <v>2.63</v>
+        <v>2.55</v>
       </c>
       <c r="J108" t="n">
-        <v>3.1</v>
+        <v>3.2</v>
       </c>
       <c r="K108" t="n">
-        <v>2.25</v>
+        <v>2.2</v>
       </c>
       <c r="L108" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="M108" t="n">
         <v>1.04</v>
@@ -15868,16 +15868,16 @@
         <v>4</v>
       </c>
       <c r="Q108" t="n">
-        <v>1.75</v>
+        <v>1.8</v>
       </c>
       <c r="R108" t="n">
-        <v>2.05</v>
+        <v>2</v>
       </c>
       <c r="S108" t="n">
-        <v>2.75</v>
+        <v>3</v>
       </c>
       <c r="T108" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="U108" t="n">
         <v>1.36</v>
@@ -15886,10 +15886,10 @@
         <v>3</v>
       </c>
       <c r="W108" t="n">
-        <v>1.62</v>
+        <v>1.67</v>
       </c>
       <c r="X108" t="n">
-        <v>2.2</v>
+        <v>2.1</v>
       </c>
       <c r="Y108" t="n">
         <v>10</v>
@@ -15898,10 +15898,10 @@
         <v>13</v>
       </c>
       <c r="AA108" t="n">
-        <v>9.5</v>
+        <v>10</v>
       </c>
       <c r="AB108" t="n">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="AC108" t="n">
         <v>19</v>
@@ -15928,7 +15928,7 @@
         <v>10</v>
       </c>
       <c r="AK108" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AL108" t="n">
         <v>10</v>
@@ -15937,7 +15937,7 @@
         <v>26</v>
       </c>
       <c r="AN108" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AO108" t="n">
         <v>26</v>
@@ -15979,13 +15979,13 @@
         </is>
       </c>
       <c r="G109" t="n">
-        <v>2.15</v>
+        <v>2.1</v>
       </c>
       <c r="H109" t="n">
         <v>3.3</v>
       </c>
       <c r="I109" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="J109" t="n">
         <v>2.75</v>
@@ -16033,7 +16033,7 @@
         <v>2</v>
       </c>
       <c r="Y109" t="n">
-        <v>8</v>
+        <v>7.5</v>
       </c>
       <c r="Z109" t="n">
         <v>10</v>
@@ -16060,7 +16060,7 @@
         <v>13</v>
       </c>
       <c r="AH109" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI109" t="n">
         <v>201</v>
@@ -16069,10 +16069,10 @@
         <v>11</v>
       </c>
       <c r="AK109" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AL109" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AM109" t="n">
         <v>41</v>
@@ -20655,7 +20655,7 @@
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>CUKnXRV9</t>
+          <t>hQmMG6oT</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
@@ -20665,7 +20665,7 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:00</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
@@ -20675,118 +20675,118 @@
       </c>
       <c r="E142" t="inlineStr">
         <is>
-          <t>Primorje</t>
+          <t>Mura</t>
         </is>
       </c>
       <c r="F142" t="inlineStr">
         <is>
-          <t>Koper</t>
+          <t>Celje</t>
         </is>
       </c>
       <c r="G142" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="H142" t="n">
         <v>3.7</v>
       </c>
-      <c r="H142" t="n">
-        <v>3.15</v>
-      </c>
       <c r="I142" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="J142" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="K142" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="L142" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="M142" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="N142" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="O142" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="P142" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="Q142" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="R142" t="n">
         <v>2.02</v>
       </c>
-      <c r="J142" t="n">
-        <v>4.25</v>
-      </c>
-      <c r="K142" t="n">
-        <v>2</v>
-      </c>
-      <c r="L142" t="n">
-        <v>2.67</v>
-      </c>
-      <c r="M142" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="N142" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="O142" t="n">
-        <v>1.45</v>
-      </c>
-      <c r="P142" t="n">
-        <v>2.57</v>
-      </c>
-      <c r="Q142" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="R142" t="n">
-        <v>1.55</v>
-      </c>
       <c r="S142" t="n">
-        <v>4.1</v>
+        <v>2.7</v>
       </c>
       <c r="T142" t="n">
-        <v>1.2</v>
+        <v>1.4</v>
       </c>
       <c r="U142" t="n">
-        <v>1.5</v>
+        <v>1.36</v>
       </c>
       <c r="V142" t="n">
-        <v>2.42</v>
+        <v>2.9</v>
       </c>
       <c r="W142" t="n">
-        <v>2.02</v>
+        <v>1.65</v>
       </c>
       <c r="X142" t="n">
-        <v>1.7</v>
+        <v>2.1</v>
       </c>
       <c r="Y142" t="n">
-        <v>8.75</v>
+        <v>11.75</v>
       </c>
       <c r="Z142" t="n">
-        <v>18.5</v>
+        <v>19</v>
       </c>
       <c r="AA142" t="n">
-        <v>13</v>
+        <v>11.75</v>
       </c>
       <c r="AB142" t="n">
+        <v>45</v>
+      </c>
+      <c r="AC142" t="n">
+        <v>27</v>
+      </c>
+      <c r="AD142" t="n">
+        <v>32</v>
+      </c>
+      <c r="AE142" t="n">
+        <v>8.25</v>
+      </c>
+      <c r="AF142" t="n">
+        <v>7.2</v>
+      </c>
+      <c r="AG142" t="n">
+        <v>13.5</v>
+      </c>
+      <c r="AH142" t="n">
         <v>55</v>
       </c>
-      <c r="AC142" t="n">
-        <v>40</v>
-      </c>
-      <c r="AD142" t="n">
-        <v>55</v>
-      </c>
-      <c r="AE142" t="n">
-        <v>5.9</v>
-      </c>
-      <c r="AF142" t="n">
-        <v>6.1</v>
-      </c>
-      <c r="AG142" t="n">
-        <v>17.5</v>
-      </c>
-      <c r="AH142" t="n">
-        <v>110</v>
-      </c>
       <c r="AI142" t="n">
-        <v>1000</v>
+        <v>350</v>
       </c>
       <c r="AJ142" t="n">
-        <v>5.8</v>
+        <v>8.5</v>
       </c>
       <c r="AK142" t="n">
+        <v>10</v>
+      </c>
+      <c r="AL142" t="n">
         <v>8.5</v>
       </c>
-      <c r="AL142" t="n">
-        <v>9</v>
-      </c>
       <c r="AM142" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AN142" t="n">
-        <v>19</v>
+        <v>14.5</v>
       </c>
       <c r="AO142" t="n">
-        <v>37</v>
+        <v>23</v>
       </c>
       <c r="AP142" t="inlineStr"/>
       <c r="AQ142" t="inlineStr"/>
@@ -20796,7 +20796,7 @@
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>hQmMG6oT</t>
+          <t>44HvZm1c</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
@@ -20806,7 +20806,7 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>11:00</t>
+          <t>13:30</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
@@ -20816,118 +20816,118 @@
       </c>
       <c r="E143" t="inlineStr">
         <is>
-          <t>Mura</t>
+          <t>O. Ljubljana</t>
         </is>
       </c>
       <c r="F143" t="inlineStr">
         <is>
-          <t>Celje</t>
+          <t>Nafta</t>
         </is>
       </c>
       <c r="G143" t="n">
-        <v>3.4</v>
+        <v>1.35</v>
       </c>
       <c r="H143" t="n">
-        <v>3.7</v>
+        <v>4.5</v>
       </c>
       <c r="I143" t="n">
-        <v>1.95</v>
+        <v>8.5</v>
       </c>
       <c r="J143" t="n">
-        <v>3.8</v>
+        <v>1.85</v>
       </c>
       <c r="K143" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="L143" t="n">
-        <v>2.52</v>
+        <v>7.5</v>
       </c>
       <c r="M143" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N143" t="n">
+        <v>7.8</v>
+      </c>
+      <c r="O143" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="P143" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="Q143" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="R143" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="S143" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="T143" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U143" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="V143" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W143" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="X143" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="Y143" t="n">
+        <v>6.2</v>
+      </c>
+      <c r="Z143" t="n">
+        <v>5.9</v>
+      </c>
+      <c r="AA143" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB143" t="n">
         <v>8.25</v>
       </c>
-      <c r="O143" t="n">
-        <v>1.24</v>
-      </c>
-      <c r="P143" t="n">
-        <v>3.7</v>
-      </c>
-      <c r="Q143" t="n">
-        <v>1.72</v>
-      </c>
-      <c r="R143" t="n">
-        <v>2.02</v>
-      </c>
-      <c r="S143" t="n">
-        <v>2.7</v>
-      </c>
-      <c r="T143" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U143" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="V143" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="W143" t="n">
-        <v>1.65</v>
-      </c>
-      <c r="X143" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="Y143" t="n">
+      <c r="AC143" t="n">
         <v>11.75</v>
-      </c>
-      <c r="Z143" t="n">
-        <v>19</v>
-      </c>
-      <c r="AA143" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="AB143" t="n">
-        <v>45</v>
-      </c>
-      <c r="AC143" t="n">
-        <v>27</v>
       </c>
       <c r="AD143" t="n">
         <v>32</v>
       </c>
       <c r="AE143" t="n">
-        <v>8.25</v>
+        <v>7.8</v>
       </c>
       <c r="AF143" t="n">
-        <v>7.2</v>
+        <v>9</v>
       </c>
       <c r="AG143" t="n">
-        <v>13.5</v>
+        <v>23</v>
       </c>
       <c r="AH143" t="n">
-        <v>55</v>
+        <v>120</v>
       </c>
       <c r="AI143" t="n">
-        <v>350</v>
+        <v>101</v>
       </c>
       <c r="AJ143" t="n">
-        <v>8.5</v>
+        <v>19.5</v>
       </c>
       <c r="AK143" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
       <c r="AL143" t="n">
-        <v>8.5</v>
+        <v>27</v>
       </c>
       <c r="AM143" t="n">
-        <v>17</v>
+        <v>250</v>
       </c>
       <c r="AN143" t="n">
-        <v>14.5</v>
+        <v>110</v>
       </c>
       <c r="AO143" t="n">
-        <v>23</v>
+        <v>100</v>
       </c>
       <c r="AP143" t="inlineStr"/>
       <c r="AQ143" t="inlineStr"/>
@@ -20937,7 +20937,7 @@
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>44HvZm1c</t>
+          <t>nL21up66</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
@@ -20947,128 +20947,128 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>13:30</t>
+          <t>02:00</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>SLOVENIA - PRVA LIGA</t>
+          <t>SOUTH KOREA - K LEAGUE 1</t>
         </is>
       </c>
       <c r="E144" t="inlineStr">
         <is>
-          <t>O. Ljubljana</t>
+          <t>Ulsan HD</t>
         </is>
       </c>
       <c r="F144" t="inlineStr">
         <is>
-          <t>Nafta</t>
+          <t>Anyang</t>
         </is>
       </c>
       <c r="G144" t="n">
-        <v>1.35</v>
+        <v>1.75</v>
       </c>
       <c r="H144" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="I144" t="n">
         <v>4.5</v>
       </c>
-      <c r="I144" t="n">
-        <v>8.5</v>
-      </c>
       <c r="J144" t="n">
-        <v>1.85</v>
+        <v>2.4</v>
       </c>
       <c r="K144" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L144" t="n">
-        <v>7.5</v>
+        <v>5</v>
       </c>
       <c r="M144" t="n">
         <v>1.05</v>
       </c>
       <c r="N144" t="n">
-        <v>7.8</v>
+        <v>11</v>
       </c>
       <c r="O144" t="n">
-        <v>1.26</v>
+        <v>1.3</v>
       </c>
       <c r="P144" t="n">
-        <v>3.5</v>
+        <v>3.4</v>
       </c>
       <c r="Q144" t="n">
-        <v>1.78</v>
+        <v>2</v>
       </c>
       <c r="R144" t="n">
-        <v>1.93</v>
+        <v>1.85</v>
       </c>
       <c r="S144" t="n">
-        <v>2.82</v>
+        <v>3.4</v>
       </c>
       <c r="T144" t="n">
-        <v>1.38</v>
+        <v>1.3</v>
       </c>
       <c r="U144" t="n">
-        <v>1.39</v>
+        <v>1.4</v>
       </c>
       <c r="V144" t="n">
-        <v>2.8</v>
+        <v>2.75</v>
       </c>
       <c r="W144" t="n">
-        <v>2.12</v>
+        <v>1.83</v>
       </c>
       <c r="X144" t="n">
-        <v>1.65</v>
+        <v>1.83</v>
       </c>
       <c r="Y144" t="n">
-        <v>6.2</v>
+        <v>7</v>
       </c>
       <c r="Z144" t="n">
-        <v>5.9</v>
+        <v>8</v>
       </c>
       <c r="AA144" t="n">
         <v>8.5</v>
       </c>
       <c r="AB144" t="n">
-        <v>8.25</v>
+        <v>15</v>
       </c>
       <c r="AC144" t="n">
-        <v>11.75</v>
+        <v>15</v>
       </c>
       <c r="AD144" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="AE144" t="n">
-        <v>7.8</v>
+        <v>10</v>
       </c>
       <c r="AF144" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AG144" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AH144" t="n">
-        <v>120</v>
+        <v>51</v>
       </c>
       <c r="AI144" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AJ144" t="n">
-        <v>19.5</v>
+        <v>12</v>
       </c>
       <c r="AK144" t="n">
-        <v>60</v>
+        <v>21</v>
       </c>
       <c r="AL144" t="n">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="AM144" t="n">
-        <v>250</v>
+        <v>51</v>
       </c>
       <c r="AN144" t="n">
-        <v>110</v>
+        <v>34</v>
       </c>
       <c r="AO144" t="n">
-        <v>100</v>
+        <v>41</v>
       </c>
       <c r="AP144" t="inlineStr"/>
       <c r="AQ144" t="inlineStr"/>
@@ -21078,7 +21078,7 @@
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>nL21up66</t>
+          <t>Agld1RSP</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
@@ -21088,7 +21088,7 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>02:00</t>
+          <t>04:30</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
@@ -21098,61 +21098,61 @@
       </c>
       <c r="E145" t="inlineStr">
         <is>
-          <t>Ulsan HD</t>
+          <t>Daegu</t>
         </is>
       </c>
       <c r="F145" t="inlineStr">
         <is>
-          <t>Anyang</t>
+          <t>Gangwon</t>
         </is>
       </c>
       <c r="G145" t="n">
-        <v>1.75</v>
+        <v>2.25</v>
       </c>
       <c r="H145" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="I145" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="J145" t="n">
+        <v>3</v>
+      </c>
+      <c r="K145" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L145" t="n">
         <v>3.75</v>
       </c>
-      <c r="I145" t="n">
-        <v>4.5</v>
-      </c>
-      <c r="J145" t="n">
-        <v>2.4</v>
-      </c>
-      <c r="K145" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="L145" t="n">
-        <v>5</v>
-      </c>
       <c r="M145" t="n">
-        <v>1.05</v>
+        <v>1.06</v>
       </c>
       <c r="N145" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="O145" t="n">
-        <v>1.3</v>
+        <v>1.33</v>
       </c>
       <c r="P145" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="Q145" t="n">
-        <v>2</v>
+        <v>2.08</v>
       </c>
       <c r="R145" t="n">
-        <v>1.85</v>
+        <v>1.73</v>
       </c>
       <c r="S145" t="n">
-        <v>3.4</v>
+        <v>3.75</v>
       </c>
       <c r="T145" t="n">
-        <v>1.3</v>
+        <v>1.25</v>
       </c>
       <c r="U145" t="n">
-        <v>1.4</v>
+        <v>1.44</v>
       </c>
       <c r="V145" t="n">
-        <v>2.75</v>
+        <v>2.63</v>
       </c>
       <c r="W145" t="n">
         <v>1.83</v>
@@ -21161,31 +21161,31 @@
         <v>1.83</v>
       </c>
       <c r="Y145" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z145" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AA145" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB145" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC145" t="n">
+        <v>19</v>
+      </c>
+      <c r="AD145" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE145" t="n">
+        <v>9</v>
+      </c>
+      <c r="AF145" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG145" t="n">
         <v>15</v>
-      </c>
-      <c r="AC145" t="n">
-        <v>15</v>
-      </c>
-      <c r="AD145" t="n">
-        <v>26</v>
-      </c>
-      <c r="AE145" t="n">
-        <v>10</v>
-      </c>
-      <c r="AF145" t="n">
-        <v>7</v>
-      </c>
-      <c r="AG145" t="n">
-        <v>17</v>
       </c>
       <c r="AH145" t="n">
         <v>51</v>
@@ -21194,22 +21194,22 @@
         <v>301</v>
       </c>
       <c r="AJ145" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AK145" t="n">
+        <v>15</v>
+      </c>
+      <c r="AL145" t="n">
         <v>12</v>
       </c>
-      <c r="AK145" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL145" t="n">
-        <v>15</v>
-      </c>
       <c r="AM145" t="n">
-        <v>51</v>
+        <v>34</v>
       </c>
       <c r="AN145" t="n">
+        <v>26</v>
+      </c>
+      <c r="AO145" t="n">
         <v>34</v>
-      </c>
-      <c r="AO145" t="n">
-        <v>41</v>
       </c>
       <c r="AP145" t="inlineStr"/>
       <c r="AQ145" t="inlineStr"/>
@@ -21219,7 +21219,7 @@
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>Agld1RSP</t>
+          <t>rmdAwOzJ</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
@@ -21239,31 +21239,31 @@
       </c>
       <c r="E146" t="inlineStr">
         <is>
-          <t>Daegu</t>
+          <t>Jeonbuk</t>
         </is>
       </c>
       <c r="F146" t="inlineStr">
         <is>
-          <t>Gangwon</t>
+          <t>Gimcheon Sangmu</t>
         </is>
       </c>
       <c r="G146" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="H146" t="n">
-        <v>3.3</v>
+        <v>3.25</v>
       </c>
       <c r="I146" t="n">
-        <v>3.25</v>
+        <v>2.9</v>
       </c>
       <c r="J146" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="K146" t="n">
-        <v>2.05</v>
+        <v>2.1</v>
       </c>
       <c r="L146" t="n">
-        <v>3.75</v>
+        <v>3.6</v>
       </c>
       <c r="M146" t="n">
         <v>1.06</v>
@@ -21272,22 +21272,22 @@
         <v>10</v>
       </c>
       <c r="O146" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="P146" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="Q146" t="n">
-        <v>2.08</v>
+        <v>2.03</v>
       </c>
       <c r="R146" t="n">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="S146" t="n">
-        <v>3.75</v>
+        <v>3.4</v>
       </c>
       <c r="T146" t="n">
-        <v>1.25</v>
+        <v>1.3</v>
       </c>
       <c r="U146" t="n">
         <v>1.44</v>
@@ -21296,22 +21296,22 @@
         <v>2.63</v>
       </c>
       <c r="W146" t="n">
-        <v>1.83</v>
+        <v>1.8</v>
       </c>
       <c r="X146" t="n">
-        <v>1.83</v>
+        <v>1.91</v>
       </c>
       <c r="Y146" t="n">
-        <v>7.5</v>
+        <v>8</v>
       </c>
       <c r="Z146" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AA146" t="n">
         <v>9.5</v>
       </c>
       <c r="AB146" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AC146" t="n">
         <v>19</v>
@@ -21320,7 +21320,7 @@
         <v>29</v>
       </c>
       <c r="AE146" t="n">
-        <v>9</v>
+        <v>9.5</v>
       </c>
       <c r="AF146" t="n">
         <v>6</v>
@@ -21332,22 +21332,22 @@
         <v>51</v>
       </c>
       <c r="AI146" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ146" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AK146" t="n">
         <v>15</v>
       </c>
       <c r="AL146" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AM146" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AN146" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AO146" t="n">
         <v>34</v>
@@ -21360,7 +21360,7 @@
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>rmdAwOzJ</t>
+          <t>8bVp9Qn1</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
@@ -21370,98 +21370,98 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>04:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>SOUTH KOREA - K LEAGUE 1</t>
+          <t>SPAIN - LALIGA2</t>
         </is>
       </c>
       <c r="E147" t="inlineStr">
         <is>
-          <t>Jeonbuk</t>
+          <t>Levante</t>
         </is>
       </c>
       <c r="F147" t="inlineStr">
         <is>
-          <t>Gimcheon Sangmu</t>
+          <t>Gijon</t>
         </is>
       </c>
       <c r="G147" t="n">
-        <v>2.4</v>
+        <v>2.05</v>
       </c>
       <c r="H147" t="n">
-        <v>3.25</v>
+        <v>3.2</v>
       </c>
       <c r="I147" t="n">
-        <v>2.9</v>
+        <v>3.9</v>
       </c>
       <c r="J147" t="n">
-        <v>3.1</v>
+        <v>2.75</v>
       </c>
       <c r="K147" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
       <c r="L147" t="n">
-        <v>3.6</v>
+        <v>4.33</v>
       </c>
       <c r="M147" t="n">
-        <v>1.06</v>
+        <v>1.07</v>
       </c>
       <c r="N147" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="O147" t="n">
-        <v>1.3</v>
+        <v>1.36</v>
       </c>
       <c r="P147" t="n">
-        <v>3.4</v>
+        <v>3</v>
       </c>
       <c r="Q147" t="n">
-        <v>2.03</v>
+        <v>2.2</v>
       </c>
       <c r="R147" t="n">
-        <v>1.83</v>
+        <v>1.65</v>
       </c>
       <c r="S147" t="n">
-        <v>3.4</v>
+        <v>4</v>
       </c>
       <c r="T147" t="n">
-        <v>1.3</v>
+        <v>1.22</v>
       </c>
       <c r="U147" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="V147" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="W147" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="X147" t="n">
         <v>1.8</v>
       </c>
-      <c r="X147" t="n">
-        <v>1.91</v>
-      </c>
       <c r="Y147" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="Z147" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AA147" t="n">
-        <v>9.5</v>
+        <v>9</v>
       </c>
       <c r="AB147" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AC147" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AD147" t="n">
         <v>29</v>
       </c>
       <c r="AE147" t="n">
-        <v>9.5</v>
+        <v>8</v>
       </c>
       <c r="AF147" t="n">
         <v>6</v>
@@ -21473,25 +21473,25 @@
         <v>51</v>
       </c>
       <c r="AI147" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AJ147" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AK147" t="n">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="AL147" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AM147" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AN147" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AO147" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP147" t="inlineStr"/>
       <c r="AQ147" t="inlineStr"/>
@@ -21501,7 +21501,7 @@
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>8bVp9Qn1</t>
+          <t>d2vKhQJH</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
@@ -21511,7 +21511,7 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>12:15</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
@@ -21521,49 +21521,49 @@
       </c>
       <c r="E148" t="inlineStr">
         <is>
-          <t>Levante</t>
+          <t>Eldense</t>
         </is>
       </c>
       <c r="F148" t="inlineStr">
         <is>
-          <t>Gijon</t>
+          <t>Dep. La Coruna</t>
         </is>
       </c>
       <c r="G148" t="n">
-        <v>2.05</v>
+        <v>2.6</v>
       </c>
       <c r="H148" t="n">
         <v>3.2</v>
       </c>
       <c r="I148" t="n">
-        <v>3.9</v>
+        <v>2.8</v>
       </c>
       <c r="J148" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="K148" t="n">
+        <v>2</v>
+      </c>
+      <c r="L148" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="M148" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N148" t="n">
+        <v>8</v>
+      </c>
+      <c r="O148" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P148" t="n">
         <v>2.75</v>
       </c>
-      <c r="K148" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="L148" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M148" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N148" t="n">
-        <v>9</v>
-      </c>
-      <c r="O148" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P148" t="n">
-        <v>3</v>
-      </c>
       <c r="Q148" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="R148" t="n">
-        <v>1.65</v>
+        <v>1.62</v>
       </c>
       <c r="S148" t="n">
         <v>4</v>
@@ -21584,22 +21584,22 @@
         <v>1.8</v>
       </c>
       <c r="Y148" t="n">
-        <v>6.5</v>
+        <v>7.5</v>
       </c>
       <c r="Z148" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA148" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AB148" t="n">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="AC148" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AD148" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AE148" t="n">
         <v>8</v>
@@ -21608,7 +21608,7 @@
         <v>6</v>
       </c>
       <c r="AG148" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AH148" t="n">
         <v>51</v>
@@ -21617,32 +21617,36 @@
         <v>351</v>
       </c>
       <c r="AJ148" t="n">
-        <v>10</v>
+        <v>7.5</v>
       </c>
       <c r="AK148" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AL148" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM148" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AN148" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AO148" t="n">
         <v>41</v>
       </c>
       <c r="AP148" t="inlineStr"/>
       <c r="AQ148" t="inlineStr"/>
-      <c r="AR148" t="inlineStr"/>
-      <c r="AS148" t="inlineStr"/>
+      <c r="AR148" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AS148" t="n">
+        <v>2.1</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>d2vKhQJH</t>
+          <t>6D7xB7Zo</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
@@ -21662,94 +21666,94 @@
       </c>
       <c r="E149" t="inlineStr">
         <is>
-          <t>Eldense</t>
+          <t>Huesca</t>
         </is>
       </c>
       <c r="F149" t="inlineStr">
         <is>
-          <t>Dep. La Coruna</t>
+          <t>Granada CF</t>
         </is>
       </c>
       <c r="G149" t="n">
-        <v>2.6</v>
+        <v>2.45</v>
       </c>
       <c r="H149" t="n">
-        <v>3.2</v>
+        <v>2.9</v>
       </c>
       <c r="I149" t="n">
-        <v>2.8</v>
+        <v>3.25</v>
       </c>
       <c r="J149" t="n">
-        <v>3.4</v>
+        <v>3.25</v>
       </c>
       <c r="K149" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L149" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="M149" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N149" t="n">
+        <v>7</v>
+      </c>
+      <c r="O149" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P149" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q149" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R149" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S149" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T149" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U149" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V149" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W149" t="n">
         <v>2</v>
       </c>
-      <c r="L149" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="M149" t="n">
-        <v>1.08</v>
-      </c>
-      <c r="N149" t="n">
-        <v>8</v>
-      </c>
-      <c r="O149" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="P149" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="Q149" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="R149" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="S149" t="n">
-        <v>4</v>
-      </c>
-      <c r="T149" t="n">
-        <v>1.22</v>
-      </c>
-      <c r="U149" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="V149" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="W149" t="n">
-        <v>1.91</v>
-      </c>
       <c r="X149" t="n">
-        <v>1.8</v>
+        <v>1.73</v>
       </c>
       <c r="Y149" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z149" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AA149" t="n">
         <v>10</v>
       </c>
       <c r="AB149" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AC149" t="n">
         <v>23</v>
       </c>
       <c r="AD149" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE149" t="n">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AF149" t="n">
-        <v>6</v>
+        <v>5.5</v>
       </c>
       <c r="AG149" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AH149" t="n">
         <v>51</v>
@@ -21758,19 +21762,19 @@
         <v>351</v>
       </c>
       <c r="AJ149" t="n">
-        <v>7.5</v>
+        <v>8.5</v>
       </c>
       <c r="AK149" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AL149" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AM149" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN149" t="n">
         <v>29</v>
-      </c>
-      <c r="AN149" t="n">
-        <v>23</v>
       </c>
       <c r="AO149" t="n">
         <v>41</v>
@@ -21778,16 +21782,16 @@
       <c r="AP149" t="inlineStr"/>
       <c r="AQ149" t="inlineStr"/>
       <c r="AR149" t="n">
-        <v>1.78</v>
+        <v>1.8</v>
       </c>
       <c r="AS149" t="n">
-        <v>2.1</v>
+        <v>2.05</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>6D7xB7Zo</t>
+          <t>KdqebUkt</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
@@ -21797,7 +21801,7 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>12:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
@@ -21807,132 +21811,132 @@
       </c>
       <c r="E150" t="inlineStr">
         <is>
-          <t>Huesca</t>
+          <t>Zaragoza</t>
         </is>
       </c>
       <c r="F150" t="inlineStr">
         <is>
-          <t>Granada CF</t>
+          <t>Burgos CF</t>
         </is>
       </c>
       <c r="G150" t="n">
-        <v>2.45</v>
+        <v>1.95</v>
       </c>
       <c r="H150" t="n">
-        <v>2.9</v>
+        <v>3.1</v>
       </c>
       <c r="I150" t="n">
-        <v>3.25</v>
+        <v>4.33</v>
       </c>
       <c r="J150" t="n">
-        <v>3.25</v>
+        <v>2.75</v>
       </c>
       <c r="K150" t="n">
-        <v>1.95</v>
+        <v>1.91</v>
       </c>
       <c r="L150" t="n">
-        <v>3.75</v>
+        <v>5</v>
       </c>
       <c r="M150" t="n">
-        <v>1.1</v>
+        <v>1.13</v>
       </c>
       <c r="N150" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="O150" t="n">
-        <v>1.44</v>
+        <v>1.5</v>
       </c>
       <c r="P150" t="n">
-        <v>2.63</v>
+        <v>2.5</v>
       </c>
       <c r="Q150" t="n">
-        <v>2.4</v>
+        <v>2.6</v>
       </c>
       <c r="R150" t="n">
-        <v>1.53</v>
+        <v>1.48</v>
       </c>
       <c r="S150" t="n">
-        <v>4.5</v>
+        <v>5.5</v>
       </c>
       <c r="T150" t="n">
-        <v>1.18</v>
+        <v>1.14</v>
       </c>
       <c r="U150" t="n">
-        <v>1.53</v>
+        <v>1.57</v>
       </c>
       <c r="V150" t="n">
-        <v>2.38</v>
+        <v>2.25</v>
       </c>
       <c r="W150" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="X150" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="Y150" t="n">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="Z150" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AA150" t="n">
-        <v>10</v>
+        <v>9.5</v>
       </c>
       <c r="AB150" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AC150" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD150" t="n">
         <v>41</v>
       </c>
       <c r="AE150" t="n">
-        <v>6.5</v>
+        <v>6</v>
       </c>
       <c r="AF150" t="n">
-        <v>5.5</v>
+        <v>6</v>
       </c>
       <c r="AG150" t="n">
+        <v>21</v>
+      </c>
+      <c r="AH150" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI150" t="n">
+        <v>101</v>
+      </c>
+      <c r="AJ150" t="n">
+        <v>9</v>
+      </c>
+      <c r="AK150" t="n">
+        <v>21</v>
+      </c>
+      <c r="AL150" t="n">
         <v>15</v>
       </c>
-      <c r="AH150" t="n">
+      <c r="AM150" t="n">
         <v>51</v>
       </c>
-      <c r="AI150" t="n">
-        <v>351</v>
-      </c>
-      <c r="AJ150" t="n">
-        <v>8.5</v>
-      </c>
-      <c r="AK150" t="n">
-        <v>15</v>
-      </c>
-      <c r="AL150" t="n">
-        <v>12</v>
-      </c>
-      <c r="AM150" t="n">
-        <v>34</v>
-      </c>
       <c r="AN150" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AO150" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP150" t="inlineStr"/>
       <c r="AQ150" t="inlineStr"/>
       <c r="AR150" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AS150" t="n">
-        <v>2.05</v>
+        <v>1.85</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>KdqebUkt</t>
+          <t>tCTh74HD</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
@@ -21942,7 +21946,7 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
@@ -21952,109 +21956,109 @@
       </c>
       <c r="E151" t="inlineStr">
         <is>
-          <t>Zaragoza</t>
+          <t>R. Oviedo</t>
         </is>
       </c>
       <c r="F151" t="inlineStr">
         <is>
-          <t>Burgos CF</t>
+          <t>Albacete</t>
         </is>
       </c>
       <c r="G151" t="n">
-        <v>1.95</v>
+        <v>1.7</v>
       </c>
       <c r="H151" t="n">
-        <v>3.1</v>
+        <v>3.5</v>
       </c>
       <c r="I151" t="n">
-        <v>4.33</v>
+        <v>5.25</v>
       </c>
       <c r="J151" t="n">
-        <v>2.75</v>
+        <v>2.38</v>
       </c>
       <c r="K151" t="n">
-        <v>1.91</v>
+        <v>2.1</v>
       </c>
       <c r="L151" t="n">
-        <v>5</v>
+        <v>5.5</v>
       </c>
       <c r="M151" t="n">
-        <v>1.13</v>
+        <v>1.07</v>
       </c>
       <c r="N151" t="n">
+        <v>9</v>
+      </c>
+      <c r="O151" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P151" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R151" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="S151" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T151" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="U151" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V151" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W151" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="X151" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="Y151" t="n">
         <v>6</v>
       </c>
-      <c r="O151" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P151" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q151" t="n">
-        <v>2.6</v>
-      </c>
-      <c r="R151" t="n">
-        <v>1.48</v>
-      </c>
-      <c r="S151" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="T151" t="n">
-        <v>1.14</v>
-      </c>
-      <c r="U151" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V151" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W151" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="X151" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="Y151" t="n">
-        <v>5.5</v>
-      </c>
       <c r="Z151" t="n">
+        <v>7</v>
+      </c>
+      <c r="AA151" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB151" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC151" t="n">
+        <v>15</v>
+      </c>
+      <c r="AD151" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE151" t="n">
         <v>8</v>
       </c>
-      <c r="AA151" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB151" t="n">
+      <c r="AF151" t="n">
+        <v>7</v>
+      </c>
+      <c r="AG151" t="n">
+        <v>19</v>
+      </c>
+      <c r="AH151" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI151" t="n">
+        <v>301</v>
+      </c>
+      <c r="AJ151" t="n">
+        <v>12</v>
+      </c>
+      <c r="AK151" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL151" t="n">
         <v>17</v>
-      </c>
-      <c r="AC151" t="n">
-        <v>21</v>
-      </c>
-      <c r="AD151" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE151" t="n">
-        <v>6</v>
-      </c>
-      <c r="AF151" t="n">
-        <v>6</v>
-      </c>
-      <c r="AG151" t="n">
-        <v>21</v>
-      </c>
-      <c r="AH151" t="n">
-        <v>81</v>
-      </c>
-      <c r="AI151" t="n">
-        <v>101</v>
-      </c>
-      <c r="AJ151" t="n">
-        <v>9</v>
-      </c>
-      <c r="AK151" t="n">
-        <v>21</v>
-      </c>
-      <c r="AL151" t="n">
-        <v>15</v>
       </c>
       <c r="AM151" t="n">
         <v>51</v>
@@ -22067,17 +22071,13 @@
       </c>
       <c r="AP151" t="inlineStr"/>
       <c r="AQ151" t="inlineStr"/>
-      <c r="AR151" t="n">
-        <v>2</v>
-      </c>
-      <c r="AS151" t="n">
-        <v>1.85</v>
-      </c>
+      <c r="AR151" t="inlineStr"/>
+      <c r="AS151" t="inlineStr"/>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>tCTh74HD</t>
+          <t>dpJAhEOa</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
@@ -22087,138 +22087,142 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>SPAIN - LALIGA2</t>
+          <t>SWITZERLAND - SUPER LEAGUE</t>
         </is>
       </c>
       <c r="E152" t="inlineStr">
         <is>
-          <t>R. Oviedo</t>
+          <t>Yverdon</t>
         </is>
       </c>
       <c r="F152" t="inlineStr">
         <is>
-          <t>Albacete</t>
+          <t>St. Gallen</t>
         </is>
       </c>
       <c r="G152" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="H152" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="I152" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="J152" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="K152" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="L152" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="M152" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="N152" t="n">
+        <v>15</v>
+      </c>
+      <c r="O152" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="P152" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q152" t="n">
         <v>1.7</v>
       </c>
-      <c r="H152" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="I152" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J152" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="K152" t="n">
+      <c r="R152" t="n">
         <v>2.1</v>
       </c>
-      <c r="L152" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M152" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N152" t="n">
-        <v>9</v>
-      </c>
-      <c r="O152" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P152" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q152" t="n">
+      <c r="S152" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T152" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U152" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V152" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W152" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="X152" t="n">
         <v>2.1</v>
       </c>
-      <c r="R152" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="S152" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="T152" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="U152" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V152" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W152" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="X152" t="n">
-        <v>1.67</v>
-      </c>
       <c r="Y152" t="n">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="Z152" t="n">
-        <v>7</v>
+        <v>21</v>
       </c>
       <c r="AA152" t="n">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="AB152" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AC152" t="n">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="AD152" t="n">
         <v>34</v>
       </c>
       <c r="AE152" t="n">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AF152" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="AG152" t="n">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="AH152" t="n">
-        <v>67</v>
+        <v>41</v>
       </c>
       <c r="AI152" t="n">
-        <v>301</v>
+        <v>151</v>
       </c>
       <c r="AJ152" t="n">
-        <v>12</v>
+        <v>8.5</v>
       </c>
       <c r="AK152" t="n">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="AL152" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AM152" t="n">
         <v>17</v>
       </c>
-      <c r="AM152" t="n">
-        <v>51</v>
-      </c>
       <c r="AN152" t="n">
-        <v>41</v>
+        <v>15</v>
       </c>
       <c r="AO152" t="n">
-        <v>51</v>
-      </c>
-      <c r="AP152" t="inlineStr"/>
-      <c r="AQ152" t="inlineStr"/>
+        <v>23</v>
+      </c>
+      <c r="AP152" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AQ152" t="n">
+        <v>1.83</v>
+      </c>
       <c r="AR152" t="inlineStr"/>
       <c r="AS152" t="inlineStr"/>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>dpJAhEOa</t>
+          <t>4AMIjhgC</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
@@ -22228,7 +22232,7 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>12:30</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
@@ -22238,37 +22242,37 @@
       </c>
       <c r="E153" t="inlineStr">
         <is>
-          <t>Yverdon</t>
+          <t>Basel</t>
         </is>
       </c>
       <c r="F153" t="inlineStr">
         <is>
-          <t>St. Gallen</t>
+          <t>Lausanne</t>
         </is>
       </c>
       <c r="G153" t="n">
+        <v>2</v>
+      </c>
+      <c r="H153" t="n">
         <v>3.7</v>
       </c>
-      <c r="H153" t="n">
-        <v>3.8</v>
-      </c>
       <c r="I153" t="n">
-        <v>1.85</v>
+        <v>3.4</v>
       </c>
       <c r="J153" t="n">
-        <v>4.33</v>
+        <v>2.6</v>
       </c>
       <c r="K153" t="n">
         <v>2.3</v>
       </c>
       <c r="L153" t="n">
-        <v>2.5</v>
+        <v>3.75</v>
       </c>
       <c r="M153" t="n">
-        <v>1.03</v>
+        <v>1.04</v>
       </c>
       <c r="N153" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="O153" t="n">
         <v>1.22</v>
@@ -22295,34 +22299,34 @@
         <v>3.25</v>
       </c>
       <c r="W153" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="X153" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="Y153" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="Z153" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AA153" t="n">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="AB153" t="n">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="AC153" t="n">
-        <v>29</v>
+        <v>15</v>
       </c>
       <c r="AD153" t="n">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="AE153" t="n">
         <v>13</v>
       </c>
       <c r="AF153" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AG153" t="n">
         <v>13</v>
@@ -22334,28 +22338,28 @@
         <v>151</v>
       </c>
       <c r="AJ153" t="n">
-        <v>8.5</v>
+        <v>13</v>
       </c>
       <c r="AK153" t="n">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="AL153" t="n">
-        <v>8.5</v>
+        <v>12</v>
       </c>
       <c r="AM153" t="n">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="AN153" t="n">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="AO153" t="n">
-        <v>23</v>
+        <v>29</v>
       </c>
       <c r="AP153" t="n">
-        <v>2.03</v>
+        <v>1.98</v>
       </c>
       <c r="AQ153" t="n">
-        <v>1.83</v>
+        <v>1.88</v>
       </c>
       <c r="AR153" t="inlineStr"/>
       <c r="AS153" t="inlineStr"/>
@@ -22363,7 +22367,7 @@
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>4AMIjhgC</t>
+          <t>ObZjYqwo</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
@@ -22383,31 +22387,31 @@
       </c>
       <c r="E154" t="inlineStr">
         <is>
-          <t>Basel</t>
+          <t>Grasshoppers</t>
         </is>
       </c>
       <c r="F154" t="inlineStr">
         <is>
-          <t>Lausanne</t>
+          <t>Servette</t>
         </is>
       </c>
       <c r="G154" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H154" t="n">
-        <v>3.7</v>
+        <v>3.6</v>
       </c>
       <c r="I154" t="n">
-        <v>3.4</v>
+        <v>2.2</v>
       </c>
       <c r="J154" t="n">
-        <v>2.6</v>
+        <v>3.75</v>
       </c>
       <c r="K154" t="n">
-        <v>2.3</v>
+        <v>2.2</v>
       </c>
       <c r="L154" t="n">
-        <v>3.75</v>
+        <v>2.88</v>
       </c>
       <c r="M154" t="n">
         <v>1.04</v>
@@ -22416,99 +22420,95 @@
         <v>13</v>
       </c>
       <c r="O154" t="n">
-        <v>1.22</v>
+        <v>1.25</v>
       </c>
       <c r="P154" t="n">
-        <v>4</v>
+        <v>3.75</v>
       </c>
       <c r="Q154" t="n">
-        <v>1.7</v>
+        <v>1.88</v>
       </c>
       <c r="R154" t="n">
-        <v>2.1</v>
+        <v>1.98</v>
       </c>
       <c r="S154" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T154" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U154" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="V154" t="n">
         <v>2.75</v>
       </c>
-      <c r="T154" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="U154" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V154" t="n">
-        <v>3.25</v>
-      </c>
       <c r="W154" t="n">
-        <v>1.62</v>
+        <v>1.73</v>
       </c>
       <c r="X154" t="n">
-        <v>2.2</v>
+        <v>2</v>
       </c>
       <c r="Y154" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="Z154" t="n">
+        <v>15</v>
+      </c>
+      <c r="AA154" t="n">
         <v>11</v>
       </c>
-      <c r="AA154" t="n">
-        <v>9</v>
-      </c>
       <c r="AB154" t="n">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="AC154" t="n">
-        <v>15</v>
+        <v>23</v>
       </c>
       <c r="AD154" t="n">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="AE154" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AF154" t="n">
         <v>7</v>
       </c>
       <c r="AG154" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="AH154" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI154" t="n">
-        <v>151</v>
+        <v>201</v>
       </c>
       <c r="AJ154" t="n">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AK154" t="n">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="AL154" t="n">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="AM154" t="n">
-        <v>41</v>
+        <v>21</v>
       </c>
       <c r="AN154" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO154" t="n">
         <v>26</v>
       </c>
-      <c r="AO154" t="n">
-        <v>29</v>
-      </c>
-      <c r="AP154" t="n">
-        <v>1.98</v>
-      </c>
-      <c r="AQ154" t="n">
-        <v>1.88</v>
-      </c>
+      <c r="AP154" t="inlineStr"/>
+      <c r="AQ154" t="inlineStr"/>
       <c r="AR154" t="inlineStr"/>
       <c r="AS154" t="inlineStr"/>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>ObZjYqwo</t>
+          <t>voYZltCi</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
@@ -22518,38 +22518,38 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>12:30</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>SWITZERLAND - SUPER LEAGUE</t>
+          <t>TURKEY - SUPER LIG</t>
         </is>
       </c>
       <c r="E155" t="inlineStr">
         <is>
-          <t>Grasshoppers</t>
+          <t>Hatayspor</t>
         </is>
       </c>
       <c r="F155" t="inlineStr">
         <is>
-          <t>Servette</t>
+          <t>Alanyaspor</t>
         </is>
       </c>
       <c r="G155" t="n">
-        <v>3</v>
+        <v>3.1</v>
       </c>
       <c r="H155" t="n">
-        <v>3.6</v>
+        <v>3.5</v>
       </c>
       <c r="I155" t="n">
         <v>2.2</v>
       </c>
       <c r="J155" t="n">
-        <v>3.75</v>
+        <v>3.5</v>
       </c>
       <c r="K155" t="n">
-        <v>2.2</v>
+        <v>2.25</v>
       </c>
       <c r="L155" t="n">
         <v>2.88</v>
@@ -22561,40 +22561,40 @@
         <v>13</v>
       </c>
       <c r="O155" t="n">
-        <v>1.25</v>
+        <v>1.2</v>
       </c>
       <c r="P155" t="n">
-        <v>3.75</v>
+        <v>4.33</v>
       </c>
       <c r="Q155" t="n">
-        <v>1.88</v>
+        <v>1.7</v>
       </c>
       <c r="R155" t="n">
-        <v>1.98</v>
+        <v>2.1</v>
       </c>
       <c r="S155" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="T155" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U155" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="V155" t="n">
         <v>3.25</v>
       </c>
-      <c r="T155" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="U155" t="n">
-        <v>1.4</v>
-      </c>
-      <c r="V155" t="n">
-        <v>2.75</v>
-      </c>
       <c r="W155" t="n">
-        <v>1.73</v>
+        <v>1.57</v>
       </c>
       <c r="X155" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="Y155" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="Z155" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="AA155" t="n">
         <v>11</v>
@@ -22606,28 +22606,28 @@
         <v>23</v>
       </c>
       <c r="AD155" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE155" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AF155" t="n">
         <v>7</v>
       </c>
       <c r="AG155" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="AH155" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI155" t="n">
-        <v>201</v>
+        <v>151</v>
       </c>
       <c r="AJ155" t="n">
-        <v>8</v>
+        <v>9.5</v>
       </c>
       <c r="AK155" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL155" t="n">
         <v>9</v>
@@ -22639,7 +22639,7 @@
         <v>17</v>
       </c>
       <c r="AO155" t="n">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="AP155" t="inlineStr"/>
       <c r="AQ155" t="inlineStr"/>
@@ -22649,7 +22649,7 @@
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>voYZltCi</t>
+          <t>WvPAlC0B</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
@@ -22659,7 +22659,7 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
@@ -22669,118 +22669,118 @@
       </c>
       <c r="E156" t="inlineStr">
         <is>
-          <t>Hatayspor</t>
+          <t>Eyupspor</t>
         </is>
       </c>
       <c r="F156" t="inlineStr">
         <is>
-          <t>Alanyaspor</t>
+          <t>Kayserispor</t>
         </is>
       </c>
       <c r="G156" t="n">
-        <v>3.1</v>
+        <v>1.65</v>
       </c>
       <c r="H156" t="n">
-        <v>3.5</v>
+        <v>3.6</v>
       </c>
       <c r="I156" t="n">
-        <v>2.2</v>
+        <v>5.25</v>
       </c>
       <c r="J156" t="n">
-        <v>3.5</v>
+        <v>2.3</v>
       </c>
       <c r="K156" t="n">
         <v>2.25</v>
       </c>
       <c r="L156" t="n">
-        <v>2.88</v>
+        <v>5</v>
       </c>
       <c r="M156" t="n">
-        <v>1.04</v>
+        <v>1.05</v>
       </c>
       <c r="N156" t="n">
+        <v>11</v>
+      </c>
+      <c r="O156" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="P156" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="Q156" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="R156" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="S156" t="n">
+        <v>3</v>
+      </c>
+      <c r="T156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U156" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="V156" t="n">
+        <v>3</v>
+      </c>
+      <c r="W156" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="X156" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="Y156" t="n">
+        <v>7</v>
+      </c>
+      <c r="Z156" t="n">
+        <v>8</v>
+      </c>
+      <c r="AA156" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AB156" t="n">
         <v>13</v>
       </c>
-      <c r="O156" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="P156" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="Q156" t="n">
-        <v>1.7</v>
-      </c>
-      <c r="R156" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="S156" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="T156" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="U156" t="n">
-        <v>1.33</v>
-      </c>
-      <c r="V156" t="n">
-        <v>3.25</v>
-      </c>
-      <c r="W156" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="X156" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="Y156" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z156" t="n">
-        <v>17</v>
-      </c>
-      <c r="AA156" t="n">
+      <c r="AC156" t="n">
+        <v>13</v>
+      </c>
+      <c r="AD156" t="n">
+        <v>26</v>
+      </c>
+      <c r="AE156" t="n">
         <v>11</v>
-      </c>
-      <c r="AB156" t="n">
-        <v>34</v>
-      </c>
-      <c r="AC156" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD156" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE156" t="n">
-        <v>13</v>
       </c>
       <c r="AF156" t="n">
         <v>7</v>
       </c>
       <c r="AG156" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AH156" t="n">
+        <v>51</v>
+      </c>
+      <c r="AI156" t="n">
+        <v>251</v>
+      </c>
+      <c r="AJ156" t="n">
+        <v>15</v>
+      </c>
+      <c r="AK156" t="n">
+        <v>26</v>
+      </c>
+      <c r="AL156" t="n">
+        <v>17</v>
+      </c>
+      <c r="AM156" t="n">
+        <v>51</v>
+      </c>
+      <c r="AN156" t="n">
         <v>41</v>
       </c>
-      <c r="AI156" t="n">
-        <v>151</v>
-      </c>
-      <c r="AJ156" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AK156" t="n">
-        <v>12</v>
-      </c>
-      <c r="AL156" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM156" t="n">
-        <v>21</v>
-      </c>
-      <c r="AN156" t="n">
-        <v>17</v>
-      </c>
       <c r="AO156" t="n">
-        <v>23</v>
+        <v>41</v>
       </c>
       <c r="AP156" t="inlineStr"/>
       <c r="AQ156" t="inlineStr"/>
@@ -22790,7 +22790,7 @@
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>WvPAlC0B</t>
+          <t>rwVjobBG</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
@@ -22810,91 +22810,91 @@
       </c>
       <c r="E157" t="inlineStr">
         <is>
-          <t>Eyupspor</t>
+          <t>Konyaspor</t>
         </is>
       </c>
       <c r="F157" t="inlineStr">
         <is>
-          <t>Kayserispor</t>
+          <t>Samsunspor</t>
         </is>
       </c>
       <c r="G157" t="n">
-        <v>1.65</v>
+        <v>2.5</v>
       </c>
       <c r="H157" t="n">
+        <v>3</v>
+      </c>
+      <c r="I157" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="J157" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="K157" t="n">
+        <v>2</v>
+      </c>
+      <c r="L157" t="n">
         <v>3.6</v>
       </c>
-      <c r="I157" t="n">
-        <v>5.25</v>
-      </c>
-      <c r="J157" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="K157" t="n">
+      <c r="M157" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="N157" t="n">
+        <v>8</v>
+      </c>
+      <c r="O157" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="P157" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Q157" t="n">
         <v>2.25</v>
       </c>
-      <c r="L157" t="n">
-        <v>5</v>
-      </c>
-      <c r="M157" t="n">
-        <v>1.05</v>
-      </c>
-      <c r="N157" t="n">
-        <v>11</v>
-      </c>
-      <c r="O157" t="n">
-        <v>1.25</v>
-      </c>
-      <c r="P157" t="n">
-        <v>3.75</v>
-      </c>
-      <c r="Q157" t="n">
-        <v>1.88</v>
-      </c>
       <c r="R157" t="n">
-        <v>1.98</v>
+        <v>1.62</v>
       </c>
       <c r="S157" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="T157" t="n">
-        <v>1.36</v>
+        <v>1.22</v>
       </c>
       <c r="U157" t="n">
-        <v>1.36</v>
+        <v>1.5</v>
       </c>
       <c r="V157" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="W157" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="X157" t="n">
         <v>1.8</v>
       </c>
-      <c r="X157" t="n">
-        <v>1.91</v>
-      </c>
       <c r="Y157" t="n">
-        <v>7</v>
+        <v>7.5</v>
       </c>
       <c r="Z157" t="n">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="AA157" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AB157" t="n">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="AC157" t="n">
-        <v>13</v>
+        <v>23</v>
       </c>
       <c r="AD157" t="n">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="AE157" t="n">
-        <v>11</v>
+        <v>7.5</v>
       </c>
       <c r="AF157" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AG157" t="n">
         <v>15</v>
@@ -22903,22 +22903,22 @@
         <v>51</v>
       </c>
       <c r="AI157" t="n">
-        <v>251</v>
+        <v>351</v>
       </c>
       <c r="AJ157" t="n">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="AK157" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL157" t="n">
+        <v>11</v>
+      </c>
+      <c r="AM157" t="n">
+        <v>29</v>
+      </c>
+      <c r="AN157" t="n">
         <v>26</v>
-      </c>
-      <c r="AL157" t="n">
-        <v>17</v>
-      </c>
-      <c r="AM157" t="n">
-        <v>51</v>
-      </c>
-      <c r="AN157" t="n">
-        <v>41</v>
       </c>
       <c r="AO157" t="n">
         <v>41</v>
@@ -22931,7 +22931,7 @@
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>rwVjobBG</t>
+          <t>S6IJnjVN</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
@@ -22941,7 +22941,7 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
@@ -22951,118 +22951,118 @@
       </c>
       <c r="E158" t="inlineStr">
         <is>
-          <t>Konyaspor</t>
+          <t>Fenerbahce</t>
         </is>
       </c>
       <c r="F158" t="inlineStr">
         <is>
-          <t>Samsunspor</t>
+          <t>Kasimpasa</t>
         </is>
       </c>
       <c r="G158" t="n">
-        <v>2.5</v>
+        <v>1.4</v>
       </c>
       <c r="H158" t="n">
-        <v>3</v>
+        <v>5.25</v>
       </c>
       <c r="I158" t="n">
-        <v>2.88</v>
+        <v>6.5</v>
       </c>
       <c r="J158" t="n">
-        <v>3.25</v>
+        <v>1.83</v>
       </c>
       <c r="K158" t="n">
-        <v>2</v>
+        <v>2.75</v>
       </c>
       <c r="L158" t="n">
-        <v>3.6</v>
+        <v>5.5</v>
       </c>
       <c r="M158" t="n">
-        <v>1.08</v>
+        <v>1.01</v>
       </c>
       <c r="N158" t="n">
-        <v>8</v>
+        <v>23</v>
       </c>
       <c r="O158" t="n">
-        <v>1.4</v>
+        <v>1.1</v>
       </c>
       <c r="P158" t="n">
-        <v>2.75</v>
+        <v>7</v>
       </c>
       <c r="Q158" t="n">
-        <v>2.25</v>
+        <v>1.36</v>
       </c>
       <c r="R158" t="n">
-        <v>1.62</v>
+        <v>3.1</v>
       </c>
       <c r="S158" t="n">
-        <v>4</v>
+        <v>1.83</v>
       </c>
       <c r="T158" t="n">
-        <v>1.22</v>
+        <v>1.83</v>
       </c>
       <c r="U158" t="n">
-        <v>1.5</v>
+        <v>1.2</v>
       </c>
       <c r="V158" t="n">
-        <v>2.5</v>
+        <v>4.33</v>
       </c>
       <c r="W158" t="n">
-        <v>1.91</v>
+        <v>1.53</v>
       </c>
       <c r="X158" t="n">
-        <v>1.8</v>
+        <v>2.38</v>
       </c>
       <c r="Y158" t="n">
-        <v>7.5</v>
+        <v>12</v>
       </c>
       <c r="Z158" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AA158" t="n">
+        <v>9</v>
+      </c>
+      <c r="AB158" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC158" t="n">
         <v>10</v>
       </c>
-      <c r="AB158" t="n">
-        <v>26</v>
-      </c>
-      <c r="AC158" t="n">
+      <c r="AD158" t="n">
+        <v>17</v>
+      </c>
+      <c r="AE158" t="n">
         <v>23</v>
       </c>
-      <c r="AD158" t="n">
-        <v>34</v>
-      </c>
-      <c r="AE158" t="n">
-        <v>7.5</v>
-      </c>
       <c r="AF158" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AG158" t="n">
         <v>15</v>
       </c>
       <c r="AH158" t="n">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="AI158" t="n">
-        <v>351</v>
+        <v>101</v>
       </c>
       <c r="AJ158" t="n">
-        <v>8</v>
+        <v>26</v>
       </c>
       <c r="AK158" t="n">
-        <v>13</v>
+        <v>41</v>
       </c>
       <c r="AL158" t="n">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="AM158" t="n">
-        <v>29</v>
+        <v>67</v>
       </c>
       <c r="AN158" t="n">
-        <v>26</v>
+        <v>41</v>
       </c>
       <c r="AO158" t="n">
-        <v>41</v>
+        <v>34</v>
       </c>
       <c r="AP158" t="inlineStr"/>
       <c r="AQ158" t="inlineStr"/>
@@ -23072,7 +23072,7 @@
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>S6IJnjVN</t>
+          <t>6mrKjP2k</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
@@ -23082,125 +23082,125 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>07:30</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>TURKEY - SUPER LIG</t>
+          <t>TURKEY - 1. LIG</t>
         </is>
       </c>
       <c r="E159" t="inlineStr">
         <is>
-          <t>Fenerbahce</t>
+          <t>Boluspor</t>
         </is>
       </c>
       <c r="F159" t="inlineStr">
         <is>
-          <t>Kasimpasa</t>
+          <t>Amedspor</t>
         </is>
       </c>
       <c r="G159" t="n">
-        <v>1.4</v>
+        <v>2.45</v>
       </c>
       <c r="H159" t="n">
-        <v>5.25</v>
+        <v>3.25</v>
       </c>
       <c r="I159" t="n">
-        <v>6.5</v>
+        <v>2.9</v>
       </c>
       <c r="J159" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="K159" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="L159" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="M159" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="N159" t="n">
+        <v>9</v>
+      </c>
+      <c r="O159" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="P159" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q159" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="R159" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="S159" t="n">
+        <v>4</v>
+      </c>
+      <c r="T159" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U159" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="V159" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W159" t="n">
         <v>1.83</v>
       </c>
-      <c r="K159" t="n">
-        <v>2.75</v>
-      </c>
-      <c r="L159" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M159" t="n">
-        <v>1.01</v>
-      </c>
-      <c r="N159" t="n">
+      <c r="X159" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="Y159" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Z159" t="n">
+        <v>11</v>
+      </c>
+      <c r="AA159" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB159" t="n">
         <v>23</v>
       </c>
-      <c r="O159" t="n">
-        <v>1.1</v>
-      </c>
-      <c r="P159" t="n">
-        <v>7</v>
-      </c>
-      <c r="Q159" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="R159" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="S159" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="T159" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="U159" t="n">
-        <v>1.2</v>
-      </c>
-      <c r="V159" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="W159" t="n">
-        <v>1.53</v>
-      </c>
-      <c r="X159" t="n">
-        <v>2.38</v>
-      </c>
-      <c r="Y159" t="n">
-        <v>12</v>
-      </c>
-      <c r="Z159" t="n">
-        <v>10</v>
-      </c>
-      <c r="AA159" t="n">
-        <v>9</v>
-      </c>
-      <c r="AB159" t="n">
-        <v>11</v>
-      </c>
       <c r="AC159" t="n">
-        <v>10</v>
+        <v>21</v>
       </c>
       <c r="AD159" t="n">
-        <v>17</v>
+        <v>34</v>
       </c>
       <c r="AE159" t="n">
-        <v>23</v>
+        <v>8.5</v>
       </c>
       <c r="AF159" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="AG159" t="n">
         <v>15</v>
       </c>
       <c r="AH159" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AI159" t="n">
-        <v>101</v>
+        <v>301</v>
       </c>
       <c r="AJ159" t="n">
-        <v>26</v>
+        <v>8.5</v>
       </c>
       <c r="AK159" t="n">
-        <v>41</v>
+        <v>13</v>
       </c>
       <c r="AL159" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AM159" t="n">
-        <v>67</v>
+        <v>29</v>
       </c>
       <c r="AN159" t="n">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="AO159" t="n">
         <v>34</v>
@@ -23213,7 +23213,7 @@
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>6mrKjP2k</t>
+          <t>EyO6q8eM</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
@@ -23233,55 +23233,55 @@
       </c>
       <c r="E160" t="inlineStr">
         <is>
-          <t>Boluspor</t>
+          <t>Igdir FK</t>
         </is>
       </c>
       <c r="F160" t="inlineStr">
         <is>
-          <t>Amedspor</t>
+          <t>Keciorengucu</t>
         </is>
       </c>
       <c r="G160" t="n">
-        <v>2.45</v>
+        <v>2</v>
       </c>
       <c r="H160" t="n">
-        <v>3.25</v>
+        <v>3.4</v>
       </c>
       <c r="I160" t="n">
-        <v>2.9</v>
+        <v>3.7</v>
       </c>
       <c r="J160" t="n">
-        <v>3.2</v>
+        <v>2.75</v>
       </c>
       <c r="K160" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="L160" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="M160" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="N160" t="n">
+        <v>10</v>
+      </c>
+      <c r="O160" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="P160" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="Q160" t="n">
         <v>2.05</v>
       </c>
-      <c r="L160" t="n">
-        <v>3.6</v>
-      </c>
-      <c r="M160" t="n">
-        <v>1.07</v>
-      </c>
-      <c r="N160" t="n">
-        <v>9</v>
-      </c>
-      <c r="O160" t="n">
-        <v>1.36</v>
-      </c>
-      <c r="P160" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q160" t="n">
-        <v>2.15</v>
-      </c>
       <c r="R160" t="n">
-        <v>1.67</v>
+        <v>1.75</v>
       </c>
       <c r="S160" t="n">
-        <v>4</v>
+        <v>3.5</v>
       </c>
       <c r="T160" t="n">
-        <v>1.22</v>
+        <v>1.29</v>
       </c>
       <c r="U160" t="n">
         <v>1.44</v>
@@ -23296,28 +23296,28 @@
         <v>1.83</v>
       </c>
       <c r="Y160" t="n">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="Z160" t="n">
-        <v>11</v>
+        <v>9.5</v>
       </c>
       <c r="AA160" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AB160" t="n">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="AC160" t="n">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="AD160" t="n">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="AE160" t="n">
-        <v>8.5</v>
+        <v>9.5</v>
       </c>
       <c r="AF160" t="n">
-        <v>6</v>
+        <v>6.5</v>
       </c>
       <c r="AG160" t="n">
         <v>15</v>
@@ -23326,25 +23326,25 @@
         <v>51</v>
       </c>
       <c r="AI160" t="n">
-        <v>301</v>
+        <v>251</v>
       </c>
       <c r="AJ160" t="n">
-        <v>8.5</v>
+        <v>10</v>
       </c>
       <c r="AK160" t="n">
+        <v>19</v>
+      </c>
+      <c r="AL160" t="n">
         <v>13</v>
       </c>
-      <c r="AL160" t="n">
-        <v>11</v>
-      </c>
       <c r="AM160" t="n">
+        <v>41</v>
+      </c>
+      <c r="AN160" t="n">
         <v>29</v>
       </c>
-      <c r="AN160" t="n">
-        <v>23</v>
-      </c>
       <c r="AO160" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AP160" t="inlineStr"/>
       <c r="AQ160" t="inlineStr"/>
@@ -23354,7 +23354,7 @@
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>EyO6q8eM</t>
+          <t>QkbLl3X1</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
@@ -23364,7 +23364,7 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>07:30</t>
+          <t>10:00</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
@@ -23374,106 +23374,106 @@
       </c>
       <c r="E161" t="inlineStr">
         <is>
-          <t>Igdir FK</t>
+          <t>Genclerbirligi</t>
         </is>
       </c>
       <c r="F161" t="inlineStr">
         <is>
-          <t>Keciorengucu</t>
+          <t>Pendikspor</t>
         </is>
       </c>
       <c r="G161" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="H161" t="n">
-        <v>3.4</v>
+        <v>3.1</v>
       </c>
       <c r="I161" t="n">
-        <v>3.7</v>
+        <v>3.75</v>
       </c>
       <c r="J161" t="n">
-        <v>2.75</v>
+        <v>2.88</v>
       </c>
       <c r="K161" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="L161" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="M161" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="N161" t="n">
+        <v>7</v>
+      </c>
+      <c r="O161" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="P161" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Q161" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R161" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="S161" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T161" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="U161" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="V161" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W161" t="n">
         <v>2.1</v>
       </c>
-      <c r="L161" t="n">
-        <v>4.33</v>
-      </c>
-      <c r="M161" t="n">
-        <v>1.06</v>
-      </c>
-      <c r="N161" t="n">
-        <v>10</v>
-      </c>
-      <c r="O161" t="n">
-        <v>1.3</v>
-      </c>
-      <c r="P161" t="n">
-        <v>3.4</v>
-      </c>
-      <c r="Q161" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="R161" t="n">
-        <v>1.75</v>
-      </c>
-      <c r="S161" t="n">
-        <v>3.5</v>
-      </c>
-      <c r="T161" t="n">
-        <v>1.29</v>
-      </c>
-      <c r="U161" t="n">
-        <v>1.44</v>
-      </c>
-      <c r="V161" t="n">
-        <v>2.63</v>
-      </c>
-      <c r="W161" t="n">
-        <v>1.83</v>
-      </c>
       <c r="X161" t="n">
-        <v>1.83</v>
+        <v>1.67</v>
       </c>
       <c r="Y161" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z161" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA161" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AB161" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC161" t="n">
+        <v>21</v>
+      </c>
+      <c r="AD161" t="n">
+        <v>34</v>
+      </c>
+      <c r="AE161" t="n">
         <v>7</v>
       </c>
-      <c r="Z161" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AA161" t="n">
+      <c r="AF161" t="n">
+        <v>6</v>
+      </c>
+      <c r="AG161" t="n">
+        <v>17</v>
+      </c>
+      <c r="AH161" t="n">
+        <v>67</v>
+      </c>
+      <c r="AI161" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ161" t="n">
         <v>9</v>
       </c>
-      <c r="AB161" t="n">
+      <c r="AK161" t="n">
         <v>17</v>
-      </c>
-      <c r="AC161" t="n">
-        <v>17</v>
-      </c>
-      <c r="AD161" t="n">
-        <v>29</v>
-      </c>
-      <c r="AE161" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AF161" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AG161" t="n">
-        <v>15</v>
-      </c>
-      <c r="AH161" t="n">
-        <v>51</v>
-      </c>
-      <c r="AI161" t="n">
-        <v>251</v>
-      </c>
-      <c r="AJ161" t="n">
-        <v>10</v>
-      </c>
-      <c r="AK161" t="n">
-        <v>19</v>
       </c>
       <c r="AL161" t="n">
         <v>13</v>
@@ -23482,20 +23482,24 @@
         <v>41</v>
       </c>
       <c r="AN161" t="n">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="AO161" t="n">
         <v>41</v>
       </c>
       <c r="AP161" t="inlineStr"/>
       <c r="AQ161" t="inlineStr"/>
-      <c r="AR161" t="inlineStr"/>
-      <c r="AS161" t="inlineStr"/>
+      <c r="AR161" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AS161" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>QkbLl3X1</t>
+          <t>YL4wvnJq</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
@@ -23505,7 +23509,7 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>10:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
@@ -23515,31 +23519,31 @@
       </c>
       <c r="E162" t="inlineStr">
         <is>
-          <t>Genclerbirligi</t>
+          <t>Erokspor</t>
         </is>
       </c>
       <c r="F162" t="inlineStr">
         <is>
-          <t>Pendikspor</t>
+          <t>Erzurumspor</t>
         </is>
       </c>
       <c r="G162" t="n">
-        <v>2.1</v>
+        <v>2.8</v>
       </c>
       <c r="H162" t="n">
-        <v>3.1</v>
+        <v>3</v>
       </c>
       <c r="I162" t="n">
-        <v>3.75</v>
+        <v>2.7</v>
       </c>
       <c r="J162" t="n">
-        <v>2.88</v>
+        <v>3.6</v>
       </c>
       <c r="K162" t="n">
         <v>1.95</v>
       </c>
       <c r="L162" t="n">
-        <v>4.5</v>
+        <v>3.5</v>
       </c>
       <c r="M162" t="n">
         <v>1.1</v>
@@ -23572,28 +23576,28 @@
         <v>2.38</v>
       </c>
       <c r="W162" t="n">
-        <v>2.1</v>
+        <v>2</v>
       </c>
       <c r="X162" t="n">
-        <v>1.67</v>
+        <v>1.73</v>
       </c>
       <c r="Y162" t="n">
-        <v>6</v>
+        <v>7.5</v>
       </c>
       <c r="Z162" t="n">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="AA162" t="n">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="AB162" t="n">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="AC162" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AD162" t="n">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="AE162" t="n">
         <v>7</v>
@@ -23611,19 +23615,19 @@
         <v>351</v>
       </c>
       <c r="AJ162" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AK162" t="n">
-        <v>17</v>
+        <v>12</v>
       </c>
       <c r="AL162" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AM162" t="n">
-        <v>41</v>
+        <v>26</v>
       </c>
       <c r="AN162" t="n">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="AO162" t="n">
         <v>41</v>
@@ -23640,7 +23644,7 @@
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>YL4wvnJq</t>
+          <t>lWJ2unxI</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
@@ -23650,142 +23654,138 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>17:00</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>TURKEY - 1. LIG</t>
+          <t>URUGUAY - LIGA AUF URUGUAYA</t>
         </is>
       </c>
       <c r="E163" t="inlineStr">
         <is>
-          <t>Erokspor</t>
+          <t>Progreso</t>
         </is>
       </c>
       <c r="F163" t="inlineStr">
         <is>
-          <t>Erzurumspor</t>
+          <t>Nacional</t>
         </is>
       </c>
       <c r="G163" t="n">
-        <v>2.8</v>
+        <v>9</v>
       </c>
       <c r="H163" t="n">
-        <v>3</v>
+        <v>4.75</v>
       </c>
       <c r="I163" t="n">
-        <v>2.7</v>
+        <v>1.33</v>
       </c>
       <c r="J163" t="n">
-        <v>3.6</v>
+        <v>8</v>
       </c>
       <c r="K163" t="n">
-        <v>1.95</v>
+        <v>2.4</v>
       </c>
       <c r="L163" t="n">
-        <v>3.5</v>
+        <v>1.83</v>
       </c>
       <c r="M163" t="n">
-        <v>1.1</v>
+        <v>1.05</v>
       </c>
       <c r="N163" t="n">
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="O163" t="n">
-        <v>1.44</v>
+        <v>1.22</v>
       </c>
       <c r="P163" t="n">
-        <v>2.63</v>
+        <v>4</v>
       </c>
       <c r="Q163" t="n">
-        <v>2.4</v>
+        <v>1.75</v>
       </c>
       <c r="R163" t="n">
-        <v>1.53</v>
+        <v>2.05</v>
       </c>
       <c r="S163" t="n">
-        <v>4.5</v>
+        <v>2.75</v>
       </c>
       <c r="T163" t="n">
-        <v>1.18</v>
+        <v>1.4</v>
       </c>
       <c r="U163" t="n">
-        <v>1.53</v>
+        <v>1.33</v>
       </c>
       <c r="V163" t="n">
-        <v>2.38</v>
+        <v>3.25</v>
       </c>
       <c r="W163" t="n">
-        <v>2</v>
+        <v>2.1</v>
       </c>
       <c r="X163" t="n">
-        <v>1.73</v>
+        <v>1.67</v>
       </c>
       <c r="Y163" t="n">
-        <v>7.5</v>
+        <v>21</v>
       </c>
       <c r="Z163" t="n">
-        <v>12</v>
+        <v>41</v>
       </c>
       <c r="AA163" t="n">
+        <v>26</v>
+      </c>
+      <c r="AB163" t="n">
+        <v>101</v>
+      </c>
+      <c r="AC163" t="n">
+        <v>67</v>
+      </c>
+      <c r="AD163" t="n">
+        <v>67</v>
+      </c>
+      <c r="AE163" t="n">
         <v>11</v>
       </c>
-      <c r="AB163" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC163" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD163" t="n">
-        <v>41</v>
-      </c>
-      <c r="AE163" t="n">
-        <v>7</v>
-      </c>
       <c r="AF163" t="n">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="AG163" t="n">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="AH163" t="n">
         <v>67</v>
       </c>
       <c r="AI163" t="n">
-        <v>351</v>
+        <v>1000</v>
       </c>
       <c r="AJ163" t="n">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="AK163" t="n">
+        <v>6</v>
+      </c>
+      <c r="AL163" t="n">
+        <v>9</v>
+      </c>
+      <c r="AM163" t="n">
+        <v>8</v>
+      </c>
+      <c r="AN163" t="n">
         <v>12</v>
       </c>
-      <c r="AL163" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM163" t="n">
-        <v>26</v>
-      </c>
-      <c r="AN163" t="n">
-        <v>26</v>
-      </c>
       <c r="AO163" t="n">
-        <v>41</v>
+        <v>29</v>
       </c>
       <c r="AP163" t="inlineStr"/>
       <c r="AQ163" t="inlineStr"/>
-      <c r="AR163" t="n">
-        <v>1.8</v>
-      </c>
-      <c r="AS163" t="n">
-        <v>2</v>
-      </c>
+      <c r="AR163" t="inlineStr"/>
+      <c r="AS163" t="inlineStr"/>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>lWJ2unxI</t>
+          <t>KjSoqUxg</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
@@ -23795,7 +23795,7 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>17:00</t>
+          <t>19:30</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
@@ -23805,128 +23805,132 @@
       </c>
       <c r="E164" t="inlineStr">
         <is>
-          <t>Progreso</t>
+          <t>Miramar</t>
         </is>
       </c>
       <c r="F164" t="inlineStr">
         <is>
-          <t>Nacional</t>
+          <t>Juventud</t>
         </is>
       </c>
       <c r="G164" t="n">
-        <v>9</v>
+        <v>2.35</v>
       </c>
       <c r="H164" t="n">
-        <v>4.75</v>
+        <v>3.2</v>
       </c>
       <c r="I164" t="n">
-        <v>1.33</v>
+        <v>2.8</v>
       </c>
       <c r="J164" t="n">
-        <v>8</v>
+        <v>3.25</v>
       </c>
       <c r="K164" t="n">
-        <v>2.4</v>
+        <v>1.91</v>
       </c>
       <c r="L164" t="n">
-        <v>1.83</v>
+        <v>4</v>
       </c>
       <c r="M164" t="n">
-        <v>1.05</v>
+        <v>1.1</v>
       </c>
       <c r="N164" t="n">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="O164" t="n">
-        <v>1.22</v>
+        <v>1.5</v>
       </c>
       <c r="P164" t="n">
-        <v>4</v>
+        <v>2.5</v>
       </c>
       <c r="Q164" t="n">
-        <v>1.75</v>
+        <v>2.5</v>
       </c>
       <c r="R164" t="n">
-        <v>2.05</v>
+        <v>1.5</v>
       </c>
       <c r="S164" t="n">
-        <v>2.75</v>
+        <v>5</v>
       </c>
       <c r="T164" t="n">
-        <v>1.4</v>
+        <v>1.17</v>
       </c>
       <c r="U164" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="V164" t="n">
-        <v>3.25</v>
+        <v>2.25</v>
       </c>
       <c r="W164" t="n">
-        <v>2.1</v>
+        <v>2.2</v>
       </c>
       <c r="X164" t="n">
-        <v>1.67</v>
+        <v>1.62</v>
       </c>
       <c r="Y164" t="n">
+        <v>6</v>
+      </c>
+      <c r="Z164" t="n">
+        <v>10</v>
+      </c>
+      <c r="AA164" t="n">
+        <v>10</v>
+      </c>
+      <c r="AB164" t="n">
+        <v>23</v>
+      </c>
+      <c r="AC164" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD164" t="n">
+        <v>41</v>
+      </c>
+      <c r="AE164" t="n">
+        <v>7</v>
+      </c>
+      <c r="AF164" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AG164" t="n">
         <v>21</v>
       </c>
-      <c r="Z164" t="n">
+      <c r="AH164" t="n">
+        <v>81</v>
+      </c>
+      <c r="AI164" t="n">
+        <v>351</v>
+      </c>
+      <c r="AJ164" t="n">
+        <v>7</v>
+      </c>
+      <c r="AK164" t="n">
+        <v>13</v>
+      </c>
+      <c r="AL164" t="n">
+        <v>12</v>
+      </c>
+      <c r="AM164" t="n">
+        <v>34</v>
+      </c>
+      <c r="AN164" t="n">
+        <v>29</v>
+      </c>
+      <c r="AO164" t="n">
         <v>41</v>
-      </c>
-      <c r="AA164" t="n">
-        <v>26</v>
-      </c>
-      <c r="AB164" t="n">
-        <v>101</v>
-      </c>
-      <c r="AC164" t="n">
-        <v>67</v>
-      </c>
-      <c r="AD164" t="n">
-        <v>67</v>
-      </c>
-      <c r="AE164" t="n">
-        <v>11</v>
-      </c>
-      <c r="AF164" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AG164" t="n">
-        <v>23</v>
-      </c>
-      <c r="AH164" t="n">
-        <v>67</v>
-      </c>
-      <c r="AI164" t="n">
-        <v>1000</v>
-      </c>
-      <c r="AJ164" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="AK164" t="n">
-        <v>6</v>
-      </c>
-      <c r="AL164" t="n">
-        <v>9</v>
-      </c>
-      <c r="AM164" t="n">
-        <v>8</v>
-      </c>
-      <c r="AN164" t="n">
-        <v>12</v>
-      </c>
-      <c r="AO164" t="n">
-        <v>29</v>
       </c>
       <c r="AP164" t="inlineStr"/>
       <c r="AQ164" t="inlineStr"/>
-      <c r="AR164" t="inlineStr"/>
-      <c r="AS164" t="inlineStr"/>
+      <c r="AR164" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS164" t="n">
+        <v>1.93</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>KjSoqUxg</t>
+          <t>h4Qgs875</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
@@ -23936,7 +23940,7 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>19:30</t>
+          <t>21:45</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
@@ -23946,132 +23950,132 @@
       </c>
       <c r="E165" t="inlineStr">
         <is>
-          <t>Miramar</t>
+          <t>Montevideo City</t>
         </is>
       </c>
       <c r="F165" t="inlineStr">
         <is>
-          <t>Juventud</t>
+          <t>River Plate</t>
         </is>
       </c>
       <c r="G165" t="n">
-        <v>2.35</v>
+        <v>1.83</v>
       </c>
       <c r="H165" t="n">
-        <v>3.2</v>
+        <v>3.1</v>
       </c>
       <c r="I165" t="n">
-        <v>2.8</v>
+        <v>4.33</v>
       </c>
       <c r="J165" t="n">
-        <v>3.25</v>
+        <v>2.63</v>
       </c>
       <c r="K165" t="n">
         <v>1.91</v>
       </c>
       <c r="L165" t="n">
-        <v>4</v>
+        <v>5.5</v>
       </c>
       <c r="M165" t="n">
-        <v>1.1</v>
+        <v>1.11</v>
       </c>
       <c r="N165" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="O165" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="P165" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="Q165" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="R165" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="S165" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T165" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="U165" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="V165" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="W165" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="X165" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="Y165" t="n">
+        <v>5</v>
+      </c>
+      <c r="Z165" t="n">
         <v>7</v>
-      </c>
-      <c r="O165" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="P165" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="Q165" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="R165" t="n">
-        <v>1.5</v>
-      </c>
-      <c r="S165" t="n">
-        <v>5</v>
-      </c>
-      <c r="T165" t="n">
-        <v>1.17</v>
-      </c>
-      <c r="U165" t="n">
-        <v>1.57</v>
-      </c>
-      <c r="V165" t="n">
-        <v>2.25</v>
-      </c>
-      <c r="W165" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="X165" t="n">
-        <v>1.62</v>
-      </c>
-      <c r="Y165" t="n">
-        <v>6</v>
-      </c>
-      <c r="Z165" t="n">
-        <v>10</v>
       </c>
       <c r="AA165" t="n">
         <v>10</v>
       </c>
       <c r="AB165" t="n">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="AC165" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="AD165" t="n">
         <v>41</v>
       </c>
       <c r="AE165" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AF165" t="n">
         <v>6.5</v>
       </c>
       <c r="AG165" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AH165" t="n">
-        <v>81</v>
+        <v>101</v>
       </c>
       <c r="AI165" t="n">
         <v>351</v>
       </c>
       <c r="AJ165" t="n">
-        <v>7</v>
+        <v>8.5</v>
       </c>
       <c r="AK165" t="n">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="AL165" t="n">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="AM165" t="n">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="AN165" t="n">
-        <v>29</v>
+        <v>41</v>
       </c>
       <c r="AO165" t="n">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="AP165" t="inlineStr"/>
       <c r="AQ165" t="inlineStr"/>
       <c r="AR165" t="n">
-        <v>1.93</v>
+        <v>2.05</v>
       </c>
       <c r="AS165" t="n">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>h4Qgs875</t>
+          <t>Gd8jySh3</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
@@ -24081,142 +24085,134 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>21:45</t>
+          <t>18:00</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>URUGUAY - LIGA AUF URUGUAYA</t>
+          <t>VENEZUELA - LIGA FUTVE</t>
         </is>
       </c>
       <c r="E166" t="inlineStr">
         <is>
-          <t>Montevideo City</t>
+          <t>Monagas</t>
         </is>
       </c>
       <c r="F166" t="inlineStr">
         <is>
-          <t>River Plate</t>
+          <t>Portuguesa</t>
         </is>
       </c>
       <c r="G166" t="n">
-        <v>1.83</v>
+        <v>2.92</v>
       </c>
       <c r="H166" t="n">
-        <v>3.1</v>
+        <v>3.15</v>
       </c>
       <c r="I166" t="n">
-        <v>4.33</v>
+        <v>2.32</v>
       </c>
       <c r="J166" t="n">
-        <v>2.63</v>
+        <v>3.45</v>
       </c>
       <c r="K166" t="n">
-        <v>1.91</v>
+        <v>2.07</v>
       </c>
       <c r="L166" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="M166" t="n">
-        <v>1.11</v>
-      </c>
-      <c r="N166" t="n">
-        <v>6.5</v>
-      </c>
+        <v>2.9</v>
+      </c>
+      <c r="M166" t="inlineStr"/>
+      <c r="N166" t="inlineStr"/>
       <c r="O166" t="n">
-        <v>1.53</v>
+        <v>1.34</v>
       </c>
       <c r="P166" t="n">
-        <v>2.38</v>
+        <v>2.77</v>
       </c>
       <c r="Q166" t="n">
-        <v>2.7</v>
+        <v>1.98</v>
       </c>
       <c r="R166" t="n">
-        <v>1.44</v>
+        <v>1.65</v>
       </c>
       <c r="S166" t="n">
-        <v>5.5</v>
+        <v>3.25</v>
       </c>
       <c r="T166" t="n">
-        <v>1.14</v>
+        <v>1.25</v>
       </c>
       <c r="U166" t="n">
-        <v>1.62</v>
+        <v>1.39</v>
       </c>
       <c r="V166" t="n">
-        <v>2.2</v>
+        <v>2.55</v>
       </c>
       <c r="W166" t="n">
-        <v>2.5</v>
+        <v>1.75</v>
       </c>
       <c r="X166" t="n">
-        <v>1.5</v>
+        <v>1.85</v>
       </c>
       <c r="Y166" t="n">
-        <v>5</v>
+        <v>8.5</v>
       </c>
       <c r="Z166" t="n">
-        <v>7</v>
+        <v>14.5</v>
       </c>
       <c r="AA166" t="n">
-        <v>10</v>
+        <v>10.5</v>
       </c>
       <c r="AB166" t="n">
-        <v>15</v>
+        <v>35</v>
       </c>
       <c r="AC166" t="n">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="AD166" t="n">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="AE166" t="n">
-        <v>6</v>
+        <v>8.75</v>
       </c>
       <c r="AF166" t="n">
-        <v>6.5</v>
+        <v>6.1</v>
       </c>
       <c r="AG166" t="n">
-        <v>23</v>
+        <v>14.5</v>
       </c>
       <c r="AH166" t="n">
-        <v>101</v>
+        <v>70</v>
       </c>
       <c r="AI166" t="n">
-        <v>351</v>
+        <v>600</v>
       </c>
       <c r="AJ166" t="n">
-        <v>8.5</v>
+        <v>7.4</v>
       </c>
       <c r="AK166" t="n">
-        <v>21</v>
+        <v>11</v>
       </c>
       <c r="AL166" t="n">
-        <v>17</v>
+        <v>9.25</v>
       </c>
       <c r="AM166" t="n">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="AN166" t="n">
-        <v>41</v>
+        <v>20</v>
       </c>
       <c r="AO166" t="n">
-        <v>51</v>
+        <v>32</v>
       </c>
       <c r="AP166" t="inlineStr"/>
       <c r="AQ166" t="inlineStr"/>
-      <c r="AR166" t="n">
-        <v>2.05</v>
-      </c>
-      <c r="AS166" t="n">
-        <v>1.8</v>
-      </c>
+      <c r="AR166" t="inlineStr"/>
+      <c r="AS166" t="inlineStr"/>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>Gd8jySh3</t>
+          <t>ljG4DO0d</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
@@ -24226,7 +24222,7 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>18:00</t>
+          <t>20:30</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
@@ -24236,257 +24232,120 @@
       </c>
       <c r="E167" t="inlineStr">
         <is>
-          <t>Monagas</t>
+          <t>Zamora</t>
         </is>
       </c>
       <c r="F167" t="inlineStr">
         <is>
-          <t>Portuguesa</t>
+          <t>Puerto Cabello</t>
         </is>
       </c>
       <c r="G167" t="n">
-        <v>2.92</v>
+        <v>2.5</v>
       </c>
       <c r="H167" t="n">
-        <v>3.15</v>
+        <v>2.77</v>
       </c>
       <c r="I167" t="n">
-        <v>2.32</v>
+        <v>3</v>
       </c>
       <c r="J167" t="n">
-        <v>3.45</v>
+        <v>3.1</v>
       </c>
       <c r="K167" t="n">
-        <v>2.07</v>
+        <v>1.9</v>
       </c>
       <c r="L167" t="n">
-        <v>2.9</v>
+        <v>3.65</v>
       </c>
       <c r="M167" t="inlineStr"/>
       <c r="N167" t="inlineStr"/>
       <c r="O167" t="n">
-        <v>1.34</v>
+        <v>1.42</v>
       </c>
       <c r="P167" t="n">
-        <v>2.77</v>
+        <v>2.47</v>
       </c>
       <c r="Q167" t="n">
-        <v>1.98</v>
+        <v>2.2</v>
       </c>
       <c r="R167" t="n">
-        <v>1.65</v>
+        <v>1.52</v>
       </c>
       <c r="S167" t="n">
-        <v>3.25</v>
+        <v>3.65</v>
       </c>
       <c r="T167" t="n">
-        <v>1.25</v>
+        <v>1.19</v>
       </c>
       <c r="U167" t="n">
-        <v>1.39</v>
+        <v>1.47</v>
       </c>
       <c r="V167" t="n">
-        <v>2.55</v>
+        <v>2.32</v>
       </c>
       <c r="W167" t="n">
-        <v>1.75</v>
+        <v>1.83</v>
       </c>
       <c r="X167" t="n">
-        <v>1.85</v>
+        <v>1.78</v>
       </c>
       <c r="Y167" t="n">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Z167" t="n">
-        <v>14.5</v>
+        <v>12</v>
       </c>
       <c r="AA167" t="n">
-        <v>10.5</v>
+        <v>9.5</v>
       </c>
       <c r="AB167" t="n">
+        <v>29</v>
+      </c>
+      <c r="AC167" t="n">
+        <v>23</v>
+      </c>
+      <c r="AD167" t="n">
         <v>35</v>
       </c>
-      <c r="AC167" t="n">
-        <v>26</v>
-      </c>
-      <c r="AD167" t="n">
-        <v>37</v>
-      </c>
       <c r="AE167" t="n">
-        <v>8.75</v>
+        <v>6.8</v>
       </c>
       <c r="AF167" t="n">
-        <v>6.1</v>
+        <v>5.5</v>
       </c>
       <c r="AG167" t="n">
         <v>14.5</v>
       </c>
       <c r="AH167" t="n">
-        <v>70</v>
+        <v>80</v>
       </c>
       <c r="AI167" t="n">
-        <v>600</v>
+        <v>700</v>
       </c>
       <c r="AJ167" t="n">
-        <v>7.4</v>
+        <v>7.5</v>
       </c>
       <c r="AK167" t="n">
+        <v>14.5</v>
+      </c>
+      <c r="AL167" t="n">
         <v>11</v>
       </c>
-      <c r="AL167" t="n">
-        <v>9.25</v>
-      </c>
       <c r="AM167" t="n">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="AN167" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
       <c r="AO167" t="n">
-        <v>32</v>
+        <v>45</v>
       </c>
       <c r="AP167" t="inlineStr"/>
       <c r="AQ167" t="inlineStr"/>
       <c r="AR167" t="inlineStr"/>
       <c r="AS167" t="inlineStr"/>
     </row>
-    <row r="168">
-      <c r="A168" t="inlineStr">
-        <is>
-          <t>ljG4DO0d</t>
-        </is>
-      </c>
-      <c r="B168" t="inlineStr">
-        <is>
-          <t>16/02/2025</t>
-        </is>
-      </c>
-      <c r="C168" t="inlineStr">
-        <is>
-          <t>20:30</t>
-        </is>
-      </c>
-      <c r="D168" t="inlineStr">
-        <is>
-          <t>VENEZUELA - LIGA FUTVE</t>
-        </is>
-      </c>
-      <c r="E168" t="inlineStr">
-        <is>
-          <t>Zamora</t>
-        </is>
-      </c>
-      <c r="F168" t="inlineStr">
-        <is>
-          <t>Puerto Cabello</t>
-        </is>
-      </c>
-      <c r="G168" t="n">
-        <v>2.5</v>
-      </c>
-      <c r="H168" t="n">
-        <v>2.77</v>
-      </c>
-      <c r="I168" t="n">
-        <v>3</v>
-      </c>
-      <c r="J168" t="n">
-        <v>3.1</v>
-      </c>
-      <c r="K168" t="n">
-        <v>1.9</v>
-      </c>
-      <c r="L168" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="M168" t="inlineStr"/>
-      <c r="N168" t="inlineStr"/>
-      <c r="O168" t="n">
-        <v>1.42</v>
-      </c>
-      <c r="P168" t="n">
-        <v>2.47</v>
-      </c>
-      <c r="Q168" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="R168" t="n">
-        <v>1.52</v>
-      </c>
-      <c r="S168" t="n">
-        <v>3.65</v>
-      </c>
-      <c r="T168" t="n">
-        <v>1.19</v>
-      </c>
-      <c r="U168" t="n">
-        <v>1.47</v>
-      </c>
-      <c r="V168" t="n">
-        <v>2.32</v>
-      </c>
-      <c r="W168" t="n">
-        <v>1.83</v>
-      </c>
-      <c r="X168" t="n">
-        <v>1.78</v>
-      </c>
-      <c r="Y168" t="n">
-        <v>7</v>
-      </c>
-      <c r="Z168" t="n">
-        <v>12</v>
-      </c>
-      <c r="AA168" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="AB168" t="n">
-        <v>29</v>
-      </c>
-      <c r="AC168" t="n">
-        <v>23</v>
-      </c>
-      <c r="AD168" t="n">
-        <v>35</v>
-      </c>
-      <c r="AE168" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="AF168" t="n">
-        <v>5.5</v>
-      </c>
-      <c r="AG168" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AH168" t="n">
-        <v>80</v>
-      </c>
-      <c r="AI168" t="n">
-        <v>700</v>
-      </c>
-      <c r="AJ168" t="n">
-        <v>7.5</v>
-      </c>
-      <c r="AK168" t="n">
-        <v>14.5</v>
-      </c>
-      <c r="AL168" t="n">
-        <v>11</v>
-      </c>
-      <c r="AM168" t="n">
-        <v>40</v>
-      </c>
-      <c r="AN168" t="n">
-        <v>30</v>
-      </c>
-      <c r="AO168" t="n">
-        <v>45</v>
-      </c>
-      <c r="AP168" t="inlineStr"/>
-      <c r="AQ168" t="inlineStr"/>
-      <c r="AR168" t="inlineStr"/>
-      <c r="AS168" t="inlineStr"/>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
